--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>티커</t>
   </si>
@@ -104,6 +104,96 @@
   </si>
   <si>
     <t>사유_기타</t>
+  </si>
+  <si>
+    <t>003010</t>
+  </si>
+  <si>
+    <t>2023/01/12</t>
+  </si>
+  <si>
+    <t>상한가</t>
+  </si>
+  <si>
+    <t>혜인</t>
+  </si>
+  <si>
+    <t>기계장비 및 관련 물품 도매업</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>소형주</t>
+  </si>
+  <si>
+    <t>007110</t>
+  </si>
+  <si>
+    <t>300억이상</t>
+  </si>
+  <si>
+    <t>일신석재</t>
+  </si>
+  <si>
+    <t>건축자재, 철물 및 난방장치 도매업</t>
+  </si>
+  <si>
+    <t>206640</t>
+  </si>
+  <si>
+    <t>바디텍메드</t>
+  </si>
+  <si>
+    <t>의료용품 및 기타 의약 관련제품 제조업</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>중형주</t>
+  </si>
+  <si>
+    <t>053590</t>
+  </si>
+  <si>
+    <t>한국테크놀로지</t>
+  </si>
+  <si>
+    <t>가전제품 및 정보통신장비 소매업</t>
+  </si>
+  <si>
+    <t>131400</t>
+  </si>
+  <si>
+    <t>이브이첨단소재</t>
+  </si>
+  <si>
+    <t>전자부품 제조업</t>
+  </si>
+  <si>
+    <t>095700</t>
+  </si>
+  <si>
+    <t>제넥신</t>
+  </si>
+  <si>
+    <t>자연과학 및 공학 연구개발업</t>
+  </si>
+  <si>
+    <t>대형주</t>
+  </si>
+  <si>
+    <t>121800</t>
+  </si>
+  <si>
+    <t>비덴트</t>
+  </si>
+  <si>
+    <t>통신 및 방송 장비 제조업</t>
+  </si>
+  <si>
+    <t>거래량1000만주이상</t>
   </si>
 </sst>
 </file>
@@ -458,31 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
@@ -574,6 +644,919 @@
       </c>
       <c r="AD1" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>6340</v>
+      </c>
+      <c r="C2">
+        <v>8320</v>
+      </c>
+      <c r="D2">
+        <v>6260</v>
+      </c>
+      <c r="E2">
+        <v>8320</v>
+      </c>
+      <c r="F2">
+        <v>29385253</v>
+      </c>
+      <c r="G2">
+        <v>226608971000</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>2266</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2">
+        <v>10380</v>
+      </c>
+      <c r="P2">
+        <v>16.41</v>
+      </c>
+      <c r="Q2">
+        <v>0.8</v>
+      </c>
+      <c r="R2">
+        <v>507</v>
+      </c>
+      <c r="S2">
+        <v>1.56</v>
+      </c>
+      <c r="T2">
+        <v>130</v>
+      </c>
+      <c r="U2">
+        <v>6762</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2">
+        <v>6762</v>
+      </c>
+      <c r="X2">
+        <v>6086</v>
+      </c>
+      <c r="Y2">
+        <v>5748</v>
+      </c>
+      <c r="Z2">
+        <v>4733</v>
+      </c>
+      <c r="AA2">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>1095</v>
+      </c>
+      <c r="C3">
+        <v>1415</v>
+      </c>
+      <c r="D3">
+        <v>1080</v>
+      </c>
+      <c r="E3">
+        <v>1355</v>
+      </c>
+      <c r="F3">
+        <v>36505720</v>
+      </c>
+      <c r="G3">
+        <v>49163196430</v>
+      </c>
+      <c r="H3">
+        <v>24.31</v>
+      </c>
+      <c r="I3">
+        <v>491</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3">
+        <v>675</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>360</v>
+      </c>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3">
+        <v>360</v>
+      </c>
+      <c r="X3">
+        <v>324</v>
+      </c>
+      <c r="Y3">
+        <v>306</v>
+      </c>
+      <c r="Z3">
+        <v>252</v>
+      </c>
+      <c r="AA3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>11050</v>
+      </c>
+      <c r="C4">
+        <v>13950</v>
+      </c>
+      <c r="D4">
+        <v>10900</v>
+      </c>
+      <c r="E4">
+        <v>13250</v>
+      </c>
+      <c r="F4">
+        <v>9853301</v>
+      </c>
+      <c r="G4">
+        <v>126293503850</v>
+      </c>
+      <c r="H4">
+        <v>22.12</v>
+      </c>
+      <c r="I4">
+        <v>1262</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4">
+        <v>6688</v>
+      </c>
+      <c r="P4">
+        <v>6.84</v>
+      </c>
+      <c r="Q4">
+        <v>1.98</v>
+      </c>
+      <c r="R4">
+        <v>1937</v>
+      </c>
+      <c r="S4">
+        <v>1.51</v>
+      </c>
+      <c r="T4">
+        <v>200</v>
+      </c>
+      <c r="U4">
+        <v>8677</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4">
+        <v>8677</v>
+      </c>
+      <c r="X4">
+        <v>7809</v>
+      </c>
+      <c r="Y4">
+        <v>7375</v>
+      </c>
+      <c r="Z4">
+        <v>6074</v>
+      </c>
+      <c r="AA4">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>516</v>
+      </c>
+      <c r="C5">
+        <v>644</v>
+      </c>
+      <c r="D5">
+        <v>515</v>
+      </c>
+      <c r="E5">
+        <v>589</v>
+      </c>
+      <c r="F5">
+        <v>278057352</v>
+      </c>
+      <c r="G5">
+        <v>164292933965</v>
+      </c>
+      <c r="H5">
+        <v>18.75</v>
+      </c>
+      <c r="I5">
+        <v>1642</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5">
+        <v>137</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>4.3</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>68</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5">
+        <v>68</v>
+      </c>
+      <c r="X5">
+        <v>61</v>
+      </c>
+      <c r="Y5">
+        <v>58</v>
+      </c>
+      <c r="Z5">
+        <v>47</v>
+      </c>
+      <c r="AA5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>1690</v>
+      </c>
+      <c r="C6">
+        <v>2130</v>
+      </c>
+      <c r="D6">
+        <v>1690</v>
+      </c>
+      <c r="E6">
+        <v>1985</v>
+      </c>
+      <c r="F6">
+        <v>17100715</v>
+      </c>
+      <c r="G6">
+        <v>33689331870</v>
+      </c>
+      <c r="H6">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="I6">
+        <v>336</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6">
+        <v>2173</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.91</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>542</v>
+      </c>
+      <c r="V6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6">
+        <v>542</v>
+      </c>
+      <c r="X6">
+        <v>487</v>
+      </c>
+      <c r="Y6">
+        <v>460</v>
+      </c>
+      <c r="Z6">
+        <v>379</v>
+      </c>
+      <c r="AA6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>14750</v>
+      </c>
+      <c r="C7">
+        <v>18000</v>
+      </c>
+      <c r="D7">
+        <v>14600</v>
+      </c>
+      <c r="E7">
+        <v>16900</v>
+      </c>
+      <c r="F7">
+        <v>3687935</v>
+      </c>
+      <c r="G7">
+        <v>62776106650</v>
+      </c>
+      <c r="H7">
+        <v>15.36</v>
+      </c>
+      <c r="I7">
+        <v>627</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7">
+        <v>15025</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>11665</v>
+      </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7">
+        <v>11665</v>
+      </c>
+      <c r="X7">
+        <v>10498</v>
+      </c>
+      <c r="Y7">
+        <v>9915</v>
+      </c>
+      <c r="Z7">
+        <v>8165</v>
+      </c>
+      <c r="AA7">
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>3735</v>
+      </c>
+      <c r="C8">
+        <v>4525</v>
+      </c>
+      <c r="D8">
+        <v>3675</v>
+      </c>
+      <c r="E8">
+        <v>4225</v>
+      </c>
+      <c r="F8">
+        <v>25741663</v>
+      </c>
+      <c r="G8">
+        <v>108031449460</v>
+      </c>
+      <c r="H8">
+        <v>15.12</v>
+      </c>
+      <c r="I8">
+        <v>1080</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8">
+        <v>12509</v>
+      </c>
+      <c r="P8">
+        <v>0.87</v>
+      </c>
+      <c r="Q8">
+        <v>0.34</v>
+      </c>
+      <c r="R8">
+        <v>4876</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>11304</v>
+      </c>
+      <c r="V8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8">
+        <v>11304</v>
+      </c>
+      <c r="X8">
+        <v>10174</v>
+      </c>
+      <c r="Y8">
+        <v>9608</v>
+      </c>
+      <c r="Z8">
+        <v>7913</v>
+      </c>
+      <c r="AA8">
+        <v>5652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>1095</v>
+      </c>
+      <c r="C9">
+        <v>1415</v>
+      </c>
+      <c r="D9">
+        <v>1080</v>
+      </c>
+      <c r="E9">
+        <v>1355</v>
+      </c>
+      <c r="F9">
+        <v>36505720</v>
+      </c>
+      <c r="G9">
+        <v>49163196430</v>
+      </c>
+      <c r="H9">
+        <v>24.31</v>
+      </c>
+      <c r="I9">
+        <v>491</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9">
+        <v>675</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>360</v>
+      </c>
+      <c r="V9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9">
+        <v>360</v>
+      </c>
+      <c r="X9">
+        <v>324</v>
+      </c>
+      <c r="Y9">
+        <v>306</v>
+      </c>
+      <c r="Z9">
+        <v>252</v>
+      </c>
+      <c r="AA9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>516</v>
+      </c>
+      <c r="C10">
+        <v>644</v>
+      </c>
+      <c r="D10">
+        <v>515</v>
+      </c>
+      <c r="E10">
+        <v>589</v>
+      </c>
+      <c r="F10">
+        <v>278057352</v>
+      </c>
+      <c r="G10">
+        <v>164292933965</v>
+      </c>
+      <c r="H10">
+        <v>18.75</v>
+      </c>
+      <c r="I10">
+        <v>1642</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10">
+        <v>137</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>4.3</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>68</v>
+      </c>
+      <c r="V10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10">
+        <v>68</v>
+      </c>
+      <c r="X10">
+        <v>61</v>
+      </c>
+      <c r="Y10">
+        <v>58</v>
+      </c>
+      <c r="Z10">
+        <v>47</v>
+      </c>
+      <c r="AA10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>1690</v>
+      </c>
+      <c r="C11">
+        <v>2130</v>
+      </c>
+      <c r="D11">
+        <v>1690</v>
+      </c>
+      <c r="E11">
+        <v>1985</v>
+      </c>
+      <c r="F11">
+        <v>17100715</v>
+      </c>
+      <c r="G11">
+        <v>33689331870</v>
+      </c>
+      <c r="H11">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="I11">
+        <v>336</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11">
+        <v>2173</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.91</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>542</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11">
+        <v>542</v>
+      </c>
+      <c r="X11">
+        <v>487</v>
+      </c>
+      <c r="Y11">
+        <v>460</v>
+      </c>
+      <c r="Z11">
+        <v>379</v>
+      </c>
+      <c r="AA11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>3735</v>
+      </c>
+      <c r="C12">
+        <v>4525</v>
+      </c>
+      <c r="D12">
+        <v>3675</v>
+      </c>
+      <c r="E12">
+        <v>4225</v>
+      </c>
+      <c r="F12">
+        <v>25741663</v>
+      </c>
+      <c r="G12">
+        <v>108031449460</v>
+      </c>
+      <c r="H12">
+        <v>15.12</v>
+      </c>
+      <c r="I12">
+        <v>1080</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12">
+        <v>12509</v>
+      </c>
+      <c r="P12">
+        <v>0.87</v>
+      </c>
+      <c r="Q12">
+        <v>0.34</v>
+      </c>
+      <c r="R12">
+        <v>4876</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>11304</v>
+      </c>
+      <c r="V12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12">
+        <v>11304</v>
+      </c>
+      <c r="X12">
+        <v>10174</v>
+      </c>
+      <c r="Y12">
+        <v>9608</v>
+      </c>
+      <c r="Z12">
+        <v>7913</v>
+      </c>
+      <c r="AA12">
+        <v>5652</v>
       </c>
     </row>
   </sheetData>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="600" windowWidth="20796" windowHeight="7092"/>
+    <workbookView xWindow="204" yWindow="552" windowWidth="21756" windowHeight="7092"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
   <si>
     <t>티커</t>
   </si>
@@ -194,6 +194,63 @@
   </si>
   <si>
     <t>거래량1000만주이상</t>
+  </si>
+  <si>
+    <t>239340</t>
+  </si>
+  <si>
+    <t>2023/01/13</t>
+  </si>
+  <si>
+    <t>줌인터넷</t>
+  </si>
+  <si>
+    <t>자료처리, 호스팅, 포털 및 기타 인터넷 정보매개 서비스업</t>
+  </si>
+  <si>
+    <t>051160</t>
+  </si>
+  <si>
+    <t>지어소프트</t>
+  </si>
+  <si>
+    <t>소프트웨어 개발 및 공급업</t>
+  </si>
+  <si>
+    <t>402030</t>
+  </si>
+  <si>
+    <t>코난테크놀로지</t>
+  </si>
+  <si>
+    <t>무소속</t>
+  </si>
+  <si>
+    <t>290520</t>
+  </si>
+  <si>
+    <t>신도기연</t>
+  </si>
+  <si>
+    <t>특수 목적용 기계 제조업</t>
+  </si>
+  <si>
+    <t>102280</t>
+  </si>
+  <si>
+    <t>쌍방울</t>
+  </si>
+  <si>
+    <t>봉제의복 제조업</t>
+  </si>
+  <si>
+    <t>082660</t>
+  </si>
+  <si>
+    <t>코스나인</t>
+  </si>
+  <si>
+    <t>기타 화학제품 제조업</t>
   </si>
 </sst>
 </file>
@@ -548,11 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
@@ -1557,6 +1618,753 @@
       </c>
       <c r="AA12">
         <v>5652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>4005</v>
+      </c>
+      <c r="C13">
+        <v>4680</v>
+      </c>
+      <c r="D13">
+        <v>3950</v>
+      </c>
+      <c r="E13">
+        <v>4680</v>
+      </c>
+      <c r="F13">
+        <v>31921825</v>
+      </c>
+      <c r="G13">
+        <v>139164506635</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>1391</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13">
+        <v>1200</v>
+      </c>
+      <c r="P13">
+        <v>24.38</v>
+      </c>
+      <c r="Q13">
+        <v>3.9</v>
+      </c>
+      <c r="R13">
+        <v>192</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>833</v>
+      </c>
+      <c r="V13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13">
+        <v>833</v>
+      </c>
+      <c r="X13">
+        <v>750</v>
+      </c>
+      <c r="Y13">
+        <v>708</v>
+      </c>
+      <c r="Z13">
+        <v>583</v>
+      </c>
+      <c r="AA13">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>11200</v>
+      </c>
+      <c r="C14">
+        <v>12300</v>
+      </c>
+      <c r="D14">
+        <v>11050</v>
+      </c>
+      <c r="E14">
+        <v>11900</v>
+      </c>
+      <c r="F14">
+        <v>10103322</v>
+      </c>
+      <c r="G14">
+        <v>121668679250</v>
+      </c>
+      <c r="H14">
+        <v>25.66</v>
+      </c>
+      <c r="I14">
+        <v>1216</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14">
+        <v>5203</v>
+      </c>
+      <c r="P14">
+        <v>25.44</v>
+      </c>
+      <c r="Q14">
+        <v>2.29</v>
+      </c>
+      <c r="R14">
+        <v>468</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>3873</v>
+      </c>
+      <c r="V14" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14">
+        <v>3873</v>
+      </c>
+      <c r="X14">
+        <v>3485</v>
+      </c>
+      <c r="Y14">
+        <v>3292</v>
+      </c>
+      <c r="Z14">
+        <v>2711</v>
+      </c>
+      <c r="AA14">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>32900</v>
+      </c>
+      <c r="C15">
+        <v>42350</v>
+      </c>
+      <c r="D15">
+        <v>32250</v>
+      </c>
+      <c r="E15">
+        <v>40900</v>
+      </c>
+      <c r="F15">
+        <v>4096456</v>
+      </c>
+      <c r="G15">
+        <v>153583676950</v>
+      </c>
+      <c r="H15">
+        <v>24.32</v>
+      </c>
+      <c r="I15">
+        <v>1535</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15">
+        <v>3220</v>
+      </c>
+      <c r="P15">
+        <v>87.38</v>
+      </c>
+      <c r="Q15">
+        <v>12.7</v>
+      </c>
+      <c r="R15">
+        <v>468</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>3299</v>
+      </c>
+      <c r="V15" t="s">
+        <v>69</v>
+      </c>
+      <c r="W15">
+        <v>3299</v>
+      </c>
+      <c r="X15">
+        <v>2969</v>
+      </c>
+      <c r="Y15">
+        <v>2804</v>
+      </c>
+      <c r="Z15">
+        <v>2309</v>
+      </c>
+      <c r="AA15">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>5240</v>
+      </c>
+      <c r="C16">
+        <v>6770</v>
+      </c>
+      <c r="D16">
+        <v>5220</v>
+      </c>
+      <c r="E16">
+        <v>6360</v>
+      </c>
+      <c r="F16">
+        <v>10476770</v>
+      </c>
+      <c r="G16">
+        <v>66808538710</v>
+      </c>
+      <c r="H16">
+        <v>22.07</v>
+      </c>
+      <c r="I16">
+        <v>668</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16">
+        <v>4001</v>
+      </c>
+      <c r="P16">
+        <v>61.75</v>
+      </c>
+      <c r="Q16">
+        <v>1.59</v>
+      </c>
+      <c r="R16">
+        <v>103</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>3968</v>
+      </c>
+      <c r="V16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16">
+        <v>3968</v>
+      </c>
+      <c r="X16">
+        <v>3571</v>
+      </c>
+      <c r="Y16">
+        <v>3372</v>
+      </c>
+      <c r="Z16">
+        <v>2777</v>
+      </c>
+      <c r="AA16">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>350</v>
+      </c>
+      <c r="C17">
+        <v>443</v>
+      </c>
+      <c r="D17">
+        <v>346</v>
+      </c>
+      <c r="E17">
+        <v>416</v>
+      </c>
+      <c r="F17">
+        <v>123134886</v>
+      </c>
+      <c r="G17">
+        <v>52095688670</v>
+      </c>
+      <c r="H17">
+        <v>21.99</v>
+      </c>
+      <c r="I17">
+        <v>520</v>
+      </c>
+      <c r="J17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17">
+        <v>869</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.48</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>434</v>
+      </c>
+      <c r="V17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17">
+        <v>434</v>
+      </c>
+      <c r="X17">
+        <v>391</v>
+      </c>
+      <c r="Y17">
+        <v>369</v>
+      </c>
+      <c r="Z17">
+        <v>304</v>
+      </c>
+      <c r="AA17">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>11200</v>
+      </c>
+      <c r="C18">
+        <v>12300</v>
+      </c>
+      <c r="D18">
+        <v>11050</v>
+      </c>
+      <c r="E18">
+        <v>11900</v>
+      </c>
+      <c r="F18">
+        <v>10103322</v>
+      </c>
+      <c r="G18">
+        <v>121668679250</v>
+      </c>
+      <c r="H18">
+        <v>25.66</v>
+      </c>
+      <c r="I18">
+        <v>1216</v>
+      </c>
+      <c r="J18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18">
+        <v>5203</v>
+      </c>
+      <c r="P18">
+        <v>25.44</v>
+      </c>
+      <c r="Q18">
+        <v>2.29</v>
+      </c>
+      <c r="R18">
+        <v>468</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>3873</v>
+      </c>
+      <c r="V18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18">
+        <v>3873</v>
+      </c>
+      <c r="X18">
+        <v>3485</v>
+      </c>
+      <c r="Y18">
+        <v>3292</v>
+      </c>
+      <c r="Z18">
+        <v>2711</v>
+      </c>
+      <c r="AA18">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>5240</v>
+      </c>
+      <c r="C19">
+        <v>6770</v>
+      </c>
+      <c r="D19">
+        <v>5220</v>
+      </c>
+      <c r="E19">
+        <v>6360</v>
+      </c>
+      <c r="F19">
+        <v>10476770</v>
+      </c>
+      <c r="G19">
+        <v>66808538710</v>
+      </c>
+      <c r="H19">
+        <v>22.07</v>
+      </c>
+      <c r="I19">
+        <v>668</v>
+      </c>
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19">
+        <v>4001</v>
+      </c>
+      <c r="P19">
+        <v>61.75</v>
+      </c>
+      <c r="Q19">
+        <v>1.59</v>
+      </c>
+      <c r="R19">
+        <v>103</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>3968</v>
+      </c>
+      <c r="V19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19">
+        <v>3968</v>
+      </c>
+      <c r="X19">
+        <v>3571</v>
+      </c>
+      <c r="Y19">
+        <v>3372</v>
+      </c>
+      <c r="Z19">
+        <v>2777</v>
+      </c>
+      <c r="AA19">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>350</v>
+      </c>
+      <c r="C20">
+        <v>443</v>
+      </c>
+      <c r="D20">
+        <v>346</v>
+      </c>
+      <c r="E20">
+        <v>416</v>
+      </c>
+      <c r="F20">
+        <v>123134886</v>
+      </c>
+      <c r="G20">
+        <v>52095688670</v>
+      </c>
+      <c r="H20">
+        <v>21.99</v>
+      </c>
+      <c r="I20">
+        <v>520</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20">
+        <v>869</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.48</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>434</v>
+      </c>
+      <c r="V20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20">
+        <v>434</v>
+      </c>
+      <c r="X20">
+        <v>391</v>
+      </c>
+      <c r="Y20">
+        <v>369</v>
+      </c>
+      <c r="Z20">
+        <v>304</v>
+      </c>
+      <c r="AA20">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>610</v>
+      </c>
+      <c r="C21">
+        <v>772</v>
+      </c>
+      <c r="D21">
+        <v>610</v>
+      </c>
+      <c r="E21">
+        <v>731</v>
+      </c>
+      <c r="F21">
+        <v>11780456</v>
+      </c>
+      <c r="G21">
+        <v>8452588605</v>
+      </c>
+      <c r="H21">
+        <v>20.63</v>
+      </c>
+      <c r="I21">
+        <v>84</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21">
+        <v>501</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.46</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>250</v>
+      </c>
+      <c r="V21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21">
+        <v>250</v>
+      </c>
+      <c r="X21">
+        <v>225</v>
+      </c>
+      <c r="Y21">
+        <v>212</v>
+      </c>
+      <c r="Z21">
+        <v>175</v>
+      </c>
+      <c r="AA21">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="552" windowWidth="21756" windowHeight="7092"/>
+    <workbookView xWindow="204" yWindow="588" windowWidth="22716" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="91">
   <si>
     <t>티커</t>
   </si>
@@ -251,6 +251,42 @@
   </si>
   <si>
     <t>기타 화학제품 제조업</t>
+  </si>
+  <si>
+    <t>347860</t>
+  </si>
+  <si>
+    <t>2023/01/16</t>
+  </si>
+  <si>
+    <t>알체라</t>
+  </si>
+  <si>
+    <t>004270</t>
+  </si>
+  <si>
+    <t>남성</t>
+  </si>
+  <si>
+    <t>기타 전문 도매업</t>
+  </si>
+  <si>
+    <t>207760</t>
+  </si>
+  <si>
+    <t>미스터블루</t>
+  </si>
+  <si>
+    <t>기타 정보 서비스업</t>
+  </si>
+  <si>
+    <t>089530</t>
+  </si>
+  <si>
+    <t>에이티세미콘</t>
+  </si>
+  <si>
+    <t>반도체 제조업</t>
   </si>
 </sst>
 </file>
@@ -605,14 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -2365,6 +2400,587 @@
       </c>
       <c r="AA21">
         <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>7660</v>
+      </c>
+      <c r="C22">
+        <v>9680</v>
+      </c>
+      <c r="D22">
+        <v>7470</v>
+      </c>
+      <c r="E22">
+        <v>9400</v>
+      </c>
+      <c r="F22">
+        <v>9239935</v>
+      </c>
+      <c r="G22">
+        <v>83933976710</v>
+      </c>
+      <c r="H22">
+        <v>26.17</v>
+      </c>
+      <c r="I22">
+        <v>839</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22">
+        <v>947</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9.93</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>473</v>
+      </c>
+      <c r="V22" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22">
+        <v>473</v>
+      </c>
+      <c r="X22">
+        <v>426</v>
+      </c>
+      <c r="Y22">
+        <v>402</v>
+      </c>
+      <c r="Z22">
+        <v>331</v>
+      </c>
+      <c r="AA22">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23">
+        <v>2150</v>
+      </c>
+      <c r="C23">
+        <v>2620</v>
+      </c>
+      <c r="D23">
+        <v>2150</v>
+      </c>
+      <c r="E23">
+        <v>2545</v>
+      </c>
+      <c r="F23">
+        <v>21945038</v>
+      </c>
+      <c r="G23">
+        <v>54488619330</v>
+      </c>
+      <c r="H23">
+        <v>18.37</v>
+      </c>
+      <c r="I23">
+        <v>544</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23">
+        <v>3790</v>
+      </c>
+      <c r="P23">
+        <v>11.26</v>
+      </c>
+      <c r="Q23">
+        <v>0.67</v>
+      </c>
+      <c r="R23">
+        <v>226</v>
+      </c>
+      <c r="S23">
+        <v>0.98</v>
+      </c>
+      <c r="T23">
+        <v>25</v>
+      </c>
+      <c r="U23">
+        <v>2083</v>
+      </c>
+      <c r="V23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23">
+        <v>2083</v>
+      </c>
+      <c r="X23">
+        <v>1875</v>
+      </c>
+      <c r="Y23">
+        <v>1770</v>
+      </c>
+      <c r="Z23">
+        <v>1458</v>
+      </c>
+      <c r="AA23">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24">
+        <v>3200</v>
+      </c>
+      <c r="C24">
+        <v>3930</v>
+      </c>
+      <c r="D24">
+        <v>3180</v>
+      </c>
+      <c r="E24">
+        <v>3675</v>
+      </c>
+      <c r="F24">
+        <v>77320741</v>
+      </c>
+      <c r="G24">
+        <v>281716862015</v>
+      </c>
+      <c r="H24">
+        <v>15.38</v>
+      </c>
+      <c r="I24">
+        <v>2817</v>
+      </c>
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24">
+        <v>879</v>
+      </c>
+      <c r="P24">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="Q24">
+        <v>4.18</v>
+      </c>
+      <c r="R24">
+        <v>91</v>
+      </c>
+      <c r="S24">
+        <v>0.68</v>
+      </c>
+      <c r="T24">
+        <v>25</v>
+      </c>
+      <c r="U24">
+        <v>1772</v>
+      </c>
+      <c r="V24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24">
+        <v>1772</v>
+      </c>
+      <c r="X24">
+        <v>1595</v>
+      </c>
+      <c r="Y24">
+        <v>1506</v>
+      </c>
+      <c r="Z24">
+        <v>1240</v>
+      </c>
+      <c r="AA24">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25">
+        <v>1015</v>
+      </c>
+      <c r="C25">
+        <v>1240</v>
+      </c>
+      <c r="D25">
+        <v>989</v>
+      </c>
+      <c r="E25">
+        <v>1180</v>
+      </c>
+      <c r="F25">
+        <v>23288970</v>
+      </c>
+      <c r="G25">
+        <v>27312471772</v>
+      </c>
+      <c r="H25">
+        <v>22.79</v>
+      </c>
+      <c r="I25">
+        <v>273</v>
+      </c>
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25">
+        <v>1320</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.89</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>660</v>
+      </c>
+      <c r="V25" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25">
+        <v>660</v>
+      </c>
+      <c r="X25">
+        <v>594</v>
+      </c>
+      <c r="Y25">
+        <v>561</v>
+      </c>
+      <c r="Z25">
+        <v>461</v>
+      </c>
+      <c r="AA25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>760</v>
+      </c>
+      <c r="C26">
+        <v>894</v>
+      </c>
+      <c r="D26">
+        <v>744</v>
+      </c>
+      <c r="E26">
+        <v>875</v>
+      </c>
+      <c r="F26">
+        <v>10807476</v>
+      </c>
+      <c r="G26">
+        <v>9076218839</v>
+      </c>
+      <c r="H26">
+        <v>19.7</v>
+      </c>
+      <c r="I26">
+        <v>90</v>
+      </c>
+      <c r="J26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26">
+        <v>501</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1.75</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>250</v>
+      </c>
+      <c r="V26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26">
+        <v>250</v>
+      </c>
+      <c r="X26">
+        <v>225</v>
+      </c>
+      <c r="Y26">
+        <v>212</v>
+      </c>
+      <c r="Z26">
+        <v>175</v>
+      </c>
+      <c r="AA26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>2150</v>
+      </c>
+      <c r="C27">
+        <v>2620</v>
+      </c>
+      <c r="D27">
+        <v>2150</v>
+      </c>
+      <c r="E27">
+        <v>2545</v>
+      </c>
+      <c r="F27">
+        <v>21945038</v>
+      </c>
+      <c r="G27">
+        <v>54488619330</v>
+      </c>
+      <c r="H27">
+        <v>18.37</v>
+      </c>
+      <c r="I27">
+        <v>544</v>
+      </c>
+      <c r="J27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27">
+        <v>3790</v>
+      </c>
+      <c r="P27">
+        <v>11.26</v>
+      </c>
+      <c r="Q27">
+        <v>0.67</v>
+      </c>
+      <c r="R27">
+        <v>226</v>
+      </c>
+      <c r="S27">
+        <v>0.98</v>
+      </c>
+      <c r="T27">
+        <v>25</v>
+      </c>
+      <c r="U27">
+        <v>2083</v>
+      </c>
+      <c r="V27" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27">
+        <v>2083</v>
+      </c>
+      <c r="X27">
+        <v>1875</v>
+      </c>
+      <c r="Y27">
+        <v>1770</v>
+      </c>
+      <c r="Z27">
+        <v>1458</v>
+      </c>
+      <c r="AA27">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <v>3200</v>
+      </c>
+      <c r="C28">
+        <v>3930</v>
+      </c>
+      <c r="D28">
+        <v>3180</v>
+      </c>
+      <c r="E28">
+        <v>3675</v>
+      </c>
+      <c r="F28">
+        <v>77320741</v>
+      </c>
+      <c r="G28">
+        <v>281716862015</v>
+      </c>
+      <c r="H28">
+        <v>15.38</v>
+      </c>
+      <c r="I28">
+        <v>2817</v>
+      </c>
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28">
+        <v>879</v>
+      </c>
+      <c r="P28">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="Q28">
+        <v>4.18</v>
+      </c>
+      <c r="R28">
+        <v>91</v>
+      </c>
+      <c r="S28">
+        <v>0.68</v>
+      </c>
+      <c r="T28">
+        <v>25</v>
+      </c>
+      <c r="U28">
+        <v>1772</v>
+      </c>
+      <c r="V28" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28">
+        <v>1772</v>
+      </c>
+      <c r="X28">
+        <v>1595</v>
+      </c>
+      <c r="Y28">
+        <v>1506</v>
+      </c>
+      <c r="Z28">
+        <v>1240</v>
+      </c>
+      <c r="AA28">
+        <v>886</v>
       </c>
     </row>
   </sheetData>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD49"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5385,6 +5385,506 @@
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>198940</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4115</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5340</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4115</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F50" t="n">
+        <v>28242422</v>
+      </c>
+      <c r="G50" t="n">
+        <v>134732146655</v>
+      </c>
+      <c r="H50" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1347</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2023/01/19</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>한주라이트메탈</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1차 비철금속 제조업</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>2527</v>
+      </c>
+      <c r="P50" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="R50" t="n">
+        <v>290</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>094480</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4700</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4620</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5750</v>
+      </c>
+      <c r="F51" t="n">
+        <v>22930155</v>
+      </c>
+      <c r="G51" t="n">
+        <v>133005317265</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1330</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2023/01/19</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>갤럭시아머니트리</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>2784</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T51" t="n">
+        <v>45</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1757</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W51" t="n">
+        <v>1757</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1582</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1494</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1230</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>878</v>
+      </c>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>198940</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4115</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5340</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4115</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F52" t="n">
+        <v>28242422</v>
+      </c>
+      <c r="G52" t="n">
+        <v>134732146655</v>
+      </c>
+      <c r="H52" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1347</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2023/01/19</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>한주라이트메탈</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1차 비철금속 제조업</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>2527</v>
+      </c>
+      <c r="P52" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="R52" t="n">
+        <v>290</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W52" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>094480</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4700</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4620</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5750</v>
+      </c>
+      <c r="F53" t="n">
+        <v>22930155</v>
+      </c>
+      <c r="G53" t="n">
+        <v>133005317265</v>
+      </c>
+      <c r="H53" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1330</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2023/01/19</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>갤럭시아머니트리</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>2784</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T53" t="n">
+        <v>45</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1757</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W53" t="n">
+        <v>1757</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1582</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1494</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1230</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>878</v>
+      </c>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>082660</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>871</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1110</v>
+      </c>
+      <c r="D54" t="n">
+        <v>826</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F54" t="n">
+        <v>20229719</v>
+      </c>
+      <c r="G54" t="n">
+        <v>19634267522</v>
+      </c>
+      <c r="H54" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="I54" t="n">
+        <v>196</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2023/01/19</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>코스나인</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>501</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>250</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W54" t="n">
+        <v>250</v>
+      </c>
+      <c r="X54" t="n">
+        <v>225</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>212</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD54"/>
+  <dimension ref="A1:AD61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5885,6 +5885,706 @@
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2065</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2060</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2610</v>
+      </c>
+      <c r="F55" t="n">
+        <v>15028778</v>
+      </c>
+      <c r="G55" t="n">
+        <v>37003003625</v>
+      </c>
+      <c r="H55" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="I55" t="n">
+        <v>370</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2023/01/20</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>갤럭시아에스엠</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>스포츠 서비스업</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P55" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R55" t="n">
+        <v>134</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>771</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W55" t="n">
+        <v>771</v>
+      </c>
+      <c r="X55" t="n">
+        <v>694</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>655</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>540</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>385</v>
+      </c>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>049080</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1545</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1935</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100819570</v>
+      </c>
+      <c r="G56" t="n">
+        <v>186951182430</v>
+      </c>
+      <c r="H56" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1869</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2023/01/20</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>기가레인</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>785</v>
+      </c>
+      <c r="P56" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R56" t="n">
+        <v>49</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>433</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W56" t="n">
+        <v>433</v>
+      </c>
+      <c r="X56" t="n">
+        <v>390</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>368</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>303</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>216</v>
+      </c>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>069410</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5720</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7350</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5710</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6770</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4785375</v>
+      </c>
+      <c r="G57" t="n">
+        <v>32607897280</v>
+      </c>
+      <c r="H57" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="I57" t="n">
+        <v>326</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2023/01/20</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>엔텔스</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>5287</v>
+      </c>
+      <c r="P57" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R57" t="n">
+        <v>416</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>4474</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W57" t="n">
+        <v>4474</v>
+      </c>
+      <c r="X57" t="n">
+        <v>4026</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3803</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>3132</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>2237</v>
+      </c>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>063170</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>18250</v>
+      </c>
+      <c r="C58" t="n">
+        <v>22300</v>
+      </c>
+      <c r="D58" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>21150</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4332867</v>
+      </c>
+      <c r="G58" t="n">
+        <v>88997227800</v>
+      </c>
+      <c r="H58" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>889</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2023/01/20</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>서울옥션</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>상품 중개업</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>5456</v>
+      </c>
+      <c r="P58" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1014</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="T58" t="n">
+        <v>200</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3573</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W58" t="n">
+        <v>3573</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3215</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3037</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2501</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1786</v>
+      </c>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2065</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2060</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2610</v>
+      </c>
+      <c r="F59" t="n">
+        <v>15028778</v>
+      </c>
+      <c r="G59" t="n">
+        <v>37003003625</v>
+      </c>
+      <c r="H59" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="I59" t="n">
+        <v>370</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2023/01/20</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>갤럭시아에스엠</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>스포츠 서비스업</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P59" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R59" t="n">
+        <v>134</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>771</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W59" t="n">
+        <v>771</v>
+      </c>
+      <c r="X59" t="n">
+        <v>694</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>655</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>540</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>385</v>
+      </c>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>049080</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1545</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1935</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100819570</v>
+      </c>
+      <c r="G60" t="n">
+        <v>186951182430</v>
+      </c>
+      <c r="H60" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1869</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2023/01/20</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>기가레인</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>785</v>
+      </c>
+      <c r="P60" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R60" t="n">
+        <v>49</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>433</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W60" t="n">
+        <v>433</v>
+      </c>
+      <c r="X60" t="n">
+        <v>390</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>368</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>303</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>216</v>
+      </c>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>065420</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>448</v>
+      </c>
+      <c r="C61" t="n">
+        <v>576</v>
+      </c>
+      <c r="D61" t="n">
+        <v>448</v>
+      </c>
+      <c r="E61" t="n">
+        <v>521</v>
+      </c>
+      <c r="F61" t="n">
+        <v>35093342</v>
+      </c>
+      <c r="G61" t="n">
+        <v>18990387089</v>
+      </c>
+      <c r="H61" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="I61" t="n">
+        <v>189</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2023/01/20</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>에스아이리소스</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>석탄 광업</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>271</v>
+      </c>
+      <c r="P61" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R61" t="n">
+        <v>58</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>213</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W61" t="n">
+        <v>213</v>
+      </c>
+      <c r="X61" t="n">
+        <v>192</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>181</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>149</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>106</v>
+      </c>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD61"/>
+  <dimension ref="A1:AD78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6585,6 +6585,1706 @@
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>189330</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>17350</v>
+      </c>
+      <c r="C62" t="n">
+        <v>22100</v>
+      </c>
+      <c r="D62" t="n">
+        <v>16610</v>
+      </c>
+      <c r="E62" t="n">
+        <v>22100</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2033750</v>
+      </c>
+      <c r="G62" t="n">
+        <v>41127880800</v>
+      </c>
+      <c r="H62" t="n">
+        <v>30</v>
+      </c>
+      <c r="I62" t="n">
+        <v>411</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>씨이랩</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>4070</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2315</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W62" t="n">
+        <v>2315</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2084</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1968</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1621</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1157</v>
+      </c>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>277810</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>67700</v>
+      </c>
+      <c r="C63" t="n">
+        <v>87200</v>
+      </c>
+      <c r="D63" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E63" t="n">
+        <v>87200</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6322853</v>
+      </c>
+      <c r="G63" t="n">
+        <v>500758351200</v>
+      </c>
+      <c r="H63" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5007</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>레인보우로보틱스</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>2895</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1447</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W63" t="n">
+        <v>1447</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1302</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1230</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1013</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>723</v>
+      </c>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>053800</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>73300</v>
+      </c>
+      <c r="C64" t="n">
+        <v>91200</v>
+      </c>
+      <c r="D64" t="n">
+        <v>72300</v>
+      </c>
+      <c r="E64" t="n">
+        <v>91200</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3782227</v>
+      </c>
+      <c r="G64" t="n">
+        <v>318730983700</v>
+      </c>
+      <c r="H64" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3187</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>안랩</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>28881</v>
+      </c>
+      <c r="P64" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4854</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1100</v>
+      </c>
+      <c r="U64" t="n">
+        <v>23885</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W64" t="n">
+        <v>23885</v>
+      </c>
+      <c r="X64" t="n">
+        <v>21496</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>20302</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>16719</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>11942</v>
+      </c>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>402030</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>53400</v>
+      </c>
+      <c r="C65" t="n">
+        <v>66500</v>
+      </c>
+      <c r="D65" t="n">
+        <v>53300</v>
+      </c>
+      <c r="E65" t="n">
+        <v>66500</v>
+      </c>
+      <c r="F65" t="n">
+        <v>921096</v>
+      </c>
+      <c r="G65" t="n">
+        <v>57999884300</v>
+      </c>
+      <c r="H65" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="I65" t="n">
+        <v>579</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>코난테크놀로지</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>3220</v>
+      </c>
+      <c r="P65" t="n">
+        <v>142.12</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="R65" t="n">
+        <v>468</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W65" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>036810</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>17750</v>
+      </c>
+      <c r="C66" t="n">
+        <v>21350</v>
+      </c>
+      <c r="D66" t="n">
+        <v>17500</v>
+      </c>
+      <c r="E66" t="n">
+        <v>21350</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2717925</v>
+      </c>
+      <c r="G66" t="n">
+        <v>53658723010</v>
+      </c>
+      <c r="H66" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="I66" t="n">
+        <v>536</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>에프에스티</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>10372</v>
+      </c>
+      <c r="P66" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1657</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="T66" t="n">
+        <v>130</v>
+      </c>
+      <c r="U66" t="n">
+        <v>9111</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W66" t="n">
+        <v>9111</v>
+      </c>
+      <c r="X66" t="n">
+        <v>8200</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>7745</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>6378</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>4555</v>
+      </c>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>004770</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2760</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3445</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2740</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3385</v>
+      </c>
+      <c r="F67" t="n">
+        <v>49772998</v>
+      </c>
+      <c r="G67" t="n">
+        <v>159848054860</v>
+      </c>
+      <c r="H67" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1598</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>써니전자</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>1956</v>
+      </c>
+      <c r="P67" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R67" t="n">
+        <v>129</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1385</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W67" t="n">
+        <v>1385</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1246</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1177</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>969</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>692</v>
+      </c>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>006220</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>13100</v>
+      </c>
+      <c r="C68" t="n">
+        <v>16070</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12970</v>
+      </c>
+      <c r="E68" t="n">
+        <v>15620</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10418533</v>
+      </c>
+      <c r="G68" t="n">
+        <v>154333363420</v>
+      </c>
+      <c r="H68" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1543</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>제주은행</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>은행 및 저축기관</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>16059</v>
+      </c>
+      <c r="P68" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R68" t="n">
+        <v>514</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="T68" t="n">
+        <v>100</v>
+      </c>
+      <c r="U68" t="n">
+        <v>9922</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W68" t="n">
+        <v>9922</v>
+      </c>
+      <c r="X68" t="n">
+        <v>8930</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>8434</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>6945</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>4961</v>
+      </c>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>041190</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6040</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5480</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5630</v>
+      </c>
+      <c r="F69" t="n">
+        <v>15129701</v>
+      </c>
+      <c r="G69" t="n">
+        <v>86911736910</v>
+      </c>
+      <c r="H69" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="I69" t="n">
+        <v>869</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>우리기술투자</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>기타 금융업</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>9347</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7954</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>12038</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W69" t="n">
+        <v>12038</v>
+      </c>
+      <c r="X69" t="n">
+        <v>10834</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>10232</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>8426</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6019</v>
+      </c>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>148780</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1445</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1151</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1390</v>
+      </c>
+      <c r="F70" t="n">
+        <v>26399273</v>
+      </c>
+      <c r="G70" t="n">
+        <v>35561446124</v>
+      </c>
+      <c r="H70" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>355</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>비플라이소프트</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>88</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W70" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>108860</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>12670</v>
+      </c>
+      <c r="C71" t="n">
+        <v>14910</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12660</v>
+      </c>
+      <c r="E71" t="n">
+        <v>14050</v>
+      </c>
+      <c r="F71" t="n">
+        <v>18756529</v>
+      </c>
+      <c r="G71" t="n">
+        <v>262605676790</v>
+      </c>
+      <c r="H71" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2626</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>셀바스AI</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>1872</v>
+      </c>
+      <c r="P71" t="n">
+        <v>81.69</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="R71" t="n">
+        <v>172</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1387</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W71" t="n">
+        <v>1387</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1248</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1179</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>971</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>693</v>
+      </c>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>357880</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C72" t="n">
+        <v>11480</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9460</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10840</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10114907</v>
+      </c>
+      <c r="G72" t="n">
+        <v>108391216110</v>
+      </c>
+      <c r="H72" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1083</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>비트나인</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>3227</v>
+      </c>
+      <c r="P72" t="n">
+        <v>77.44</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="R72" t="n">
+        <v>140</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1730</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W72" t="n">
+        <v>1730</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1557</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1211</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>865</v>
+      </c>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>004770</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2760</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3445</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2740</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3385</v>
+      </c>
+      <c r="F73" t="n">
+        <v>49772998</v>
+      </c>
+      <c r="G73" t="n">
+        <v>159848054860</v>
+      </c>
+      <c r="H73" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1598</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>써니전자</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>1956</v>
+      </c>
+      <c r="P73" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R73" t="n">
+        <v>129</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1385</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W73" t="n">
+        <v>1385</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1246</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1177</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>969</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>692</v>
+      </c>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>006220</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>13100</v>
+      </c>
+      <c r="C74" t="n">
+        <v>16070</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12970</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15620</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10418533</v>
+      </c>
+      <c r="G74" t="n">
+        <v>154333363420</v>
+      </c>
+      <c r="H74" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1543</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>제주은행</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>은행 및 저축기관</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>16059</v>
+      </c>
+      <c r="P74" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R74" t="n">
+        <v>514</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="T74" t="n">
+        <v>100</v>
+      </c>
+      <c r="U74" t="n">
+        <v>9922</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W74" t="n">
+        <v>9922</v>
+      </c>
+      <c r="X74" t="n">
+        <v>8930</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>8434</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>6945</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>4961</v>
+      </c>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>041190</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6040</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5480</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5630</v>
+      </c>
+      <c r="F75" t="n">
+        <v>15129701</v>
+      </c>
+      <c r="G75" t="n">
+        <v>86911736910</v>
+      </c>
+      <c r="H75" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="I75" t="n">
+        <v>869</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>우리기술투자</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>기타 금융업</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>9347</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7954</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>12038</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W75" t="n">
+        <v>12038</v>
+      </c>
+      <c r="X75" t="n">
+        <v>10834</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>10232</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>8426</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6019</v>
+      </c>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>148780</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1445</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1151</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1390</v>
+      </c>
+      <c r="F76" t="n">
+        <v>26399273</v>
+      </c>
+      <c r="G76" t="n">
+        <v>35561446124</v>
+      </c>
+      <c r="H76" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>355</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>비플라이소프트</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>88</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W76" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>108860</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>12670</v>
+      </c>
+      <c r="C77" t="n">
+        <v>14910</v>
+      </c>
+      <c r="D77" t="n">
+        <v>12660</v>
+      </c>
+      <c r="E77" t="n">
+        <v>14050</v>
+      </c>
+      <c r="F77" t="n">
+        <v>18756529</v>
+      </c>
+      <c r="G77" t="n">
+        <v>262605676790</v>
+      </c>
+      <c r="H77" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2626</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>셀바스AI</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>1872</v>
+      </c>
+      <c r="P77" t="n">
+        <v>81.69</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="R77" t="n">
+        <v>172</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1387</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W77" t="n">
+        <v>1387</v>
+      </c>
+      <c r="X77" t="n">
+        <v>1248</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1179</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>971</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>693</v>
+      </c>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>357880</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C78" t="n">
+        <v>11480</v>
+      </c>
+      <c r="D78" t="n">
+        <v>9460</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10840</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10114907</v>
+      </c>
+      <c r="G78" t="n">
+        <v>108391216110</v>
+      </c>
+      <c r="H78" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1083</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2023/01/25</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>비트나인</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>3227</v>
+      </c>
+      <c r="P78" t="n">
+        <v>77.44</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="R78" t="n">
+        <v>140</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1730</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W78" t="n">
+        <v>1730</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1557</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1211</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>865</v>
+      </c>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD78"/>
+  <dimension ref="A1:AD93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8285,6 +8285,1506 @@
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>039010</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7550</v>
+      </c>
+      <c r="C79" t="n">
+        <v>9880</v>
+      </c>
+      <c r="D79" t="n">
+        <v>7440</v>
+      </c>
+      <c r="E79" t="n">
+        <v>9880</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5775954</v>
+      </c>
+      <c r="G79" t="n">
+        <v>55411045950</v>
+      </c>
+      <c r="H79" t="n">
+        <v>30</v>
+      </c>
+      <c r="I79" t="n">
+        <v>554</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>현대에이치티</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>11584</v>
+      </c>
+      <c r="P79" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1126</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="T79" t="n">
+        <v>350</v>
+      </c>
+      <c r="U79" t="n">
+        <v>9638</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W79" t="n">
+        <v>9638</v>
+      </c>
+      <c r="X79" t="n">
+        <v>8674</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>8192</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>6747</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>4819</v>
+      </c>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>117580</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>9040</v>
+      </c>
+      <c r="C80" t="n">
+        <v>11630</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9010</v>
+      </c>
+      <c r="E80" t="n">
+        <v>11630</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10054663</v>
+      </c>
+      <c r="G80" t="n">
+        <v>111483968200</v>
+      </c>
+      <c r="H80" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1114</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>대성에너지</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>연료용 가스 제조 및 배관공급업</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>11669</v>
+      </c>
+      <c r="P80" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>435</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T80" t="n">
+        <v>250</v>
+      </c>
+      <c r="U80" t="n">
+        <v>7448</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W80" t="n">
+        <v>7448</v>
+      </c>
+      <c r="X80" t="n">
+        <v>6703</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>6331</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>5214</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3724</v>
+      </c>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>053050</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3960</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4990</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3960</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4905</v>
+      </c>
+      <c r="F81" t="n">
+        <v>28464297</v>
+      </c>
+      <c r="G81" t="n">
+        <v>132574072540</v>
+      </c>
+      <c r="H81" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1325</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>지에스이</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>연료용 가스 제조 및 배관공급업</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>2776</v>
+      </c>
+      <c r="P81" t="n">
+        <v>34.06</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R81" t="n">
+        <v>144</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T81" t="n">
+        <v>40</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1898</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W81" t="n">
+        <v>1898</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1708</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1614</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>949</v>
+      </c>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>065650</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2370</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1842</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2230</v>
+      </c>
+      <c r="F82" t="n">
+        <v>35215397</v>
+      </c>
+      <c r="G82" t="n">
+        <v>77223294526</v>
+      </c>
+      <c r="H82" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="I82" t="n">
+        <v>772</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>메디프론</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>970</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>485</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W82" t="n">
+        <v>485</v>
+      </c>
+      <c r="X82" t="n">
+        <v>436</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>412</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>339</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>242</v>
+      </c>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>148780</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1801</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1316</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1623</v>
+      </c>
+      <c r="F83" t="n">
+        <v>49818967</v>
+      </c>
+      <c r="G83" t="n">
+        <v>81387409966</v>
+      </c>
+      <c r="H83" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="I83" t="n">
+        <v>813</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>비플라이소프트</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>88</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W83" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>099750</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>24150</v>
+      </c>
+      <c r="C84" t="n">
+        <v>29600</v>
+      </c>
+      <c r="D84" t="n">
+        <v>23950</v>
+      </c>
+      <c r="E84" t="n">
+        <v>28150</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1110701</v>
+      </c>
+      <c r="G84" t="n">
+        <v>30667157350</v>
+      </c>
+      <c r="H84" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="I84" t="n">
+        <v>306</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>이지케어텍</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>5056</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2528</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W84" t="n">
+        <v>2528</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2275</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2148</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>1264</v>
+      </c>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>032620</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6870</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5460</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6310</v>
+      </c>
+      <c r="F85" t="n">
+        <v>14104064</v>
+      </c>
+      <c r="G85" t="n">
+        <v>91421052040</v>
+      </c>
+      <c r="H85" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="I85" t="n">
+        <v>914</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>유비케어</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>2323</v>
+      </c>
+      <c r="P85" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R85" t="n">
+        <v>262</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T85" t="n">
+        <v>40</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1695</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W85" t="n">
+        <v>1695</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1526</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1441</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1186</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>847</v>
+      </c>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>263700</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7190</v>
+      </c>
+      <c r="C86" t="n">
+        <v>9330</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7130</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8330</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8278573</v>
+      </c>
+      <c r="G86" t="n">
+        <v>70928737590</v>
+      </c>
+      <c r="H86" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="I86" t="n">
+        <v>709</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>케어랩스</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>광고업</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>5939</v>
+      </c>
+      <c r="P86" t="n">
+        <v>114.12</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>73</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3549</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W86" t="n">
+        <v>3549</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3194</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>3017</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>2484</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>1774</v>
+      </c>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>095500</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>13960</v>
+      </c>
+      <c r="C87" t="n">
+        <v>17480</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13920</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15900</v>
+      </c>
+      <c r="F87" t="n">
+        <v>19350563</v>
+      </c>
+      <c r="G87" t="n">
+        <v>312716471940</v>
+      </c>
+      <c r="H87" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3127</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>미래나노텍</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>8392</v>
+      </c>
+      <c r="P87" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R87" t="n">
+        <v>940</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T87" t="n">
+        <v>100</v>
+      </c>
+      <c r="U87" t="n">
+        <v>6809</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W87" t="n">
+        <v>6809</v>
+      </c>
+      <c r="X87" t="n">
+        <v>6128</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>5787</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>4766</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>3404</v>
+      </c>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>117580</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>9040</v>
+      </c>
+      <c r="C88" t="n">
+        <v>11630</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9010</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11630</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10054663</v>
+      </c>
+      <c r="G88" t="n">
+        <v>111483968200</v>
+      </c>
+      <c r="H88" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1114</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>대성에너지</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>연료용 가스 제조 및 배관공급업</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>11669</v>
+      </c>
+      <c r="P88" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>435</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T88" t="n">
+        <v>250</v>
+      </c>
+      <c r="U88" t="n">
+        <v>7448</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W88" t="n">
+        <v>7448</v>
+      </c>
+      <c r="X88" t="n">
+        <v>6703</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>6331</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>5214</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>3724</v>
+      </c>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>053050</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3960</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4990</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3960</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4905</v>
+      </c>
+      <c r="F89" t="n">
+        <v>28464399</v>
+      </c>
+      <c r="G89" t="n">
+        <v>132574572850</v>
+      </c>
+      <c r="H89" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1325</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>지에스이</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>연료용 가스 제조 및 배관공급업</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>2776</v>
+      </c>
+      <c r="P89" t="n">
+        <v>34.06</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R89" t="n">
+        <v>144</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T89" t="n">
+        <v>40</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1898</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W89" t="n">
+        <v>1898</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1708</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1614</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>949</v>
+      </c>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>065650</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2370</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1842</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2230</v>
+      </c>
+      <c r="F90" t="n">
+        <v>35215398</v>
+      </c>
+      <c r="G90" t="n">
+        <v>77223296756</v>
+      </c>
+      <c r="H90" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="I90" t="n">
+        <v>772</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>메디프론</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>970</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>485</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W90" t="n">
+        <v>485</v>
+      </c>
+      <c r="X90" t="n">
+        <v>436</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>412</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>339</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>242</v>
+      </c>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>148780</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1801</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1316</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1623</v>
+      </c>
+      <c r="F91" t="n">
+        <v>49818967</v>
+      </c>
+      <c r="G91" t="n">
+        <v>81387409966</v>
+      </c>
+      <c r="H91" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="I91" t="n">
+        <v>813</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>비플라이소프트</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
+        <v>88</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W91" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>032620</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6870</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5460</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6310</v>
+      </c>
+      <c r="F92" t="n">
+        <v>14104770</v>
+      </c>
+      <c r="G92" t="n">
+        <v>91425506900</v>
+      </c>
+      <c r="H92" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="I92" t="n">
+        <v>914</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>유비케어</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
+        <v>2323</v>
+      </c>
+      <c r="P92" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R92" t="n">
+        <v>262</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T92" t="n">
+        <v>40</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1695</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W92" t="n">
+        <v>1695</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1526</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1441</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1186</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>847</v>
+      </c>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>095500</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>13960</v>
+      </c>
+      <c r="C93" t="n">
+        <v>17480</v>
+      </c>
+      <c r="D93" t="n">
+        <v>13920</v>
+      </c>
+      <c r="E93" t="n">
+        <v>15900</v>
+      </c>
+      <c r="F93" t="n">
+        <v>19350563</v>
+      </c>
+      <c r="G93" t="n">
+        <v>312716471940</v>
+      </c>
+      <c r="H93" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3127</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2023/01/26</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>미래나노텍</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
+        <v>8392</v>
+      </c>
+      <c r="P93" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R93" t="n">
+        <v>940</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T93" t="n">
+        <v>100</v>
+      </c>
+      <c r="U93" t="n">
+        <v>6809</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W93" t="n">
+        <v>6809</v>
+      </c>
+      <c r="X93" t="n">
+        <v>6128</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>5787</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>4766</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3404</v>
+      </c>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD93"/>
+  <dimension ref="A1:AD105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9785,6 +9785,1206 @@
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>254490</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15600</v>
+      </c>
+      <c r="D94" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E94" t="n">
+        <v>15600</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7997263</v>
+      </c>
+      <c r="G94" t="n">
+        <v>118055139630</v>
+      </c>
+      <c r="H94" t="n">
+        <v>30</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1180</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>미래반도체</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>기타 전문 도매업</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
+        <v>3647</v>
+      </c>
+      <c r="P94" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1376</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W94" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>054920</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5360</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6870</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5240</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6870</v>
+      </c>
+      <c r="F95" t="n">
+        <v>13088664</v>
+      </c>
+      <c r="G95" t="n">
+        <v>84185743050</v>
+      </c>
+      <c r="H95" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="I95" t="n">
+        <v>841</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>한컴위드</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
+        <v>5512</v>
+      </c>
+      <c r="P95" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R95" t="n">
+        <v>208</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>5028</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W95" t="n">
+        <v>5028</v>
+      </c>
+      <c r="X95" t="n">
+        <v>4525</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>4274</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>3519</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>2514</v>
+      </c>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>300120</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>5720</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7300</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5680</v>
+      </c>
+      <c r="E96" t="n">
+        <v>6960</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9791023</v>
+      </c>
+      <c r="G96" t="n">
+        <v>67587351980</v>
+      </c>
+      <c r="H96" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I96" t="n">
+        <v>675</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>라온피플</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>2522</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2085</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W96" t="n">
+        <v>2085</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1876</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1772</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1459</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>1042</v>
+      </c>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>072130</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>4580</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4580</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4135</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4240</v>
+      </c>
+      <c r="F97" t="n">
+        <v>12246454</v>
+      </c>
+      <c r="G97" t="n">
+        <v>54418113665</v>
+      </c>
+      <c r="H97" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="I97" t="n">
+        <v>544</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>유엔젤</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>자료처리, 호스팅, 포털 및 기타 인터넷 정보매개 서비스업</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
+        <v>4368</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1271</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>3243</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W97" t="n">
+        <v>3243</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2918</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2756</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>1621</v>
+      </c>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>242040</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2895</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3570</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2890</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3395</v>
+      </c>
+      <c r="F98" t="n">
+        <v>64798882</v>
+      </c>
+      <c r="G98" t="n">
+        <v>219887060770</v>
+      </c>
+      <c r="H98" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2198</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>나무기술</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
+        <v>1183</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>700</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W98" t="n">
+        <v>700</v>
+      </c>
+      <c r="X98" t="n">
+        <v>630</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>595</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>490</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>189330</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>24950</v>
+      </c>
+      <c r="C99" t="n">
+        <v>28650</v>
+      </c>
+      <c r="D99" t="n">
+        <v>24200</v>
+      </c>
+      <c r="E99" t="n">
+        <v>27400</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3514483</v>
+      </c>
+      <c r="G99" t="n">
+        <v>94782140000</v>
+      </c>
+      <c r="H99" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="I99" t="n">
+        <v>947</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>씨이랩</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
+        <v>4070</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2315</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W99" t="n">
+        <v>2315</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2084</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1968</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1621</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>1157</v>
+      </c>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>254490</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C100" t="n">
+        <v>15600</v>
+      </c>
+      <c r="D100" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E100" t="n">
+        <v>15600</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7997263</v>
+      </c>
+      <c r="G100" t="n">
+        <v>118055139630</v>
+      </c>
+      <c r="H100" t="n">
+        <v>30</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1180</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>미래반도체</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>기타 전문 도매업</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
+        <v>3647</v>
+      </c>
+      <c r="P100" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1376</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W100" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>242040</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2895</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3570</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2890</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3395</v>
+      </c>
+      <c r="F101" t="n">
+        <v>64798882</v>
+      </c>
+      <c r="G101" t="n">
+        <v>219887060770</v>
+      </c>
+      <c r="H101" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2198</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>1000억이상</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>나무기술</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
+        <v>1183</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" t="n">
+        <v>700</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W101" t="n">
+        <v>700</v>
+      </c>
+      <c r="X101" t="n">
+        <v>630</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>595</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>490</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>054920</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5360</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6870</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5240</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6870</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13088664</v>
+      </c>
+      <c r="G102" t="n">
+        <v>84185743050</v>
+      </c>
+      <c r="H102" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="I102" t="n">
+        <v>841</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>한컴위드</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
+        <v>5512</v>
+      </c>
+      <c r="P102" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R102" t="n">
+        <v>208</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>5028</v>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W102" t="n">
+        <v>5028</v>
+      </c>
+      <c r="X102" t="n">
+        <v>4525</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>4274</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>3519</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>2514</v>
+      </c>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>072130</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>4580</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4580</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4135</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4240</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12246454</v>
+      </c>
+      <c r="G103" t="n">
+        <v>54418113665</v>
+      </c>
+      <c r="H103" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="I103" t="n">
+        <v>544</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>유엔젤</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>자료처리, 호스팅, 포털 및 기타 인터넷 정보매개 서비스업</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>4368</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1271</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>3243</v>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W103" t="n">
+        <v>3243</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2918</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2756</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>1621</v>
+      </c>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>242040</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2895</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3570</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2890</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3395</v>
+      </c>
+      <c r="F104" t="n">
+        <v>64798882</v>
+      </c>
+      <c r="G104" t="n">
+        <v>219887060770</v>
+      </c>
+      <c r="H104" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2198</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>나무기술</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
+        <v>1183</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>700</v>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W104" t="n">
+        <v>700</v>
+      </c>
+      <c r="X104" t="n">
+        <v>630</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>595</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>490</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>797</v>
+      </c>
+      <c r="C105" t="n">
+        <v>986</v>
+      </c>
+      <c r="D105" t="n">
+        <v>797</v>
+      </c>
+      <c r="E105" t="n">
+        <v>908</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11025646</v>
+      </c>
+      <c r="G105" t="n">
+        <v>10393468877</v>
+      </c>
+      <c r="H105" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="I105" t="n">
+        <v>103</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2023/01/27</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>아센디오</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O105" t="n">
+        <v>564</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>282</v>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W105" t="n">
+        <v>282</v>
+      </c>
+      <c r="X105" t="n">
+        <v>253</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>239</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>197</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>141</v>
+      </c>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD105"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10985,6 +10985,2006 @@
       <c r="AC105" t="inlineStr"/>
       <c r="AD105" t="inlineStr"/>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>417860</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>36000</v>
+      </c>
+      <c r="C106" t="n">
+        <v>46800</v>
+      </c>
+      <c r="D106" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E106" t="n">
+        <v>46800</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2157331</v>
+      </c>
+      <c r="G106" t="n">
+        <v>98677579300</v>
+      </c>
+      <c r="H106" t="n">
+        <v>30</v>
+      </c>
+      <c r="I106" t="n">
+        <v>986</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>오브젠</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O106" t="n">
+        <v>284</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>164.75</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W106" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>402030</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>83000</v>
+      </c>
+      <c r="C107" t="n">
+        <v>104200</v>
+      </c>
+      <c r="D107" t="n">
+        <v>77700</v>
+      </c>
+      <c r="E107" t="n">
+        <v>104200</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1712638</v>
+      </c>
+      <c r="G107" t="n">
+        <v>157018510300</v>
+      </c>
+      <c r="H107" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1570</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>코난테크놀로지</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
+        <v>3220</v>
+      </c>
+      <c r="P107" t="n">
+        <v>222.62</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="R107" t="n">
+        <v>468</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W107" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>058850</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3535</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4240</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3460</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4240</v>
+      </c>
+      <c r="F108" t="n">
+        <v>33856610</v>
+      </c>
+      <c r="G108" t="n">
+        <v>129528704825</v>
+      </c>
+      <c r="H108" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1295</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>KTcs</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O108" t="n">
+        <v>4374</v>
+      </c>
+      <c r="P108" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R108" t="n">
+        <v>454</v>
+      </c>
+      <c r="S108" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T108" t="n">
+        <v>100</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3142</v>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W108" t="n">
+        <v>3142</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2827</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>2670</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>1571</v>
+      </c>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>035610</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4965</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6140</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4850</v>
+      </c>
+      <c r="E109" t="n">
+        <v>6020</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18368097</v>
+      </c>
+      <c r="G109" t="n">
+        <v>107211372120</v>
+      </c>
+      <c r="H109" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1072</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>솔본</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>회사 본부 및 경영 컨설팅 서비스업</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O109" t="n">
+        <v>6296</v>
+      </c>
+      <c r="P109" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R109" t="n">
+        <v>792</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>3979</v>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W109" t="n">
+        <v>3979</v>
+      </c>
+      <c r="X109" t="n">
+        <v>3581</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>3382</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>2785</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>254490</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>17900</v>
+      </c>
+      <c r="C110" t="n">
+        <v>20200</v>
+      </c>
+      <c r="D110" t="n">
+        <v>17650</v>
+      </c>
+      <c r="E110" t="n">
+        <v>19470</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14976310</v>
+      </c>
+      <c r="G110" t="n">
+        <v>285815328550</v>
+      </c>
+      <c r="H110" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2858</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>미래반도체</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>기타 전문 도매업</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
+        <v>3647</v>
+      </c>
+      <c r="P110" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1376</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W110" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X110" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>090150</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2085</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1638</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1987</v>
+      </c>
+      <c r="F111" t="n">
+        <v>39775634</v>
+      </c>
+      <c r="G111" t="n">
+        <v>76607629706</v>
+      </c>
+      <c r="H111" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="I111" t="n">
+        <v>766</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>아이윈</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O111" t="n">
+        <v>2062</v>
+      </c>
+      <c r="P111" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R111" t="n">
+        <v>82</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="T111" t="n">
+        <v>100</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1406</v>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W111" t="n">
+        <v>1406</v>
+      </c>
+      <c r="X111" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1195</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>984</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>703</v>
+      </c>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>058860</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3045</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3670</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2915</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3550</v>
+      </c>
+      <c r="F112" t="n">
+        <v>17716540</v>
+      </c>
+      <c r="G112" t="n">
+        <v>60465646100</v>
+      </c>
+      <c r="H112" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="I112" t="n">
+        <v>604</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>KTis</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O112" t="n">
+        <v>5909</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R112" t="n">
+        <v>767</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T112" t="n">
+        <v>100</v>
+      </c>
+      <c r="U112" t="n">
+        <v>4192</v>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W112" t="n">
+        <v>4192</v>
+      </c>
+      <c r="X112" t="n">
+        <v>3772</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>3563</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>2934</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>2096</v>
+      </c>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>377480</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>20700</v>
+      </c>
+      <c r="C113" t="n">
+        <v>24550</v>
+      </c>
+      <c r="D113" t="n">
+        <v>19990</v>
+      </c>
+      <c r="E113" t="n">
+        <v>24350</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4990937</v>
+      </c>
+      <c r="G113" t="n">
+        <v>116015119870</v>
+      </c>
+      <c r="H113" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1160</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>마인즈랩</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O113" t="n">
+        <v>4928</v>
+      </c>
+      <c r="P113" t="n">
+        <v>62.59</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="R113" t="n">
+        <v>389</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2788</v>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W113" t="n">
+        <v>2788</v>
+      </c>
+      <c r="X113" t="n">
+        <v>2509</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2369</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1951</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>1394</v>
+      </c>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>104200</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>6800</v>
+      </c>
+      <c r="C114" t="n">
+        <v>8600</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6770</v>
+      </c>
+      <c r="E114" t="n">
+        <v>8010</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5698239</v>
+      </c>
+      <c r="G114" t="n">
+        <v>45035140890</v>
+      </c>
+      <c r="H114" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="I114" t="n">
+        <v>450</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>NHN벅스</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O114" t="n">
+        <v>5288</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2928</v>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W114" t="n">
+        <v>2928</v>
+      </c>
+      <c r="X114" t="n">
+        <v>2635</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>2488</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2049</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>1464</v>
+      </c>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>296640</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>14630</v>
+      </c>
+      <c r="C115" t="n">
+        <v>17570</v>
+      </c>
+      <c r="D115" t="n">
+        <v>14630</v>
+      </c>
+      <c r="E115" t="n">
+        <v>16750</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6336195</v>
+      </c>
+      <c r="G115" t="n">
+        <v>103901758140</v>
+      </c>
+      <c r="H115" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1039</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>이노룰스</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O115" t="n">
+        <v>3492</v>
+      </c>
+      <c r="P115" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="R115" t="n">
+        <v>813</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T115" t="n">
+        <v>25</v>
+      </c>
+      <c r="U115" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W115" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>300080</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>25750</v>
+      </c>
+      <c r="C116" t="n">
+        <v>30150</v>
+      </c>
+      <c r="D116" t="n">
+        <v>25650</v>
+      </c>
+      <c r="E116" t="n">
+        <v>29750</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2247579</v>
+      </c>
+      <c r="G116" t="n">
+        <v>63249343550</v>
+      </c>
+      <c r="H116" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="I116" t="n">
+        <v>632</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>플리토</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>자료처리, 호스팅, 포털 및 기타 인터넷 정보매개 서비스업</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O116" t="n">
+        <v>3326</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1663</v>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W116" t="n">
+        <v>1663</v>
+      </c>
+      <c r="X116" t="n">
+        <v>1496</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1413</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1164</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>831</v>
+      </c>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>307930</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>7380</v>
+      </c>
+      <c r="C117" t="n">
+        <v>8090</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7040</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7780</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7399320</v>
+      </c>
+      <c r="G117" t="n">
+        <v>56566673000</v>
+      </c>
+      <c r="H117" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="I117" t="n">
+        <v>565</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>컴퍼니케이</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>기타 금융업</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O117" t="n">
+        <v>4766</v>
+      </c>
+      <c r="P117" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1210</v>
+      </c>
+      <c r="S117" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="T117" t="n">
+        <v>250</v>
+      </c>
+      <c r="U117" t="n">
+        <v>4948</v>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W117" t="n">
+        <v>4948</v>
+      </c>
+      <c r="X117" t="n">
+        <v>4453</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>4205</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>3463</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>2474</v>
+      </c>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>301300</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>33900</v>
+      </c>
+      <c r="C118" t="n">
+        <v>39500</v>
+      </c>
+      <c r="D118" t="n">
+        <v>32600</v>
+      </c>
+      <c r="E118" t="n">
+        <v>37300</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1088995</v>
+      </c>
+      <c r="G118" t="n">
+        <v>39503177450</v>
+      </c>
+      <c r="H118" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="I118" t="n">
+        <v>395</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>바이브컴퍼니</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O118" t="n">
+        <v>5853</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2926</v>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W118" t="n">
+        <v>2926</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2633</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2487</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>2048</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>1463</v>
+      </c>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>139670</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>9210</v>
+      </c>
+      <c r="C119" t="n">
+        <v>11380</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9170</v>
+      </c>
+      <c r="E119" t="n">
+        <v>10510</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4083470</v>
+      </c>
+      <c r="G119" t="n">
+        <v>42821152930</v>
+      </c>
+      <c r="H119" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="I119" t="n">
+        <v>428</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>키네마스터</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
+        <v>1761</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>1198</v>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W119" t="n">
+        <v>1198</v>
+      </c>
+      <c r="X119" t="n">
+        <v>1078</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1018</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>838</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>599</v>
+      </c>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>403</v>
+      </c>
+      <c r="C120" t="n">
+        <v>403</v>
+      </c>
+      <c r="D120" t="n">
+        <v>363</v>
+      </c>
+      <c r="E120" t="n">
+        <v>403</v>
+      </c>
+      <c r="F120" t="n">
+        <v>29850627</v>
+      </c>
+      <c r="G120" t="n">
+        <v>11880029308</v>
+      </c>
+      <c r="H120" t="n">
+        <v>30</v>
+      </c>
+      <c r="I120" t="n">
+        <v>118</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>미래아이앤지</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O120" t="n">
+        <v>552</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>621</v>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W120" t="n">
+        <v>621</v>
+      </c>
+      <c r="X120" t="n">
+        <v>559</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>528</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>435</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>058850</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>3535</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4240</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3460</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4240</v>
+      </c>
+      <c r="F121" t="n">
+        <v>33885568</v>
+      </c>
+      <c r="G121" t="n">
+        <v>129651486745</v>
+      </c>
+      <c r="H121" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1296</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>KTcs</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O121" t="n">
+        <v>4374</v>
+      </c>
+      <c r="P121" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R121" t="n">
+        <v>454</v>
+      </c>
+      <c r="S121" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T121" t="n">
+        <v>100</v>
+      </c>
+      <c r="U121" t="n">
+        <v>3142</v>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W121" t="n">
+        <v>3142</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2827</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>2670</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>1571</v>
+      </c>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>035610</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>4965</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6140</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4850</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6020</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18375106</v>
+      </c>
+      <c r="G122" t="n">
+        <v>107253285940</v>
+      </c>
+      <c r="H122" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1072</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>솔본</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>회사 본부 및 경영 컨설팅 서비스업</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O122" t="n">
+        <v>6296</v>
+      </c>
+      <c r="P122" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R122" t="n">
+        <v>792</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>3979</v>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W122" t="n">
+        <v>3979</v>
+      </c>
+      <c r="X122" t="n">
+        <v>3581</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>3382</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>2785</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>1989</v>
+      </c>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>254490</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>17900</v>
+      </c>
+      <c r="C123" t="n">
+        <v>20200</v>
+      </c>
+      <c r="D123" t="n">
+        <v>17650</v>
+      </c>
+      <c r="E123" t="n">
+        <v>19470</v>
+      </c>
+      <c r="F123" t="n">
+        <v>14993881</v>
+      </c>
+      <c r="G123" t="n">
+        <v>286147771870</v>
+      </c>
+      <c r="H123" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2861</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>미래반도체</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>기타 전문 도매업</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O123" t="n">
+        <v>3647</v>
+      </c>
+      <c r="P123" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1376</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W123" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X123" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>090150</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2085</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1638</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1987</v>
+      </c>
+      <c r="F124" t="n">
+        <v>39801976</v>
+      </c>
+      <c r="G124" t="n">
+        <v>76660181996</v>
+      </c>
+      <c r="H124" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="I124" t="n">
+        <v>766</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>아이윈</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O124" t="n">
+        <v>2062</v>
+      </c>
+      <c r="P124" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R124" t="n">
+        <v>82</v>
+      </c>
+      <c r="S124" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="T124" t="n">
+        <v>100</v>
+      </c>
+      <c r="U124" t="n">
+        <v>1406</v>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W124" t="n">
+        <v>1406</v>
+      </c>
+      <c r="X124" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1195</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>984</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>703</v>
+      </c>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>058860</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3045</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3670</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2915</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3550</v>
+      </c>
+      <c r="F125" t="n">
+        <v>17748065</v>
+      </c>
+      <c r="G125" t="n">
+        <v>60577559850</v>
+      </c>
+      <c r="H125" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="I125" t="n">
+        <v>605</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2023/01/30</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>KTis</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O125" t="n">
+        <v>5909</v>
+      </c>
+      <c r="P125" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R125" t="n">
+        <v>767</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T125" t="n">
+        <v>100</v>
+      </c>
+      <c r="U125" t="n">
+        <v>4192</v>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W125" t="n">
+        <v>4192</v>
+      </c>
+      <c r="X125" t="n">
+        <v>3772</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>3563</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>2934</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>2096</v>
+      </c>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12985,6 +12985,806 @@
       <c r="AC125" t="inlineStr"/>
       <c r="AD125" t="inlineStr"/>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>093640</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>7600</v>
+      </c>
+      <c r="C126" t="n">
+        <v>8580</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E126" t="n">
+        <v>8580</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11344831</v>
+      </c>
+      <c r="G126" t="n">
+        <v>89731247660</v>
+      </c>
+      <c r="H126" t="n">
+        <v>30</v>
+      </c>
+      <c r="I126" t="n">
+        <v>897</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>다믈멀티미디어</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O126" t="n">
+        <v>2584</v>
+      </c>
+      <c r="P126" t="n">
+        <v>43.78</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="R126" t="n">
+        <v>196</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1499</v>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W126" t="n">
+        <v>1499</v>
+      </c>
+      <c r="X126" t="n">
+        <v>1349</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1274</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1049</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>749</v>
+      </c>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>268600</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C127" t="n">
+        <v>13060</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9950</v>
+      </c>
+      <c r="E127" t="n">
+        <v>13060</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3151693</v>
+      </c>
+      <c r="G127" t="n">
+        <v>37860565570</v>
+      </c>
+      <c r="H127" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="I127" t="n">
+        <v>378</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>셀리버리</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>자연과학 및 공학 연구개발업</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O127" t="n">
+        <v>2078</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1039</v>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W127" t="n">
+        <v>1039</v>
+      </c>
+      <c r="X127" t="n">
+        <v>935</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>883</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>727</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>519</v>
+      </c>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>438</v>
+      </c>
+      <c r="C128" t="n">
+        <v>523</v>
+      </c>
+      <c r="D128" t="n">
+        <v>416</v>
+      </c>
+      <c r="E128" t="n">
+        <v>523</v>
+      </c>
+      <c r="F128" t="n">
+        <v>136926562</v>
+      </c>
+      <c r="G128" t="n">
+        <v>66324976007</v>
+      </c>
+      <c r="H128" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="I128" t="n">
+        <v>663</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>미래아이앤지</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O128" t="n">
+        <v>552</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>621</v>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W128" t="n">
+        <v>621</v>
+      </c>
+      <c r="X128" t="n">
+        <v>559</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>528</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>435</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>389500</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>29250</v>
+      </c>
+      <c r="C129" t="n">
+        <v>38000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>29150</v>
+      </c>
+      <c r="E129" t="n">
+        <v>35300</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4950931</v>
+      </c>
+      <c r="G129" t="n">
+        <v>174071639800</v>
+      </c>
+      <c r="H129" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1740</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>에스비비테크</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>일반 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O129" t="n">
+        <v>1406</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W129" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>394280</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>14390</v>
+      </c>
+      <c r="C130" t="n">
+        <v>18870</v>
+      </c>
+      <c r="D130" t="n">
+        <v>13930</v>
+      </c>
+      <c r="E130" t="n">
+        <v>17360</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14928751</v>
+      </c>
+      <c r="G130" t="n">
+        <v>259266855060</v>
+      </c>
+      <c r="H130" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2592</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>오픈엣지테크놀로지</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O130" t="n">
+        <v>1212</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W130" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>039740</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4985</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5980</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4615</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11067948</v>
+      </c>
+      <c r="G131" t="n">
+        <v>59366900445</v>
+      </c>
+      <c r="H131" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="I131" t="n">
+        <v>593</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>한국정보공학</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>기타 전문 도매업</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O131" t="n">
+        <v>5055</v>
+      </c>
+      <c r="P131" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R131" t="n">
+        <v>523</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>3149</v>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W131" t="n">
+        <v>3149</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2834</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2676</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>2204</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>1574</v>
+      </c>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>064480</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>6530</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7990</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6210</v>
+      </c>
+      <c r="E132" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10704616</v>
+      </c>
+      <c r="G132" t="n">
+        <v>78506372750</v>
+      </c>
+      <c r="H132" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="I132" t="n">
+        <v>785</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>브리지텍</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O132" t="n">
+        <v>3458</v>
+      </c>
+      <c r="P132" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="R132" t="n">
+        <v>245</v>
+      </c>
+      <c r="S132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T132" t="n">
+        <v>120</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2056</v>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W132" t="n">
+        <v>2056</v>
+      </c>
+      <c r="X132" t="n">
+        <v>1850</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1748</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>300120</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C133" t="n">
+        <v>8470</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6890</v>
+      </c>
+      <c r="E133" t="n">
+        <v>7930</v>
+      </c>
+      <c r="F133" t="n">
+        <v>14097651</v>
+      </c>
+      <c r="G133" t="n">
+        <v>110035790820</v>
+      </c>
+      <c r="H133" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1100</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2023/01/31</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>라온피플</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O133" t="n">
+        <v>2522</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2085</v>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W133" t="n">
+        <v>2085</v>
+      </c>
+      <c r="X133" t="n">
+        <v>1876</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1772</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1459</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>1042</v>
+      </c>
+      <c r="AB133" t="inlineStr"/>
+      <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD133"/>
+  <dimension ref="A1:AD144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13785,6 +13785,1106 @@
       <c r="AC133" t="inlineStr"/>
       <c r="AD133" t="inlineStr"/>
     </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>094940</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>8180</v>
+      </c>
+      <c r="C134" t="n">
+        <v>10070</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8020</v>
+      </c>
+      <c r="E134" t="n">
+        <v>10070</v>
+      </c>
+      <c r="F134" t="n">
+        <v>16332672</v>
+      </c>
+      <c r="G134" t="n">
+        <v>152948942980</v>
+      </c>
+      <c r="H134" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1529</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>2023/02/01</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>푸른기술</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>컴퓨터 및 주변장치 제조업</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O134" t="n">
+        <v>4208</v>
+      </c>
+      <c r="P134" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="R134" t="n">
+        <v>207</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T134" t="n">
+        <v>30</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2574</v>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W134" t="n">
+        <v>2574</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2317</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2188</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1802</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>1287</v>
+      </c>
+      <c r="AB134" t="inlineStr"/>
+      <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>093640</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C135" t="n">
+        <v>10660</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9050</v>
+      </c>
+      <c r="E135" t="n">
+        <v>10320</v>
+      </c>
+      <c r="F135" t="n">
+        <v>28402151</v>
+      </c>
+      <c r="G135" t="n">
+        <v>284447206690</v>
+      </c>
+      <c r="H135" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2844</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2023/02/01</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>다믈멀티미디어</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O135" t="n">
+        <v>2584</v>
+      </c>
+      <c r="P135" t="n">
+        <v>52.66</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="R135" t="n">
+        <v>196</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>1499</v>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W135" t="n">
+        <v>1499</v>
+      </c>
+      <c r="X135" t="n">
+        <v>1349</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1274</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1049</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>749</v>
+      </c>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>790</v>
+      </c>
+      <c r="C136" t="n">
+        <v>966</v>
+      </c>
+      <c r="D136" t="n">
+        <v>781</v>
+      </c>
+      <c r="E136" t="n">
+        <v>912</v>
+      </c>
+      <c r="F136" t="n">
+        <v>52189987</v>
+      </c>
+      <c r="G136" t="n">
+        <v>45763977927</v>
+      </c>
+      <c r="H136" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="I136" t="n">
+        <v>457</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>2023/02/01</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>SK증권</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>금융 지원 서비스업</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O136" t="n">
+        <v>1446</v>
+      </c>
+      <c r="P136" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R136" t="n">
+        <v>92</v>
+      </c>
+      <c r="S136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T136" t="n">
+        <v>15</v>
+      </c>
+      <c r="U136" t="n">
+        <v>897</v>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W136" t="n">
+        <v>897</v>
+      </c>
+      <c r="X136" t="n">
+        <v>807</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>762</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>628</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>448</v>
+      </c>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>211270</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>11430</v>
+      </c>
+      <c r="C137" t="n">
+        <v>14820</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11410</v>
+      </c>
+      <c r="E137" t="n">
+        <v>14820</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9575334</v>
+      </c>
+      <c r="G137" t="n">
+        <v>130073747020</v>
+      </c>
+      <c r="H137" t="n">
+        <v>30</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>2023/02/01</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>AP위성</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O137" t="n">
+        <v>5714</v>
+      </c>
+      <c r="P137" t="n">
+        <v>149.75</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="R137" t="n">
+        <v>99</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T137" t="n">
+        <v>70</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2982</v>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W137" t="n">
+        <v>2982</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2683</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2534</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>2087</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>1491</v>
+      </c>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>094940</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>8180</v>
+      </c>
+      <c r="C138" t="n">
+        <v>10070</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8020</v>
+      </c>
+      <c r="E138" t="n">
+        <v>10070</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16332672</v>
+      </c>
+      <c r="G138" t="n">
+        <v>152948942980</v>
+      </c>
+      <c r="H138" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1529</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>2023/02/01</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>푸른기술</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>컴퓨터 및 주변장치 제조업</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O138" t="n">
+        <v>4208</v>
+      </c>
+      <c r="P138" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="R138" t="n">
+        <v>207</v>
+      </c>
+      <c r="S138" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T138" t="n">
+        <v>30</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2574</v>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W138" t="n">
+        <v>2574</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2317</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2188</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1802</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>1287</v>
+      </c>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>389140</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>14130</v>
+      </c>
+      <c r="C139" t="n">
+        <v>17710</v>
+      </c>
+      <c r="D139" t="n">
+        <v>13700</v>
+      </c>
+      <c r="E139" t="n">
+        <v>17710</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9029885</v>
+      </c>
+      <c r="G139" t="n">
+        <v>142788838260</v>
+      </c>
+      <c r="H139" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1427</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>2023/02/01</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>포바이포</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O139" t="n">
+        <v>4348</v>
+      </c>
+      <c r="P139" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="R139" t="n">
+        <v>580</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W139" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB139" t="inlineStr"/>
+      <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>425040</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>34250</v>
+      </c>
+      <c r="C140" t="n">
+        <v>43800</v>
+      </c>
+      <c r="D140" t="n">
+        <v>34000</v>
+      </c>
+      <c r="E140" t="n">
+        <v>42950</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3462290</v>
+      </c>
+      <c r="G140" t="n">
+        <v>138446157900</v>
+      </c>
+      <c r="H140" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1384</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2023/02/01</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>티이엠씨</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O140" t="n">
+        <v>4825</v>
+      </c>
+      <c r="P140" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1390</v>
+      </c>
+      <c r="S140" t="n">
+        <v>0</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W140" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>214370</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>144000</v>
+      </c>
+      <c r="C141" t="n">
+        <v>186500</v>
+      </c>
+      <c r="D141" t="n">
+        <v>141600</v>
+      </c>
+      <c r="E141" t="n">
+        <v>180000</v>
+      </c>
+      <c r="F141" t="n">
+        <v>525638</v>
+      </c>
+      <c r="G141" t="n">
+        <v>88739888400</v>
+      </c>
+      <c r="H141" t="n">
+        <v>25</v>
+      </c>
+      <c r="I141" t="n">
+        <v>887</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>2023/02/01</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>케어젠</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>기초 의약물질 및 생물학적 제제 제조업</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O141" t="n">
+        <v>21387</v>
+      </c>
+      <c r="P141" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2582</v>
+      </c>
+      <c r="S141" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2300</v>
+      </c>
+      <c r="U141" t="n">
+        <v>20511</v>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W141" t="n">
+        <v>20511</v>
+      </c>
+      <c r="X141" t="n">
+        <v>18460</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>17435</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>14358</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>10255</v>
+      </c>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>099320</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>35600</v>
+      </c>
+      <c r="C142" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D142" t="n">
+        <v>35200</v>
+      </c>
+      <c r="E142" t="n">
+        <v>41900</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1678716</v>
+      </c>
+      <c r="G142" t="n">
+        <v>68294234400</v>
+      </c>
+      <c r="H142" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="I142" t="n">
+        <v>682</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2023/02/01</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>쎄트렉아이</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>항공기,우주선 및 부품 제조업</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O142" t="n">
+        <v>13215</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T142" t="n">
+        <v>140</v>
+      </c>
+      <c r="U142" t="n">
+        <v>10190</v>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W142" t="n">
+        <v>10190</v>
+      </c>
+      <c r="X142" t="n">
+        <v>9171</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>8662</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>7133</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>5095</v>
+      </c>
+      <c r="AB142" t="inlineStr"/>
+      <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>093640</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C143" t="n">
+        <v>10660</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9050</v>
+      </c>
+      <c r="E143" t="n">
+        <v>10320</v>
+      </c>
+      <c r="F143" t="n">
+        <v>28402151</v>
+      </c>
+      <c r="G143" t="n">
+        <v>284447206690</v>
+      </c>
+      <c r="H143" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2844</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>2023/02/01</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>다믈멀티미디어</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O143" t="n">
+        <v>2584</v>
+      </c>
+      <c r="P143" t="n">
+        <v>52.66</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="R143" t="n">
+        <v>196</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1499</v>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W143" t="n">
+        <v>1499</v>
+      </c>
+      <c r="X143" t="n">
+        <v>1349</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1274</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1049</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>749</v>
+      </c>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>790</v>
+      </c>
+      <c r="C144" t="n">
+        <v>966</v>
+      </c>
+      <c r="D144" t="n">
+        <v>781</v>
+      </c>
+      <c r="E144" t="n">
+        <v>912</v>
+      </c>
+      <c r="F144" t="n">
+        <v>52189987</v>
+      </c>
+      <c r="G144" t="n">
+        <v>45763977927</v>
+      </c>
+      <c r="H144" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="I144" t="n">
+        <v>457</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>2023/02/01</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>SK증권</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>금융 지원 서비스업</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O144" t="n">
+        <v>1446</v>
+      </c>
+      <c r="P144" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R144" t="n">
+        <v>92</v>
+      </c>
+      <c r="S144" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T144" t="n">
+        <v>15</v>
+      </c>
+      <c r="U144" t="n">
+        <v>897</v>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W144" t="n">
+        <v>897</v>
+      </c>
+      <c r="X144" t="n">
+        <v>807</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>762</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>628</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>448</v>
+      </c>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD144"/>
+  <dimension ref="A1:AD163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14885,6 +14885,1906 @@
       <c r="AC144" t="inlineStr"/>
       <c r="AD144" t="inlineStr"/>
     </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>033180</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>635</v>
+      </c>
+      <c r="C145" t="n">
+        <v>816</v>
+      </c>
+      <c r="D145" t="n">
+        <v>634</v>
+      </c>
+      <c r="E145" t="n">
+        <v>816</v>
+      </c>
+      <c r="F145" t="n">
+        <v>65032835</v>
+      </c>
+      <c r="G145" t="n">
+        <v>50728873559</v>
+      </c>
+      <c r="H145" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="I145" t="n">
+        <v>507</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>KH 필룩스</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O145" t="n">
+        <v>3088</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" t="n">
+        <v>0</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1544</v>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W145" t="n">
+        <v>1544</v>
+      </c>
+      <c r="X145" t="n">
+        <v>1389</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1312</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>772</v>
+      </c>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>060230</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>4735</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4625</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F146" t="n">
+        <v>41876860</v>
+      </c>
+      <c r="G146" t="n">
+        <v>226443925255</v>
+      </c>
+      <c r="H146" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2264</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>소니드</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O146" t="n">
+        <v>4074</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
+      <c r="S146" t="n">
+        <v>0</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2037</v>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W146" t="n">
+        <v>2037</v>
+      </c>
+      <c r="X146" t="n">
+        <v>1833</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1731</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1425</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>1018</v>
+      </c>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>164060</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>6130</v>
+      </c>
+      <c r="C147" t="n">
+        <v>7830</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6120</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7680</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17109979</v>
+      </c>
+      <c r="G147" t="n">
+        <v>123364717680</v>
+      </c>
+      <c r="H147" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1233</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>이루다</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O147" t="n">
+        <v>2047</v>
+      </c>
+      <c r="P147" t="n">
+        <v>38.97</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R147" t="n">
+        <v>197</v>
+      </c>
+      <c r="S147" t="n">
+        <v>0</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2685</v>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W147" t="n">
+        <v>2685</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2416</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2282</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1879</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>1342</v>
+      </c>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>290520</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C148" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6050</v>
+      </c>
+      <c r="E148" t="n">
+        <v>7010</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10938708</v>
+      </c>
+      <c r="G148" t="n">
+        <v>76018481010</v>
+      </c>
+      <c r="H148" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="I148" t="n">
+        <v>760</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>신도기연</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O148" t="n">
+        <v>4001</v>
+      </c>
+      <c r="P148" t="n">
+        <v>68.06</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R148" t="n">
+        <v>103</v>
+      </c>
+      <c r="S148" t="n">
+        <v>0</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
+        <v>3968</v>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W148" t="n">
+        <v>3968</v>
+      </c>
+      <c r="X148" t="n">
+        <v>3571</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>3372</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>2777</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>1984</v>
+      </c>
+      <c r="AB148" t="inlineStr"/>
+      <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>336060</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2320</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2635</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2255</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2370</v>
+      </c>
+      <c r="F149" t="n">
+        <v>37560956</v>
+      </c>
+      <c r="G149" t="n">
+        <v>91980593825</v>
+      </c>
+      <c r="H149" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="I149" t="n">
+        <v>919</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>웨이버스</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O149" t="n">
+        <v>1938</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
+      <c r="S149" t="n">
+        <v>0</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>969</v>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W149" t="n">
+        <v>969</v>
+      </c>
+      <c r="X149" t="n">
+        <v>872</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>823</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>678</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>484</v>
+      </c>
+      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>111870</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>271</v>
+      </c>
+      <c r="C150" t="n">
+        <v>346</v>
+      </c>
+      <c r="D150" t="n">
+        <v>271</v>
+      </c>
+      <c r="E150" t="n">
+        <v>311</v>
+      </c>
+      <c r="F150" t="n">
+        <v>80790774</v>
+      </c>
+      <c r="G150" t="n">
+        <v>25561387529</v>
+      </c>
+      <c r="H150" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="I150" t="n">
+        <v>255</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>KH 전자</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>영상 및 음향기기 제조업</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O150" t="n">
+        <v>972</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
+      <c r="S150" t="n">
+        <v>0</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0</v>
+      </c>
+      <c r="U150" t="n">
+        <v>486</v>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W150" t="n">
+        <v>486</v>
+      </c>
+      <c r="X150" t="n">
+        <v>437</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>413</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>340</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>243</v>
+      </c>
+      <c r="AB150" t="inlineStr"/>
+      <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>254490</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>17870</v>
+      </c>
+      <c r="C151" t="n">
+        <v>21750</v>
+      </c>
+      <c r="D151" t="n">
+        <v>17600</v>
+      </c>
+      <c r="E151" t="n">
+        <v>20250</v>
+      </c>
+      <c r="F151" t="n">
+        <v>13294815</v>
+      </c>
+      <c r="G151" t="n">
+        <v>270611896700</v>
+      </c>
+      <c r="H151" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2706</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>미래반도체</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>기타 전문 도매업</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O151" t="n">
+        <v>3647</v>
+      </c>
+      <c r="P151" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1376</v>
+      </c>
+      <c r="S151" t="n">
+        <v>0</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W151" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>033180</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>635</v>
+      </c>
+      <c r="C152" t="n">
+        <v>816</v>
+      </c>
+      <c r="D152" t="n">
+        <v>634</v>
+      </c>
+      <c r="E152" t="n">
+        <v>816</v>
+      </c>
+      <c r="F152" t="n">
+        <v>65032835</v>
+      </c>
+      <c r="G152" t="n">
+        <v>50728873559</v>
+      </c>
+      <c r="H152" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="I152" t="n">
+        <v>507</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>KH 필룩스</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O152" t="n">
+        <v>3088</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1544</v>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W152" t="n">
+        <v>1544</v>
+      </c>
+      <c r="X152" t="n">
+        <v>1389</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1312</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>772</v>
+      </c>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>060230</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4735</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4625</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F153" t="n">
+        <v>41876860</v>
+      </c>
+      <c r="G153" t="n">
+        <v>226443925255</v>
+      </c>
+      <c r="H153" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2264</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>소니드</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O153" t="n">
+        <v>4074</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
+      <c r="S153" t="n">
+        <v>0</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2037</v>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W153" t="n">
+        <v>2037</v>
+      </c>
+      <c r="X153" t="n">
+        <v>1833</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1731</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1425</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>1018</v>
+      </c>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>164060</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>6130</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7830</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6120</v>
+      </c>
+      <c r="E154" t="n">
+        <v>7680</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17109979</v>
+      </c>
+      <c r="G154" t="n">
+        <v>123364717680</v>
+      </c>
+      <c r="H154" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1233</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>이루다</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O154" t="n">
+        <v>2047</v>
+      </c>
+      <c r="P154" t="n">
+        <v>38.97</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R154" t="n">
+        <v>197</v>
+      </c>
+      <c r="S154" t="n">
+        <v>0</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2685</v>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W154" t="n">
+        <v>2685</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2416</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2282</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1879</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>1342</v>
+      </c>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>352770</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>7780</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9990</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7780</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9290</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8117146</v>
+      </c>
+      <c r="G155" t="n">
+        <v>75856144940</v>
+      </c>
+      <c r="H155" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="I155" t="n">
+        <v>758</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>클리노믹스</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>의료용품 및 기타 의약 관련제품 제조업</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O155" t="n">
+        <v>4456</v>
+      </c>
+      <c r="P155" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1214</v>
+      </c>
+      <c r="S155" t="n">
+        <v>0</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0</v>
+      </c>
+      <c r="U155" t="n">
+        <v>3239</v>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W155" t="n">
+        <v>3239</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2915</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2753</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>2267</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>1619</v>
+      </c>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>099390</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>12750</v>
+      </c>
+      <c r="C156" t="n">
+        <v>14560</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12470</v>
+      </c>
+      <c r="E156" t="n">
+        <v>13380</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5861452</v>
+      </c>
+      <c r="G156" t="n">
+        <v>80660953190</v>
+      </c>
+      <c r="H156" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="I156" t="n">
+        <v>806</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>브레인즈컴퍼니</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O156" t="n">
+        <v>4960</v>
+      </c>
+      <c r="P156" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R156" t="n">
+        <v>655</v>
+      </c>
+      <c r="S156" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T156" t="n">
+        <v>120</v>
+      </c>
+      <c r="U156" t="n">
+        <v>5815</v>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W156" t="n">
+        <v>5815</v>
+      </c>
+      <c r="X156" t="n">
+        <v>5234</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>4943</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>4071</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>2907</v>
+      </c>
+      <c r="AB156" t="inlineStr"/>
+      <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>187270</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4700</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5930</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4650</v>
+      </c>
+      <c r="E157" t="n">
+        <v>5550</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8694459</v>
+      </c>
+      <c r="G157" t="n">
+        <v>47865289635</v>
+      </c>
+      <c r="H157" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="I157" t="n">
+        <v>478</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>신화콘텍</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>전동기, 발전기 및 전기 변환 · 공급 · 제어 장치 제조업</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O157" t="n">
+        <v>5553</v>
+      </c>
+      <c r="P157" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>1</v>
+      </c>
+      <c r="R157" t="n">
+        <v>387</v>
+      </c>
+      <c r="S157" t="n">
+        <v>0</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>3144</v>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W157" t="n">
+        <v>3144</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2829</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2672</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>1572</v>
+      </c>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>290520</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C158" t="n">
+        <v>7490</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6050</v>
+      </c>
+      <c r="E158" t="n">
+        <v>7010</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10938708</v>
+      </c>
+      <c r="G158" t="n">
+        <v>76018481010</v>
+      </c>
+      <c r="H158" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="I158" t="n">
+        <v>760</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>신도기연</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O158" t="n">
+        <v>4001</v>
+      </c>
+      <c r="P158" t="n">
+        <v>68.06</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R158" t="n">
+        <v>103</v>
+      </c>
+      <c r="S158" t="n">
+        <v>0</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>3968</v>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W158" t="n">
+        <v>3968</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3571</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3372</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>2777</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>1984</v>
+      </c>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>336060</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2320</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2635</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2255</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2370</v>
+      </c>
+      <c r="F159" t="n">
+        <v>37560956</v>
+      </c>
+      <c r="G159" t="n">
+        <v>91980593825</v>
+      </c>
+      <c r="H159" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="I159" t="n">
+        <v>919</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>웨이버스</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O159" t="n">
+        <v>1938</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
+      <c r="S159" t="n">
+        <v>0</v>
+      </c>
+      <c r="T159" t="n">
+        <v>0</v>
+      </c>
+      <c r="U159" t="n">
+        <v>969</v>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W159" t="n">
+        <v>969</v>
+      </c>
+      <c r="X159" t="n">
+        <v>872</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>823</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>678</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>484</v>
+      </c>
+      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>254490</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>17870</v>
+      </c>
+      <c r="C160" t="n">
+        <v>21750</v>
+      </c>
+      <c r="D160" t="n">
+        <v>17600</v>
+      </c>
+      <c r="E160" t="n">
+        <v>20250</v>
+      </c>
+      <c r="F160" t="n">
+        <v>13294815</v>
+      </c>
+      <c r="G160" t="n">
+        <v>270611896700</v>
+      </c>
+      <c r="H160" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2706</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>미래반도체</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>기타 전문 도매업</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O160" t="n">
+        <v>3647</v>
+      </c>
+      <c r="P160" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1376</v>
+      </c>
+      <c r="S160" t="n">
+        <v>0</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0</v>
+      </c>
+      <c r="U160" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W160" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>300080</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>30750</v>
+      </c>
+      <c r="C161" t="n">
+        <v>35700</v>
+      </c>
+      <c r="D161" t="n">
+        <v>30200</v>
+      </c>
+      <c r="E161" t="n">
+        <v>34600</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1587125</v>
+      </c>
+      <c r="G161" t="n">
+        <v>52811061350</v>
+      </c>
+      <c r="H161" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="I161" t="n">
+        <v>528</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>플리토</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>자료처리, 호스팅, 포털 및 기타 인터넷 정보매개 서비스업</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O161" t="n">
+        <v>3326</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
+      <c r="S161" t="n">
+        <v>0</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1663</v>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W161" t="n">
+        <v>1663</v>
+      </c>
+      <c r="X161" t="n">
+        <v>1496</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1413</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1164</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>831</v>
+      </c>
+      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>376190</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>7150</v>
+      </c>
+      <c r="C162" t="n">
+        <v>8650</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7110</v>
+      </c>
+      <c r="E162" t="n">
+        <v>8050</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4501361</v>
+      </c>
+      <c r="G162" t="n">
+        <v>36652610710</v>
+      </c>
+      <c r="H162" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="I162" t="n">
+        <v>366</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>엘비루셈</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O162" t="n">
+        <v>7689</v>
+      </c>
+      <c r="P162" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="R162" t="n">
+        <v>819</v>
+      </c>
+      <c r="S162" t="n">
+        <v>0</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0</v>
+      </c>
+      <c r="U162" t="n">
+        <v>6602</v>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W162" t="n">
+        <v>6602</v>
+      </c>
+      <c r="X162" t="n">
+        <v>5941</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>5611</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>4621</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>3301</v>
+      </c>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>052020</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>12300</v>
+      </c>
+      <c r="C163" t="n">
+        <v>14330</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12100</v>
+      </c>
+      <c r="E163" t="n">
+        <v>14170</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3573169</v>
+      </c>
+      <c r="G163" t="n">
+        <v>47288657600</v>
+      </c>
+      <c r="H163" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="I163" t="n">
+        <v>472</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2023/02/02</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>에스티큐브</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O163" t="n">
+        <v>460</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
+      <c r="S163" t="n">
+        <v>0</v>
+      </c>
+      <c r="T163" t="n">
+        <v>0</v>
+      </c>
+      <c r="U163" t="n">
+        <v>230</v>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W163" t="n">
+        <v>230</v>
+      </c>
+      <c r="X163" t="n">
+        <v>207</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>195</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>161</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>115</v>
+      </c>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD163"/>
+  <dimension ref="A1:AD176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16785,6 +16785,1306 @@
       <c r="AC163" t="inlineStr"/>
       <c r="AD163" t="inlineStr"/>
     </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>291230</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>7340</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D164" t="n">
+        <v>7210</v>
+      </c>
+      <c r="E164" t="n">
+        <v>8950</v>
+      </c>
+      <c r="F164" t="n">
+        <v>37452965</v>
+      </c>
+      <c r="G164" t="n">
+        <v>315877623700</v>
+      </c>
+      <c r="H164" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3158</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>엔피</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>기타 사업지원 서비스업</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O164" t="n">
+        <v>777</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
+      <c r="S164" t="n">
+        <v>0</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>388</v>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W164" t="n">
+        <v>388</v>
+      </c>
+      <c r="X164" t="n">
+        <v>349</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>330</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>271</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>194</v>
+      </c>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>025770</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>12520</v>
+      </c>
+      <c r="C165" t="n">
+        <v>16270</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12520</v>
+      </c>
+      <c r="E165" t="n">
+        <v>15770</v>
+      </c>
+      <c r="F165" t="n">
+        <v>15721907</v>
+      </c>
+      <c r="G165" t="n">
+        <v>238676923190</v>
+      </c>
+      <c r="H165" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2386</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>한국정보통신</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>전기 통신업</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O165" t="n">
+        <v>6019</v>
+      </c>
+      <c r="P165" t="n">
+        <v>53.47</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R165" t="n">
+        <v>295</v>
+      </c>
+      <c r="S165" t="n">
+        <v>0</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>4281</v>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W165" t="n">
+        <v>4281</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3853</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3638</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>2996</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>2140</v>
+      </c>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>419050</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>22000</v>
+      </c>
+      <c r="C166" t="n">
+        <v>28600</v>
+      </c>
+      <c r="D166" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E166" t="n">
+        <v>26850</v>
+      </c>
+      <c r="F166" t="n">
+        <v>14879253</v>
+      </c>
+      <c r="G166" t="n">
+        <v>394753689850</v>
+      </c>
+      <c r="H166" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3947</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>삼기이브이</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O166" t="n">
+        <v>2976</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
+      <c r="S166" t="n">
+        <v>0</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0</v>
+      </c>
+      <c r="U166" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W166" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>373200</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>5540</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6940</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5460</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6450</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10760227</v>
+      </c>
+      <c r="G167" t="n">
+        <v>69572070970</v>
+      </c>
+      <c r="H167" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="I167" t="n">
+        <v>695</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>하인크코리아</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>그외 기타 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O167" t="n">
+        <v>1872</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
+      <c r="S167" t="n">
+        <v>0</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" t="n">
+        <v>936</v>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W167" t="n">
+        <v>936</v>
+      </c>
+      <c r="X167" t="n">
+        <v>842</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>795</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>655</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>468</v>
+      </c>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>258790</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2440</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1976</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2235</v>
+      </c>
+      <c r="F168" t="n">
+        <v>20860886</v>
+      </c>
+      <c r="G168" t="n">
+        <v>47428955067</v>
+      </c>
+      <c r="H168" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="I168" t="n">
+        <v>474</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>소프트캠프</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O168" t="n">
+        <v>671</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
+      <c r="S168" t="n">
+        <v>0</v>
+      </c>
+      <c r="T168" t="n">
+        <v>0</v>
+      </c>
+      <c r="U168" t="n">
+        <v>485</v>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W168" t="n">
+        <v>485</v>
+      </c>
+      <c r="X168" t="n">
+        <v>436</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>412</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>339</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>242</v>
+      </c>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>288980</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3580</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4280</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3480</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3930</v>
+      </c>
+      <c r="F169" t="n">
+        <v>80362343</v>
+      </c>
+      <c r="G169" t="n">
+        <v>315822134915</v>
+      </c>
+      <c r="H169" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3158</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>모아데이타</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O169" t="n">
+        <v>707</v>
+      </c>
+      <c r="P169" t="n">
+        <v>68.94</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="R169" t="n">
+        <v>57</v>
+      </c>
+      <c r="S169" t="n">
+        <v>0</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0</v>
+      </c>
+      <c r="U169" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W169" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>417860</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>51600</v>
+      </c>
+      <c r="C170" t="n">
+        <v>63300</v>
+      </c>
+      <c r="D170" t="n">
+        <v>51200</v>
+      </c>
+      <c r="E170" t="n">
+        <v>63300</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3536539</v>
+      </c>
+      <c r="G170" t="n">
+        <v>205335772100</v>
+      </c>
+      <c r="H170" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2053</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>오브젠</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O170" t="n">
+        <v>284</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>222.88</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
+      <c r="S170" t="n">
+        <v>0</v>
+      </c>
+      <c r="T170" t="n">
+        <v>0</v>
+      </c>
+      <c r="U170" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W170" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>291230</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>7340</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D171" t="n">
+        <v>7210</v>
+      </c>
+      <c r="E171" t="n">
+        <v>8950</v>
+      </c>
+      <c r="F171" t="n">
+        <v>37452965</v>
+      </c>
+      <c r="G171" t="n">
+        <v>315877623700</v>
+      </c>
+      <c r="H171" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3158</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>엔피</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>기타 사업지원 서비스업</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O171" t="n">
+        <v>777</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
+      <c r="S171" t="n">
+        <v>0</v>
+      </c>
+      <c r="T171" t="n">
+        <v>0</v>
+      </c>
+      <c r="U171" t="n">
+        <v>388</v>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W171" t="n">
+        <v>388</v>
+      </c>
+      <c r="X171" t="n">
+        <v>349</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>330</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>271</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>194</v>
+      </c>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>025770</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>12520</v>
+      </c>
+      <c r="C172" t="n">
+        <v>16270</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12520</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15770</v>
+      </c>
+      <c r="F172" t="n">
+        <v>15721907</v>
+      </c>
+      <c r="G172" t="n">
+        <v>238676923190</v>
+      </c>
+      <c r="H172" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2386</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>한국정보통신</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>전기 통신업</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O172" t="n">
+        <v>6019</v>
+      </c>
+      <c r="P172" t="n">
+        <v>53.47</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R172" t="n">
+        <v>295</v>
+      </c>
+      <c r="S172" t="n">
+        <v>0</v>
+      </c>
+      <c r="T172" t="n">
+        <v>0</v>
+      </c>
+      <c r="U172" t="n">
+        <v>4281</v>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W172" t="n">
+        <v>4281</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3853</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>3638</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>2996</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>2140</v>
+      </c>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>419050</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>22000</v>
+      </c>
+      <c r="C173" t="n">
+        <v>28600</v>
+      </c>
+      <c r="D173" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E173" t="n">
+        <v>26850</v>
+      </c>
+      <c r="F173" t="n">
+        <v>14879253</v>
+      </c>
+      <c r="G173" t="n">
+        <v>394753689850</v>
+      </c>
+      <c r="H173" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3947</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>삼기이브이</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O173" t="n">
+        <v>2976</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
+      <c r="S173" t="n">
+        <v>0</v>
+      </c>
+      <c r="T173" t="n">
+        <v>0</v>
+      </c>
+      <c r="U173" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W173" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>373200</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>5540</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6940</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5460</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6450</v>
+      </c>
+      <c r="F174" t="n">
+        <v>10760227</v>
+      </c>
+      <c r="G174" t="n">
+        <v>69572070970</v>
+      </c>
+      <c r="H174" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="I174" t="n">
+        <v>695</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>하인크코리아</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>그외 기타 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O174" t="n">
+        <v>1872</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
+      <c r="S174" t="n">
+        <v>0</v>
+      </c>
+      <c r="T174" t="n">
+        <v>0</v>
+      </c>
+      <c r="U174" t="n">
+        <v>936</v>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W174" t="n">
+        <v>936</v>
+      </c>
+      <c r="X174" t="n">
+        <v>842</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>795</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>655</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>468</v>
+      </c>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>258790</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2440</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1976</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2235</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20860886</v>
+      </c>
+      <c r="G175" t="n">
+        <v>47428955067</v>
+      </c>
+      <c r="H175" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="I175" t="n">
+        <v>474</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>소프트캠프</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O175" t="n">
+        <v>671</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
+      <c r="S175" t="n">
+        <v>0</v>
+      </c>
+      <c r="T175" t="n">
+        <v>0</v>
+      </c>
+      <c r="U175" t="n">
+        <v>485</v>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W175" t="n">
+        <v>485</v>
+      </c>
+      <c r="X175" t="n">
+        <v>436</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>412</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>339</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>242</v>
+      </c>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="inlineStr"/>
+      <c r="AD175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>288980</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3580</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4280</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3480</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3930</v>
+      </c>
+      <c r="F176" t="n">
+        <v>80362343</v>
+      </c>
+      <c r="G176" t="n">
+        <v>315822134915</v>
+      </c>
+      <c r="H176" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3158</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>2023/02/03</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>모아데이타</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O176" t="n">
+        <v>707</v>
+      </c>
+      <c r="P176" t="n">
+        <v>68.94</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="R176" t="n">
+        <v>57</v>
+      </c>
+      <c r="S176" t="n">
+        <v>0</v>
+      </c>
+      <c r="T176" t="n">
+        <v>0</v>
+      </c>
+      <c r="U176" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W176" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD176"/>
+  <dimension ref="A1:AD179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18085,6 +18085,306 @@
       <c r="AC176" t="inlineStr"/>
       <c r="AD176" t="inlineStr"/>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>373200</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>6560</v>
+      </c>
+      <c r="C177" t="n">
+        <v>8380</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6440</v>
+      </c>
+      <c r="E177" t="n">
+        <v>8380</v>
+      </c>
+      <c r="F177" t="n">
+        <v>21549209</v>
+      </c>
+      <c r="G177" t="n">
+        <v>165074173760</v>
+      </c>
+      <c r="H177" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1650</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2023/02/06</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>하인크코리아</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>그외 기타 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O177" t="n">
+        <v>1872</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
+      <c r="S177" t="n">
+        <v>0</v>
+      </c>
+      <c r="T177" t="n">
+        <v>0</v>
+      </c>
+      <c r="U177" t="n">
+        <v>936</v>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W177" t="n">
+        <v>936</v>
+      </c>
+      <c r="X177" t="n">
+        <v>842</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>795</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>655</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>468</v>
+      </c>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>019570</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>437</v>
+      </c>
+      <c r="C178" t="n">
+        <v>566</v>
+      </c>
+      <c r="D178" t="n">
+        <v>437</v>
+      </c>
+      <c r="E178" t="n">
+        <v>514</v>
+      </c>
+      <c r="F178" t="n">
+        <v>46295245</v>
+      </c>
+      <c r="G178" t="n">
+        <v>24423303449</v>
+      </c>
+      <c r="H178" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="I178" t="n">
+        <v>244</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2023/02/06</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>리더스 기술투자</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>신탁업 및 집합투자업</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O178" t="n">
+        <v>397</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
+      <c r="S178" t="n">
+        <v>0</v>
+      </c>
+      <c r="T178" t="n">
+        <v>0</v>
+      </c>
+      <c r="U178" t="n">
+        <v>381</v>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W178" t="n">
+        <v>381</v>
+      </c>
+      <c r="X178" t="n">
+        <v>343</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>324</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>267</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>373200</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>6560</v>
+      </c>
+      <c r="C179" t="n">
+        <v>8380</v>
+      </c>
+      <c r="D179" t="n">
+        <v>6440</v>
+      </c>
+      <c r="E179" t="n">
+        <v>8380</v>
+      </c>
+      <c r="F179" t="n">
+        <v>21549209</v>
+      </c>
+      <c r="G179" t="n">
+        <v>165074173760</v>
+      </c>
+      <c r="H179" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1650</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>2023/02/06</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>하인크코리아</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>그외 기타 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O179" t="n">
+        <v>1872</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
+      <c r="S179" t="n">
+        <v>0</v>
+      </c>
+      <c r="T179" t="n">
+        <v>0</v>
+      </c>
+      <c r="U179" t="n">
+        <v>936</v>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W179" t="n">
+        <v>936</v>
+      </c>
+      <c r="X179" t="n">
+        <v>842</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>795</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>655</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>468</v>
+      </c>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD179"/>
+  <dimension ref="A1:AD191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18385,6 +18385,1206 @@
       <c r="AC179" t="inlineStr"/>
       <c r="AD179" t="inlineStr"/>
     </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>072130</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>4800</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5980</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4720</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5980</v>
+      </c>
+      <c r="F180" t="n">
+        <v>10883190</v>
+      </c>
+      <c r="G180" t="n">
+        <v>61072183705</v>
+      </c>
+      <c r="H180" t="n">
+        <v>30</v>
+      </c>
+      <c r="I180" t="n">
+        <v>610</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>유엔젤</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>자료처리, 호스팅, 포털 및 기타 인터넷 정보매개 서비스업</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O180" t="n">
+        <v>4368</v>
+      </c>
+      <c r="P180" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R180" t="n">
+        <v>1271</v>
+      </c>
+      <c r="S180" t="n">
+        <v>0</v>
+      </c>
+      <c r="T180" t="n">
+        <v>0</v>
+      </c>
+      <c r="U180" t="n">
+        <v>3243</v>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W180" t="n">
+        <v>3243</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2918</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2756</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>1621</v>
+      </c>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>086960</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1764</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2290</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1764</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2290</v>
+      </c>
+      <c r="F181" t="n">
+        <v>153699426</v>
+      </c>
+      <c r="G181" t="n">
+        <v>317431212746</v>
+      </c>
+      <c r="H181" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3174</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>MDS테크</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O181" t="n">
+        <v>1359</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
+      <c r="S181" t="n">
+        <v>0</v>
+      </c>
+      <c r="T181" t="n">
+        <v>0</v>
+      </c>
+      <c r="U181" t="n">
+        <v>4393</v>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W181" t="n">
+        <v>4393</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3954</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>3734</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>3075</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>2196</v>
+      </c>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>033560</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3980</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5160</v>
+      </c>
+      <c r="D182" t="n">
+        <v>3980</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5100</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10469912</v>
+      </c>
+      <c r="G182" t="n">
+        <v>50426403620</v>
+      </c>
+      <c r="H182" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I182" t="n">
+        <v>504</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>블루콤</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>영상 및 음향기기 제조업</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O182" t="n">
+        <v>9373</v>
+      </c>
+      <c r="P182" t="n">
+        <v>1275</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R182" t="n">
+        <v>4</v>
+      </c>
+      <c r="S182" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T182" t="n">
+        <v>5</v>
+      </c>
+      <c r="U182" t="n">
+        <v>4774</v>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W182" t="n">
+        <v>4774</v>
+      </c>
+      <c r="X182" t="n">
+        <v>4296</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>4057</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>3341</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>2387</v>
+      </c>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>357880</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>11970</v>
+      </c>
+      <c r="C183" t="n">
+        <v>14190</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11560</v>
+      </c>
+      <c r="E183" t="n">
+        <v>13800</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19227089</v>
+      </c>
+      <c r="G183" t="n">
+        <v>253081273340</v>
+      </c>
+      <c r="H183" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2530</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>비트나인</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O183" t="n">
+        <v>3227</v>
+      </c>
+      <c r="P183" t="n">
+        <v>98.56</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="R183" t="n">
+        <v>140</v>
+      </c>
+      <c r="S183" t="n">
+        <v>0</v>
+      </c>
+      <c r="T183" t="n">
+        <v>0</v>
+      </c>
+      <c r="U183" t="n">
+        <v>1730</v>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W183" t="n">
+        <v>1730</v>
+      </c>
+      <c r="X183" t="n">
+        <v>1557</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1211</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>865</v>
+      </c>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>417860</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>62000</v>
+      </c>
+      <c r="C184" t="n">
+        <v>81000</v>
+      </c>
+      <c r="D184" t="n">
+        <v>61700</v>
+      </c>
+      <c r="E184" t="n">
+        <v>75000</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2862347</v>
+      </c>
+      <c r="G184" t="n">
+        <v>212791162100</v>
+      </c>
+      <c r="H184" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2127</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>오브젠</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O184" t="n">
+        <v>284</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>264</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
+      <c r="S184" t="n">
+        <v>0</v>
+      </c>
+      <c r="T184" t="n">
+        <v>0</v>
+      </c>
+      <c r="U184" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W184" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>303530</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>15120</v>
+      </c>
+      <c r="C185" t="n">
+        <v>19000</v>
+      </c>
+      <c r="D185" t="n">
+        <v>15060</v>
+      </c>
+      <c r="E185" t="n">
+        <v>17850</v>
+      </c>
+      <c r="F185" t="n">
+        <v>5151442</v>
+      </c>
+      <c r="G185" t="n">
+        <v>92518951340</v>
+      </c>
+      <c r="H185" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="I185" t="n">
+        <v>925</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>이노뎁</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O185" t="n">
+        <v>5550</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
+      <c r="S185" t="n">
+        <v>0</v>
+      </c>
+      <c r="T185" t="n">
+        <v>0</v>
+      </c>
+      <c r="U185" t="n">
+        <v>5290</v>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W185" t="n">
+        <v>5290</v>
+      </c>
+      <c r="X185" t="n">
+        <v>4761</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>4496</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>3702</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>2645</v>
+      </c>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>007810</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>13970</v>
+      </c>
+      <c r="C186" t="n">
+        <v>16480</v>
+      </c>
+      <c r="D186" t="n">
+        <v>13970</v>
+      </c>
+      <c r="E186" t="n">
+        <v>16200</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4335329</v>
+      </c>
+      <c r="G186" t="n">
+        <v>67767086590</v>
+      </c>
+      <c r="H186" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="I186" t="n">
+        <v>677</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>코리아써키트</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O186" t="n">
+        <v>14860</v>
+      </c>
+      <c r="P186" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R186" t="n">
+        <v>2053</v>
+      </c>
+      <c r="S186" t="n">
+        <v>0</v>
+      </c>
+      <c r="T186" t="n">
+        <v>0</v>
+      </c>
+      <c r="U186" t="n">
+        <v>9865</v>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W186" t="n">
+        <v>9865</v>
+      </c>
+      <c r="X186" t="n">
+        <v>8878</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>8385</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>6905</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>4932</v>
+      </c>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>089150</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3935</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4900</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3935</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4530</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8951287</v>
+      </c>
+      <c r="G187" t="n">
+        <v>41297675375</v>
+      </c>
+      <c r="H187" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="I187" t="n">
+        <v>412</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>케이씨티</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O187" t="n">
+        <v>2053</v>
+      </c>
+      <c r="P187" t="n">
+        <v>323.5</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="R187" t="n">
+        <v>14</v>
+      </c>
+      <c r="S187" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="T187" t="n">
+        <v>50</v>
+      </c>
+      <c r="U187" t="n">
+        <v>1134</v>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W187" t="n">
+        <v>1134</v>
+      </c>
+      <c r="X187" t="n">
+        <v>1021</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>964</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>794</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>567</v>
+      </c>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>072130</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>4800</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5980</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4720</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5980</v>
+      </c>
+      <c r="F188" t="n">
+        <v>10883190</v>
+      </c>
+      <c r="G188" t="n">
+        <v>61072183705</v>
+      </c>
+      <c r="H188" t="n">
+        <v>30</v>
+      </c>
+      <c r="I188" t="n">
+        <v>610</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>유엔젤</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>자료처리, 호스팅, 포털 및 기타 인터넷 정보매개 서비스업</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O188" t="n">
+        <v>4368</v>
+      </c>
+      <c r="P188" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R188" t="n">
+        <v>1271</v>
+      </c>
+      <c r="S188" t="n">
+        <v>0</v>
+      </c>
+      <c r="T188" t="n">
+        <v>0</v>
+      </c>
+      <c r="U188" t="n">
+        <v>3243</v>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W188" t="n">
+        <v>3243</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2918</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2756</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>1621</v>
+      </c>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>086960</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1764</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2290</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1764</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2290</v>
+      </c>
+      <c r="F189" t="n">
+        <v>153699426</v>
+      </c>
+      <c r="G189" t="n">
+        <v>317431212746</v>
+      </c>
+      <c r="H189" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3174</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>MDS테크</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O189" t="n">
+        <v>1359</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
+      <c r="S189" t="n">
+        <v>0</v>
+      </c>
+      <c r="T189" t="n">
+        <v>0</v>
+      </c>
+      <c r="U189" t="n">
+        <v>4393</v>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W189" t="n">
+        <v>4393</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3954</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>3734</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>3075</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>2196</v>
+      </c>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>033560</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3980</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5160</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3980</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5100</v>
+      </c>
+      <c r="F190" t="n">
+        <v>10469912</v>
+      </c>
+      <c r="G190" t="n">
+        <v>50426403620</v>
+      </c>
+      <c r="H190" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I190" t="n">
+        <v>504</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>블루콤</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>영상 및 음향기기 제조업</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O190" t="n">
+        <v>9373</v>
+      </c>
+      <c r="P190" t="n">
+        <v>1275</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R190" t="n">
+        <v>4</v>
+      </c>
+      <c r="S190" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T190" t="n">
+        <v>5</v>
+      </c>
+      <c r="U190" t="n">
+        <v>4774</v>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W190" t="n">
+        <v>4774</v>
+      </c>
+      <c r="X190" t="n">
+        <v>4296</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>4057</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>3341</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>2387</v>
+      </c>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>357880</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>11970</v>
+      </c>
+      <c r="C191" t="n">
+        <v>14190</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11560</v>
+      </c>
+      <c r="E191" t="n">
+        <v>13800</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19227089</v>
+      </c>
+      <c r="G191" t="n">
+        <v>253081273340</v>
+      </c>
+      <c r="H191" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="I191" t="n">
+        <v>2530</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2023/02/07</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>비트나인</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O191" t="n">
+        <v>3227</v>
+      </c>
+      <c r="P191" t="n">
+        <v>98.56</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="R191" t="n">
+        <v>140</v>
+      </c>
+      <c r="S191" t="n">
+        <v>0</v>
+      </c>
+      <c r="T191" t="n">
+        <v>0</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1730</v>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W191" t="n">
+        <v>1730</v>
+      </c>
+      <c r="X191" t="n">
+        <v>1557</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1470</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1211</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>865</v>
+      </c>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+      <c r="AD191" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD191"/>
+  <dimension ref="A1:AD207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19585,6 +19585,1606 @@
       <c r="AC191" t="inlineStr"/>
       <c r="AD191" t="inlineStr"/>
     </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>123840</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>505</v>
+      </c>
+      <c r="C192" t="n">
+        <v>629</v>
+      </c>
+      <c r="D192" t="n">
+        <v>500</v>
+      </c>
+      <c r="E192" t="n">
+        <v>629</v>
+      </c>
+      <c r="F192" t="n">
+        <v>26411083</v>
+      </c>
+      <c r="G192" t="n">
+        <v>15994624587</v>
+      </c>
+      <c r="H192" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="I192" t="n">
+        <v>159</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>한일진공</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O192" t="n">
+        <v>1262</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
+      <c r="S192" t="n">
+        <v>0</v>
+      </c>
+      <c r="T192" t="n">
+        <v>0</v>
+      </c>
+      <c r="U192" t="n">
+        <v>919</v>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W192" t="n">
+        <v>919</v>
+      </c>
+      <c r="X192" t="n">
+        <v>827</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>781</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>643</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>459</v>
+      </c>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>042040</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>429</v>
+      </c>
+      <c r="C193" t="n">
+        <v>527</v>
+      </c>
+      <c r="D193" t="n">
+        <v>427</v>
+      </c>
+      <c r="E193" t="n">
+        <v>527</v>
+      </c>
+      <c r="F193" t="n">
+        <v>36228015</v>
+      </c>
+      <c r="G193" t="n">
+        <v>17848334042</v>
+      </c>
+      <c r="H193" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="I193" t="n">
+        <v>178</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>케이피엠테크</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O193" t="n">
+        <v>657</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
+      <c r="S193" t="n">
+        <v>0</v>
+      </c>
+      <c r="T193" t="n">
+        <v>0</v>
+      </c>
+      <c r="U193" t="n">
+        <v>328</v>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W193" t="n">
+        <v>328</v>
+      </c>
+      <c r="X193" t="n">
+        <v>295</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>279</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>229</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>164</v>
+      </c>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>277070</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>5990</v>
+      </c>
+      <c r="C194" t="n">
+        <v>7190</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E194" t="n">
+        <v>6730</v>
+      </c>
+      <c r="F194" t="n">
+        <v>14123239</v>
+      </c>
+      <c r="G194" t="n">
+        <v>92419549160</v>
+      </c>
+      <c r="H194" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="I194" t="n">
+        <v>924</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>린드먼아시아</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>신탁업 및 집합투자업</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O194" t="n">
+        <v>4011</v>
+      </c>
+      <c r="P194" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R194" t="n">
+        <v>398</v>
+      </c>
+      <c r="S194" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="T194" t="n">
+        <v>42</v>
+      </c>
+      <c r="U194" t="n">
+        <v>3226</v>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W194" t="n">
+        <v>3226</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2903</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2742</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>2258</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>1613</v>
+      </c>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>263800</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>8170</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9860</v>
+      </c>
+      <c r="D195" t="n">
+        <v>8170</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9390</v>
+      </c>
+      <c r="F195" t="n">
+        <v>12174710</v>
+      </c>
+      <c r="G195" t="n">
+        <v>110664841990</v>
+      </c>
+      <c r="H195" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1106</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>데이타솔루션</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O195" t="n">
+        <v>1755</v>
+      </c>
+      <c r="P195" t="n">
+        <v>126.88</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="R195" t="n">
+        <v>74</v>
+      </c>
+      <c r="S195" t="n">
+        <v>0</v>
+      </c>
+      <c r="T195" t="n">
+        <v>0</v>
+      </c>
+      <c r="U195" t="n">
+        <v>992</v>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W195" t="n">
+        <v>992</v>
+      </c>
+      <c r="X195" t="n">
+        <v>893</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>843</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>694</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>496</v>
+      </c>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>060570</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>3900</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4900</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3830</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4435</v>
+      </c>
+      <c r="F196" t="n">
+        <v>10581392</v>
+      </c>
+      <c r="G196" t="n">
+        <v>47192596340</v>
+      </c>
+      <c r="H196" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="I196" t="n">
+        <v>471</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>드림어스컴퍼니</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>자료처리, 호스팅, 포털 및 기타 인터넷 정보매개 서비스업</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O196" t="n">
+        <v>1138</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
+      <c r="S196" t="n">
+        <v>0</v>
+      </c>
+      <c r="T196" t="n">
+        <v>0</v>
+      </c>
+      <c r="U196" t="n">
+        <v>569</v>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W196" t="n">
+        <v>569</v>
+      </c>
+      <c r="X196" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>483</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>398</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>284</v>
+      </c>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>086960</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2390</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2180</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2660</v>
+      </c>
+      <c r="F197" t="n">
+        <v>277959446</v>
+      </c>
+      <c r="G197" t="n">
+        <v>716131792195</v>
+      </c>
+      <c r="H197" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="I197" t="n">
+        <v>7161</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>MDS테크</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O197" t="n">
+        <v>1359</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
+      <c r="S197" t="n">
+        <v>0</v>
+      </c>
+      <c r="T197" t="n">
+        <v>0</v>
+      </c>
+      <c r="U197" t="n">
+        <v>4393</v>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W197" t="n">
+        <v>4393</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3954</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>3734</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>3075</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>2196</v>
+      </c>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>072130</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>6740</v>
+      </c>
+      <c r="C198" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D198" t="n">
+        <v>6300</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6940</v>
+      </c>
+      <c r="F198" t="n">
+        <v>33086209</v>
+      </c>
+      <c r="G198" t="n">
+        <v>231022875630</v>
+      </c>
+      <c r="H198" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2310</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>유엔젤</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>자료처리, 호스팅, 포털 및 기타 인터넷 정보매개 서비스업</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O198" t="n">
+        <v>4368</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1271</v>
+      </c>
+      <c r="S198" t="n">
+        <v>0</v>
+      </c>
+      <c r="T198" t="n">
+        <v>0</v>
+      </c>
+      <c r="U198" t="n">
+        <v>3243</v>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W198" t="n">
+        <v>3243</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2918</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2756</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>1621</v>
+      </c>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>039290</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>13550</v>
+      </c>
+      <c r="C199" t="n">
+        <v>16900</v>
+      </c>
+      <c r="D199" t="n">
+        <v>13240</v>
+      </c>
+      <c r="E199" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F199" t="n">
+        <v>9754586</v>
+      </c>
+      <c r="G199" t="n">
+        <v>151583428360</v>
+      </c>
+      <c r="H199" t="n">
+        <v>30</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1515</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>인포뱅크</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O199" t="n">
+        <v>7354</v>
+      </c>
+      <c r="P199" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R199" t="n">
+        <v>1021</v>
+      </c>
+      <c r="S199" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T199" t="n">
+        <v>80</v>
+      </c>
+      <c r="U199" t="n">
+        <v>4902</v>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W199" t="n">
+        <v>4902</v>
+      </c>
+      <c r="X199" t="n">
+        <v>4411</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>4166</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>3431</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>2451</v>
+      </c>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>367000</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>13130</v>
+      </c>
+      <c r="C200" t="n">
+        <v>16700</v>
+      </c>
+      <c r="D200" t="n">
+        <v>13010</v>
+      </c>
+      <c r="E200" t="n">
+        <v>16700</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2943729</v>
+      </c>
+      <c r="G200" t="n">
+        <v>47409070410</v>
+      </c>
+      <c r="H200" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="I200" t="n">
+        <v>474</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>플래티어</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O200" t="n">
+        <v>5261</v>
+      </c>
+      <c r="P200" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="R200" t="n">
+        <v>621</v>
+      </c>
+      <c r="S200" t="n">
+        <v>0</v>
+      </c>
+      <c r="T200" t="n">
+        <v>0</v>
+      </c>
+      <c r="U200" t="n">
+        <v>4890</v>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W200" t="n">
+        <v>4890</v>
+      </c>
+      <c r="X200" t="n">
+        <v>4401</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>4156</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>3423</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>2445</v>
+      </c>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>279600</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>13320</v>
+      </c>
+      <c r="C201" t="n">
+        <v>17000</v>
+      </c>
+      <c r="D201" t="n">
+        <v>13040</v>
+      </c>
+      <c r="E201" t="n">
+        <v>16370</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2606167</v>
+      </c>
+      <c r="G201" t="n">
+        <v>40078866490</v>
+      </c>
+      <c r="H201" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="I201" t="n">
+        <v>400</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>미디어젠</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O201" t="n">
+        <v>3785</v>
+      </c>
+      <c r="P201" t="n">
+        <v>481.5</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="R201" t="n">
+        <v>34</v>
+      </c>
+      <c r="S201" t="n">
+        <v>0</v>
+      </c>
+      <c r="T201" t="n">
+        <v>0</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1920</v>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W201" t="n">
+        <v>1920</v>
+      </c>
+      <c r="X201" t="n">
+        <v>1728</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>1632</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>960</v>
+      </c>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr"/>
+      <c r="AD201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>277070</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>5990</v>
+      </c>
+      <c r="C202" t="n">
+        <v>7190</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E202" t="n">
+        <v>6730</v>
+      </c>
+      <c r="F202" t="n">
+        <v>14123239</v>
+      </c>
+      <c r="G202" t="n">
+        <v>92419549160</v>
+      </c>
+      <c r="H202" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="I202" t="n">
+        <v>924</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>린드먼아시아</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>신탁업 및 집합투자업</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O202" t="n">
+        <v>4011</v>
+      </c>
+      <c r="P202" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R202" t="n">
+        <v>398</v>
+      </c>
+      <c r="S202" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="T202" t="n">
+        <v>42</v>
+      </c>
+      <c r="U202" t="n">
+        <v>3226</v>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W202" t="n">
+        <v>3226</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2903</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2742</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>2258</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>1613</v>
+      </c>
+      <c r="AB202" t="inlineStr"/>
+      <c r="AC202" t="inlineStr"/>
+      <c r="AD202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>408900</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>59200</v>
+      </c>
+      <c r="C203" t="n">
+        <v>63300</v>
+      </c>
+      <c r="D203" t="n">
+        <v>55300</v>
+      </c>
+      <c r="E203" t="n">
+        <v>59300</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3303519</v>
+      </c>
+      <c r="G203" t="n">
+        <v>196767123200</v>
+      </c>
+      <c r="H203" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1967</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>스튜디오미르</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O203" t="n">
+        <v>2433</v>
+      </c>
+      <c r="P203" t="n">
+        <v>112.31</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="R203" t="n">
+        <v>528</v>
+      </c>
+      <c r="S203" t="n">
+        <v>0</v>
+      </c>
+      <c r="T203" t="n">
+        <v>0</v>
+      </c>
+      <c r="U203" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W203" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr"/>
+      <c r="AD203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>263800</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>8170</v>
+      </c>
+      <c r="C204" t="n">
+        <v>9860</v>
+      </c>
+      <c r="D204" t="n">
+        <v>8170</v>
+      </c>
+      <c r="E204" t="n">
+        <v>9390</v>
+      </c>
+      <c r="F204" t="n">
+        <v>12174710</v>
+      </c>
+      <c r="G204" t="n">
+        <v>110664841990</v>
+      </c>
+      <c r="H204" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1106</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>데이타솔루션</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O204" t="n">
+        <v>1755</v>
+      </c>
+      <c r="P204" t="n">
+        <v>126.88</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="R204" t="n">
+        <v>74</v>
+      </c>
+      <c r="S204" t="n">
+        <v>0</v>
+      </c>
+      <c r="T204" t="n">
+        <v>0</v>
+      </c>
+      <c r="U204" t="n">
+        <v>992</v>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W204" t="n">
+        <v>992</v>
+      </c>
+      <c r="X204" t="n">
+        <v>893</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>843</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>694</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>496</v>
+      </c>
+      <c r="AB204" t="inlineStr"/>
+      <c r="AC204" t="inlineStr"/>
+      <c r="AD204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>060570</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3900</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4900</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3830</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4435</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10581392</v>
+      </c>
+      <c r="G205" t="n">
+        <v>47192596340</v>
+      </c>
+      <c r="H205" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="I205" t="n">
+        <v>471</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>드림어스컴퍼니</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>자료처리, 호스팅, 포털 및 기타 인터넷 정보매개 서비스업</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O205" t="n">
+        <v>1138</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
+      <c r="S205" t="n">
+        <v>0</v>
+      </c>
+      <c r="T205" t="n">
+        <v>0</v>
+      </c>
+      <c r="U205" t="n">
+        <v>569</v>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W205" t="n">
+        <v>569</v>
+      </c>
+      <c r="X205" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>483</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>398</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>284</v>
+      </c>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>086960</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2390</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D206" t="n">
+        <v>2180</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2660</v>
+      </c>
+      <c r="F206" t="n">
+        <v>277959446</v>
+      </c>
+      <c r="G206" t="n">
+        <v>716131792195</v>
+      </c>
+      <c r="H206" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="I206" t="n">
+        <v>7161</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>MDS테크</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O206" t="n">
+        <v>1359</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
+      <c r="S206" t="n">
+        <v>0</v>
+      </c>
+      <c r="T206" t="n">
+        <v>0</v>
+      </c>
+      <c r="U206" t="n">
+        <v>4393</v>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W206" t="n">
+        <v>4393</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3954</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3734</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>3075</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>2196</v>
+      </c>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>072130</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>6740</v>
+      </c>
+      <c r="C207" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D207" t="n">
+        <v>6300</v>
+      </c>
+      <c r="E207" t="n">
+        <v>6940</v>
+      </c>
+      <c r="F207" t="n">
+        <v>33086209</v>
+      </c>
+      <c r="G207" t="n">
+        <v>231022875630</v>
+      </c>
+      <c r="H207" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2310</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2023/02/08</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>유엔젤</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>자료처리, 호스팅, 포털 및 기타 인터넷 정보매개 서비스업</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O207" t="n">
+        <v>4368</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R207" t="n">
+        <v>1271</v>
+      </c>
+      <c r="S207" t="n">
+        <v>0</v>
+      </c>
+      <c r="T207" t="n">
+        <v>0</v>
+      </c>
+      <c r="U207" t="n">
+        <v>3243</v>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W207" t="n">
+        <v>3243</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2918</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2756</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>1621</v>
+      </c>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD207"/>
+  <dimension ref="A1:AD220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21185,6 +21185,1306 @@
       <c r="AC207" t="inlineStr"/>
       <c r="AD207" t="inlineStr"/>
     </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>016880</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1448</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1430</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F208" t="n">
+        <v>55696868</v>
+      </c>
+      <c r="G208" t="n">
+        <v>99356857588</v>
+      </c>
+      <c r="H208" t="n">
+        <v>30</v>
+      </c>
+      <c r="I208" t="n">
+        <v>993</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>웅진</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>회사 본부 및 경영 컨설팅 서비스업</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O208" t="n">
+        <v>762</v>
+      </c>
+      <c r="P208" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="R208" t="n">
+        <v>289</v>
+      </c>
+      <c r="S208" t="n">
+        <v>0</v>
+      </c>
+      <c r="T208" t="n">
+        <v>0</v>
+      </c>
+      <c r="U208" t="n">
+        <v>621</v>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W208" t="n">
+        <v>621</v>
+      </c>
+      <c r="X208" t="n">
+        <v>559</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>528</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>435</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>049480</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3310</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4315</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3275</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4315</v>
+      </c>
+      <c r="F209" t="n">
+        <v>65592818</v>
+      </c>
+      <c r="G209" t="n">
+        <v>265113500790</v>
+      </c>
+      <c r="H209" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="I209" t="n">
+        <v>2651</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>오픈베이스</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O209" t="n">
+        <v>2253</v>
+      </c>
+      <c r="P209" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R209" t="n">
+        <v>148</v>
+      </c>
+      <c r="S209" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T209" t="n">
+        <v>15</v>
+      </c>
+      <c r="U209" t="n">
+        <v>1424</v>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W209" t="n">
+        <v>1424</v>
+      </c>
+      <c r="X209" t="n">
+        <v>1281</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1210</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>996</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>712</v>
+      </c>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>072520</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2270</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1758</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2175</v>
+      </c>
+      <c r="F210" t="n">
+        <v>18260345</v>
+      </c>
+      <c r="G210" t="n">
+        <v>38729122434</v>
+      </c>
+      <c r="H210" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="I210" t="n">
+        <v>387</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>제넨바이오</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>생활용품 도매업</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O210" t="n">
+        <v>2270</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
+      <c r="S210" t="n">
+        <v>0</v>
+      </c>
+      <c r="T210" t="n">
+        <v>0</v>
+      </c>
+      <c r="U210" t="n">
+        <v>1135</v>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W210" t="n">
+        <v>1135</v>
+      </c>
+      <c r="X210" t="n">
+        <v>1021</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>964</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>794</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>567</v>
+      </c>
+      <c r="AB210" t="inlineStr"/>
+      <c r="AC210" t="inlineStr"/>
+      <c r="AD210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>053350</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>4270</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5460</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4250</v>
+      </c>
+      <c r="E211" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F211" t="n">
+        <v>10815609</v>
+      </c>
+      <c r="G211" t="n">
+        <v>54863724935</v>
+      </c>
+      <c r="H211" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="I211" t="n">
+        <v>548</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>이니텍</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O211" t="n">
+        <v>6209</v>
+      </c>
+      <c r="P211" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="R211" t="n">
+        <v>274</v>
+      </c>
+      <c r="S211" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T211" t="n">
+        <v>20</v>
+      </c>
+      <c r="U211" t="n">
+        <v>3459</v>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W211" t="n">
+        <v>3459</v>
+      </c>
+      <c r="X211" t="n">
+        <v>3113</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>2421</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AB211" t="inlineStr"/>
+      <c r="AC211" t="inlineStr"/>
+      <c r="AD211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>092220</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2690</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2145</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2540</v>
+      </c>
+      <c r="F212" t="n">
+        <v>78552637</v>
+      </c>
+      <c r="G212" t="n">
+        <v>195785996625</v>
+      </c>
+      <c r="H212" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1957</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>KEC</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O212" t="n">
+        <v>1884</v>
+      </c>
+      <c r="P212" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R212" t="n">
+        <v>80</v>
+      </c>
+      <c r="S212" t="n">
+        <v>0</v>
+      </c>
+      <c r="T212" t="n">
+        <v>0</v>
+      </c>
+      <c r="U212" t="n">
+        <v>1008</v>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W212" t="n">
+        <v>1008</v>
+      </c>
+      <c r="X212" t="n">
+        <v>907</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>857</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>706</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>504</v>
+      </c>
+      <c r="AB212" t="inlineStr"/>
+      <c r="AC212" t="inlineStr"/>
+      <c r="AD212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>036690</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>3850</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4795</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3800</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4455</v>
+      </c>
+      <c r="F213" t="n">
+        <v>14298144</v>
+      </c>
+      <c r="G213" t="n">
+        <v>63311646300</v>
+      </c>
+      <c r="H213" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="I213" t="n">
+        <v>633</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>코맥스</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O213" t="n">
+        <v>3410</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
+      <c r="S213" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T213" t="n">
+        <v>50</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2185</v>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W213" t="n">
+        <v>2185</v>
+      </c>
+      <c r="X213" t="n">
+        <v>1967</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1857</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1530</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>1092</v>
+      </c>
+      <c r="AB213" t="inlineStr"/>
+      <c r="AC213" t="inlineStr"/>
+      <c r="AD213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>016880</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1448</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1430</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F214" t="n">
+        <v>55696868</v>
+      </c>
+      <c r="G214" t="n">
+        <v>99356857588</v>
+      </c>
+      <c r="H214" t="n">
+        <v>30</v>
+      </c>
+      <c r="I214" t="n">
+        <v>993</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>웅진</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>회사 본부 및 경영 컨설팅 서비스업</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O214" t="n">
+        <v>762</v>
+      </c>
+      <c r="P214" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="R214" t="n">
+        <v>289</v>
+      </c>
+      <c r="S214" t="n">
+        <v>0</v>
+      </c>
+      <c r="T214" t="n">
+        <v>0</v>
+      </c>
+      <c r="U214" t="n">
+        <v>621</v>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W214" t="n">
+        <v>621</v>
+      </c>
+      <c r="X214" t="n">
+        <v>559</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>528</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>435</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB214" t="inlineStr"/>
+      <c r="AC214" t="inlineStr"/>
+      <c r="AD214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>049480</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>3310</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4315</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3275</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4315</v>
+      </c>
+      <c r="F215" t="n">
+        <v>65592818</v>
+      </c>
+      <c r="G215" t="n">
+        <v>265113500790</v>
+      </c>
+      <c r="H215" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2651</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>오픈베이스</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O215" t="n">
+        <v>2253</v>
+      </c>
+      <c r="P215" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R215" t="n">
+        <v>148</v>
+      </c>
+      <c r="S215" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T215" t="n">
+        <v>15</v>
+      </c>
+      <c r="U215" t="n">
+        <v>1424</v>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W215" t="n">
+        <v>1424</v>
+      </c>
+      <c r="X215" t="n">
+        <v>1281</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1210</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>996</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>712</v>
+      </c>
+      <c r="AB215" t="inlineStr"/>
+      <c r="AC215" t="inlineStr"/>
+      <c r="AD215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>072520</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2270</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1758</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2175</v>
+      </c>
+      <c r="F216" t="n">
+        <v>18260445</v>
+      </c>
+      <c r="G216" t="n">
+        <v>38729339934</v>
+      </c>
+      <c r="H216" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="I216" t="n">
+        <v>387</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>제넨바이오</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>생활용품 도매업</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O216" t="n">
+        <v>2270</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
+      <c r="S216" t="n">
+        <v>0</v>
+      </c>
+      <c r="T216" t="n">
+        <v>0</v>
+      </c>
+      <c r="U216" t="n">
+        <v>1135</v>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W216" t="n">
+        <v>1135</v>
+      </c>
+      <c r="X216" t="n">
+        <v>1021</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>964</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>794</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>567</v>
+      </c>
+      <c r="AB216" t="inlineStr"/>
+      <c r="AC216" t="inlineStr"/>
+      <c r="AD216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>053350</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>4270</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5460</v>
+      </c>
+      <c r="D217" t="n">
+        <v>4250</v>
+      </c>
+      <c r="E217" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F217" t="n">
+        <v>10816062</v>
+      </c>
+      <c r="G217" t="n">
+        <v>54866080535</v>
+      </c>
+      <c r="H217" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="I217" t="n">
+        <v>548</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>이니텍</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O217" t="n">
+        <v>6209</v>
+      </c>
+      <c r="P217" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="R217" t="n">
+        <v>274</v>
+      </c>
+      <c r="S217" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T217" t="n">
+        <v>20</v>
+      </c>
+      <c r="U217" t="n">
+        <v>3459</v>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W217" t="n">
+        <v>3459</v>
+      </c>
+      <c r="X217" t="n">
+        <v>3113</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>2421</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AB217" t="inlineStr"/>
+      <c r="AC217" t="inlineStr"/>
+      <c r="AD217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>092220</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2690</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2145</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2540</v>
+      </c>
+      <c r="F218" t="n">
+        <v>78557637</v>
+      </c>
+      <c r="G218" t="n">
+        <v>195798696625</v>
+      </c>
+      <c r="H218" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1957</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>KEC</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O218" t="n">
+        <v>1884</v>
+      </c>
+      <c r="P218" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R218" t="n">
+        <v>80</v>
+      </c>
+      <c r="S218" t="n">
+        <v>0</v>
+      </c>
+      <c r="T218" t="n">
+        <v>0</v>
+      </c>
+      <c r="U218" t="n">
+        <v>1008</v>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W218" t="n">
+        <v>1008</v>
+      </c>
+      <c r="X218" t="n">
+        <v>907</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>857</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>706</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>504</v>
+      </c>
+      <c r="AB218" t="inlineStr"/>
+      <c r="AC218" t="inlineStr"/>
+      <c r="AD218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>121600</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>93000</v>
+      </c>
+      <c r="C219" t="n">
+        <v>110900</v>
+      </c>
+      <c r="D219" t="n">
+        <v>91600</v>
+      </c>
+      <c r="E219" t="n">
+        <v>109200</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1911307</v>
+      </c>
+      <c r="G219" t="n">
+        <v>200997865500</v>
+      </c>
+      <c r="H219" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I219" t="n">
+        <v>2009</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>나노신소재</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O219" t="n">
+        <v>9322</v>
+      </c>
+      <c r="P219" t="n">
+        <v>155.38</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="R219" t="n">
+        <v>703</v>
+      </c>
+      <c r="S219" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T219" t="n">
+        <v>120</v>
+      </c>
+      <c r="U219" t="n">
+        <v>5957</v>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W219" t="n">
+        <v>5957</v>
+      </c>
+      <c r="X219" t="n">
+        <v>5361</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>5064</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>4170</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>2978</v>
+      </c>
+      <c r="AB219" t="inlineStr"/>
+      <c r="AC219" t="inlineStr"/>
+      <c r="AD219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>036690</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>3850</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4795</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3800</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4455</v>
+      </c>
+      <c r="F220" t="n">
+        <v>14298145</v>
+      </c>
+      <c r="G220" t="n">
+        <v>63311650755</v>
+      </c>
+      <c r="H220" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="I220" t="n">
+        <v>633</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>2023/02/09</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>코맥스</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O220" t="n">
+        <v>3410</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
+      <c r="S220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T220" t="n">
+        <v>50</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2185</v>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W220" t="n">
+        <v>2185</v>
+      </c>
+      <c r="X220" t="n">
+        <v>1967</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1857</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1530</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>1092</v>
+      </c>
+      <c r="AB220" t="inlineStr"/>
+      <c r="AC220" t="inlineStr"/>
+      <c r="AD220" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD220"/>
+  <dimension ref="A1:AD234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22485,6 +22485,1406 @@
       <c r="AC220" t="inlineStr"/>
       <c r="AD220" t="inlineStr"/>
     </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>048550</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>4115</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4630</v>
+      </c>
+      <c r="D221" t="n">
+        <v>4110</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4630</v>
+      </c>
+      <c r="F221" t="n">
+        <v>35307427</v>
+      </c>
+      <c r="G221" t="n">
+        <v>154873500660</v>
+      </c>
+      <c r="H221" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1548</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>SM C&amp;C</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>광고업</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O221" t="n">
+        <v>1049</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
+      <c r="S221" t="n">
+        <v>0</v>
+      </c>
+      <c r="T221" t="n">
+        <v>0</v>
+      </c>
+      <c r="U221" t="n">
+        <v>557</v>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W221" t="n">
+        <v>557</v>
+      </c>
+      <c r="X221" t="n">
+        <v>502</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>474</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>390</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>278</v>
+      </c>
+      <c r="AB221" t="inlineStr"/>
+      <c r="AC221" t="inlineStr"/>
+      <c r="AD221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>063440</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>3225</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3670</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3055</v>
+      </c>
+      <c r="E222" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F222" t="n">
+        <v>87108679</v>
+      </c>
+      <c r="G222" t="n">
+        <v>299244629085</v>
+      </c>
+      <c r="H222" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="I222" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>SM Life Design</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>기록매체 복제업</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O222" t="n">
+        <v>1068</v>
+      </c>
+      <c r="P222" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="R222" t="n">
+        <v>40</v>
+      </c>
+      <c r="S222" t="n">
+        <v>0</v>
+      </c>
+      <c r="T222" t="n">
+        <v>0</v>
+      </c>
+      <c r="U222" t="n">
+        <v>567</v>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W222" t="n">
+        <v>567</v>
+      </c>
+      <c r="X222" t="n">
+        <v>510</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>482</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>397</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>283</v>
+      </c>
+      <c r="AB222" t="inlineStr"/>
+      <c r="AC222" t="inlineStr"/>
+      <c r="AD222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>092600</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2455</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1968</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2390</v>
+      </c>
+      <c r="F223" t="n">
+        <v>11943553</v>
+      </c>
+      <c r="G223" t="n">
+        <v>26275416676</v>
+      </c>
+      <c r="H223" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="I223" t="n">
+        <v>262</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>앤씨앤</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O223" t="n">
+        <v>2584</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
+      <c r="S223" t="n">
+        <v>0</v>
+      </c>
+      <c r="T223" t="n">
+        <v>0</v>
+      </c>
+      <c r="U223" t="n">
+        <v>1292</v>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W223" t="n">
+        <v>1292</v>
+      </c>
+      <c r="X223" t="n">
+        <v>1162</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1098</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>904</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>646</v>
+      </c>
+      <c r="AB223" t="inlineStr"/>
+      <c r="AC223" t="inlineStr"/>
+      <c r="AD223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>067920</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>7350</v>
+      </c>
+      <c r="C224" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D224" t="n">
+        <v>7170</v>
+      </c>
+      <c r="E224" t="n">
+        <v>8890</v>
+      </c>
+      <c r="F224" t="n">
+        <v>14806519</v>
+      </c>
+      <c r="G224" t="n">
+        <v>132392853750</v>
+      </c>
+      <c r="H224" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1323</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>이글루</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O224" t="n">
+        <v>6129</v>
+      </c>
+      <c r="P224" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R224" t="n">
+        <v>773</v>
+      </c>
+      <c r="S224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T224" t="n">
+        <v>160</v>
+      </c>
+      <c r="U224" t="n">
+        <v>4761</v>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W224" t="n">
+        <v>4761</v>
+      </c>
+      <c r="X224" t="n">
+        <v>4285</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>4046</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>3332</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>2380</v>
+      </c>
+      <c r="AB224" t="inlineStr"/>
+      <c r="AC224" t="inlineStr"/>
+      <c r="AD224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>099440</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2420</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2420</v>
+      </c>
+      <c r="F225" t="n">
+        <v>13556876</v>
+      </c>
+      <c r="G225" t="n">
+        <v>30733530260</v>
+      </c>
+      <c r="H225" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="I225" t="n">
+        <v>307</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>스맥</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O225" t="n">
+        <v>2048</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
+      <c r="S225" t="n">
+        <v>0</v>
+      </c>
+      <c r="T225" t="n">
+        <v>0</v>
+      </c>
+      <c r="U225" t="n">
+        <v>1024</v>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W225" t="n">
+        <v>1024</v>
+      </c>
+      <c r="X225" t="n">
+        <v>921</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>870</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>716</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>512</v>
+      </c>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>473</v>
+      </c>
+      <c r="C226" t="n">
+        <v>585</v>
+      </c>
+      <c r="D226" t="n">
+        <v>464</v>
+      </c>
+      <c r="E226" t="n">
+        <v>540</v>
+      </c>
+      <c r="F226" t="n">
+        <v>117788168</v>
+      </c>
+      <c r="G226" t="n">
+        <v>63061864368</v>
+      </c>
+      <c r="H226" t="n">
+        <v>20</v>
+      </c>
+      <c r="I226" t="n">
+        <v>630</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>미래아이앤지</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O226" t="n">
+        <v>552</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
+      <c r="S226" t="n">
+        <v>0</v>
+      </c>
+      <c r="T226" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" t="n">
+        <v>621</v>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W226" t="n">
+        <v>621</v>
+      </c>
+      <c r="X226" t="n">
+        <v>559</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>528</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>435</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>407400</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>16800</v>
+      </c>
+      <c r="C227" t="n">
+        <v>16900</v>
+      </c>
+      <c r="D227" t="n">
+        <v>15910</v>
+      </c>
+      <c r="E227" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2199325</v>
+      </c>
+      <c r="G227" t="n">
+        <v>36282289780</v>
+      </c>
+      <c r="H227" t="n">
+        <v>30</v>
+      </c>
+      <c r="I227" t="n">
+        <v>362</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>꿈비</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>가구 제조업</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O227" t="n">
+        <v>883</v>
+      </c>
+      <c r="P227" t="n">
+        <v>58.47</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="R227" t="n">
+        <v>289</v>
+      </c>
+      <c r="S227" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T227" t="n">
+        <v>24</v>
+      </c>
+      <c r="U227" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W227" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB227" t="inlineStr"/>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>086900</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>133400</v>
+      </c>
+      <c r="C228" t="n">
+        <v>173600</v>
+      </c>
+      <c r="D228" t="n">
+        <v>128500</v>
+      </c>
+      <c r="E228" t="n">
+        <v>173600</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1362591</v>
+      </c>
+      <c r="G228" t="n">
+        <v>220156711300</v>
+      </c>
+      <c r="H228" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="I228" t="n">
+        <v>2201</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>메디톡스</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>기초 의약물질 및 생물학적 제제 제조업</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O228" t="n">
+        <v>57905</v>
+      </c>
+      <c r="P228" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>3</v>
+      </c>
+      <c r="R228" t="n">
+        <v>14716</v>
+      </c>
+      <c r="S228" t="n">
+        <v>0</v>
+      </c>
+      <c r="T228" t="n">
+        <v>0</v>
+      </c>
+      <c r="U228" t="n">
+        <v>44792</v>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W228" t="n">
+        <v>44792</v>
+      </c>
+      <c r="X228" t="n">
+        <v>40313</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>38073</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>31354</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>22396</v>
+      </c>
+      <c r="AB228" t="inlineStr"/>
+      <c r="AC228" t="inlineStr"/>
+      <c r="AD228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>048550</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>4115</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4630</v>
+      </c>
+      <c r="D229" t="n">
+        <v>4110</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4630</v>
+      </c>
+      <c r="F229" t="n">
+        <v>35307427</v>
+      </c>
+      <c r="G229" t="n">
+        <v>154873500660</v>
+      </c>
+      <c r="H229" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1548</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>SM C&amp;C</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>광고업</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O229" t="n">
+        <v>1049</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
+      <c r="S229" t="n">
+        <v>0</v>
+      </c>
+      <c r="T229" t="n">
+        <v>0</v>
+      </c>
+      <c r="U229" t="n">
+        <v>557</v>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W229" t="n">
+        <v>557</v>
+      </c>
+      <c r="X229" t="n">
+        <v>502</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>474</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>390</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>278</v>
+      </c>
+      <c r="AB229" t="inlineStr"/>
+      <c r="AC229" t="inlineStr"/>
+      <c r="AD229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>063440</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>3225</v>
+      </c>
+      <c r="C230" t="n">
+        <v>3670</v>
+      </c>
+      <c r="D230" t="n">
+        <v>3055</v>
+      </c>
+      <c r="E230" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F230" t="n">
+        <v>87108679</v>
+      </c>
+      <c r="G230" t="n">
+        <v>299244629085</v>
+      </c>
+      <c r="H230" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="I230" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>SM Life Design</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>기록매체 복제업</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O230" t="n">
+        <v>1068</v>
+      </c>
+      <c r="P230" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="R230" t="n">
+        <v>40</v>
+      </c>
+      <c r="S230" t="n">
+        <v>0</v>
+      </c>
+      <c r="T230" t="n">
+        <v>0</v>
+      </c>
+      <c r="U230" t="n">
+        <v>567</v>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W230" t="n">
+        <v>567</v>
+      </c>
+      <c r="X230" t="n">
+        <v>510</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>482</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>397</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>283</v>
+      </c>
+      <c r="AB230" t="inlineStr"/>
+      <c r="AC230" t="inlineStr"/>
+      <c r="AD230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>067920</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>7350</v>
+      </c>
+      <c r="C231" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D231" t="n">
+        <v>7170</v>
+      </c>
+      <c r="E231" t="n">
+        <v>8890</v>
+      </c>
+      <c r="F231" t="n">
+        <v>14806519</v>
+      </c>
+      <c r="G231" t="n">
+        <v>132392853750</v>
+      </c>
+      <c r="H231" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1323</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>이글루</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O231" t="n">
+        <v>6129</v>
+      </c>
+      <c r="P231" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R231" t="n">
+        <v>773</v>
+      </c>
+      <c r="S231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T231" t="n">
+        <v>160</v>
+      </c>
+      <c r="U231" t="n">
+        <v>4761</v>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W231" t="n">
+        <v>4761</v>
+      </c>
+      <c r="X231" t="n">
+        <v>4285</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>4046</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>3332</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>2380</v>
+      </c>
+      <c r="AB231" t="inlineStr"/>
+      <c r="AC231" t="inlineStr"/>
+      <c r="AD231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>099440</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2420</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2420</v>
+      </c>
+      <c r="F232" t="n">
+        <v>13556876</v>
+      </c>
+      <c r="G232" t="n">
+        <v>30733530260</v>
+      </c>
+      <c r="H232" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="I232" t="n">
+        <v>307</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>스맥</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O232" t="n">
+        <v>2048</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
+      <c r="S232" t="n">
+        <v>0</v>
+      </c>
+      <c r="T232" t="n">
+        <v>0</v>
+      </c>
+      <c r="U232" t="n">
+        <v>1024</v>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W232" t="n">
+        <v>1024</v>
+      </c>
+      <c r="X232" t="n">
+        <v>921</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>870</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>716</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>512</v>
+      </c>
+      <c r="AB232" t="inlineStr"/>
+      <c r="AC232" t="inlineStr"/>
+      <c r="AD232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>473</v>
+      </c>
+      <c r="C233" t="n">
+        <v>585</v>
+      </c>
+      <c r="D233" t="n">
+        <v>464</v>
+      </c>
+      <c r="E233" t="n">
+        <v>540</v>
+      </c>
+      <c r="F233" t="n">
+        <v>117788168</v>
+      </c>
+      <c r="G233" t="n">
+        <v>63061864368</v>
+      </c>
+      <c r="H233" t="n">
+        <v>20</v>
+      </c>
+      <c r="I233" t="n">
+        <v>630</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>미래아이앤지</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O233" t="n">
+        <v>552</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
+      <c r="S233" t="n">
+        <v>0</v>
+      </c>
+      <c r="T233" t="n">
+        <v>0</v>
+      </c>
+      <c r="U233" t="n">
+        <v>621</v>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W233" t="n">
+        <v>621</v>
+      </c>
+      <c r="X233" t="n">
+        <v>559</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>528</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>435</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB233" t="inlineStr"/>
+      <c r="AC233" t="inlineStr"/>
+      <c r="AD233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>041510</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>115200</v>
+      </c>
+      <c r="C234" t="n">
+        <v>117000</v>
+      </c>
+      <c r="D234" t="n">
+        <v>107300</v>
+      </c>
+      <c r="E234" t="n">
+        <v>114700</v>
+      </c>
+      <c r="F234" t="n">
+        <v>8858972</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1003155284900</v>
+      </c>
+      <c r="H234" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="I234" t="n">
+        <v>10031</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>2023/02/10</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>에스엠</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>오디오물 출판 및 원판 녹음업</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O234" t="n">
+        <v>26333</v>
+      </c>
+      <c r="P234" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="R234" t="n">
+        <v>5750</v>
+      </c>
+      <c r="S234" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T234" t="n">
+        <v>200</v>
+      </c>
+      <c r="U234" t="n">
+        <v>17958</v>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W234" t="n">
+        <v>17958</v>
+      </c>
+      <c r="X234" t="n">
+        <v>16162</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>15264</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>12570</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>8979</v>
+      </c>
+      <c r="AB234" t="inlineStr"/>
+      <c r="AC234" t="inlineStr"/>
+      <c r="AD234" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD234"/>
+  <dimension ref="A1:AD247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23885,6 +23885,1306 @@
       <c r="AC234" t="inlineStr"/>
       <c r="AD234" t="inlineStr"/>
     </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>376180</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>6520</v>
+      </c>
+      <c r="C235" t="n">
+        <v>8340</v>
+      </c>
+      <c r="D235" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E235" t="n">
+        <v>8340</v>
+      </c>
+      <c r="F235" t="n">
+        <v>22699514</v>
+      </c>
+      <c r="G235" t="n">
+        <v>174052800120</v>
+      </c>
+      <c r="H235" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1740</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>피코그램</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>그외 기타 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O235" t="n">
+        <v>1573</v>
+      </c>
+      <c r="P235" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R235" t="n">
+        <v>200</v>
+      </c>
+      <c r="S235" t="n">
+        <v>0</v>
+      </c>
+      <c r="T235" t="n">
+        <v>0</v>
+      </c>
+      <c r="U235" t="n">
+        <v>3573</v>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W235" t="n">
+        <v>3573</v>
+      </c>
+      <c r="X235" t="n">
+        <v>3215</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3037</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>2501</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>1786</v>
+      </c>
+      <c r="AB235" t="inlineStr"/>
+      <c r="AC235" t="inlineStr"/>
+      <c r="AD235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>394280</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>16900</v>
+      </c>
+      <c r="C236" t="n">
+        <v>21600</v>
+      </c>
+      <c r="D236" t="n">
+        <v>16900</v>
+      </c>
+      <c r="E236" t="n">
+        <v>21600</v>
+      </c>
+      <c r="F236" t="n">
+        <v>14173811</v>
+      </c>
+      <c r="G236" t="n">
+        <v>280963510340</v>
+      </c>
+      <c r="H236" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="I236" t="n">
+        <v>2809</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>오픈엣지테크놀로지</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O236" t="n">
+        <v>1212</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
+      <c r="S236" t="n">
+        <v>0</v>
+      </c>
+      <c r="T236" t="n">
+        <v>0</v>
+      </c>
+      <c r="U236" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W236" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB236" t="inlineStr"/>
+      <c r="AC236" t="inlineStr"/>
+      <c r="AD236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>049630</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>576</v>
+      </c>
+      <c r="C237" t="n">
+        <v>752</v>
+      </c>
+      <c r="D237" t="n">
+        <v>570</v>
+      </c>
+      <c r="E237" t="n">
+        <v>707</v>
+      </c>
+      <c r="F237" t="n">
+        <v>44619843</v>
+      </c>
+      <c r="G237" t="n">
+        <v>32141662801</v>
+      </c>
+      <c r="H237" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="I237" t="n">
+        <v>321</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>재영솔루텍</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>사진장비 및 광학기기 제조업</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O237" t="n">
+        <v>737</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
+      <c r="S237" t="n">
+        <v>0</v>
+      </c>
+      <c r="T237" t="n">
+        <v>0</v>
+      </c>
+      <c r="U237" t="n">
+        <v>436</v>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W237" t="n">
+        <v>436</v>
+      </c>
+      <c r="X237" t="n">
+        <v>393</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>371</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>305</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>218</v>
+      </c>
+      <c r="AB237" t="inlineStr"/>
+      <c r="AC237" t="inlineStr"/>
+      <c r="AD237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>032680</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2440</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2290</v>
+      </c>
+      <c r="F238" t="n">
+        <v>44691164</v>
+      </c>
+      <c r="G238" t="n">
+        <v>103023909565</v>
+      </c>
+      <c r="H238" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1030</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>소프트센</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O238" t="n">
+        <v>1522</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R238" t="n">
+        <v>419</v>
+      </c>
+      <c r="S238" t="n">
+        <v>0</v>
+      </c>
+      <c r="T238" t="n">
+        <v>0</v>
+      </c>
+      <c r="U238" t="n">
+        <v>1110</v>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W238" t="n">
+        <v>1110</v>
+      </c>
+      <c r="X238" t="n">
+        <v>999</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>943</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>777</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>555</v>
+      </c>
+      <c r="AB238" t="inlineStr"/>
+      <c r="AC238" t="inlineStr"/>
+      <c r="AD238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>108860</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>14700</v>
+      </c>
+      <c r="C239" t="n">
+        <v>19180</v>
+      </c>
+      <c r="D239" t="n">
+        <v>14630</v>
+      </c>
+      <c r="E239" t="n">
+        <v>17500</v>
+      </c>
+      <c r="F239" t="n">
+        <v>27390698</v>
+      </c>
+      <c r="G239" t="n">
+        <v>465502108270</v>
+      </c>
+      <c r="H239" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="I239" t="n">
+        <v>4655</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>셀바스AI</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O239" t="n">
+        <v>1872</v>
+      </c>
+      <c r="P239" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="R239" t="n">
+        <v>172</v>
+      </c>
+      <c r="S239" t="n">
+        <v>0</v>
+      </c>
+      <c r="T239" t="n">
+        <v>0</v>
+      </c>
+      <c r="U239" t="n">
+        <v>1387</v>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W239" t="n">
+        <v>1387</v>
+      </c>
+      <c r="X239" t="n">
+        <v>1248</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1179</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>971</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>693</v>
+      </c>
+      <c r="AB239" t="inlineStr"/>
+      <c r="AC239" t="inlineStr"/>
+      <c r="AD239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>376180</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>6520</v>
+      </c>
+      <c r="C240" t="n">
+        <v>8340</v>
+      </c>
+      <c r="D240" t="n">
+        <v>6500</v>
+      </c>
+      <c r="E240" t="n">
+        <v>8340</v>
+      </c>
+      <c r="F240" t="n">
+        <v>22699514</v>
+      </c>
+      <c r="G240" t="n">
+        <v>174052800120</v>
+      </c>
+      <c r="H240" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1740</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>피코그램</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>그외 기타 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O240" t="n">
+        <v>1573</v>
+      </c>
+      <c r="P240" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R240" t="n">
+        <v>200</v>
+      </c>
+      <c r="S240" t="n">
+        <v>0</v>
+      </c>
+      <c r="T240" t="n">
+        <v>0</v>
+      </c>
+      <c r="U240" t="n">
+        <v>3573</v>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W240" t="n">
+        <v>3573</v>
+      </c>
+      <c r="X240" t="n">
+        <v>3215</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3037</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>2501</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>1786</v>
+      </c>
+      <c r="AB240" t="inlineStr"/>
+      <c r="AC240" t="inlineStr"/>
+      <c r="AD240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>394280</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>16900</v>
+      </c>
+      <c r="C241" t="n">
+        <v>21600</v>
+      </c>
+      <c r="D241" t="n">
+        <v>16900</v>
+      </c>
+      <c r="E241" t="n">
+        <v>21600</v>
+      </c>
+      <c r="F241" t="n">
+        <v>14173811</v>
+      </c>
+      <c r="G241" t="n">
+        <v>280963510340</v>
+      </c>
+      <c r="H241" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="I241" t="n">
+        <v>2809</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>오픈엣지테크놀로지</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O241" t="n">
+        <v>1212</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
+      <c r="S241" t="n">
+        <v>0</v>
+      </c>
+      <c r="T241" t="n">
+        <v>0</v>
+      </c>
+      <c r="U241" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W241" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB241" t="inlineStr"/>
+      <c r="AC241" t="inlineStr"/>
+      <c r="AD241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>402030</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>92000</v>
+      </c>
+      <c r="C242" t="n">
+        <v>120900</v>
+      </c>
+      <c r="D242" t="n">
+        <v>91000</v>
+      </c>
+      <c r="E242" t="n">
+        <v>114700</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1697699</v>
+      </c>
+      <c r="G242" t="n">
+        <v>182407314100</v>
+      </c>
+      <c r="H242" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1824</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>코난테크놀로지</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O242" t="n">
+        <v>3220</v>
+      </c>
+      <c r="P242" t="n">
+        <v>245.12</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="R242" t="n">
+        <v>468</v>
+      </c>
+      <c r="S242" t="n">
+        <v>0</v>
+      </c>
+      <c r="T242" t="n">
+        <v>0</v>
+      </c>
+      <c r="U242" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W242" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB242" t="inlineStr"/>
+      <c r="AC242" t="inlineStr"/>
+      <c r="AD242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>049630</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>576</v>
+      </c>
+      <c r="C243" t="n">
+        <v>752</v>
+      </c>
+      <c r="D243" t="n">
+        <v>570</v>
+      </c>
+      <c r="E243" t="n">
+        <v>707</v>
+      </c>
+      <c r="F243" t="n">
+        <v>44619843</v>
+      </c>
+      <c r="G243" t="n">
+        <v>32141662801</v>
+      </c>
+      <c r="H243" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="I243" t="n">
+        <v>321</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>재영솔루텍</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>사진장비 및 광학기기 제조업</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O243" t="n">
+        <v>737</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
+      <c r="S243" t="n">
+        <v>0</v>
+      </c>
+      <c r="T243" t="n">
+        <v>0</v>
+      </c>
+      <c r="U243" t="n">
+        <v>436</v>
+      </c>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W243" t="n">
+        <v>436</v>
+      </c>
+      <c r="X243" t="n">
+        <v>393</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>371</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>305</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>218</v>
+      </c>
+      <c r="AB243" t="inlineStr"/>
+      <c r="AC243" t="inlineStr"/>
+      <c r="AD243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>032680</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2440</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2290</v>
+      </c>
+      <c r="F244" t="n">
+        <v>44691164</v>
+      </c>
+      <c r="G244" t="n">
+        <v>103023909565</v>
+      </c>
+      <c r="H244" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1030</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>소프트센</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O244" t="n">
+        <v>1522</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R244" t="n">
+        <v>419</v>
+      </c>
+      <c r="S244" t="n">
+        <v>0</v>
+      </c>
+      <c r="T244" t="n">
+        <v>0</v>
+      </c>
+      <c r="U244" t="n">
+        <v>1110</v>
+      </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W244" t="n">
+        <v>1110</v>
+      </c>
+      <c r="X244" t="n">
+        <v>999</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>943</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>777</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>555</v>
+      </c>
+      <c r="AB244" t="inlineStr"/>
+      <c r="AC244" t="inlineStr"/>
+      <c r="AD244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>108860</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>14700</v>
+      </c>
+      <c r="C245" t="n">
+        <v>19180</v>
+      </c>
+      <c r="D245" t="n">
+        <v>14630</v>
+      </c>
+      <c r="E245" t="n">
+        <v>17500</v>
+      </c>
+      <c r="F245" t="n">
+        <v>27390698</v>
+      </c>
+      <c r="G245" t="n">
+        <v>465502108270</v>
+      </c>
+      <c r="H245" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="I245" t="n">
+        <v>4655</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>셀바스AI</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O245" t="n">
+        <v>1872</v>
+      </c>
+      <c r="P245" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="R245" t="n">
+        <v>172</v>
+      </c>
+      <c r="S245" t="n">
+        <v>0</v>
+      </c>
+      <c r="T245" t="n">
+        <v>0</v>
+      </c>
+      <c r="U245" t="n">
+        <v>1387</v>
+      </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W245" t="n">
+        <v>1387</v>
+      </c>
+      <c r="X245" t="n">
+        <v>1248</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>1179</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>971</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>693</v>
+      </c>
+      <c r="AB245" t="inlineStr"/>
+      <c r="AC245" t="inlineStr"/>
+      <c r="AD245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>389500</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>34200</v>
+      </c>
+      <c r="C246" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D246" t="n">
+        <v>33750</v>
+      </c>
+      <c r="E246" t="n">
+        <v>39650</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2163579</v>
+      </c>
+      <c r="G246" t="n">
+        <v>83237188000</v>
+      </c>
+      <c r="H246" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="I246" t="n">
+        <v>832</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>에스비비테크</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>일반 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O246" t="n">
+        <v>1406</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
+      <c r="S246" t="n">
+        <v>0</v>
+      </c>
+      <c r="T246" t="n">
+        <v>0</v>
+      </c>
+      <c r="U246" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W246" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB246" t="inlineStr"/>
+      <c r="AC246" t="inlineStr"/>
+      <c r="AD246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>412350</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>8550</v>
+      </c>
+      <c r="C247" t="n">
+        <v>10380</v>
+      </c>
+      <c r="D247" t="n">
+        <v>8470</v>
+      </c>
+      <c r="E247" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F247" t="n">
+        <v>9923641</v>
+      </c>
+      <c r="G247" t="n">
+        <v>98194856890</v>
+      </c>
+      <c r="H247" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="I247" t="n">
+        <v>981</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>2023/02/13</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>레이저쎌</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O247" t="n">
+        <v>1739</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
+      <c r="S247" t="n">
+        <v>0</v>
+      </c>
+      <c r="T247" t="n">
+        <v>0</v>
+      </c>
+      <c r="U247" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W247" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X247" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB247" t="inlineStr"/>
+      <c r="AC247" t="inlineStr"/>
+      <c r="AD247" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD247"/>
+  <dimension ref="A1:AD256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25185,6 +25185,906 @@
       <c r="AC247" t="inlineStr"/>
       <c r="AD247" t="inlineStr"/>
     </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>054630</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>536</v>
+      </c>
+      <c r="C248" t="n">
+        <v>699</v>
+      </c>
+      <c r="D248" t="n">
+        <v>518</v>
+      </c>
+      <c r="E248" t="n">
+        <v>638</v>
+      </c>
+      <c r="F248" t="n">
+        <v>129496892</v>
+      </c>
+      <c r="G248" t="n">
+        <v>83528592292</v>
+      </c>
+      <c r="H248" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="I248" t="n">
+        <v>835</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>에이디칩스</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>그외 기타 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O248" t="n">
+        <v>440</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
+      <c r="S248" t="n">
+        <v>0</v>
+      </c>
+      <c r="T248" t="n">
+        <v>0</v>
+      </c>
+      <c r="U248" t="n">
+        <v>220</v>
+      </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W248" t="n">
+        <v>220</v>
+      </c>
+      <c r="X248" t="n">
+        <v>198</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>187</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB248" t="inlineStr"/>
+      <c r="AC248" t="inlineStr"/>
+      <c r="AD248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>411080</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>21000</v>
+      </c>
+      <c r="C249" t="n">
+        <v>27300</v>
+      </c>
+      <c r="D249" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E249" t="n">
+        <v>24900</v>
+      </c>
+      <c r="F249" t="n">
+        <v>11865740</v>
+      </c>
+      <c r="G249" t="n">
+        <v>310094449300</v>
+      </c>
+      <c r="H249" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="I249" t="n">
+        <v>3100</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>샌즈랩</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O249" t="n">
+        <v>406</v>
+      </c>
+      <c r="P249" t="n">
+        <v>408.25</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>61.34</v>
+      </c>
+      <c r="R249" t="n">
+        <v>61</v>
+      </c>
+      <c r="S249" t="n">
+        <v>0</v>
+      </c>
+      <c r="T249" t="n">
+        <v>0</v>
+      </c>
+      <c r="U249" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V249" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W249" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X249" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB249" t="inlineStr"/>
+      <c r="AC249" t="inlineStr"/>
+      <c r="AD249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>140070</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>4135</v>
+      </c>
+      <c r="C250" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D250" t="n">
+        <v>4105</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4765</v>
+      </c>
+      <c r="F250" t="n">
+        <v>34520550</v>
+      </c>
+      <c r="G250" t="n">
+        <v>168360992120</v>
+      </c>
+      <c r="H250" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1683</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>서플러스글로벌</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O250" t="n">
+        <v>4598</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="R250" t="n">
+        <v>795</v>
+      </c>
+      <c r="S250" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T250" t="n">
+        <v>50</v>
+      </c>
+      <c r="U250" t="n">
+        <v>3543</v>
+      </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W250" t="n">
+        <v>3543</v>
+      </c>
+      <c r="X250" t="n">
+        <v>3188</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>3011</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>2480</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AB250" t="inlineStr"/>
+      <c r="AC250" t="inlineStr"/>
+      <c r="AD250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>322310</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>15900</v>
+      </c>
+      <c r="C251" t="n">
+        <v>20200</v>
+      </c>
+      <c r="D251" t="n">
+        <v>15750</v>
+      </c>
+      <c r="E251" t="n">
+        <v>18790</v>
+      </c>
+      <c r="F251" t="n">
+        <v>6296494</v>
+      </c>
+      <c r="G251" t="n">
+        <v>118613777030</v>
+      </c>
+      <c r="H251" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1186</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>오로스테크놀로지</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O251" t="n">
+        <v>6898</v>
+      </c>
+      <c r="P251" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R251" t="n">
+        <v>199</v>
+      </c>
+      <c r="S251" t="n">
+        <v>0</v>
+      </c>
+      <c r="T251" t="n">
+        <v>0</v>
+      </c>
+      <c r="U251" t="n">
+        <v>4728</v>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W251" t="n">
+        <v>4728</v>
+      </c>
+      <c r="X251" t="n">
+        <v>4255</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>4018</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>3309</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>2364</v>
+      </c>
+      <c r="AB251" t="inlineStr"/>
+      <c r="AC251" t="inlineStr"/>
+      <c r="AD251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>054630</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>536</v>
+      </c>
+      <c r="C252" t="n">
+        <v>699</v>
+      </c>
+      <c r="D252" t="n">
+        <v>518</v>
+      </c>
+      <c r="E252" t="n">
+        <v>638</v>
+      </c>
+      <c r="F252" t="n">
+        <v>129496892</v>
+      </c>
+      <c r="G252" t="n">
+        <v>83528592292</v>
+      </c>
+      <c r="H252" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="I252" t="n">
+        <v>835</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>에이디칩스</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>그외 기타 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O252" t="n">
+        <v>440</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
+      <c r="S252" t="n">
+        <v>0</v>
+      </c>
+      <c r="T252" t="n">
+        <v>0</v>
+      </c>
+      <c r="U252" t="n">
+        <v>220</v>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W252" t="n">
+        <v>220</v>
+      </c>
+      <c r="X252" t="n">
+        <v>198</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>187</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB252" t="inlineStr"/>
+      <c r="AC252" t="inlineStr"/>
+      <c r="AD252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>411080</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>21000</v>
+      </c>
+      <c r="C253" t="n">
+        <v>27300</v>
+      </c>
+      <c r="D253" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E253" t="n">
+        <v>24900</v>
+      </c>
+      <c r="F253" t="n">
+        <v>11865740</v>
+      </c>
+      <c r="G253" t="n">
+        <v>310094449300</v>
+      </c>
+      <c r="H253" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="I253" t="n">
+        <v>3100</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>샌즈랩</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O253" t="n">
+        <v>406</v>
+      </c>
+      <c r="P253" t="n">
+        <v>408.25</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>61.34</v>
+      </c>
+      <c r="R253" t="n">
+        <v>61</v>
+      </c>
+      <c r="S253" t="n">
+        <v>0</v>
+      </c>
+      <c r="T253" t="n">
+        <v>0</v>
+      </c>
+      <c r="U253" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W253" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB253" t="inlineStr"/>
+      <c r="AC253" t="inlineStr"/>
+      <c r="AD253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>032750</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>7550</v>
+      </c>
+      <c r="C254" t="n">
+        <v>9750</v>
+      </c>
+      <c r="D254" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E254" t="n">
+        <v>8760</v>
+      </c>
+      <c r="F254" t="n">
+        <v>9451693</v>
+      </c>
+      <c r="G254" t="n">
+        <v>87303992940</v>
+      </c>
+      <c r="H254" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="I254" t="n">
+        <v>873</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>삼진</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O254" t="n">
+        <v>11374</v>
+      </c>
+      <c r="P254" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R254" t="n">
+        <v>1195</v>
+      </c>
+      <c r="S254" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T254" t="n">
+        <v>100</v>
+      </c>
+      <c r="U254" t="n">
+        <v>9897</v>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W254" t="n">
+        <v>9897</v>
+      </c>
+      <c r="X254" t="n">
+        <v>8907</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>8412</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>6927</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>4948</v>
+      </c>
+      <c r="AB254" t="inlineStr"/>
+      <c r="AC254" t="inlineStr"/>
+      <c r="AD254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>067080</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>8610</v>
+      </c>
+      <c r="C255" t="n">
+        <v>10700</v>
+      </c>
+      <c r="D255" t="n">
+        <v>8590</v>
+      </c>
+      <c r="E255" t="n">
+        <v>9970</v>
+      </c>
+      <c r="F255" t="n">
+        <v>5876823</v>
+      </c>
+      <c r="G255" t="n">
+        <v>59175577590</v>
+      </c>
+      <c r="H255" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="I255" t="n">
+        <v>591</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>대화제약</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O255" t="n">
+        <v>4548</v>
+      </c>
+      <c r="P255" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="R255" t="n">
+        <v>127</v>
+      </c>
+      <c r="S255" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T255" t="n">
+        <v>150</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2879</v>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W255" t="n">
+        <v>2879</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2591</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>2447</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AB255" t="inlineStr"/>
+      <c r="AC255" t="inlineStr"/>
+      <c r="AD255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>140070</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>4135</v>
+      </c>
+      <c r="C256" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D256" t="n">
+        <v>4105</v>
+      </c>
+      <c r="E256" t="n">
+        <v>4765</v>
+      </c>
+      <c r="F256" t="n">
+        <v>34520550</v>
+      </c>
+      <c r="G256" t="n">
+        <v>168360992120</v>
+      </c>
+      <c r="H256" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1683</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>2023/02/15</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>서플러스글로벌</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>기계장비 및 관련 물품 도매업</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O256" t="n">
+        <v>4598</v>
+      </c>
+      <c r="P256" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="R256" t="n">
+        <v>795</v>
+      </c>
+      <c r="S256" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T256" t="n">
+        <v>50</v>
+      </c>
+      <c r="U256" t="n">
+        <v>3543</v>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W256" t="n">
+        <v>3543</v>
+      </c>
+      <c r="X256" t="n">
+        <v>3188</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>3011</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>2480</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>1771</v>
+      </c>
+      <c r="AB256" t="inlineStr"/>
+      <c r="AC256" t="inlineStr"/>
+      <c r="AD256" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD256"/>
+  <dimension ref="A1:AD267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26085,6 +26085,1106 @@
       <c r="AC256" t="inlineStr"/>
       <c r="AD256" t="inlineStr"/>
     </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>005420</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>26750</v>
+      </c>
+      <c r="C257" t="n">
+        <v>34000</v>
+      </c>
+      <c r="D257" t="n">
+        <v>26500</v>
+      </c>
+      <c r="E257" t="n">
+        <v>34000</v>
+      </c>
+      <c r="F257" t="n">
+        <v>12702952</v>
+      </c>
+      <c r="G257" t="n">
+        <v>392563052650</v>
+      </c>
+      <c r="H257" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="I257" t="n">
+        <v>3925</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O257" t="n">
+        <v>4803</v>
+      </c>
+      <c r="P257" t="n">
+        <v>97.69</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="R257" t="n">
+        <v>348</v>
+      </c>
+      <c r="S257" t="n">
+        <v>0</v>
+      </c>
+      <c r="T257" t="n">
+        <v>0</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2691</v>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W257" t="n">
+        <v>2691</v>
+      </c>
+      <c r="X257" t="n">
+        <v>2422</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>2287</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1884</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>1345</v>
+      </c>
+      <c r="AB257" t="inlineStr"/>
+      <c r="AC257" t="inlineStr"/>
+      <c r="AD257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>121800</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>3800</v>
+      </c>
+      <c r="C258" t="n">
+        <v>4295</v>
+      </c>
+      <c r="D258" t="n">
+        <v>3795</v>
+      </c>
+      <c r="E258" t="n">
+        <v>4175</v>
+      </c>
+      <c r="F258" t="n">
+        <v>18326524</v>
+      </c>
+      <c r="G258" t="n">
+        <v>74963124715</v>
+      </c>
+      <c r="H258" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="I258" t="n">
+        <v>749</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>비덴트</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O258" t="n">
+        <v>12509</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R258" t="n">
+        <v>4876</v>
+      </c>
+      <c r="S258" t="n">
+        <v>0</v>
+      </c>
+      <c r="T258" t="n">
+        <v>0</v>
+      </c>
+      <c r="U258" t="n">
+        <v>11304</v>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W258" t="n">
+        <v>11304</v>
+      </c>
+      <c r="X258" t="n">
+        <v>10174</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>9608</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>7913</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>5652</v>
+      </c>
+      <c r="AB258" t="inlineStr"/>
+      <c r="AC258" t="inlineStr"/>
+      <c r="AD258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>006220</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>17980</v>
+      </c>
+      <c r="C259" t="n">
+        <v>20950</v>
+      </c>
+      <c r="D259" t="n">
+        <v>17980</v>
+      </c>
+      <c r="E259" t="n">
+        <v>20350</v>
+      </c>
+      <c r="F259" t="n">
+        <v>12874239</v>
+      </c>
+      <c r="G259" t="n">
+        <v>252832138380</v>
+      </c>
+      <c r="H259" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="I259" t="n">
+        <v>2528</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>제주은행</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>은행 및 저축기관</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O259" t="n">
+        <v>16059</v>
+      </c>
+      <c r="P259" t="n">
+        <v>39.59</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R259" t="n">
+        <v>514</v>
+      </c>
+      <c r="S259" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T259" t="n">
+        <v>100</v>
+      </c>
+      <c r="U259" t="n">
+        <v>9922</v>
+      </c>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W259" t="n">
+        <v>9922</v>
+      </c>
+      <c r="X259" t="n">
+        <v>8930</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>8434</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>6945</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>4961</v>
+      </c>
+      <c r="AB259" t="inlineStr"/>
+      <c r="AC259" t="inlineStr"/>
+      <c r="AD259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>101730</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>14520</v>
+      </c>
+      <c r="C260" t="n">
+        <v>17810</v>
+      </c>
+      <c r="D260" t="n">
+        <v>14150</v>
+      </c>
+      <c r="E260" t="n">
+        <v>17810</v>
+      </c>
+      <c r="F260" t="n">
+        <v>4331688</v>
+      </c>
+      <c r="G260" t="n">
+        <v>71070606990</v>
+      </c>
+      <c r="H260" t="n">
+        <v>30</v>
+      </c>
+      <c r="I260" t="n">
+        <v>710</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>위메이드맥스</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O260" t="n">
+        <v>1456</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
+      <c r="S260" t="n">
+        <v>0</v>
+      </c>
+      <c r="T260" t="n">
+        <v>0</v>
+      </c>
+      <c r="U260" t="n">
+        <v>728</v>
+      </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W260" t="n">
+        <v>728</v>
+      </c>
+      <c r="X260" t="n">
+        <v>655</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>618</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>509</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>364</v>
+      </c>
+      <c r="AB260" t="inlineStr"/>
+      <c r="AC260" t="inlineStr"/>
+      <c r="AD260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>123420</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>14530</v>
+      </c>
+      <c r="C261" t="n">
+        <v>18460</v>
+      </c>
+      <c r="D261" t="n">
+        <v>14530</v>
+      </c>
+      <c r="E261" t="n">
+        <v>18460</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3805685</v>
+      </c>
+      <c r="G261" t="n">
+        <v>66498399880</v>
+      </c>
+      <c r="H261" t="n">
+        <v>30</v>
+      </c>
+      <c r="I261" t="n">
+        <v>664</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>위메이드플레이</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O261" t="n">
+        <v>18577</v>
+      </c>
+      <c r="P261" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R261" t="n">
+        <v>1667</v>
+      </c>
+      <c r="S261" t="n">
+        <v>0</v>
+      </c>
+      <c r="T261" t="n">
+        <v>0</v>
+      </c>
+      <c r="U261" t="n">
+        <v>13704</v>
+      </c>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W261" t="n">
+        <v>13704</v>
+      </c>
+      <c r="X261" t="n">
+        <v>12333</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>11648</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>9593</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>6852</v>
+      </c>
+      <c r="AB261" t="inlineStr"/>
+      <c r="AC261" t="inlineStr"/>
+      <c r="AD261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>112040</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>43600</v>
+      </c>
+      <c r="C262" t="n">
+        <v>54800</v>
+      </c>
+      <c r="D262" t="n">
+        <v>43050</v>
+      </c>
+      <c r="E262" t="n">
+        <v>54800</v>
+      </c>
+      <c r="F262" t="n">
+        <v>7423423</v>
+      </c>
+      <c r="G262" t="n">
+        <v>377285094800</v>
+      </c>
+      <c r="H262" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="I262" t="n">
+        <v>3772</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>위메이드</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O262" t="n">
+        <v>18883</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R262" t="n">
+        <v>9319</v>
+      </c>
+      <c r="S262" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T262" t="n">
+        <v>650</v>
+      </c>
+      <c r="U262" t="n">
+        <v>17207</v>
+      </c>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W262" t="n">
+        <v>17207</v>
+      </c>
+      <c r="X262" t="n">
+        <v>15486</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>14626</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>12045</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>8603</v>
+      </c>
+      <c r="AB262" t="inlineStr"/>
+      <c r="AC262" t="inlineStr"/>
+      <c r="AD262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>005420</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>26750</v>
+      </c>
+      <c r="C263" t="n">
+        <v>34000</v>
+      </c>
+      <c r="D263" t="n">
+        <v>26500</v>
+      </c>
+      <c r="E263" t="n">
+        <v>34000</v>
+      </c>
+      <c r="F263" t="n">
+        <v>12707631</v>
+      </c>
+      <c r="G263" t="n">
+        <v>392721904700</v>
+      </c>
+      <c r="H263" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="I263" t="n">
+        <v>3927</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O263" t="n">
+        <v>4803</v>
+      </c>
+      <c r="P263" t="n">
+        <v>97.69</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="R263" t="n">
+        <v>348</v>
+      </c>
+      <c r="S263" t="n">
+        <v>0</v>
+      </c>
+      <c r="T263" t="n">
+        <v>0</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2691</v>
+      </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W263" t="n">
+        <v>2691</v>
+      </c>
+      <c r="X263" t="n">
+        <v>2422</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>2287</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1884</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>1345</v>
+      </c>
+      <c r="AB263" t="inlineStr"/>
+      <c r="AC263" t="inlineStr"/>
+      <c r="AD263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>063080</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>43400</v>
+      </c>
+      <c r="C264" t="n">
+        <v>54600</v>
+      </c>
+      <c r="D264" t="n">
+        <v>43250</v>
+      </c>
+      <c r="E264" t="n">
+        <v>53000</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2028026</v>
+      </c>
+      <c r="G264" t="n">
+        <v>103384770100</v>
+      </c>
+      <c r="H264" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1033</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>컴투스홀딩스</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O264" t="n">
+        <v>55632</v>
+      </c>
+      <c r="P264" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R264" t="n">
+        <v>4594</v>
+      </c>
+      <c r="S264" t="n">
+        <v>0</v>
+      </c>
+      <c r="T264" t="n">
+        <v>0</v>
+      </c>
+      <c r="U264" t="n">
+        <v>38644</v>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W264" t="n">
+        <v>38644</v>
+      </c>
+      <c r="X264" t="n">
+        <v>34779</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>32847</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>27051</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>19322</v>
+      </c>
+      <c r="AB264" t="inlineStr"/>
+      <c r="AC264" t="inlineStr"/>
+      <c r="AD264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>121800</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>3800</v>
+      </c>
+      <c r="C265" t="n">
+        <v>4295</v>
+      </c>
+      <c r="D265" t="n">
+        <v>3795</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4175</v>
+      </c>
+      <c r="F265" t="n">
+        <v>18328882</v>
+      </c>
+      <c r="G265" t="n">
+        <v>74972886835</v>
+      </c>
+      <c r="H265" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="I265" t="n">
+        <v>749</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>비덴트</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O265" t="n">
+        <v>12509</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R265" t="n">
+        <v>4876</v>
+      </c>
+      <c r="S265" t="n">
+        <v>0</v>
+      </c>
+      <c r="T265" t="n">
+        <v>0</v>
+      </c>
+      <c r="U265" t="n">
+        <v>11304</v>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W265" t="n">
+        <v>11304</v>
+      </c>
+      <c r="X265" t="n">
+        <v>10174</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>9608</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>7913</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>5652</v>
+      </c>
+      <c r="AB265" t="inlineStr"/>
+      <c r="AC265" t="inlineStr"/>
+      <c r="AD265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>130740</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2935</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3700</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2935</v>
+      </c>
+      <c r="E266" t="n">
+        <v>3465</v>
+      </c>
+      <c r="F266" t="n">
+        <v>9131168</v>
+      </c>
+      <c r="G266" t="n">
+        <v>31544020055</v>
+      </c>
+      <c r="H266" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="I266" t="n">
+        <v>315</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>티피씨글로벌</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O266" t="n">
+        <v>5674</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
+      <c r="S266" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="T266" t="n">
+        <v>30</v>
+      </c>
+      <c r="U266" t="n">
+        <v>3198</v>
+      </c>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W266" t="n">
+        <v>3198</v>
+      </c>
+      <c r="X266" t="n">
+        <v>2878</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>2718</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>2239</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AB266" t="inlineStr"/>
+      <c r="AC266" t="inlineStr"/>
+      <c r="AD266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>006220</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>17980</v>
+      </c>
+      <c r="C267" t="n">
+        <v>20950</v>
+      </c>
+      <c r="D267" t="n">
+        <v>17980</v>
+      </c>
+      <c r="E267" t="n">
+        <v>20350</v>
+      </c>
+      <c r="F267" t="n">
+        <v>12874239</v>
+      </c>
+      <c r="G267" t="n">
+        <v>252832138380</v>
+      </c>
+      <c r="H267" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="I267" t="n">
+        <v>2528</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>2023/02/16</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>제주은행</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>은행 및 저축기관</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O267" t="n">
+        <v>16059</v>
+      </c>
+      <c r="P267" t="n">
+        <v>39.59</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R267" t="n">
+        <v>514</v>
+      </c>
+      <c r="S267" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T267" t="n">
+        <v>100</v>
+      </c>
+      <c r="U267" t="n">
+        <v>9922</v>
+      </c>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W267" t="n">
+        <v>9922</v>
+      </c>
+      <c r="X267" t="n">
+        <v>8930</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>8434</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>6945</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>4961</v>
+      </c>
+      <c r="AB267" t="inlineStr"/>
+      <c r="AC267" t="inlineStr"/>
+      <c r="AD267" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD267"/>
+  <dimension ref="A1:AD279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27185,6 +27185,1206 @@
       <c r="AC267" t="inlineStr"/>
       <c r="AD267" t="inlineStr"/>
     </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>000910</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>5310</v>
+      </c>
+      <c r="C268" t="n">
+        <v>6280</v>
+      </c>
+      <c r="D268" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E268" t="n">
+        <v>6280</v>
+      </c>
+      <c r="F268" t="n">
+        <v>15507203</v>
+      </c>
+      <c r="G268" t="n">
+        <v>93370324280</v>
+      </c>
+      <c r="H268" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="I268" t="n">
+        <v>933</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>유니온</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>시멘트, 석회, 플라스터 및 그 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O268" t="n">
+        <v>8391</v>
+      </c>
+      <c r="P268" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R268" t="n">
+        <v>564</v>
+      </c>
+      <c r="S268" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T268" t="n">
+        <v>125</v>
+      </c>
+      <c r="U268" t="n">
+        <v>6250</v>
+      </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W268" t="n">
+        <v>6250</v>
+      </c>
+      <c r="X268" t="n">
+        <v>5625</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>5312</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>4375</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>3125</v>
+      </c>
+      <c r="AB268" t="inlineStr"/>
+      <c r="AC268" t="inlineStr"/>
+      <c r="AD268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>054780</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>10400</v>
+      </c>
+      <c r="C269" t="n">
+        <v>11980</v>
+      </c>
+      <c r="D269" t="n">
+        <v>10250</v>
+      </c>
+      <c r="E269" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F269" t="n">
+        <v>16880437</v>
+      </c>
+      <c r="G269" t="n">
+        <v>193716029070</v>
+      </c>
+      <c r="H269" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1937</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>키이스트</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O269" t="n">
+        <v>2519</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
+      <c r="S269" t="n">
+        <v>0</v>
+      </c>
+      <c r="T269" t="n">
+        <v>0</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2192</v>
+      </c>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W269" t="n">
+        <v>2192</v>
+      </c>
+      <c r="X269" t="n">
+        <v>1973</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>1863</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1534</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>1096</v>
+      </c>
+      <c r="AB269" t="inlineStr"/>
+      <c r="AC269" t="inlineStr"/>
+      <c r="AD269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>277070</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>6340</v>
+      </c>
+      <c r="C270" t="n">
+        <v>8310</v>
+      </c>
+      <c r="D270" t="n">
+        <v>6250</v>
+      </c>
+      <c r="E270" t="n">
+        <v>7650</v>
+      </c>
+      <c r="F270" t="n">
+        <v>13805623</v>
+      </c>
+      <c r="G270" t="n">
+        <v>104696471270</v>
+      </c>
+      <c r="H270" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1046</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>린드먼아시아</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>신탁업 및 집합투자업</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O270" t="n">
+        <v>4011</v>
+      </c>
+      <c r="P270" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R270" t="n">
+        <v>398</v>
+      </c>
+      <c r="S270" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T270" t="n">
+        <v>42</v>
+      </c>
+      <c r="U270" t="n">
+        <v>3226</v>
+      </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W270" t="n">
+        <v>3226</v>
+      </c>
+      <c r="X270" t="n">
+        <v>2903</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>2742</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>2258</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>1613</v>
+      </c>
+      <c r="AB270" t="inlineStr"/>
+      <c r="AC270" t="inlineStr"/>
+      <c r="AD270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>047400</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>3110</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3415</v>
+      </c>
+      <c r="D271" t="n">
+        <v>3015</v>
+      </c>
+      <c r="E271" t="n">
+        <v>3175</v>
+      </c>
+      <c r="F271" t="n">
+        <v>63902318</v>
+      </c>
+      <c r="G271" t="n">
+        <v>207017663185</v>
+      </c>
+      <c r="H271" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="I271" t="n">
+        <v>2070</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>유니온머티리얼</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>내화, 비내화 요업제품 제조업</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O271" t="n">
+        <v>1997</v>
+      </c>
+      <c r="P271" t="n">
+        <v>244.25</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R271" t="n">
+        <v>13</v>
+      </c>
+      <c r="S271" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="T271" t="n">
+        <v>35</v>
+      </c>
+      <c r="U271" t="n">
+        <v>1056</v>
+      </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W271" t="n">
+        <v>1056</v>
+      </c>
+      <c r="X271" t="n">
+        <v>951</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>898</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>739</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>528</v>
+      </c>
+      <c r="AB271" t="inlineStr"/>
+      <c r="AC271" t="inlineStr"/>
+      <c r="AD271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>065420</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>452</v>
+      </c>
+      <c r="C272" t="n">
+        <v>584</v>
+      </c>
+      <c r="D272" t="n">
+        <v>452</v>
+      </c>
+      <c r="E272" t="n">
+        <v>523</v>
+      </c>
+      <c r="F272" t="n">
+        <v>16244764</v>
+      </c>
+      <c r="G272" t="n">
+        <v>8721627620</v>
+      </c>
+      <c r="H272" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="I272" t="n">
+        <v>87</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>에스아이리소스</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>석탄 광업</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O272" t="n">
+        <v>271</v>
+      </c>
+      <c r="P272" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R272" t="n">
+        <v>58</v>
+      </c>
+      <c r="S272" t="n">
+        <v>0</v>
+      </c>
+      <c r="T272" t="n">
+        <v>0</v>
+      </c>
+      <c r="U272" t="n">
+        <v>213</v>
+      </c>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W272" t="n">
+        <v>213</v>
+      </c>
+      <c r="X272" t="n">
+        <v>192</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>181</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>149</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>106</v>
+      </c>
+      <c r="AB272" t="inlineStr"/>
+      <c r="AC272" t="inlineStr"/>
+      <c r="AD272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>000910</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>5310</v>
+      </c>
+      <c r="C273" t="n">
+        <v>6280</v>
+      </c>
+      <c r="D273" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E273" t="n">
+        <v>6280</v>
+      </c>
+      <c r="F273" t="n">
+        <v>15507203</v>
+      </c>
+      <c r="G273" t="n">
+        <v>93370324280</v>
+      </c>
+      <c r="H273" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="I273" t="n">
+        <v>933</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>유니온</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>시멘트, 석회, 플라스터 및 그 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O273" t="n">
+        <v>8391</v>
+      </c>
+      <c r="P273" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R273" t="n">
+        <v>564</v>
+      </c>
+      <c r="S273" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T273" t="n">
+        <v>125</v>
+      </c>
+      <c r="U273" t="n">
+        <v>6250</v>
+      </c>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W273" t="n">
+        <v>6250</v>
+      </c>
+      <c r="X273" t="n">
+        <v>5625</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>5312</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>4375</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>3125</v>
+      </c>
+      <c r="AB273" t="inlineStr"/>
+      <c r="AC273" t="inlineStr"/>
+      <c r="AD273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>065660</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>21550</v>
+      </c>
+      <c r="C274" t="n">
+        <v>23000</v>
+      </c>
+      <c r="D274" t="n">
+        <v>19650</v>
+      </c>
+      <c r="E274" t="n">
+        <v>23000</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2763721</v>
+      </c>
+      <c r="G274" t="n">
+        <v>61164955630</v>
+      </c>
+      <c r="H274" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="I274" t="n">
+        <v>611</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>안트로젠</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>기타 전문 도매업</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O274" t="n">
+        <v>12404</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
+      <c r="S274" t="n">
+        <v>0</v>
+      </c>
+      <c r="T274" t="n">
+        <v>0</v>
+      </c>
+      <c r="U274" t="n">
+        <v>6202</v>
+      </c>
+      <c r="V274" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W274" t="n">
+        <v>6202</v>
+      </c>
+      <c r="X274" t="n">
+        <v>5581</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>5271</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>4341</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>3101</v>
+      </c>
+      <c r="AB274" t="inlineStr"/>
+      <c r="AC274" t="inlineStr"/>
+      <c r="AD274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C275" t="n">
+        <v>48300</v>
+      </c>
+      <c r="D275" t="n">
+        <v>39900</v>
+      </c>
+      <c r="E275" t="n">
+        <v>46650</v>
+      </c>
+      <c r="F275" t="n">
+        <v>4839039</v>
+      </c>
+      <c r="G275" t="n">
+        <v>216467779650</v>
+      </c>
+      <c r="H275" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I275" t="n">
+        <v>2164</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>아이에스동서</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>내화, 비내화 요업제품 제조업</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O275" t="n">
+        <v>40644</v>
+      </c>
+      <c r="P275" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R275" t="n">
+        <v>3447</v>
+      </c>
+      <c r="S275" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T275" t="n">
+        <v>1200</v>
+      </c>
+      <c r="U275" t="n">
+        <v>31762</v>
+      </c>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W275" t="n">
+        <v>31762</v>
+      </c>
+      <c r="X275" t="n">
+        <v>28585</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>26997</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>22233</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>15881</v>
+      </c>
+      <c r="AB275" t="inlineStr"/>
+      <c r="AC275" t="inlineStr"/>
+      <c r="AD275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>054780</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>10400</v>
+      </c>
+      <c r="C276" t="n">
+        <v>11980</v>
+      </c>
+      <c r="D276" t="n">
+        <v>10250</v>
+      </c>
+      <c r="E276" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F276" t="n">
+        <v>16880437</v>
+      </c>
+      <c r="G276" t="n">
+        <v>193716029070</v>
+      </c>
+      <c r="H276" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1937</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>키이스트</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O276" t="n">
+        <v>2519</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
+      <c r="S276" t="n">
+        <v>0</v>
+      </c>
+      <c r="T276" t="n">
+        <v>0</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2192</v>
+      </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W276" t="n">
+        <v>2192</v>
+      </c>
+      <c r="X276" t="n">
+        <v>1973</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>1863</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1534</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>1096</v>
+      </c>
+      <c r="AB276" t="inlineStr"/>
+      <c r="AC276" t="inlineStr"/>
+      <c r="AD276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>298000</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>116800</v>
+      </c>
+      <c r="C277" t="n">
+        <v>145500</v>
+      </c>
+      <c r="D277" t="n">
+        <v>114000</v>
+      </c>
+      <c r="E277" t="n">
+        <v>141800</v>
+      </c>
+      <c r="F277" t="n">
+        <v>276446</v>
+      </c>
+      <c r="G277" t="n">
+        <v>37240115500</v>
+      </c>
+      <c r="H277" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="I277" t="n">
+        <v>372</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>효성화학</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O277" t="n">
+        <v>157800</v>
+      </c>
+      <c r="P277" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R277" t="n">
+        <v>22158</v>
+      </c>
+      <c r="S277" t="n">
+        <v>0</v>
+      </c>
+      <c r="T277" t="n">
+        <v>0</v>
+      </c>
+      <c r="U277" t="n">
+        <v>120395</v>
+      </c>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W277" t="n">
+        <v>120395</v>
+      </c>
+      <c r="X277" t="n">
+        <v>108356</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>102336</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>84277</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>60197</v>
+      </c>
+      <c r="AB277" t="inlineStr"/>
+      <c r="AC277" t="inlineStr"/>
+      <c r="AD277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>277070</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>6340</v>
+      </c>
+      <c r="C278" t="n">
+        <v>8310</v>
+      </c>
+      <c r="D278" t="n">
+        <v>6250</v>
+      </c>
+      <c r="E278" t="n">
+        <v>7650</v>
+      </c>
+      <c r="F278" t="n">
+        <v>13805623</v>
+      </c>
+      <c r="G278" t="n">
+        <v>104696471270</v>
+      </c>
+      <c r="H278" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1046</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>린드먼아시아</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>신탁업 및 집합투자업</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O278" t="n">
+        <v>4011</v>
+      </c>
+      <c r="P278" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R278" t="n">
+        <v>398</v>
+      </c>
+      <c r="S278" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T278" t="n">
+        <v>42</v>
+      </c>
+      <c r="U278" t="n">
+        <v>3226</v>
+      </c>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W278" t="n">
+        <v>3226</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2903</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>2742</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>2258</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>1613</v>
+      </c>
+      <c r="AB278" t="inlineStr"/>
+      <c r="AC278" t="inlineStr"/>
+      <c r="AD278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>047400</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>3110</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3415</v>
+      </c>
+      <c r="D279" t="n">
+        <v>3015</v>
+      </c>
+      <c r="E279" t="n">
+        <v>3175</v>
+      </c>
+      <c r="F279" t="n">
+        <v>63902318</v>
+      </c>
+      <c r="G279" t="n">
+        <v>207017663185</v>
+      </c>
+      <c r="H279" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="I279" t="n">
+        <v>2070</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>2023/02/17</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>유니온머티리얼</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>내화, 비내화 요업제품 제조업</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O279" t="n">
+        <v>1997</v>
+      </c>
+      <c r="P279" t="n">
+        <v>244.25</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R279" t="n">
+        <v>13</v>
+      </c>
+      <c r="S279" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="T279" t="n">
+        <v>35</v>
+      </c>
+      <c r="U279" t="n">
+        <v>1056</v>
+      </c>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W279" t="n">
+        <v>1056</v>
+      </c>
+      <c r="X279" t="n">
+        <v>951</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>898</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>739</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>528</v>
+      </c>
+      <c r="AB279" t="inlineStr"/>
+      <c r="AC279" t="inlineStr"/>
+      <c r="AD279" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD279"/>
+  <dimension ref="A1:AD291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28385,6 +28385,1206 @@
       <c r="AC279" t="inlineStr"/>
       <c r="AD279" t="inlineStr"/>
     </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>028300</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>30900</v>
+      </c>
+      <c r="C280" t="n">
+        <v>37600</v>
+      </c>
+      <c r="D280" t="n">
+        <v>30900</v>
+      </c>
+      <c r="E280" t="n">
+        <v>37600</v>
+      </c>
+      <c r="F280" t="n">
+        <v>11341361</v>
+      </c>
+      <c r="G280" t="n">
+        <v>402505889300</v>
+      </c>
+      <c r="H280" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="I280" t="n">
+        <v>4025</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>HLB</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>의료용품 및 기타 의약 관련제품 제조업</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O280" t="n">
+        <v>3850</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
+      <c r="S280" t="n">
+        <v>0</v>
+      </c>
+      <c r="T280" t="n">
+        <v>0</v>
+      </c>
+      <c r="U280" t="n">
+        <v>1925</v>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W280" t="n">
+        <v>1925</v>
+      </c>
+      <c r="X280" t="n">
+        <v>1732</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>1636</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1347</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>962</v>
+      </c>
+      <c r="AB280" t="inlineStr"/>
+      <c r="AC280" t="inlineStr"/>
+      <c r="AD280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>064480</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>7300</v>
+      </c>
+      <c r="C281" t="n">
+        <v>9080</v>
+      </c>
+      <c r="D281" t="n">
+        <v>7300</v>
+      </c>
+      <c r="E281" t="n">
+        <v>8960</v>
+      </c>
+      <c r="F281" t="n">
+        <v>13958054</v>
+      </c>
+      <c r="G281" t="n">
+        <v>119103698270</v>
+      </c>
+      <c r="H281" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1191</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>브리지텍</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O281" t="n">
+        <v>3458</v>
+      </c>
+      <c r="P281" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="R281" t="n">
+        <v>245</v>
+      </c>
+      <c r="S281" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T281" t="n">
+        <v>120</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2056</v>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W281" t="n">
+        <v>2056</v>
+      </c>
+      <c r="X281" t="n">
+        <v>1850</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>1748</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AB281" t="inlineStr"/>
+      <c r="AC281" t="inlineStr"/>
+      <c r="AD281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>016790</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>16140</v>
+      </c>
+      <c r="C282" t="n">
+        <v>20250</v>
+      </c>
+      <c r="D282" t="n">
+        <v>16080</v>
+      </c>
+      <c r="E282" t="n">
+        <v>19460</v>
+      </c>
+      <c r="F282" t="n">
+        <v>24481911</v>
+      </c>
+      <c r="G282" t="n">
+        <v>453238292160</v>
+      </c>
+      <c r="H282" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="I282" t="n">
+        <v>4532</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>카나리아바이오</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>동물용 사료 및 조제식품 제조업</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O282" t="n">
+        <v>1876</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
+      <c r="S282" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T282" t="n">
+        <v>20</v>
+      </c>
+      <c r="U282" t="n">
+        <v>1413</v>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W282" t="n">
+        <v>1413</v>
+      </c>
+      <c r="X282" t="n">
+        <v>1271</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>1201</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>706</v>
+      </c>
+      <c r="AB282" t="inlineStr"/>
+      <c r="AC282" t="inlineStr"/>
+      <c r="AD282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>277070</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>7720</v>
+      </c>
+      <c r="C283" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D283" t="n">
+        <v>7600</v>
+      </c>
+      <c r="E283" t="n">
+        <v>8880</v>
+      </c>
+      <c r="F283" t="n">
+        <v>11918314</v>
+      </c>
+      <c r="G283" t="n">
+        <v>107248452060</v>
+      </c>
+      <c r="H283" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1072</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>린드먼아시아</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>신탁업 및 집합투자업</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O283" t="n">
+        <v>4011</v>
+      </c>
+      <c r="P283" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="R283" t="n">
+        <v>398</v>
+      </c>
+      <c r="S283" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T283" t="n">
+        <v>42</v>
+      </c>
+      <c r="U283" t="n">
+        <v>3226</v>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W283" t="n">
+        <v>3226</v>
+      </c>
+      <c r="X283" t="n">
+        <v>2903</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>2742</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>2258</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>1613</v>
+      </c>
+      <c r="AB283" t="inlineStr"/>
+      <c r="AC283" t="inlineStr"/>
+      <c r="AD283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>028300</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>30900</v>
+      </c>
+      <c r="C284" t="n">
+        <v>37600</v>
+      </c>
+      <c r="D284" t="n">
+        <v>30900</v>
+      </c>
+      <c r="E284" t="n">
+        <v>37600</v>
+      </c>
+      <c r="F284" t="n">
+        <v>11341361</v>
+      </c>
+      <c r="G284" t="n">
+        <v>402505889300</v>
+      </c>
+      <c r="H284" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="I284" t="n">
+        <v>4025</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>HLB</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>의료용품 및 기타 의약 관련제품 제조업</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O284" t="n">
+        <v>3850</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
+      <c r="S284" t="n">
+        <v>0</v>
+      </c>
+      <c r="T284" t="n">
+        <v>0</v>
+      </c>
+      <c r="U284" t="n">
+        <v>1925</v>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W284" t="n">
+        <v>1925</v>
+      </c>
+      <c r="X284" t="n">
+        <v>1732</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>1636</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1347</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>962</v>
+      </c>
+      <c r="AB284" t="inlineStr"/>
+      <c r="AC284" t="inlineStr"/>
+      <c r="AD284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>064480</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>7300</v>
+      </c>
+      <c r="C285" t="n">
+        <v>9080</v>
+      </c>
+      <c r="D285" t="n">
+        <v>7300</v>
+      </c>
+      <c r="E285" t="n">
+        <v>8960</v>
+      </c>
+      <c r="F285" t="n">
+        <v>13958054</v>
+      </c>
+      <c r="G285" t="n">
+        <v>119103698270</v>
+      </c>
+      <c r="H285" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="I285" t="n">
+        <v>1191</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>브리지텍</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O285" t="n">
+        <v>3458</v>
+      </c>
+      <c r="P285" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="R285" t="n">
+        <v>245</v>
+      </c>
+      <c r="S285" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T285" t="n">
+        <v>120</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2056</v>
+      </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W285" t="n">
+        <v>2056</v>
+      </c>
+      <c r="X285" t="n">
+        <v>1850</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>1748</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AB285" t="inlineStr"/>
+      <c r="AC285" t="inlineStr"/>
+      <c r="AD285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>016790</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>16140</v>
+      </c>
+      <c r="C286" t="n">
+        <v>20250</v>
+      </c>
+      <c r="D286" t="n">
+        <v>16080</v>
+      </c>
+      <c r="E286" t="n">
+        <v>19460</v>
+      </c>
+      <c r="F286" t="n">
+        <v>24481911</v>
+      </c>
+      <c r="G286" t="n">
+        <v>453238292160</v>
+      </c>
+      <c r="H286" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="I286" t="n">
+        <v>4532</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>카나리아바이오</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>동물용 사료 및 조제식품 제조업</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O286" t="n">
+        <v>1876</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
+      <c r="S286" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T286" t="n">
+        <v>20</v>
+      </c>
+      <c r="U286" t="n">
+        <v>1413</v>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W286" t="n">
+        <v>1413</v>
+      </c>
+      <c r="X286" t="n">
+        <v>1271</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>1201</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>706</v>
+      </c>
+      <c r="AB286" t="inlineStr"/>
+      <c r="AC286" t="inlineStr"/>
+      <c r="AD286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>140410</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>14450</v>
+      </c>
+      <c r="C287" t="n">
+        <v>17730</v>
+      </c>
+      <c r="D287" t="n">
+        <v>14200</v>
+      </c>
+      <c r="E287" t="n">
+        <v>17290</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2570367</v>
+      </c>
+      <c r="G287" t="n">
+        <v>42470049390</v>
+      </c>
+      <c r="H287" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="I287" t="n">
+        <v>424</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>메지온</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>자연과학 및 공학 연구개발업</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O287" t="n">
+        <v>2355</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
+      <c r="S287" t="n">
+        <v>0</v>
+      </c>
+      <c r="T287" t="n">
+        <v>0</v>
+      </c>
+      <c r="U287" t="n">
+        <v>1177</v>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W287" t="n">
+        <v>1177</v>
+      </c>
+      <c r="X287" t="n">
+        <v>1059</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>824</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>588</v>
+      </c>
+      <c r="AB287" t="inlineStr"/>
+      <c r="AC287" t="inlineStr"/>
+      <c r="AD287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>5740</v>
+      </c>
+      <c r="C288" t="n">
+        <v>7230</v>
+      </c>
+      <c r="D288" t="n">
+        <v>5740</v>
+      </c>
+      <c r="E288" t="n">
+        <v>6750</v>
+      </c>
+      <c r="F288" t="n">
+        <v>5384453</v>
+      </c>
+      <c r="G288" t="n">
+        <v>36001495150</v>
+      </c>
+      <c r="H288" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="I288" t="n">
+        <v>360</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>HLB글로벌</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>기타 비금속광물 광업</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O288" t="n">
+        <v>2559</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
+      <c r="S288" t="n">
+        <v>0</v>
+      </c>
+      <c r="T288" t="n">
+        <v>0</v>
+      </c>
+      <c r="U288" t="n">
+        <v>1279</v>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W288" t="n">
+        <v>1279</v>
+      </c>
+      <c r="X288" t="n">
+        <v>1151</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>1087</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>895</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>639</v>
+      </c>
+      <c r="AB288" t="inlineStr"/>
+      <c r="AC288" t="inlineStr"/>
+      <c r="AD288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>067630</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>11020</v>
+      </c>
+      <c r="C289" t="n">
+        <v>13320</v>
+      </c>
+      <c r="D289" t="n">
+        <v>11010</v>
+      </c>
+      <c r="E289" t="n">
+        <v>12470</v>
+      </c>
+      <c r="F289" t="n">
+        <v>7054902</v>
+      </c>
+      <c r="G289" t="n">
+        <v>87765674230</v>
+      </c>
+      <c r="H289" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="I289" t="n">
+        <v>877</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>HLB생명과학</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>건축기술, 엔지니어링 및 관련 기술 서비스업</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O289" t="n">
+        <v>2458</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
+      <c r="S289" t="n">
+        <v>0</v>
+      </c>
+      <c r="T289" t="n">
+        <v>0</v>
+      </c>
+      <c r="U289" t="n">
+        <v>1229</v>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W289" t="n">
+        <v>1229</v>
+      </c>
+      <c r="X289" t="n">
+        <v>1106</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>1044</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>614</v>
+      </c>
+      <c r="AB289" t="inlineStr"/>
+      <c r="AC289" t="inlineStr"/>
+      <c r="AD289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>047920</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>12490</v>
+      </c>
+      <c r="C290" t="n">
+        <v>15070</v>
+      </c>
+      <c r="D290" t="n">
+        <v>12440</v>
+      </c>
+      <c r="E290" t="n">
+        <v>14120</v>
+      </c>
+      <c r="F290" t="n">
+        <v>4787039</v>
+      </c>
+      <c r="G290" t="n">
+        <v>67871145520</v>
+      </c>
+      <c r="H290" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="I290" t="n">
+        <v>678</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>HLB제약</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>자연과학 및 공학 연구개발업</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O290" t="n">
+        <v>3004</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
+      <c r="S290" t="n">
+        <v>0</v>
+      </c>
+      <c r="T290" t="n">
+        <v>0</v>
+      </c>
+      <c r="U290" t="n">
+        <v>1530</v>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W290" t="n">
+        <v>1530</v>
+      </c>
+      <c r="X290" t="n">
+        <v>1377</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1071</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>765</v>
+      </c>
+      <c r="AB290" t="inlineStr"/>
+      <c r="AC290" t="inlineStr"/>
+      <c r="AD290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>277070</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>7720</v>
+      </c>
+      <c r="C291" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D291" t="n">
+        <v>7600</v>
+      </c>
+      <c r="E291" t="n">
+        <v>8880</v>
+      </c>
+      <c r="F291" t="n">
+        <v>11918314</v>
+      </c>
+      <c r="G291" t="n">
+        <v>107248452060</v>
+      </c>
+      <c r="H291" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1072</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>2023/02/20</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>린드먼아시아</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>신탁업 및 집합투자업</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O291" t="n">
+        <v>4011</v>
+      </c>
+      <c r="P291" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="R291" t="n">
+        <v>398</v>
+      </c>
+      <c r="S291" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T291" t="n">
+        <v>42</v>
+      </c>
+      <c r="U291" t="n">
+        <v>3226</v>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W291" t="n">
+        <v>3226</v>
+      </c>
+      <c r="X291" t="n">
+        <v>2903</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>2742</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>2258</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>1613</v>
+      </c>
+      <c r="AB291" t="inlineStr"/>
+      <c r="AC291" t="inlineStr"/>
+      <c r="AD291" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD291"/>
+  <dimension ref="A1:AD308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29585,6 +29585,1706 @@
       <c r="AC291" t="inlineStr"/>
       <c r="AD291" t="inlineStr"/>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>082800</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1487</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1301</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1487</v>
+      </c>
+      <c r="F292" t="n">
+        <v>20788755</v>
+      </c>
+      <c r="G292" t="n">
+        <v>28995750385</v>
+      </c>
+      <c r="H292" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="I292" t="n">
+        <v>289</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>비보존 제약</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O292" t="n">
+        <v>501</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
+      <c r="S292" t="n">
+        <v>0</v>
+      </c>
+      <c r="T292" t="n">
+        <v>0</v>
+      </c>
+      <c r="U292" t="n">
+        <v>250</v>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W292" t="n">
+        <v>250</v>
+      </c>
+      <c r="X292" t="n">
+        <v>225</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>212</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB292" t="inlineStr"/>
+      <c r="AC292" t="inlineStr"/>
+      <c r="AD292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>066670</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>5200</v>
+      </c>
+      <c r="C293" t="n">
+        <v>6480</v>
+      </c>
+      <c r="D293" t="n">
+        <v>5110</v>
+      </c>
+      <c r="E293" t="n">
+        <v>6480</v>
+      </c>
+      <c r="F293" t="n">
+        <v>13817712</v>
+      </c>
+      <c r="G293" t="n">
+        <v>85035010640</v>
+      </c>
+      <c r="H293" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="I293" t="n">
+        <v>850</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>디스플레이텍</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O293" t="n">
+        <v>9731</v>
+      </c>
+      <c r="P293" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R293" t="n">
+        <v>344</v>
+      </c>
+      <c r="S293" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T293" t="n">
+        <v>80</v>
+      </c>
+      <c r="U293" t="n">
+        <v>5795</v>
+      </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W293" t="n">
+        <v>5795</v>
+      </c>
+      <c r="X293" t="n">
+        <v>5215</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>4926</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>4056</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>2897</v>
+      </c>
+      <c r="AB293" t="inlineStr"/>
+      <c r="AC293" t="inlineStr"/>
+      <c r="AD293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>303030</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1584</v>
+      </c>
+      <c r="E294" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F294" t="n">
+        <v>35858725</v>
+      </c>
+      <c r="G294" t="n">
+        <v>69164831241</v>
+      </c>
+      <c r="H294" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="I294" t="n">
+        <v>691</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>지니틱스</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O294" t="n">
+        <v>842</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
+      <c r="S294" t="n">
+        <v>0</v>
+      </c>
+      <c r="T294" t="n">
+        <v>0</v>
+      </c>
+      <c r="U294" t="n">
+        <v>433</v>
+      </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W294" t="n">
+        <v>433</v>
+      </c>
+      <c r="X294" t="n">
+        <v>390</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>368</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>303</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>216</v>
+      </c>
+      <c r="AB294" t="inlineStr"/>
+      <c r="AC294" t="inlineStr"/>
+      <c r="AD294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>232140</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>3420</v>
+      </c>
+      <c r="C295" t="n">
+        <v>4470</v>
+      </c>
+      <c r="D295" t="n">
+        <v>3390</v>
+      </c>
+      <c r="E295" t="n">
+        <v>4370</v>
+      </c>
+      <c r="F295" t="n">
+        <v>11318104</v>
+      </c>
+      <c r="G295" t="n">
+        <v>48146429865</v>
+      </c>
+      <c r="H295" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="I295" t="n">
+        <v>481</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>와이아이케이</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O295" t="n">
+        <v>3447</v>
+      </c>
+      <c r="P295" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R295" t="n">
+        <v>553</v>
+      </c>
+      <c r="S295" t="n">
+        <v>0</v>
+      </c>
+      <c r="T295" t="n">
+        <v>0</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2621</v>
+      </c>
+      <c r="V295" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W295" t="n">
+        <v>2621</v>
+      </c>
+      <c r="X295" t="n">
+        <v>2358</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>2227</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1834</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>1310</v>
+      </c>
+      <c r="AB295" t="inlineStr"/>
+      <c r="AC295" t="inlineStr"/>
+      <c r="AD295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>208370</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>3240</v>
+      </c>
+      <c r="C296" t="n">
+        <v>3890</v>
+      </c>
+      <c r="D296" t="n">
+        <v>3170</v>
+      </c>
+      <c r="E296" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F296" t="n">
+        <v>20859583</v>
+      </c>
+      <c r="G296" t="n">
+        <v>74564409150</v>
+      </c>
+      <c r="H296" t="n">
+        <v>20</v>
+      </c>
+      <c r="I296" t="n">
+        <v>745</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>셀바스헬스케어</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O296" t="n">
+        <v>1296</v>
+      </c>
+      <c r="P296" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R296" t="n">
+        <v>114</v>
+      </c>
+      <c r="S296" t="n">
+        <v>0</v>
+      </c>
+      <c r="T296" t="n">
+        <v>0</v>
+      </c>
+      <c r="U296" t="n">
+        <v>801</v>
+      </c>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W296" t="n">
+        <v>801</v>
+      </c>
+      <c r="X296" t="n">
+        <v>721</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>681</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>560</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB296" t="inlineStr"/>
+      <c r="AC296" t="inlineStr"/>
+      <c r="AD296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>053060</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1664</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2155</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1664</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1948</v>
+      </c>
+      <c r="F297" t="n">
+        <v>11987431</v>
+      </c>
+      <c r="G297" t="n">
+        <v>23928918478</v>
+      </c>
+      <c r="H297" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="I297" t="n">
+        <v>239</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>세동</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O297" t="n">
+        <v>980</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
+      <c r="S297" t="n">
+        <v>0</v>
+      </c>
+      <c r="T297" t="n">
+        <v>0</v>
+      </c>
+      <c r="U297" t="n">
+        <v>490</v>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W297" t="n">
+        <v>490</v>
+      </c>
+      <c r="X297" t="n">
+        <v>441</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>416</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>343</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>245</v>
+      </c>
+      <c r="AB297" t="inlineStr"/>
+      <c r="AC297" t="inlineStr"/>
+      <c r="AD297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>058860</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>3950</v>
+      </c>
+      <c r="C298" t="n">
+        <v>4765</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3905</v>
+      </c>
+      <c r="E298" t="n">
+        <v>4470</v>
+      </c>
+      <c r="F298" t="n">
+        <v>25235076</v>
+      </c>
+      <c r="G298" t="n">
+        <v>112198224690</v>
+      </c>
+      <c r="H298" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1121</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>KTis</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O298" t="n">
+        <v>5909</v>
+      </c>
+      <c r="P298" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R298" t="n">
+        <v>767</v>
+      </c>
+      <c r="S298" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T298" t="n">
+        <v>100</v>
+      </c>
+      <c r="U298" t="n">
+        <v>4192</v>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W298" t="n">
+        <v>4192</v>
+      </c>
+      <c r="X298" t="n">
+        <v>3772</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>3563</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>2934</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>2096</v>
+      </c>
+      <c r="AB298" t="inlineStr"/>
+      <c r="AC298" t="inlineStr"/>
+      <c r="AD298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1595</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1268</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1483</v>
+      </c>
+      <c r="F299" t="n">
+        <v>77592528</v>
+      </c>
+      <c r="G299" t="n">
+        <v>115271685625</v>
+      </c>
+      <c r="H299" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1152</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>삼부토건</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>토목 건설업</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O299" t="n">
+        <v>1670</v>
+      </c>
+      <c r="P299" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="R299" t="n">
+        <v>59</v>
+      </c>
+      <c r="S299" t="n">
+        <v>0</v>
+      </c>
+      <c r="T299" t="n">
+        <v>0</v>
+      </c>
+      <c r="U299" t="n">
+        <v>935</v>
+      </c>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W299" t="n">
+        <v>935</v>
+      </c>
+      <c r="X299" t="n">
+        <v>841</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>794</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>654</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>467</v>
+      </c>
+      <c r="AB299" t="inlineStr"/>
+      <c r="AC299" t="inlineStr"/>
+      <c r="AD299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>066670</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>5200</v>
+      </c>
+      <c r="C300" t="n">
+        <v>6480</v>
+      </c>
+      <c r="D300" t="n">
+        <v>5110</v>
+      </c>
+      <c r="E300" t="n">
+        <v>6480</v>
+      </c>
+      <c r="F300" t="n">
+        <v>13817712</v>
+      </c>
+      <c r="G300" t="n">
+        <v>85035010640</v>
+      </c>
+      <c r="H300" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="I300" t="n">
+        <v>850</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>디스플레이텍</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O300" t="n">
+        <v>9731</v>
+      </c>
+      <c r="P300" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R300" t="n">
+        <v>344</v>
+      </c>
+      <c r="S300" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T300" t="n">
+        <v>80</v>
+      </c>
+      <c r="U300" t="n">
+        <v>5795</v>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W300" t="n">
+        <v>5795</v>
+      </c>
+      <c r="X300" t="n">
+        <v>5215</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>4926</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>4056</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>2897</v>
+      </c>
+      <c r="AB300" t="inlineStr"/>
+      <c r="AC300" t="inlineStr"/>
+      <c r="AD300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>303030</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1584</v>
+      </c>
+      <c r="E301" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F301" t="n">
+        <v>35858725</v>
+      </c>
+      <c r="G301" t="n">
+        <v>69164831241</v>
+      </c>
+      <c r="H301" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="I301" t="n">
+        <v>691</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>지니틱스</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O301" t="n">
+        <v>842</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
+      <c r="S301" t="n">
+        <v>0</v>
+      </c>
+      <c r="T301" t="n">
+        <v>0</v>
+      </c>
+      <c r="U301" t="n">
+        <v>433</v>
+      </c>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W301" t="n">
+        <v>433</v>
+      </c>
+      <c r="X301" t="n">
+        <v>390</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>368</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>303</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>216</v>
+      </c>
+      <c r="AB301" t="inlineStr"/>
+      <c r="AC301" t="inlineStr"/>
+      <c r="AD301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>232140</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>3420</v>
+      </c>
+      <c r="C302" t="n">
+        <v>4470</v>
+      </c>
+      <c r="D302" t="n">
+        <v>3390</v>
+      </c>
+      <c r="E302" t="n">
+        <v>4370</v>
+      </c>
+      <c r="F302" t="n">
+        <v>11318104</v>
+      </c>
+      <c r="G302" t="n">
+        <v>48146429865</v>
+      </c>
+      <c r="H302" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="I302" t="n">
+        <v>481</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>와이아이케이</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O302" t="n">
+        <v>3447</v>
+      </c>
+      <c r="P302" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R302" t="n">
+        <v>553</v>
+      </c>
+      <c r="S302" t="n">
+        <v>0</v>
+      </c>
+      <c r="T302" t="n">
+        <v>0</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2621</v>
+      </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W302" t="n">
+        <v>2621</v>
+      </c>
+      <c r="X302" t="n">
+        <v>2358</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>2227</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>1834</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>1310</v>
+      </c>
+      <c r="AB302" t="inlineStr"/>
+      <c r="AC302" t="inlineStr"/>
+      <c r="AD302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>042600</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>20800</v>
+      </c>
+      <c r="C303" t="n">
+        <v>26550</v>
+      </c>
+      <c r="D303" t="n">
+        <v>20400</v>
+      </c>
+      <c r="E303" t="n">
+        <v>24900</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1764562</v>
+      </c>
+      <c r="G303" t="n">
+        <v>43461445450</v>
+      </c>
+      <c r="H303" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="I303" t="n">
+        <v>434</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>새로닉스</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O303" t="n">
+        <v>8735</v>
+      </c>
+      <c r="P303" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R303" t="n">
+        <v>2337</v>
+      </c>
+      <c r="S303" t="n">
+        <v>0</v>
+      </c>
+      <c r="T303" t="n">
+        <v>0</v>
+      </c>
+      <c r="U303" t="n">
+        <v>6315</v>
+      </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W303" t="n">
+        <v>6315</v>
+      </c>
+      <c r="X303" t="n">
+        <v>5683</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>5367</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>4420</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>3157</v>
+      </c>
+      <c r="AB303" t="inlineStr"/>
+      <c r="AC303" t="inlineStr"/>
+      <c r="AD303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>356890</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>10950</v>
+      </c>
+      <c r="C304" t="n">
+        <v>14150</v>
+      </c>
+      <c r="D304" t="n">
+        <v>10890</v>
+      </c>
+      <c r="E304" t="n">
+        <v>13130</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2660133</v>
+      </c>
+      <c r="G304" t="n">
+        <v>34452980760</v>
+      </c>
+      <c r="H304" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="I304" t="n">
+        <v>344</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>싸이버원</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O304" t="n">
+        <v>5683</v>
+      </c>
+      <c r="P304" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="R304" t="n">
+        <v>448</v>
+      </c>
+      <c r="S304" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="T304" t="n">
+        <v>80</v>
+      </c>
+      <c r="U304" t="n">
+        <v>4716</v>
+      </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W304" t="n">
+        <v>4716</v>
+      </c>
+      <c r="X304" t="n">
+        <v>4244</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>4009</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>3301</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>2358</v>
+      </c>
+      <c r="AB304" t="inlineStr"/>
+      <c r="AC304" t="inlineStr"/>
+      <c r="AD304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>208370</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>3240</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3890</v>
+      </c>
+      <c r="D305" t="n">
+        <v>3170</v>
+      </c>
+      <c r="E305" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F305" t="n">
+        <v>20859583</v>
+      </c>
+      <c r="G305" t="n">
+        <v>74564409150</v>
+      </c>
+      <c r="H305" t="n">
+        <v>20</v>
+      </c>
+      <c r="I305" t="n">
+        <v>745</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>셀바스헬스케어</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O305" t="n">
+        <v>1296</v>
+      </c>
+      <c r="P305" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R305" t="n">
+        <v>114</v>
+      </c>
+      <c r="S305" t="n">
+        <v>0</v>
+      </c>
+      <c r="T305" t="n">
+        <v>0</v>
+      </c>
+      <c r="U305" t="n">
+        <v>801</v>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W305" t="n">
+        <v>801</v>
+      </c>
+      <c r="X305" t="n">
+        <v>721</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>681</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>560</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB305" t="inlineStr"/>
+      <c r="AC305" t="inlineStr"/>
+      <c r="AD305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>071670</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>10390</v>
+      </c>
+      <c r="C306" t="n">
+        <v>13270</v>
+      </c>
+      <c r="D306" t="n">
+        <v>10290</v>
+      </c>
+      <c r="E306" t="n">
+        <v>12290</v>
+      </c>
+      <c r="F306" t="n">
+        <v>5623878</v>
+      </c>
+      <c r="G306" t="n">
+        <v>70025724760</v>
+      </c>
+      <c r="H306" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="I306" t="n">
+        <v>700</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>에이테크솔루션</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O306" t="n">
+        <v>7878</v>
+      </c>
+      <c r="P306" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R306" t="n">
+        <v>557</v>
+      </c>
+      <c r="S306" t="n">
+        <v>0</v>
+      </c>
+      <c r="T306" t="n">
+        <v>0</v>
+      </c>
+      <c r="U306" t="n">
+        <v>4999</v>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W306" t="n">
+        <v>4999</v>
+      </c>
+      <c r="X306" t="n">
+        <v>4499</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>4249</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>3499</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AB306" t="inlineStr"/>
+      <c r="AC306" t="inlineStr"/>
+      <c r="AD306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>058860</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>3950</v>
+      </c>
+      <c r="C307" t="n">
+        <v>4765</v>
+      </c>
+      <c r="D307" t="n">
+        <v>3905</v>
+      </c>
+      <c r="E307" t="n">
+        <v>4470</v>
+      </c>
+      <c r="F307" t="n">
+        <v>25235076</v>
+      </c>
+      <c r="G307" t="n">
+        <v>112198224690</v>
+      </c>
+      <c r="H307" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="I307" t="n">
+        <v>1121</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>KTis</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O307" t="n">
+        <v>5909</v>
+      </c>
+      <c r="P307" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R307" t="n">
+        <v>767</v>
+      </c>
+      <c r="S307" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T307" t="n">
+        <v>100</v>
+      </c>
+      <c r="U307" t="n">
+        <v>4192</v>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W307" t="n">
+        <v>4192</v>
+      </c>
+      <c r="X307" t="n">
+        <v>3772</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>3563</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>2934</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>2096</v>
+      </c>
+      <c r="AB307" t="inlineStr"/>
+      <c r="AC307" t="inlineStr"/>
+      <c r="AD307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1595</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1268</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1483</v>
+      </c>
+      <c r="F308" t="n">
+        <v>77592528</v>
+      </c>
+      <c r="G308" t="n">
+        <v>115271685625</v>
+      </c>
+      <c r="H308" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1152</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>2023/02/21</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>삼부토건</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>토목 건설업</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O308" t="n">
+        <v>1670</v>
+      </c>
+      <c r="P308" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="R308" t="n">
+        <v>59</v>
+      </c>
+      <c r="S308" t="n">
+        <v>0</v>
+      </c>
+      <c r="T308" t="n">
+        <v>0</v>
+      </c>
+      <c r="U308" t="n">
+        <v>935</v>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W308" t="n">
+        <v>935</v>
+      </c>
+      <c r="X308" t="n">
+        <v>841</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>794</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>654</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>467</v>
+      </c>
+      <c r="AB308" t="inlineStr"/>
+      <c r="AC308" t="inlineStr"/>
+      <c r="AD308" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD308"/>
+  <dimension ref="A1:AD316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31285,6 +31285,806 @@
       <c r="AC308" t="inlineStr"/>
       <c r="AD308" t="inlineStr"/>
     </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>024880</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>5660</v>
+      </c>
+      <c r="C309" t="n">
+        <v>7150</v>
+      </c>
+      <c r="D309" t="n">
+        <v>5610</v>
+      </c>
+      <c r="E309" t="n">
+        <v>7150</v>
+      </c>
+      <c r="F309" t="n">
+        <v>17885272</v>
+      </c>
+      <c r="G309" t="n">
+        <v>115906086940</v>
+      </c>
+      <c r="H309" t="n">
+        <v>30</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1159</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>케이피에프</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>기타 금속 가공제품 제조업</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O309" t="n">
+        <v>9417</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
+      <c r="S309" t="n">
+        <v>0</v>
+      </c>
+      <c r="T309" t="n">
+        <v>0</v>
+      </c>
+      <c r="U309" t="n">
+        <v>5108</v>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W309" t="n">
+        <v>5108</v>
+      </c>
+      <c r="X309" t="n">
+        <v>4597</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>4342</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>3575</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>2554</v>
+      </c>
+      <c r="AB309" t="inlineStr"/>
+      <c r="AC309" t="inlineStr"/>
+      <c r="AD309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>002140</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>3890</v>
+      </c>
+      <c r="C310" t="n">
+        <v>4790</v>
+      </c>
+      <c r="D310" t="n">
+        <v>3880</v>
+      </c>
+      <c r="E310" t="n">
+        <v>4645</v>
+      </c>
+      <c r="F310" t="n">
+        <v>26801507</v>
+      </c>
+      <c r="G310" t="n">
+        <v>117573353600</v>
+      </c>
+      <c r="H310" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1175</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>고려산업</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>곡물가공품, 전분 및 전분제품 제조업</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O310" t="n">
+        <v>4323</v>
+      </c>
+      <c r="P310" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R310" t="n">
+        <v>183</v>
+      </c>
+      <c r="S310" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="T310" t="n">
+        <v>40</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2929</v>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W310" t="n">
+        <v>2929</v>
+      </c>
+      <c r="X310" t="n">
+        <v>2636</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>2489</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>1464</v>
+      </c>
+      <c r="AB310" t="inlineStr"/>
+      <c r="AC310" t="inlineStr"/>
+      <c r="AD310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>024880</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>5660</v>
+      </c>
+      <c r="C311" t="n">
+        <v>7150</v>
+      </c>
+      <c r="D311" t="n">
+        <v>5610</v>
+      </c>
+      <c r="E311" t="n">
+        <v>7150</v>
+      </c>
+      <c r="F311" t="n">
+        <v>17885272</v>
+      </c>
+      <c r="G311" t="n">
+        <v>115906086940</v>
+      </c>
+      <c r="H311" t="n">
+        <v>30</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1159</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>케이피에프</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>기타 금속 가공제품 제조업</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O311" t="n">
+        <v>9417</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
+      <c r="S311" t="n">
+        <v>0</v>
+      </c>
+      <c r="T311" t="n">
+        <v>0</v>
+      </c>
+      <c r="U311" t="n">
+        <v>5108</v>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W311" t="n">
+        <v>5108</v>
+      </c>
+      <c r="X311" t="n">
+        <v>4597</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>4342</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>3575</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>2554</v>
+      </c>
+      <c r="AB311" t="inlineStr"/>
+      <c r="AC311" t="inlineStr"/>
+      <c r="AD311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>389500</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>40300</v>
+      </c>
+      <c r="C312" t="n">
+        <v>53600</v>
+      </c>
+      <c r="D312" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E312" t="n">
+        <v>53500</v>
+      </c>
+      <c r="F312" t="n">
+        <v>5871297</v>
+      </c>
+      <c r="G312" t="n">
+        <v>286976479450</v>
+      </c>
+      <c r="H312" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="I312" t="n">
+        <v>2869</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>에스비비테크</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>일반 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O312" t="n">
+        <v>1406</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>38.06</v>
+      </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
+      <c r="S312" t="n">
+        <v>0</v>
+      </c>
+      <c r="T312" t="n">
+        <v>0</v>
+      </c>
+      <c r="U312" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W312" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X312" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB312" t="inlineStr"/>
+      <c r="AC312" t="inlineStr"/>
+      <c r="AD312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>002140</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>3890</v>
+      </c>
+      <c r="C313" t="n">
+        <v>4790</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3880</v>
+      </c>
+      <c r="E313" t="n">
+        <v>4645</v>
+      </c>
+      <c r="F313" t="n">
+        <v>26801507</v>
+      </c>
+      <c r="G313" t="n">
+        <v>117573353600</v>
+      </c>
+      <c r="H313" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="I313" t="n">
+        <v>1175</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>고려산업</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>곡물가공품, 전분 및 전분제품 제조업</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O313" t="n">
+        <v>4323</v>
+      </c>
+      <c r="P313" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R313" t="n">
+        <v>183</v>
+      </c>
+      <c r="S313" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="T313" t="n">
+        <v>40</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2929</v>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W313" t="n">
+        <v>2929</v>
+      </c>
+      <c r="X313" t="n">
+        <v>2636</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>2489</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>1464</v>
+      </c>
+      <c r="AB313" t="inlineStr"/>
+      <c r="AC313" t="inlineStr"/>
+      <c r="AD313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>200710</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>18250</v>
+      </c>
+      <c r="C314" t="n">
+        <v>24150</v>
+      </c>
+      <c r="D314" t="n">
+        <v>18170</v>
+      </c>
+      <c r="E314" t="n">
+        <v>22950</v>
+      </c>
+      <c r="F314" t="n">
+        <v>7590104</v>
+      </c>
+      <c r="G314" t="n">
+        <v>173037389940</v>
+      </c>
+      <c r="H314" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>에이디테크놀로지</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O314" t="n">
+        <v>12300</v>
+      </c>
+      <c r="P314" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R314" t="n">
+        <v>1146</v>
+      </c>
+      <c r="S314" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T314" t="n">
+        <v>70</v>
+      </c>
+      <c r="U314" t="n">
+        <v>8247</v>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W314" t="n">
+        <v>8247</v>
+      </c>
+      <c r="X314" t="n">
+        <v>7422</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>7010</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>5773</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>4123</v>
+      </c>
+      <c r="AB314" t="inlineStr"/>
+      <c r="AC314" t="inlineStr"/>
+      <c r="AD314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>041910</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>7370</v>
+      </c>
+      <c r="C315" t="n">
+        <v>9340</v>
+      </c>
+      <c r="D315" t="n">
+        <v>7310</v>
+      </c>
+      <c r="E315" t="n">
+        <v>8900</v>
+      </c>
+      <c r="F315" t="n">
+        <v>5107352</v>
+      </c>
+      <c r="G315" t="n">
+        <v>44011009470</v>
+      </c>
+      <c r="H315" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="I315" t="n">
+        <v>440</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>에스텍파마</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O315" t="n">
+        <v>10556</v>
+      </c>
+      <c r="P315" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="R315" t="n">
+        <v>589</v>
+      </c>
+      <c r="S315" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T315" t="n">
+        <v>100</v>
+      </c>
+      <c r="U315" t="n">
+        <v>8418</v>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W315" t="n">
+        <v>8418</v>
+      </c>
+      <c r="X315" t="n">
+        <v>7576</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>7156</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>5893</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>4209</v>
+      </c>
+      <c r="AB315" t="inlineStr"/>
+      <c r="AC315" t="inlineStr"/>
+      <c r="AD315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>368600</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>7980</v>
+      </c>
+      <c r="C316" t="n">
+        <v>10050</v>
+      </c>
+      <c r="D316" t="n">
+        <v>7920</v>
+      </c>
+      <c r="E316" t="n">
+        <v>9370</v>
+      </c>
+      <c r="F316" t="n">
+        <v>6331514</v>
+      </c>
+      <c r="G316" t="n">
+        <v>58897248420</v>
+      </c>
+      <c r="H316" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="I316" t="n">
+        <v>588</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>2023/02/22</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>아이씨에이치</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>그외 기타 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O316" t="n">
+        <v>2574</v>
+      </c>
+      <c r="P316" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="R316" t="n">
+        <v>772</v>
+      </c>
+      <c r="S316" t="n">
+        <v>0</v>
+      </c>
+      <c r="T316" t="n">
+        <v>0</v>
+      </c>
+      <c r="U316" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W316" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X316" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB316" t="inlineStr"/>
+      <c r="AC316" t="inlineStr"/>
+      <c r="AD316" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD316"/>
+  <dimension ref="A1:AD326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32085,6 +32085,1006 @@
       <c r="AC316" t="inlineStr"/>
       <c r="AD316" t="inlineStr"/>
     </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>348340</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C317" t="n">
+        <v>30600</v>
+      </c>
+      <c r="D317" t="n">
+        <v>23800</v>
+      </c>
+      <c r="E317" t="n">
+        <v>30600</v>
+      </c>
+      <c r="F317" t="n">
+        <v>13909659</v>
+      </c>
+      <c r="G317" t="n">
+        <v>392367681450</v>
+      </c>
+      <c r="H317" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="I317" t="n">
+        <v>3923</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>뉴로메카</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O317" t="n">
+        <v>1828</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
+      <c r="S317" t="n">
+        <v>0</v>
+      </c>
+      <c r="T317" t="n">
+        <v>0</v>
+      </c>
+      <c r="U317" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W317" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X317" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB317" t="inlineStr"/>
+      <c r="AC317" t="inlineStr"/>
+      <c r="AD317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>317120</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>5310</v>
+      </c>
+      <c r="C318" t="n">
+        <v>6900</v>
+      </c>
+      <c r="D318" t="n">
+        <v>5310</v>
+      </c>
+      <c r="E318" t="n">
+        <v>6560</v>
+      </c>
+      <c r="F318" t="n">
+        <v>4640138</v>
+      </c>
+      <c r="G318" t="n">
+        <v>30912945710</v>
+      </c>
+      <c r="H318" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="I318" t="n">
+        <v>309</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>라닉스</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O318" t="n">
+        <v>2002</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
+      <c r="S318" t="n">
+        <v>0</v>
+      </c>
+      <c r="T318" t="n">
+        <v>0</v>
+      </c>
+      <c r="U318" t="n">
+        <v>1001</v>
+      </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W318" t="n">
+        <v>1001</v>
+      </c>
+      <c r="X318" t="n">
+        <v>900</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>850</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>700</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB318" t="inlineStr"/>
+      <c r="AC318" t="inlineStr"/>
+      <c r="AD318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>108860</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>23900</v>
+      </c>
+      <c r="C319" t="n">
+        <v>29550</v>
+      </c>
+      <c r="D319" t="n">
+        <v>23650</v>
+      </c>
+      <c r="E319" t="n">
+        <v>28700</v>
+      </c>
+      <c r="F319" t="n">
+        <v>20515096</v>
+      </c>
+      <c r="G319" t="n">
+        <v>552717816050</v>
+      </c>
+      <c r="H319" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="I319" t="n">
+        <v>5527</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>셀바스AI</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O319" t="n">
+        <v>1872</v>
+      </c>
+      <c r="P319" t="n">
+        <v>166.88</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="R319" t="n">
+        <v>172</v>
+      </c>
+      <c r="S319" t="n">
+        <v>0</v>
+      </c>
+      <c r="T319" t="n">
+        <v>0</v>
+      </c>
+      <c r="U319" t="n">
+        <v>1387</v>
+      </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W319" t="n">
+        <v>1387</v>
+      </c>
+      <c r="X319" t="n">
+        <v>1248</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>1179</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>971</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>693</v>
+      </c>
+      <c r="AB319" t="inlineStr"/>
+      <c r="AC319" t="inlineStr"/>
+      <c r="AD319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>347860</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>12100</v>
+      </c>
+      <c r="C320" t="n">
+        <v>14730</v>
+      </c>
+      <c r="D320" t="n">
+        <v>11980</v>
+      </c>
+      <c r="E320" t="n">
+        <v>14410</v>
+      </c>
+      <c r="F320" t="n">
+        <v>7921480</v>
+      </c>
+      <c r="G320" t="n">
+        <v>109823194930</v>
+      </c>
+      <c r="H320" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="I320" t="n">
+        <v>1098</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>알체라</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O320" t="n">
+        <v>947</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
+      <c r="S320" t="n">
+        <v>0</v>
+      </c>
+      <c r="T320" t="n">
+        <v>0</v>
+      </c>
+      <c r="U320" t="n">
+        <v>473</v>
+      </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W320" t="n">
+        <v>473</v>
+      </c>
+      <c r="X320" t="n">
+        <v>426</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>402</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>331</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>236</v>
+      </c>
+      <c r="AB320" t="inlineStr"/>
+      <c r="AC320" t="inlineStr"/>
+      <c r="AD320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>304100</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>31350</v>
+      </c>
+      <c r="C321" t="n">
+        <v>36650</v>
+      </c>
+      <c r="D321" t="n">
+        <v>30950</v>
+      </c>
+      <c r="E321" t="n">
+        <v>35950</v>
+      </c>
+      <c r="F321" t="n">
+        <v>10203607</v>
+      </c>
+      <c r="G321" t="n">
+        <v>349614049400</v>
+      </c>
+      <c r="H321" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="I321" t="n">
+        <v>3496</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>솔트룩스</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O321" t="n">
+        <v>5202</v>
+      </c>
+      <c r="P321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
+      <c r="S321" t="n">
+        <v>0</v>
+      </c>
+      <c r="T321" t="n">
+        <v>0</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2906</v>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W321" t="n">
+        <v>2906</v>
+      </c>
+      <c r="X321" t="n">
+        <v>2616</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>2470</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>2034</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>1453</v>
+      </c>
+      <c r="AB321" t="inlineStr"/>
+      <c r="AC321" t="inlineStr"/>
+      <c r="AD321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>402030</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>106000</v>
+      </c>
+      <c r="C322" t="n">
+        <v>127500</v>
+      </c>
+      <c r="D322" t="n">
+        <v>104000</v>
+      </c>
+      <c r="E322" t="n">
+        <v>120500</v>
+      </c>
+      <c r="F322" t="n">
+        <v>2359773</v>
+      </c>
+      <c r="G322" t="n">
+        <v>277993519500</v>
+      </c>
+      <c r="H322" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="I322" t="n">
+        <v>2779</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>코난테크놀로지</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O322" t="n">
+        <v>3220</v>
+      </c>
+      <c r="P322" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>37.41</v>
+      </c>
+      <c r="R322" t="n">
+        <v>468</v>
+      </c>
+      <c r="S322" t="n">
+        <v>0</v>
+      </c>
+      <c r="T322" t="n">
+        <v>0</v>
+      </c>
+      <c r="U322" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W322" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X322" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB322" t="inlineStr"/>
+      <c r="AC322" t="inlineStr"/>
+      <c r="AD322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>417860</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>59800</v>
+      </c>
+      <c r="C323" t="n">
+        <v>67700</v>
+      </c>
+      <c r="D323" t="n">
+        <v>59100</v>
+      </c>
+      <c r="E323" t="n">
+        <v>67700</v>
+      </c>
+      <c r="F323" t="n">
+        <v>648694</v>
+      </c>
+      <c r="G323" t="n">
+        <v>40780992500</v>
+      </c>
+      <c r="H323" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="I323" t="n">
+        <v>407</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>오브젠</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O323" t="n">
+        <v>284</v>
+      </c>
+      <c r="P323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>238.38</v>
+      </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
+      <c r="S323" t="n">
+        <v>0</v>
+      </c>
+      <c r="T323" t="n">
+        <v>0</v>
+      </c>
+      <c r="U323" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V323" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W323" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X323" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB323" t="inlineStr"/>
+      <c r="AC323" t="inlineStr"/>
+      <c r="AD323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>348340</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C324" t="n">
+        <v>30600</v>
+      </c>
+      <c r="D324" t="n">
+        <v>23800</v>
+      </c>
+      <c r="E324" t="n">
+        <v>30600</v>
+      </c>
+      <c r="F324" t="n">
+        <v>13909659</v>
+      </c>
+      <c r="G324" t="n">
+        <v>392367681450</v>
+      </c>
+      <c r="H324" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="I324" t="n">
+        <v>3923</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>뉴로메카</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O324" t="n">
+        <v>1828</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
+      <c r="S324" t="n">
+        <v>0</v>
+      </c>
+      <c r="T324" t="n">
+        <v>0</v>
+      </c>
+      <c r="U324" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V324" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W324" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X324" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB324" t="inlineStr"/>
+      <c r="AC324" t="inlineStr"/>
+      <c r="AD324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>108860</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>23900</v>
+      </c>
+      <c r="C325" t="n">
+        <v>29550</v>
+      </c>
+      <c r="D325" t="n">
+        <v>23650</v>
+      </c>
+      <c r="E325" t="n">
+        <v>28700</v>
+      </c>
+      <c r="F325" t="n">
+        <v>20515096</v>
+      </c>
+      <c r="G325" t="n">
+        <v>552717816050</v>
+      </c>
+      <c r="H325" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="I325" t="n">
+        <v>5527</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>셀바스AI</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O325" t="n">
+        <v>1872</v>
+      </c>
+      <c r="P325" t="n">
+        <v>166.88</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="R325" t="n">
+        <v>172</v>
+      </c>
+      <c r="S325" t="n">
+        <v>0</v>
+      </c>
+      <c r="T325" t="n">
+        <v>0</v>
+      </c>
+      <c r="U325" t="n">
+        <v>1387</v>
+      </c>
+      <c r="V325" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W325" t="n">
+        <v>1387</v>
+      </c>
+      <c r="X325" t="n">
+        <v>1248</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>1179</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>971</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>693</v>
+      </c>
+      <c r="AB325" t="inlineStr"/>
+      <c r="AC325" t="inlineStr"/>
+      <c r="AD325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>304100</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>31350</v>
+      </c>
+      <c r="C326" t="n">
+        <v>36650</v>
+      </c>
+      <c r="D326" t="n">
+        <v>30950</v>
+      </c>
+      <c r="E326" t="n">
+        <v>35950</v>
+      </c>
+      <c r="F326" t="n">
+        <v>10203607</v>
+      </c>
+      <c r="G326" t="n">
+        <v>349614049400</v>
+      </c>
+      <c r="H326" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="I326" t="n">
+        <v>3496</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>2023/02/23</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>솔트룩스</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O326" t="n">
+        <v>5202</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
+      <c r="S326" t="n">
+        <v>0</v>
+      </c>
+      <c r="T326" t="n">
+        <v>0</v>
+      </c>
+      <c r="U326" t="n">
+        <v>2906</v>
+      </c>
+      <c r="V326" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W326" t="n">
+        <v>2906</v>
+      </c>
+      <c r="X326" t="n">
+        <v>2616</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>2470</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>2034</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>1453</v>
+      </c>
+      <c r="AB326" t="inlineStr"/>
+      <c r="AC326" t="inlineStr"/>
+      <c r="AD326" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD326"/>
+  <dimension ref="A1:AD336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33085,6 +33085,1006 @@
       <c r="AC326" t="inlineStr"/>
       <c r="AD326" t="inlineStr"/>
     </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>064480</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>8950</v>
+      </c>
+      <c r="C327" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D327" t="n">
+        <v>8950</v>
+      </c>
+      <c r="E327" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F327" t="n">
+        <v>15647797</v>
+      </c>
+      <c r="G327" t="n">
+        <v>170537722510</v>
+      </c>
+      <c r="H327" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="I327" t="n">
+        <v>1705</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>브리지텍</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O327" t="n">
+        <v>3458</v>
+      </c>
+      <c r="P327" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R327" t="n">
+        <v>245</v>
+      </c>
+      <c r="S327" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T327" t="n">
+        <v>120</v>
+      </c>
+      <c r="U327" t="n">
+        <v>2056</v>
+      </c>
+      <c r="V327" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W327" t="n">
+        <v>2056</v>
+      </c>
+      <c r="X327" t="n">
+        <v>1850</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>1748</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AB327" t="inlineStr"/>
+      <c r="AC327" t="inlineStr"/>
+      <c r="AD327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>086960</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>2835</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3455</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2665</v>
+      </c>
+      <c r="E328" t="n">
+        <v>3455</v>
+      </c>
+      <c r="F328" t="n">
+        <v>228144412</v>
+      </c>
+      <c r="G328" t="n">
+        <v>708153122805</v>
+      </c>
+      <c r="H328" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="I328" t="n">
+        <v>7081</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>MDS테크</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O328" t="n">
+        <v>1359</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
+      <c r="S328" t="n">
+        <v>0</v>
+      </c>
+      <c r="T328" t="n">
+        <v>0</v>
+      </c>
+      <c r="U328" t="n">
+        <v>4393</v>
+      </c>
+      <c r="V328" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W328" t="n">
+        <v>4393</v>
+      </c>
+      <c r="X328" t="n">
+        <v>3954</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>3734</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>3075</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>2196</v>
+      </c>
+      <c r="AB328" t="inlineStr"/>
+      <c r="AC328" t="inlineStr"/>
+      <c r="AD328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>007660</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>8350</v>
+      </c>
+      <c r="C329" t="n">
+        <v>10080</v>
+      </c>
+      <c r="D329" t="n">
+        <v>8300</v>
+      </c>
+      <c r="E329" t="n">
+        <v>9420</v>
+      </c>
+      <c r="F329" t="n">
+        <v>46687416</v>
+      </c>
+      <c r="G329" t="n">
+        <v>434469831370</v>
+      </c>
+      <c r="H329" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="I329" t="n">
+        <v>4344</v>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>이수페타시스</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O329" t="n">
+        <v>1984</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
+      <c r="S329" t="n">
+        <v>0</v>
+      </c>
+      <c r="T329" t="n">
+        <v>0</v>
+      </c>
+      <c r="U329" t="n">
+        <v>992</v>
+      </c>
+      <c r="V329" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W329" t="n">
+        <v>992</v>
+      </c>
+      <c r="X329" t="n">
+        <v>892</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>843</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>694</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>496</v>
+      </c>
+      <c r="AB329" t="inlineStr"/>
+      <c r="AC329" t="inlineStr"/>
+      <c r="AD329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>064480</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>8950</v>
+      </c>
+      <c r="C330" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D330" t="n">
+        <v>8950</v>
+      </c>
+      <c r="E330" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F330" t="n">
+        <v>15647797</v>
+      </c>
+      <c r="G330" t="n">
+        <v>170537722510</v>
+      </c>
+      <c r="H330" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="I330" t="n">
+        <v>1705</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>브리지텍</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O330" t="n">
+        <v>3458</v>
+      </c>
+      <c r="P330" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R330" t="n">
+        <v>245</v>
+      </c>
+      <c r="S330" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T330" t="n">
+        <v>120</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2056</v>
+      </c>
+      <c r="V330" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W330" t="n">
+        <v>2056</v>
+      </c>
+      <c r="X330" t="n">
+        <v>1850</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>1748</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AB330" t="inlineStr"/>
+      <c r="AC330" t="inlineStr"/>
+      <c r="AD330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>086960</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>2835</v>
+      </c>
+      <c r="C331" t="n">
+        <v>3455</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2665</v>
+      </c>
+      <c r="E331" t="n">
+        <v>3455</v>
+      </c>
+      <c r="F331" t="n">
+        <v>228144412</v>
+      </c>
+      <c r="G331" t="n">
+        <v>708153122805</v>
+      </c>
+      <c r="H331" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="I331" t="n">
+        <v>7081</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>MDS테크</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O331" t="n">
+        <v>1359</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
+      <c r="S331" t="n">
+        <v>0</v>
+      </c>
+      <c r="T331" t="n">
+        <v>0</v>
+      </c>
+      <c r="U331" t="n">
+        <v>4393</v>
+      </c>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W331" t="n">
+        <v>4393</v>
+      </c>
+      <c r="X331" t="n">
+        <v>3954</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>3734</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>3075</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>2196</v>
+      </c>
+      <c r="AB331" t="inlineStr"/>
+      <c r="AC331" t="inlineStr"/>
+      <c r="AD331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>338220</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>11800</v>
+      </c>
+      <c r="C332" t="n">
+        <v>14770</v>
+      </c>
+      <c r="D332" t="n">
+        <v>11800</v>
+      </c>
+      <c r="E332" t="n">
+        <v>14770</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2868175</v>
+      </c>
+      <c r="G332" t="n">
+        <v>39249743850</v>
+      </c>
+      <c r="H332" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I332" t="n">
+        <v>392</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>뷰노</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O332" t="n">
+        <v>2016</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
+      <c r="S332" t="n">
+        <v>0</v>
+      </c>
+      <c r="T332" t="n">
+        <v>0</v>
+      </c>
+      <c r="U332" t="n">
+        <v>1008</v>
+      </c>
+      <c r="V332" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W332" t="n">
+        <v>1008</v>
+      </c>
+      <c r="X332" t="n">
+        <v>907</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>856</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>705</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>504</v>
+      </c>
+      <c r="AB332" t="inlineStr"/>
+      <c r="AC332" t="inlineStr"/>
+      <c r="AD332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>315640</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>10490</v>
+      </c>
+      <c r="C333" t="n">
+        <v>13220</v>
+      </c>
+      <c r="D333" t="n">
+        <v>10480</v>
+      </c>
+      <c r="E333" t="n">
+        <v>12610</v>
+      </c>
+      <c r="F333" t="n">
+        <v>7952473</v>
+      </c>
+      <c r="G333" t="n">
+        <v>99848338360</v>
+      </c>
+      <c r="H333" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="I333" t="n">
+        <v>998</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>딥노이드</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O333" t="n">
+        <v>1468</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
+      <c r="S333" t="n">
+        <v>0</v>
+      </c>
+      <c r="T333" t="n">
+        <v>0</v>
+      </c>
+      <c r="U333" t="n">
+        <v>734</v>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W333" t="n">
+        <v>734</v>
+      </c>
+      <c r="X333" t="n">
+        <v>660</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>623</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>513</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>367</v>
+      </c>
+      <c r="AB333" t="inlineStr"/>
+      <c r="AC333" t="inlineStr"/>
+      <c r="AD333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>402030</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>122500</v>
+      </c>
+      <c r="C334" t="n">
+        <v>154700</v>
+      </c>
+      <c r="D334" t="n">
+        <v>121300</v>
+      </c>
+      <c r="E334" t="n">
+        <v>147700</v>
+      </c>
+      <c r="F334" t="n">
+        <v>2472487</v>
+      </c>
+      <c r="G334" t="n">
+        <v>350585281900</v>
+      </c>
+      <c r="H334" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="I334" t="n">
+        <v>3505</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>코난테크놀로지</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O334" t="n">
+        <v>3220</v>
+      </c>
+      <c r="P334" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="R334" t="n">
+        <v>468</v>
+      </c>
+      <c r="S334" t="n">
+        <v>0</v>
+      </c>
+      <c r="T334" t="n">
+        <v>0</v>
+      </c>
+      <c r="U334" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V334" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W334" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X334" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB334" t="inlineStr"/>
+      <c r="AC334" t="inlineStr"/>
+      <c r="AD334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>372800</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>11710</v>
+      </c>
+      <c r="C335" t="n">
+        <v>14110</v>
+      </c>
+      <c r="D335" t="n">
+        <v>11110</v>
+      </c>
+      <c r="E335" t="n">
+        <v>13310</v>
+      </c>
+      <c r="F335" t="n">
+        <v>4366980</v>
+      </c>
+      <c r="G335" t="n">
+        <v>56763752590</v>
+      </c>
+      <c r="H335" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="I335" t="n">
+        <v>567</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>아이티아이즈</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O335" t="n">
+        <v>5035</v>
+      </c>
+      <c r="P335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
+      <c r="S335" t="n">
+        <v>0</v>
+      </c>
+      <c r="T335" t="n">
+        <v>0</v>
+      </c>
+      <c r="U335" t="n">
+        <v>4492</v>
+      </c>
+      <c r="V335" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W335" t="n">
+        <v>4492</v>
+      </c>
+      <c r="X335" t="n">
+        <v>4043</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>3818</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>3144</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>2246</v>
+      </c>
+      <c r="AB335" t="inlineStr"/>
+      <c r="AC335" t="inlineStr"/>
+      <c r="AD335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>007660</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>8350</v>
+      </c>
+      <c r="C336" t="n">
+        <v>10080</v>
+      </c>
+      <c r="D336" t="n">
+        <v>8300</v>
+      </c>
+      <c r="E336" t="n">
+        <v>9420</v>
+      </c>
+      <c r="F336" t="n">
+        <v>46687416</v>
+      </c>
+      <c r="G336" t="n">
+        <v>434469831370</v>
+      </c>
+      <c r="H336" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="I336" t="n">
+        <v>4344</v>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>2023/02/24</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>이수페타시스</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O336" t="n">
+        <v>1984</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
+      <c r="S336" t="n">
+        <v>0</v>
+      </c>
+      <c r="T336" t="n">
+        <v>0</v>
+      </c>
+      <c r="U336" t="n">
+        <v>992</v>
+      </c>
+      <c r="V336" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W336" t="n">
+        <v>992</v>
+      </c>
+      <c r="X336" t="n">
+        <v>892</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>843</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>694</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>496</v>
+      </c>
+      <c r="AB336" t="inlineStr"/>
+      <c r="AC336" t="inlineStr"/>
+      <c r="AD336" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD336"/>
+  <dimension ref="A1:AD341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34085,6 +34085,506 @@
       <c r="AC336" t="inlineStr"/>
       <c r="AD336" t="inlineStr"/>
     </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>175250</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C337" t="n">
+        <v>3110</v>
+      </c>
+      <c r="D337" t="n">
+        <v>2305</v>
+      </c>
+      <c r="E337" t="n">
+        <v>3110</v>
+      </c>
+      <c r="F337" t="n">
+        <v>10259679</v>
+      </c>
+      <c r="G337" t="n">
+        <v>29528968065</v>
+      </c>
+      <c r="H337" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="I337" t="n">
+        <v>295</v>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>아이큐어</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O337" t="n">
+        <v>3854</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
+      <c r="S337" t="n">
+        <v>0</v>
+      </c>
+      <c r="T337" t="n">
+        <v>0</v>
+      </c>
+      <c r="U337" t="n">
+        <v>1927</v>
+      </c>
+      <c r="V337" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W337" t="n">
+        <v>1927</v>
+      </c>
+      <c r="X337" t="n">
+        <v>1734</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>1637</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1348</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>963</v>
+      </c>
+      <c r="AB337" t="inlineStr"/>
+      <c r="AC337" t="inlineStr"/>
+      <c r="AD337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>108490</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C338" t="n">
+        <v>40850</v>
+      </c>
+      <c r="D338" t="n">
+        <v>32950</v>
+      </c>
+      <c r="E338" t="n">
+        <v>40000</v>
+      </c>
+      <c r="F338" t="n">
+        <v>11420549</v>
+      </c>
+      <c r="G338" t="n">
+        <v>442022152850</v>
+      </c>
+      <c r="H338" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="I338" t="n">
+        <v>4420</v>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>로보티즈</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O338" t="n">
+        <v>6164</v>
+      </c>
+      <c r="P338" t="n">
+        <v>615.5</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="R338" t="n">
+        <v>65</v>
+      </c>
+      <c r="S338" t="n">
+        <v>0</v>
+      </c>
+      <c r="T338" t="n">
+        <v>0</v>
+      </c>
+      <c r="U338" t="n">
+        <v>3320</v>
+      </c>
+      <c r="V338" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W338" t="n">
+        <v>3320</v>
+      </c>
+      <c r="X338" t="n">
+        <v>2988</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>2822</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>2324</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>1660</v>
+      </c>
+      <c r="AB338" t="inlineStr"/>
+      <c r="AC338" t="inlineStr"/>
+      <c r="AD338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>288980</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>4510</v>
+      </c>
+      <c r="C339" t="n">
+        <v>5420</v>
+      </c>
+      <c r="D339" t="n">
+        <v>4435</v>
+      </c>
+      <c r="E339" t="n">
+        <v>5210</v>
+      </c>
+      <c r="F339" t="n">
+        <v>67156637</v>
+      </c>
+      <c r="G339" t="n">
+        <v>336057825525</v>
+      </c>
+      <c r="H339" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="I339" t="n">
+        <v>3360</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>모아데이타</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O339" t="n">
+        <v>707</v>
+      </c>
+      <c r="P339" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="R339" t="n">
+        <v>57</v>
+      </c>
+      <c r="S339" t="n">
+        <v>0</v>
+      </c>
+      <c r="T339" t="n">
+        <v>0</v>
+      </c>
+      <c r="U339" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V339" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W339" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X339" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB339" t="inlineStr"/>
+      <c r="AC339" t="inlineStr"/>
+      <c r="AD339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>084180</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>809</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1047</v>
+      </c>
+      <c r="D340" t="n">
+        <v>802</v>
+      </c>
+      <c r="E340" t="n">
+        <v>964</v>
+      </c>
+      <c r="F340" t="n">
+        <v>31581876</v>
+      </c>
+      <c r="G340" t="n">
+        <v>30515450171</v>
+      </c>
+      <c r="H340" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="I340" t="n">
+        <v>305</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>수성샐바시온</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>일반 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O340" t="n">
+        <v>579</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
+      <c r="S340" t="n">
+        <v>0</v>
+      </c>
+      <c r="T340" t="n">
+        <v>0</v>
+      </c>
+      <c r="U340" t="n">
+        <v>289</v>
+      </c>
+      <c r="V340" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W340" t="n">
+        <v>289</v>
+      </c>
+      <c r="X340" t="n">
+        <v>260</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>202</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>144</v>
+      </c>
+      <c r="AB340" t="inlineStr"/>
+      <c r="AC340" t="inlineStr"/>
+      <c r="AD340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>024850</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C341" t="n">
+        <v>3275</v>
+      </c>
+      <c r="D341" t="n">
+        <v>2830</v>
+      </c>
+      <c r="E341" t="n">
+        <v>3190</v>
+      </c>
+      <c r="F341" t="n">
+        <v>12228414</v>
+      </c>
+      <c r="G341" t="n">
+        <v>38243785625</v>
+      </c>
+      <c r="H341" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="I341" t="n">
+        <v>382</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>피에스엠씨</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O341" t="n">
+        <v>370</v>
+      </c>
+      <c r="P341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
+      <c r="S341" t="n">
+        <v>0</v>
+      </c>
+      <c r="T341" t="n">
+        <v>0</v>
+      </c>
+      <c r="U341" t="n">
+        <v>186</v>
+      </c>
+      <c r="V341" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W341" t="n">
+        <v>186</v>
+      </c>
+      <c r="X341" t="n">
+        <v>168</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>158</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB341" t="inlineStr"/>
+      <c r="AC341" t="inlineStr"/>
+      <c r="AD341" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD341"/>
+  <dimension ref="A1:AD354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34585,6 +34585,1306 @@
       <c r="AC341" t="inlineStr"/>
       <c r="AD341" t="inlineStr"/>
     </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>175250</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>3400</v>
+      </c>
+      <c r="C342" t="n">
+        <v>3790</v>
+      </c>
+      <c r="D342" t="n">
+        <v>3160</v>
+      </c>
+      <c r="E342" t="n">
+        <v>3730</v>
+      </c>
+      <c r="F342" t="n">
+        <v>13556220</v>
+      </c>
+      <c r="G342" t="n">
+        <v>48674589250</v>
+      </c>
+      <c r="H342" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="I342" t="n">
+        <v>486</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>아이큐어</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O342" t="n">
+        <v>3854</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
+      <c r="S342" t="n">
+        <v>0</v>
+      </c>
+      <c r="T342" t="n">
+        <v>0</v>
+      </c>
+      <c r="U342" t="n">
+        <v>1927</v>
+      </c>
+      <c r="V342" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W342" t="n">
+        <v>1927</v>
+      </c>
+      <c r="X342" t="n">
+        <v>1734</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>1637</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>1348</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>963</v>
+      </c>
+      <c r="AB342" t="inlineStr"/>
+      <c r="AC342" t="inlineStr"/>
+      <c r="AD342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>058850</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>4580</v>
+      </c>
+      <c r="C343" t="n">
+        <v>5920</v>
+      </c>
+      <c r="D343" t="n">
+        <v>4450</v>
+      </c>
+      <c r="E343" t="n">
+        <v>5460</v>
+      </c>
+      <c r="F343" t="n">
+        <v>54710335</v>
+      </c>
+      <c r="G343" t="n">
+        <v>293391873075</v>
+      </c>
+      <c r="H343" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="I343" t="n">
+        <v>2933</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>KTcs</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O343" t="n">
+        <v>4374</v>
+      </c>
+      <c r="P343" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R343" t="n">
+        <v>454</v>
+      </c>
+      <c r="S343" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T343" t="n">
+        <v>100</v>
+      </c>
+      <c r="U343" t="n">
+        <v>3142</v>
+      </c>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W343" t="n">
+        <v>3142</v>
+      </c>
+      <c r="X343" t="n">
+        <v>2827</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>2670</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>1571</v>
+      </c>
+      <c r="AB343" t="inlineStr"/>
+      <c r="AC343" t="inlineStr"/>
+      <c r="AD343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>064480</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>11720</v>
+      </c>
+      <c r="C344" t="n">
+        <v>14700</v>
+      </c>
+      <c r="D344" t="n">
+        <v>11100</v>
+      </c>
+      <c r="E344" t="n">
+        <v>13340</v>
+      </c>
+      <c r="F344" t="n">
+        <v>15312694</v>
+      </c>
+      <c r="G344" t="n">
+        <v>204332029820</v>
+      </c>
+      <c r="H344" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>2043</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>브리지텍</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O344" t="n">
+        <v>3458</v>
+      </c>
+      <c r="P344" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="R344" t="n">
+        <v>245</v>
+      </c>
+      <c r="S344" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T344" t="n">
+        <v>120</v>
+      </c>
+      <c r="U344" t="n">
+        <v>2056</v>
+      </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W344" t="n">
+        <v>2056</v>
+      </c>
+      <c r="X344" t="n">
+        <v>1850</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>1748</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AB344" t="inlineStr"/>
+      <c r="AC344" t="inlineStr"/>
+      <c r="AD344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>049950</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>23900</v>
+      </c>
+      <c r="C345" t="n">
+        <v>30150</v>
+      </c>
+      <c r="D345" t="n">
+        <v>23800</v>
+      </c>
+      <c r="E345" t="n">
+        <v>30150</v>
+      </c>
+      <c r="F345" t="n">
+        <v>4044346</v>
+      </c>
+      <c r="G345" t="n">
+        <v>118775369250</v>
+      </c>
+      <c r="H345" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="I345" t="n">
+        <v>1187</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>미래컴퍼니</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O345" t="n">
+        <v>13221</v>
+      </c>
+      <c r="P345" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R345" t="n">
+        <v>817</v>
+      </c>
+      <c r="S345" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T345" t="n">
+        <v>100</v>
+      </c>
+      <c r="U345" t="n">
+        <v>8640</v>
+      </c>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W345" t="n">
+        <v>8640</v>
+      </c>
+      <c r="X345" t="n">
+        <v>7776</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>7344</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>6048</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>4320</v>
+      </c>
+      <c r="AB345" t="inlineStr"/>
+      <c r="AC345" t="inlineStr"/>
+      <c r="AD345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>21100</v>
+      </c>
+      <c r="C346" t="n">
+        <v>24950</v>
+      </c>
+      <c r="D346" t="n">
+        <v>21100</v>
+      </c>
+      <c r="E346" t="n">
+        <v>24400</v>
+      </c>
+      <c r="F346" t="n">
+        <v>8517465</v>
+      </c>
+      <c r="G346" t="n">
+        <v>200585738400</v>
+      </c>
+      <c r="H346" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="I346" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O346" t="n">
+        <v>10433</v>
+      </c>
+      <c r="P346" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R346" t="n">
+        <v>3584</v>
+      </c>
+      <c r="S346" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T346" t="n">
+        <v>500</v>
+      </c>
+      <c r="U346" t="n">
+        <v>8203</v>
+      </c>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W346" t="n">
+        <v>8203</v>
+      </c>
+      <c r="X346" t="n">
+        <v>7382</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>6972</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>5742</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>4101</v>
+      </c>
+      <c r="AB346" t="inlineStr"/>
+      <c r="AC346" t="inlineStr"/>
+      <c r="AD346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>352910</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>12700</v>
+      </c>
+      <c r="C347" t="n">
+        <v>14160</v>
+      </c>
+      <c r="D347" t="n">
+        <v>12330</v>
+      </c>
+      <c r="E347" t="n">
+        <v>13910</v>
+      </c>
+      <c r="F347" t="n">
+        <v>2276834</v>
+      </c>
+      <c r="G347" t="n">
+        <v>30694190870</v>
+      </c>
+      <c r="H347" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="I347" t="n">
+        <v>306</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>오비고</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O347" t="n">
+        <v>2414</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
+      <c r="S347" t="n">
+        <v>0</v>
+      </c>
+      <c r="T347" t="n">
+        <v>0</v>
+      </c>
+      <c r="U347" t="n">
+        <v>1207</v>
+      </c>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W347" t="n">
+        <v>1207</v>
+      </c>
+      <c r="X347" t="n">
+        <v>1086</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>1025</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>844</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>603</v>
+      </c>
+      <c r="AB347" t="inlineStr"/>
+      <c r="AC347" t="inlineStr"/>
+      <c r="AD347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>175250</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>3400</v>
+      </c>
+      <c r="C348" t="n">
+        <v>3790</v>
+      </c>
+      <c r="D348" t="n">
+        <v>3160</v>
+      </c>
+      <c r="E348" t="n">
+        <v>3730</v>
+      </c>
+      <c r="F348" t="n">
+        <v>13556220</v>
+      </c>
+      <c r="G348" t="n">
+        <v>48674589250</v>
+      </c>
+      <c r="H348" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="I348" t="n">
+        <v>486</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>아이큐어</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O348" t="n">
+        <v>3854</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
+      <c r="S348" t="n">
+        <v>0</v>
+      </c>
+      <c r="T348" t="n">
+        <v>0</v>
+      </c>
+      <c r="U348" t="n">
+        <v>1927</v>
+      </c>
+      <c r="V348" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W348" t="n">
+        <v>1927</v>
+      </c>
+      <c r="X348" t="n">
+        <v>1734</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>1637</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>1348</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>963</v>
+      </c>
+      <c r="AB348" t="inlineStr"/>
+      <c r="AC348" t="inlineStr"/>
+      <c r="AD348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>065370</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>21500</v>
+      </c>
+      <c r="C349" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D349" t="n">
+        <v>21250</v>
+      </c>
+      <c r="E349" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F349" t="n">
+        <v>3399789</v>
+      </c>
+      <c r="G349" t="n">
+        <v>81270287250</v>
+      </c>
+      <c r="H349" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="I349" t="n">
+        <v>812</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>위세아이텍</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O349" t="n">
+        <v>4171</v>
+      </c>
+      <c r="P349" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="R349" t="n">
+        <v>680</v>
+      </c>
+      <c r="S349" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T349" t="n">
+        <v>150</v>
+      </c>
+      <c r="U349" t="n">
+        <v>4220</v>
+      </c>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W349" t="n">
+        <v>4220</v>
+      </c>
+      <c r="X349" t="n">
+        <v>3798</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>3587</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>2954</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>2110</v>
+      </c>
+      <c r="AB349" t="inlineStr"/>
+      <c r="AC349" t="inlineStr"/>
+      <c r="AD349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>10790</v>
+      </c>
+      <c r="C350" t="n">
+        <v>12990</v>
+      </c>
+      <c r="D350" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E350" t="n">
+        <v>12130</v>
+      </c>
+      <c r="F350" t="n">
+        <v>4438534</v>
+      </c>
+      <c r="G350" t="n">
+        <v>54812502610</v>
+      </c>
+      <c r="H350" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="I350" t="n">
+        <v>548</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>한농화성</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O350" t="n">
+        <v>9658</v>
+      </c>
+      <c r="P350" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R350" t="n">
+        <v>1288</v>
+      </c>
+      <c r="S350" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T350" t="n">
+        <v>230</v>
+      </c>
+      <c r="U350" t="n">
+        <v>7860</v>
+      </c>
+      <c r="V350" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W350" t="n">
+        <v>7860</v>
+      </c>
+      <c r="X350" t="n">
+        <v>7074</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>6681</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>5502</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>3930</v>
+      </c>
+      <c r="AB350" t="inlineStr"/>
+      <c r="AC350" t="inlineStr"/>
+      <c r="AD350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>058850</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>4580</v>
+      </c>
+      <c r="C351" t="n">
+        <v>5920</v>
+      </c>
+      <c r="D351" t="n">
+        <v>4450</v>
+      </c>
+      <c r="E351" t="n">
+        <v>5460</v>
+      </c>
+      <c r="F351" t="n">
+        <v>54710946</v>
+      </c>
+      <c r="G351" t="n">
+        <v>293395209135</v>
+      </c>
+      <c r="H351" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="I351" t="n">
+        <v>2933</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>KTcs</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O351" t="n">
+        <v>4374</v>
+      </c>
+      <c r="P351" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R351" t="n">
+        <v>454</v>
+      </c>
+      <c r="S351" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T351" t="n">
+        <v>100</v>
+      </c>
+      <c r="U351" t="n">
+        <v>3142</v>
+      </c>
+      <c r="V351" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W351" t="n">
+        <v>3142</v>
+      </c>
+      <c r="X351" t="n">
+        <v>2827</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>2670</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>1571</v>
+      </c>
+      <c r="AB351" t="inlineStr"/>
+      <c r="AC351" t="inlineStr"/>
+      <c r="AD351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>064480</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>11720</v>
+      </c>
+      <c r="C352" t="n">
+        <v>14700</v>
+      </c>
+      <c r="D352" t="n">
+        <v>11100</v>
+      </c>
+      <c r="E352" t="n">
+        <v>13340</v>
+      </c>
+      <c r="F352" t="n">
+        <v>15312695</v>
+      </c>
+      <c r="G352" t="n">
+        <v>204332043160</v>
+      </c>
+      <c r="H352" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>2043</v>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>브리지텍</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O352" t="n">
+        <v>3458</v>
+      </c>
+      <c r="P352" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="R352" t="n">
+        <v>245</v>
+      </c>
+      <c r="S352" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T352" t="n">
+        <v>120</v>
+      </c>
+      <c r="U352" t="n">
+        <v>2056</v>
+      </c>
+      <c r="V352" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W352" t="n">
+        <v>2056</v>
+      </c>
+      <c r="X352" t="n">
+        <v>1850</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>1748</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AB352" t="inlineStr"/>
+      <c r="AC352" t="inlineStr"/>
+      <c r="AD352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>189330</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>21700</v>
+      </c>
+      <c r="C353" t="n">
+        <v>25800</v>
+      </c>
+      <c r="D353" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E353" t="n">
+        <v>24850</v>
+      </c>
+      <c r="F353" t="n">
+        <v>1811505</v>
+      </c>
+      <c r="G353" t="n">
+        <v>43659254800</v>
+      </c>
+      <c r="H353" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="I353" t="n">
+        <v>436</v>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>씨이랩</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O353" t="n">
+        <v>4070</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
+      <c r="S353" t="n">
+        <v>0</v>
+      </c>
+      <c r="T353" t="n">
+        <v>0</v>
+      </c>
+      <c r="U353" t="n">
+        <v>2315</v>
+      </c>
+      <c r="V353" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W353" t="n">
+        <v>2315</v>
+      </c>
+      <c r="X353" t="n">
+        <v>2084</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>1968</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>1621</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>1157</v>
+      </c>
+      <c r="AB353" t="inlineStr"/>
+      <c r="AC353" t="inlineStr"/>
+      <c r="AD353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>417840</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>10630</v>
+      </c>
+      <c r="C354" t="n">
+        <v>12180</v>
+      </c>
+      <c r="D354" t="n">
+        <v>10520</v>
+      </c>
+      <c r="E354" t="n">
+        <v>11740</v>
+      </c>
+      <c r="F354" t="n">
+        <v>4670298</v>
+      </c>
+      <c r="G354" t="n">
+        <v>53914399540</v>
+      </c>
+      <c r="H354" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>539</v>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>저스템</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O354" t="n">
+        <v>4374</v>
+      </c>
+      <c r="P354" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R354" t="n">
+        <v>1247</v>
+      </c>
+      <c r="S354" t="n">
+        <v>0</v>
+      </c>
+      <c r="T354" t="n">
+        <v>0</v>
+      </c>
+      <c r="U354" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V354" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W354" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X354" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB354" t="inlineStr"/>
+      <c r="AC354" t="inlineStr"/>
+      <c r="AD354" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD354"/>
+  <dimension ref="A1:AD367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35885,6 +35885,1306 @@
       <c r="AC354" t="inlineStr"/>
       <c r="AD354" t="inlineStr"/>
     </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>214680</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1641</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2120</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1635</v>
+      </c>
+      <c r="E355" t="n">
+        <v>2120</v>
+      </c>
+      <c r="F355" t="n">
+        <v>47301455</v>
+      </c>
+      <c r="G355" t="n">
+        <v>94856031728</v>
+      </c>
+      <c r="H355" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="I355" t="n">
+        <v>948</v>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>디알텍</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O355" t="n">
+        <v>779</v>
+      </c>
+      <c r="P355" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R355" t="n">
+        <v>74</v>
+      </c>
+      <c r="S355" t="n">
+        <v>0</v>
+      </c>
+      <c r="T355" t="n">
+        <v>0</v>
+      </c>
+      <c r="U355" t="n">
+        <v>467</v>
+      </c>
+      <c r="V355" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W355" t="n">
+        <v>467</v>
+      </c>
+      <c r="X355" t="n">
+        <v>421</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>397</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>327</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>233</v>
+      </c>
+      <c r="AB355" t="inlineStr"/>
+      <c r="AC355" t="inlineStr"/>
+      <c r="AD355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>261780</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>5120</v>
+      </c>
+      <c r="C356" t="n">
+        <v>6480</v>
+      </c>
+      <c r="D356" t="n">
+        <v>5050</v>
+      </c>
+      <c r="E356" t="n">
+        <v>6240</v>
+      </c>
+      <c r="F356" t="n">
+        <v>13206596</v>
+      </c>
+      <c r="G356" t="n">
+        <v>80065109640</v>
+      </c>
+      <c r="H356" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="I356" t="n">
+        <v>800</v>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>차백신연구소</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>자연과학 및 공학 연구개발업</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O356" t="n">
+        <v>1499</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
+      <c r="S356" t="n">
+        <v>0</v>
+      </c>
+      <c r="T356" t="n">
+        <v>0</v>
+      </c>
+      <c r="U356" t="n">
+        <v>749</v>
+      </c>
+      <c r="V356" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W356" t="n">
+        <v>749</v>
+      </c>
+      <c r="X356" t="n">
+        <v>674</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>637</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>524</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>374</v>
+      </c>
+      <c r="AB356" t="inlineStr"/>
+      <c r="AC356" t="inlineStr"/>
+      <c r="AD356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>270520</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>4695</v>
+      </c>
+      <c r="C357" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D357" t="n">
+        <v>4565</v>
+      </c>
+      <c r="E357" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F357" t="n">
+        <v>26392474</v>
+      </c>
+      <c r="G357" t="n">
+        <v>135329153540</v>
+      </c>
+      <c r="H357" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="I357" t="n">
+        <v>1353</v>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>지엔원에너지</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>건축기술, 엔지니어링 및 관련 기술 서비스업</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O357" t="n">
+        <v>940</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
+      <c r="S357" t="n">
+        <v>0</v>
+      </c>
+      <c r="T357" t="n">
+        <v>0</v>
+      </c>
+      <c r="U357" t="n">
+        <v>481</v>
+      </c>
+      <c r="V357" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W357" t="n">
+        <v>481</v>
+      </c>
+      <c r="X357" t="n">
+        <v>433</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>409</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>337</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB357" t="inlineStr"/>
+      <c r="AC357" t="inlineStr"/>
+      <c r="AD357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>059090</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>8510</v>
+      </c>
+      <c r="C358" t="n">
+        <v>10400</v>
+      </c>
+      <c r="D358" t="n">
+        <v>8510</v>
+      </c>
+      <c r="E358" t="n">
+        <v>10100</v>
+      </c>
+      <c r="F358" t="n">
+        <v>14098279</v>
+      </c>
+      <c r="G358" t="n">
+        <v>137323260040</v>
+      </c>
+      <c r="H358" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="I358" t="n">
+        <v>1373</v>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>미코</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O358" t="n">
+        <v>6192</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
+      <c r="S358" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="T358" t="n">
+        <v>70</v>
+      </c>
+      <c r="U358" t="n">
+        <v>3943</v>
+      </c>
+      <c r="V358" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W358" t="n">
+        <v>3943</v>
+      </c>
+      <c r="X358" t="n">
+        <v>3549</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>3351</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>1971</v>
+      </c>
+      <c r="AB358" t="inlineStr"/>
+      <c r="AC358" t="inlineStr"/>
+      <c r="AD358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>214680</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1641</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2120</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1635</v>
+      </c>
+      <c r="E359" t="n">
+        <v>2120</v>
+      </c>
+      <c r="F359" t="n">
+        <v>47301455</v>
+      </c>
+      <c r="G359" t="n">
+        <v>94856031728</v>
+      </c>
+      <c r="H359" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="I359" t="n">
+        <v>948</v>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>디알텍</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O359" t="n">
+        <v>779</v>
+      </c>
+      <c r="P359" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R359" t="n">
+        <v>74</v>
+      </c>
+      <c r="S359" t="n">
+        <v>0</v>
+      </c>
+      <c r="T359" t="n">
+        <v>0</v>
+      </c>
+      <c r="U359" t="n">
+        <v>467</v>
+      </c>
+      <c r="V359" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W359" t="n">
+        <v>467</v>
+      </c>
+      <c r="X359" t="n">
+        <v>421</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>397</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>327</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>233</v>
+      </c>
+      <c r="AB359" t="inlineStr"/>
+      <c r="AC359" t="inlineStr"/>
+      <c r="AD359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>407400</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>19100</v>
+      </c>
+      <c r="C360" t="n">
+        <v>24700</v>
+      </c>
+      <c r="D360" t="n">
+        <v>19090</v>
+      </c>
+      <c r="E360" t="n">
+        <v>24700</v>
+      </c>
+      <c r="F360" t="n">
+        <v>7616616</v>
+      </c>
+      <c r="G360" t="n">
+        <v>168245096880</v>
+      </c>
+      <c r="H360" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="I360" t="n">
+        <v>1682</v>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>꿈비</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>가구 제조업</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O360" t="n">
+        <v>883</v>
+      </c>
+      <c r="P360" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>27.97</v>
+      </c>
+      <c r="R360" t="n">
+        <v>289</v>
+      </c>
+      <c r="S360" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T360" t="n">
+        <v>24</v>
+      </c>
+      <c r="U360" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V360" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W360" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X360" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB360" t="inlineStr"/>
+      <c r="AC360" t="inlineStr"/>
+      <c r="AD360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>049950</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>30700</v>
+      </c>
+      <c r="C361" t="n">
+        <v>39150</v>
+      </c>
+      <c r="D361" t="n">
+        <v>30450</v>
+      </c>
+      <c r="E361" t="n">
+        <v>39150</v>
+      </c>
+      <c r="F361" t="n">
+        <v>6137234</v>
+      </c>
+      <c r="G361" t="n">
+        <v>220206062400</v>
+      </c>
+      <c r="H361" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="I361" t="n">
+        <v>2202</v>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>미래컴퍼니</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O361" t="n">
+        <v>13221</v>
+      </c>
+      <c r="P361" t="n">
+        <v>47.91</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R361" t="n">
+        <v>817</v>
+      </c>
+      <c r="S361" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T361" t="n">
+        <v>100</v>
+      </c>
+      <c r="U361" t="n">
+        <v>8640</v>
+      </c>
+      <c r="V361" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W361" t="n">
+        <v>8640</v>
+      </c>
+      <c r="X361" t="n">
+        <v>7776</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>7344</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>6048</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>4320</v>
+      </c>
+      <c r="AB361" t="inlineStr"/>
+      <c r="AC361" t="inlineStr"/>
+      <c r="AD361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>365340</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>146000</v>
+      </c>
+      <c r="C362" t="n">
+        <v>186000</v>
+      </c>
+      <c r="D362" t="n">
+        <v>145600</v>
+      </c>
+      <c r="E362" t="n">
+        <v>178500</v>
+      </c>
+      <c r="F362" t="n">
+        <v>3630346</v>
+      </c>
+      <c r="G362" t="n">
+        <v>623173383600</v>
+      </c>
+      <c r="H362" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="I362" t="n">
+        <v>6231</v>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>성일하이텍</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O362" t="n">
+        <v>11863</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
+      <c r="S362" t="n">
+        <v>0</v>
+      </c>
+      <c r="T362" t="n">
+        <v>0</v>
+      </c>
+      <c r="U362" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V362" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W362" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X362" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB362" t="inlineStr"/>
+      <c r="AC362" t="inlineStr"/>
+      <c r="AD362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>261780</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>5120</v>
+      </c>
+      <c r="C363" t="n">
+        <v>6480</v>
+      </c>
+      <c r="D363" t="n">
+        <v>5050</v>
+      </c>
+      <c r="E363" t="n">
+        <v>6240</v>
+      </c>
+      <c r="F363" t="n">
+        <v>13207852</v>
+      </c>
+      <c r="G363" t="n">
+        <v>80072947080</v>
+      </c>
+      <c r="H363" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="I363" t="n">
+        <v>800</v>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>차백신연구소</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>자연과학 및 공학 연구개발업</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O363" t="n">
+        <v>1499</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
+      <c r="S363" t="n">
+        <v>0</v>
+      </c>
+      <c r="T363" t="n">
+        <v>0</v>
+      </c>
+      <c r="U363" t="n">
+        <v>749</v>
+      </c>
+      <c r="V363" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W363" t="n">
+        <v>749</v>
+      </c>
+      <c r="X363" t="n">
+        <v>674</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>637</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>524</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>374</v>
+      </c>
+      <c r="AB363" t="inlineStr"/>
+      <c r="AC363" t="inlineStr"/>
+      <c r="AD363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>270520</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>4695</v>
+      </c>
+      <c r="C364" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D364" t="n">
+        <v>4565</v>
+      </c>
+      <c r="E364" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F364" t="n">
+        <v>26392474</v>
+      </c>
+      <c r="G364" t="n">
+        <v>135329153540</v>
+      </c>
+      <c r="H364" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="I364" t="n">
+        <v>1353</v>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>지엔원에너지</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>건축기술, 엔지니어링 및 관련 기술 서비스업</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O364" t="n">
+        <v>940</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
+      <c r="S364" t="n">
+        <v>0</v>
+      </c>
+      <c r="T364" t="n">
+        <v>0</v>
+      </c>
+      <c r="U364" t="n">
+        <v>481</v>
+      </c>
+      <c r="V364" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W364" t="n">
+        <v>481</v>
+      </c>
+      <c r="X364" t="n">
+        <v>433</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>409</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>337</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB364" t="inlineStr"/>
+      <c r="AC364" t="inlineStr"/>
+      <c r="AD364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>059090</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>8510</v>
+      </c>
+      <c r="C365" t="n">
+        <v>10400</v>
+      </c>
+      <c r="D365" t="n">
+        <v>8510</v>
+      </c>
+      <c r="E365" t="n">
+        <v>10100</v>
+      </c>
+      <c r="F365" t="n">
+        <v>14098280</v>
+      </c>
+      <c r="G365" t="n">
+        <v>137323270140</v>
+      </c>
+      <c r="H365" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="I365" t="n">
+        <v>1373</v>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>미코</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O365" t="n">
+        <v>6192</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
+      <c r="S365" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="T365" t="n">
+        <v>70</v>
+      </c>
+      <c r="U365" t="n">
+        <v>3943</v>
+      </c>
+      <c r="V365" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W365" t="n">
+        <v>3943</v>
+      </c>
+      <c r="X365" t="n">
+        <v>3549</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>3351</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>1971</v>
+      </c>
+      <c r="AB365" t="inlineStr"/>
+      <c r="AC365" t="inlineStr"/>
+      <c r="AD365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>125210</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>14240</v>
+      </c>
+      <c r="C366" t="n">
+        <v>16200</v>
+      </c>
+      <c r="D366" t="n">
+        <v>14240</v>
+      </c>
+      <c r="E366" t="n">
+        <v>15950</v>
+      </c>
+      <c r="F366" t="n">
+        <v>3099641</v>
+      </c>
+      <c r="G366" t="n">
+        <v>47611460700</v>
+      </c>
+      <c r="H366" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="I366" t="n">
+        <v>476</v>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>아모그린텍</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O366" t="n">
+        <v>2548</v>
+      </c>
+      <c r="P366" t="n">
+        <v>97.88</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="R366" t="n">
+        <v>163</v>
+      </c>
+      <c r="S366" t="n">
+        <v>0</v>
+      </c>
+      <c r="T366" t="n">
+        <v>0</v>
+      </c>
+      <c r="U366" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V366" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W366" t="n">
+        <v>1610</v>
+      </c>
+      <c r="X366" t="n">
+        <v>1449</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>1369</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>1127</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>805</v>
+      </c>
+      <c r="AB366" t="inlineStr"/>
+      <c r="AC366" t="inlineStr"/>
+      <c r="AD366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>277070</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>8820</v>
+      </c>
+      <c r="C367" t="n">
+        <v>10680</v>
+      </c>
+      <c r="D367" t="n">
+        <v>8820</v>
+      </c>
+      <c r="E367" t="n">
+        <v>10110</v>
+      </c>
+      <c r="F367" t="n">
+        <v>9271145</v>
+      </c>
+      <c r="G367" t="n">
+        <v>92447520390</v>
+      </c>
+      <c r="H367" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="I367" t="n">
+        <v>924</v>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>2023/03/02</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>린드먼아시아</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>신탁업 및 집합투자업</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O367" t="n">
+        <v>4011</v>
+      </c>
+      <c r="P367" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R367" t="n">
+        <v>398</v>
+      </c>
+      <c r="S367" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T367" t="n">
+        <v>42</v>
+      </c>
+      <c r="U367" t="n">
+        <v>3226</v>
+      </c>
+      <c r="V367" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W367" t="n">
+        <v>3226</v>
+      </c>
+      <c r="X367" t="n">
+        <v>2903</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>2742</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>2258</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>1613</v>
+      </c>
+      <c r="AB367" t="inlineStr"/>
+      <c r="AC367" t="inlineStr"/>
+      <c r="AD367" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD367"/>
+  <dimension ref="A1:AD382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37185,6 +37185,1506 @@
       <c r="AC367" t="inlineStr"/>
       <c r="AD367" t="inlineStr"/>
     </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>12810</v>
+      </c>
+      <c r="C368" t="n">
+        <v>16120</v>
+      </c>
+      <c r="D368" t="n">
+        <v>12510</v>
+      </c>
+      <c r="E368" t="n">
+        <v>16120</v>
+      </c>
+      <c r="F368" t="n">
+        <v>11482662</v>
+      </c>
+      <c r="G368" t="n">
+        <v>169033050000</v>
+      </c>
+      <c r="H368" t="n">
+        <v>30</v>
+      </c>
+      <c r="I368" t="n">
+        <v>1690</v>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>한농화성</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O368" t="n">
+        <v>9658</v>
+      </c>
+      <c r="P368" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R368" t="n">
+        <v>1288</v>
+      </c>
+      <c r="S368" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="T368" t="n">
+        <v>230</v>
+      </c>
+      <c r="U368" t="n">
+        <v>7860</v>
+      </c>
+      <c r="V368" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W368" t="n">
+        <v>7860</v>
+      </c>
+      <c r="X368" t="n">
+        <v>7074</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>6681</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>5502</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>3930</v>
+      </c>
+      <c r="AB368" t="inlineStr"/>
+      <c r="AC368" t="inlineStr"/>
+      <c r="AD368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>099750</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>29000</v>
+      </c>
+      <c r="C369" t="n">
+        <v>36700</v>
+      </c>
+      <c r="D369" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E369" t="n">
+        <v>34800</v>
+      </c>
+      <c r="F369" t="n">
+        <v>1264107</v>
+      </c>
+      <c r="G369" t="n">
+        <v>42286459100</v>
+      </c>
+      <c r="H369" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="I369" t="n">
+        <v>422</v>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>이지케어텍</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O369" t="n">
+        <v>5056</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
+      <c r="S369" t="n">
+        <v>0</v>
+      </c>
+      <c r="T369" t="n">
+        <v>0</v>
+      </c>
+      <c r="U369" t="n">
+        <v>2528</v>
+      </c>
+      <c r="V369" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W369" t="n">
+        <v>2528</v>
+      </c>
+      <c r="X369" t="n">
+        <v>2275</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>2148</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>1264</v>
+      </c>
+      <c r="AB369" t="inlineStr"/>
+      <c r="AC369" t="inlineStr"/>
+      <c r="AD369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>091580</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>18730</v>
+      </c>
+      <c r="C370" t="n">
+        <v>22600</v>
+      </c>
+      <c r="D370" t="n">
+        <v>18730</v>
+      </c>
+      <c r="E370" t="n">
+        <v>22600</v>
+      </c>
+      <c r="F370" t="n">
+        <v>6486205</v>
+      </c>
+      <c r="G370" t="n">
+        <v>139941144650</v>
+      </c>
+      <c r="H370" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="I370" t="n">
+        <v>1399</v>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>상신이디피</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>일차전지 및 축전지 제조업</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O370" t="n">
+        <v>7503</v>
+      </c>
+      <c r="P370" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="R370" t="n">
+        <v>1330</v>
+      </c>
+      <c r="S370" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="T370" t="n">
+        <v>100</v>
+      </c>
+      <c r="U370" t="n">
+        <v>6324</v>
+      </c>
+      <c r="V370" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W370" t="n">
+        <v>6324</v>
+      </c>
+      <c r="X370" t="n">
+        <v>5692</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>5376</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>4427</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>3162</v>
+      </c>
+      <c r="AB370" t="inlineStr"/>
+      <c r="AC370" t="inlineStr"/>
+      <c r="AD370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>056080</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C371" t="n">
+        <v>7250</v>
+      </c>
+      <c r="D371" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E371" t="n">
+        <v>6970</v>
+      </c>
+      <c r="F371" t="n">
+        <v>16124218</v>
+      </c>
+      <c r="G371" t="n">
+        <v>109876830850</v>
+      </c>
+      <c r="H371" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="I371" t="n">
+        <v>1098</v>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>유진로봇</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O371" t="n">
+        <v>1043</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
+      <c r="S371" t="n">
+        <v>0</v>
+      </c>
+      <c r="T371" t="n">
+        <v>0</v>
+      </c>
+      <c r="U371" t="n">
+        <v>521</v>
+      </c>
+      <c r="V371" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W371" t="n">
+        <v>521</v>
+      </c>
+      <c r="X371" t="n">
+        <v>469</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>443</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>365</v>
+      </c>
+      <c r="AA371" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB371" t="inlineStr"/>
+      <c r="AC371" t="inlineStr"/>
+      <c r="AD371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>114630</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>905</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D372" t="n">
+        <v>903</v>
+      </c>
+      <c r="E372" t="n">
+        <v>1082</v>
+      </c>
+      <c r="F372" t="n">
+        <v>71319401</v>
+      </c>
+      <c r="G372" t="n">
+        <v>75946630466</v>
+      </c>
+      <c r="H372" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="I372" t="n">
+        <v>759</v>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>폴라리스우노</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>화학섬유 제조업</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O372" t="n">
+        <v>1591</v>
+      </c>
+      <c r="P372" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R372" t="n">
+        <v>98</v>
+      </c>
+      <c r="S372" t="n">
+        <v>0</v>
+      </c>
+      <c r="T372" t="n">
+        <v>0</v>
+      </c>
+      <c r="U372" t="n">
+        <v>1112</v>
+      </c>
+      <c r="V372" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W372" t="n">
+        <v>1112</v>
+      </c>
+      <c r="X372" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>945</v>
+      </c>
+      <c r="Z372" t="n">
+        <v>778</v>
+      </c>
+      <c r="AA372" t="n">
+        <v>556</v>
+      </c>
+      <c r="AB372" t="inlineStr"/>
+      <c r="AC372" t="inlineStr"/>
+      <c r="AD372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>418550</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C373" t="n">
+        <v>28600</v>
+      </c>
+      <c r="D373" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E373" t="n">
+        <v>27600</v>
+      </c>
+      <c r="F373" t="n">
+        <v>5155000</v>
+      </c>
+      <c r="G373" t="n">
+        <v>138738759100</v>
+      </c>
+      <c r="H373" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="I373" t="n">
+        <v>1387</v>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>제이오</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>건축기술, 엔지니어링 및 관련 기술 서비스업</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O373" t="n">
+        <v>1078</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
+      <c r="S373" t="n">
+        <v>0</v>
+      </c>
+      <c r="T373" t="n">
+        <v>0</v>
+      </c>
+      <c r="U373" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V373" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W373" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X373" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z373" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA373" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB373" t="inlineStr"/>
+      <c r="AC373" t="inlineStr"/>
+      <c r="AD373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>005070</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>80000</v>
+      </c>
+      <c r="C374" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D374" t="n">
+        <v>78600</v>
+      </c>
+      <c r="E374" t="n">
+        <v>89700</v>
+      </c>
+      <c r="F374" t="n">
+        <v>3232395</v>
+      </c>
+      <c r="G374" t="n">
+        <v>279651097700</v>
+      </c>
+      <c r="H374" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2796</v>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>코스모신소재</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O374" t="n">
+        <v>6831</v>
+      </c>
+      <c r="P374" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="R374" t="n">
+        <v>604</v>
+      </c>
+      <c r="S374" t="n">
+        <v>0</v>
+      </c>
+      <c r="T374" t="n">
+        <v>0</v>
+      </c>
+      <c r="U374" t="n">
+        <v>4587</v>
+      </c>
+      <c r="V374" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W374" t="n">
+        <v>4587</v>
+      </c>
+      <c r="X374" t="n">
+        <v>4128</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>3899</v>
+      </c>
+      <c r="Z374" t="n">
+        <v>3211</v>
+      </c>
+      <c r="AA374" t="n">
+        <v>2293</v>
+      </c>
+      <c r="AB374" t="inlineStr"/>
+      <c r="AC374" t="inlineStr"/>
+      <c r="AD374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>068760</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C375" t="n">
+        <v>70500</v>
+      </c>
+      <c r="D375" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E375" t="n">
+        <v>65300</v>
+      </c>
+      <c r="F375" t="n">
+        <v>2468668</v>
+      </c>
+      <c r="G375" t="n">
+        <v>162710314700</v>
+      </c>
+      <c r="H375" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="I375" t="n">
+        <v>1627</v>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>셀트리온제약</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O375" t="n">
+        <v>8427</v>
+      </c>
+      <c r="P375" t="n">
+        <v>74.38</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="R375" t="n">
+        <v>878</v>
+      </c>
+      <c r="S375" t="n">
+        <v>0</v>
+      </c>
+      <c r="T375" t="n">
+        <v>0</v>
+      </c>
+      <c r="U375" t="n">
+        <v>6071</v>
+      </c>
+      <c r="V375" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W375" t="n">
+        <v>6071</v>
+      </c>
+      <c r="X375" t="n">
+        <v>5464</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>5161</v>
+      </c>
+      <c r="Z375" t="n">
+        <v>4250</v>
+      </c>
+      <c r="AA375" t="n">
+        <v>3035</v>
+      </c>
+      <c r="AB375" t="inlineStr"/>
+      <c r="AC375" t="inlineStr"/>
+      <c r="AD375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>214680</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>2250</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2730</v>
+      </c>
+      <c r="D376" t="n">
+        <v>2240</v>
+      </c>
+      <c r="E376" t="n">
+        <v>2450</v>
+      </c>
+      <c r="F376" t="n">
+        <v>105043213</v>
+      </c>
+      <c r="G376" t="n">
+        <v>265418107505</v>
+      </c>
+      <c r="H376" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2654</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>디알텍</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O376" t="n">
+        <v>779</v>
+      </c>
+      <c r="P376" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R376" t="n">
+        <v>74</v>
+      </c>
+      <c r="S376" t="n">
+        <v>0</v>
+      </c>
+      <c r="T376" t="n">
+        <v>0</v>
+      </c>
+      <c r="U376" t="n">
+        <v>467</v>
+      </c>
+      <c r="V376" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W376" t="n">
+        <v>467</v>
+      </c>
+      <c r="X376" t="n">
+        <v>421</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>397</v>
+      </c>
+      <c r="Z376" t="n">
+        <v>327</v>
+      </c>
+      <c r="AA376" t="n">
+        <v>233</v>
+      </c>
+      <c r="AB376" t="inlineStr"/>
+      <c r="AC376" t="inlineStr"/>
+      <c r="AD376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>137400</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>43950</v>
+      </c>
+      <c r="C377" t="n">
+        <v>50800</v>
+      </c>
+      <c r="D377" t="n">
+        <v>43600</v>
+      </c>
+      <c r="E377" t="n">
+        <v>50200</v>
+      </c>
+      <c r="F377" t="n">
+        <v>2082810</v>
+      </c>
+      <c r="G377" t="n">
+        <v>100239411650</v>
+      </c>
+      <c r="H377" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="I377" t="n">
+        <v>1002</v>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>피엔티</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>KOSDAQ GLOBAL</t>
+        </is>
+      </c>
+      <c r="O377" t="n">
+        <v>8383</v>
+      </c>
+      <c r="P377" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="R377" t="n">
+        <v>2407</v>
+      </c>
+      <c r="S377" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T377" t="n">
+        <v>150</v>
+      </c>
+      <c r="U377" t="n">
+        <v>9059</v>
+      </c>
+      <c r="V377" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W377" t="n">
+        <v>9059</v>
+      </c>
+      <c r="X377" t="n">
+        <v>8153</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>7700</v>
+      </c>
+      <c r="Z377" t="n">
+        <v>6341</v>
+      </c>
+      <c r="AA377" t="n">
+        <v>4529</v>
+      </c>
+      <c r="AB377" t="inlineStr"/>
+      <c r="AC377" t="inlineStr"/>
+      <c r="AD377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>12810</v>
+      </c>
+      <c r="C378" t="n">
+        <v>16120</v>
+      </c>
+      <c r="D378" t="n">
+        <v>12510</v>
+      </c>
+      <c r="E378" t="n">
+        <v>16120</v>
+      </c>
+      <c r="F378" t="n">
+        <v>11482831</v>
+      </c>
+      <c r="G378" t="n">
+        <v>169035774280</v>
+      </c>
+      <c r="H378" t="n">
+        <v>30</v>
+      </c>
+      <c r="I378" t="n">
+        <v>1690</v>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>한농화성</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O378" t="n">
+        <v>9658</v>
+      </c>
+      <c r="P378" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R378" t="n">
+        <v>1288</v>
+      </c>
+      <c r="S378" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="T378" t="n">
+        <v>230</v>
+      </c>
+      <c r="U378" t="n">
+        <v>7860</v>
+      </c>
+      <c r="V378" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W378" t="n">
+        <v>7860</v>
+      </c>
+      <c r="X378" t="n">
+        <v>7074</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>6681</v>
+      </c>
+      <c r="Z378" t="n">
+        <v>5502</v>
+      </c>
+      <c r="AA378" t="n">
+        <v>3930</v>
+      </c>
+      <c r="AB378" t="inlineStr"/>
+      <c r="AC378" t="inlineStr"/>
+      <c r="AD378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>041020</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1882</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2440</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1869</v>
+      </c>
+      <c r="E379" t="n">
+        <v>2440</v>
+      </c>
+      <c r="F379" t="n">
+        <v>11994310</v>
+      </c>
+      <c r="G379" t="n">
+        <v>27067538727</v>
+      </c>
+      <c r="H379" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="I379" t="n">
+        <v>270</v>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>폴라리스오피스</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O379" t="n">
+        <v>1013</v>
+      </c>
+      <c r="P379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
+      <c r="S379" t="n">
+        <v>0</v>
+      </c>
+      <c r="T379" t="n">
+        <v>0</v>
+      </c>
+      <c r="U379" t="n">
+        <v>506</v>
+      </c>
+      <c r="V379" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W379" t="n">
+        <v>506</v>
+      </c>
+      <c r="X379" t="n">
+        <v>455</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>430</v>
+      </c>
+      <c r="Z379" t="n">
+        <v>354</v>
+      </c>
+      <c r="AA379" t="n">
+        <v>253</v>
+      </c>
+      <c r="AB379" t="inlineStr"/>
+      <c r="AC379" t="inlineStr"/>
+      <c r="AD379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>056080</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C380" t="n">
+        <v>7250</v>
+      </c>
+      <c r="D380" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E380" t="n">
+        <v>6970</v>
+      </c>
+      <c r="F380" t="n">
+        <v>16128280</v>
+      </c>
+      <c r="G380" t="n">
+        <v>109904939890</v>
+      </c>
+      <c r="H380" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="I380" t="n">
+        <v>1099</v>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>유진로봇</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O380" t="n">
+        <v>1043</v>
+      </c>
+      <c r="P380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
+      <c r="S380" t="n">
+        <v>0</v>
+      </c>
+      <c r="T380" t="n">
+        <v>0</v>
+      </c>
+      <c r="U380" t="n">
+        <v>521</v>
+      </c>
+      <c r="V380" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W380" t="n">
+        <v>521</v>
+      </c>
+      <c r="X380" t="n">
+        <v>469</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>443</v>
+      </c>
+      <c r="Z380" t="n">
+        <v>365</v>
+      </c>
+      <c r="AA380" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB380" t="inlineStr"/>
+      <c r="AC380" t="inlineStr"/>
+      <c r="AD380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>114630</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>905</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D381" t="n">
+        <v>903</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1082</v>
+      </c>
+      <c r="F381" t="n">
+        <v>71371000</v>
+      </c>
+      <c r="G381" t="n">
+        <v>76002150990</v>
+      </c>
+      <c r="H381" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="I381" t="n">
+        <v>760</v>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>폴라리스우노</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>화학섬유 제조업</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O381" t="n">
+        <v>1591</v>
+      </c>
+      <c r="P381" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R381" t="n">
+        <v>98</v>
+      </c>
+      <c r="S381" t="n">
+        <v>0</v>
+      </c>
+      <c r="T381" t="n">
+        <v>0</v>
+      </c>
+      <c r="U381" t="n">
+        <v>1112</v>
+      </c>
+      <c r="V381" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W381" t="n">
+        <v>1112</v>
+      </c>
+      <c r="X381" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>945</v>
+      </c>
+      <c r="Z381" t="n">
+        <v>778</v>
+      </c>
+      <c r="AA381" t="n">
+        <v>556</v>
+      </c>
+      <c r="AB381" t="inlineStr"/>
+      <c r="AC381" t="inlineStr"/>
+      <c r="AD381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>214680</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>2250</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2730</v>
+      </c>
+      <c r="D382" t="n">
+        <v>2240</v>
+      </c>
+      <c r="E382" t="n">
+        <v>2450</v>
+      </c>
+      <c r="F382" t="n">
+        <v>105116905</v>
+      </c>
+      <c r="G382" t="n">
+        <v>265595705225</v>
+      </c>
+      <c r="H382" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="I382" t="n">
+        <v>2655</v>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>2023/03/03</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>디알텍</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O382" t="n">
+        <v>779</v>
+      </c>
+      <c r="P382" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R382" t="n">
+        <v>74</v>
+      </c>
+      <c r="S382" t="n">
+        <v>0</v>
+      </c>
+      <c r="T382" t="n">
+        <v>0</v>
+      </c>
+      <c r="U382" t="n">
+        <v>467</v>
+      </c>
+      <c r="V382" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W382" t="n">
+        <v>467</v>
+      </c>
+      <c r="X382" t="n">
+        <v>421</v>
+      </c>
+      <c r="Y382" t="n">
+        <v>397</v>
+      </c>
+      <c r="Z382" t="n">
+        <v>327</v>
+      </c>
+      <c r="AA382" t="n">
+        <v>233</v>
+      </c>
+      <c r="AB382" t="inlineStr"/>
+      <c r="AC382" t="inlineStr"/>
+      <c r="AD382" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD382"/>
+  <dimension ref="A1:AD401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38685,6 +38685,1906 @@
       <c r="AC382" t="inlineStr"/>
       <c r="AD382" t="inlineStr"/>
     </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>009520</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>9130</v>
+      </c>
+      <c r="C383" t="n">
+        <v>11550</v>
+      </c>
+      <c r="D383" t="n">
+        <v>9060</v>
+      </c>
+      <c r="E383" t="n">
+        <v>11550</v>
+      </c>
+      <c r="F383" t="n">
+        <v>45961776</v>
+      </c>
+      <c r="G383" t="n">
+        <v>488967223480</v>
+      </c>
+      <c r="H383" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="I383" t="n">
+        <v>4889</v>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>포스코엠텍</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>1차 철강 제조업</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O383" t="n">
+        <v>2511</v>
+      </c>
+      <c r="P383" t="n">
+        <v>36.78</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R383" t="n">
+        <v>314</v>
+      </c>
+      <c r="S383" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="T383" t="n">
+        <v>80</v>
+      </c>
+      <c r="U383" t="n">
+        <v>2105</v>
+      </c>
+      <c r="V383" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W383" t="n">
+        <v>2105</v>
+      </c>
+      <c r="X383" t="n">
+        <v>1894</v>
+      </c>
+      <c r="Y383" t="n">
+        <v>1789</v>
+      </c>
+      <c r="Z383" t="n">
+        <v>1473</v>
+      </c>
+      <c r="AA383" t="n">
+        <v>1052</v>
+      </c>
+      <c r="AB383" t="inlineStr"/>
+      <c r="AC383" t="inlineStr"/>
+      <c r="AD383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>30700</v>
+      </c>
+      <c r="C384" t="n">
+        <v>36550</v>
+      </c>
+      <c r="D384" t="n">
+        <v>30500</v>
+      </c>
+      <c r="E384" t="n">
+        <v>36550</v>
+      </c>
+      <c r="F384" t="n">
+        <v>14064264</v>
+      </c>
+      <c r="G384" t="n">
+        <v>482582894650</v>
+      </c>
+      <c r="H384" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="I384" t="n">
+        <v>4825</v>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O384" t="n">
+        <v>10433</v>
+      </c>
+      <c r="P384" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R384" t="n">
+        <v>3584</v>
+      </c>
+      <c r="S384" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T384" t="n">
+        <v>500</v>
+      </c>
+      <c r="U384" t="n">
+        <v>8203</v>
+      </c>
+      <c r="V384" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W384" t="n">
+        <v>8203</v>
+      </c>
+      <c r="X384" t="n">
+        <v>7382</v>
+      </c>
+      <c r="Y384" t="n">
+        <v>6972</v>
+      </c>
+      <c r="Z384" t="n">
+        <v>5742</v>
+      </c>
+      <c r="AA384" t="n">
+        <v>4101</v>
+      </c>
+      <c r="AB384" t="inlineStr"/>
+      <c r="AC384" t="inlineStr"/>
+      <c r="AD384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>051490</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>7370</v>
+      </c>
+      <c r="C385" t="n">
+        <v>9120</v>
+      </c>
+      <c r="D385" t="n">
+        <v>7330</v>
+      </c>
+      <c r="E385" t="n">
+        <v>8650</v>
+      </c>
+      <c r="F385" t="n">
+        <v>10051844</v>
+      </c>
+      <c r="G385" t="n">
+        <v>86758443190</v>
+      </c>
+      <c r="H385" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="I385" t="n">
+        <v>867</v>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>나라엠앤디</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O385" t="n">
+        <v>6064</v>
+      </c>
+      <c r="P385" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R385" t="n">
+        <v>262</v>
+      </c>
+      <c r="S385" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T385" t="n">
+        <v>50</v>
+      </c>
+      <c r="U385" t="n">
+        <v>3488</v>
+      </c>
+      <c r="V385" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W385" t="n">
+        <v>3488</v>
+      </c>
+      <c r="X385" t="n">
+        <v>3139</v>
+      </c>
+      <c r="Y385" t="n">
+        <v>2965</v>
+      </c>
+      <c r="Z385" t="n">
+        <v>2442</v>
+      </c>
+      <c r="AA385" t="n">
+        <v>1744</v>
+      </c>
+      <c r="AB385" t="inlineStr"/>
+      <c r="AC385" t="inlineStr"/>
+      <c r="AD385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>041020</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>2655</v>
+      </c>
+      <c r="C386" t="n">
+        <v>3040</v>
+      </c>
+      <c r="D386" t="n">
+        <v>2525</v>
+      </c>
+      <c r="E386" t="n">
+        <v>2875</v>
+      </c>
+      <c r="F386" t="n">
+        <v>43465721</v>
+      </c>
+      <c r="G386" t="n">
+        <v>121497535185</v>
+      </c>
+      <c r="H386" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="I386" t="n">
+        <v>1214</v>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>폴라리스오피스</t>
+        </is>
+      </c>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O386" t="n">
+        <v>1013</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R386" t="n">
+        <v>0</v>
+      </c>
+      <c r="S386" t="n">
+        <v>0</v>
+      </c>
+      <c r="T386" t="n">
+        <v>0</v>
+      </c>
+      <c r="U386" t="n">
+        <v>506</v>
+      </c>
+      <c r="V386" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W386" t="n">
+        <v>506</v>
+      </c>
+      <c r="X386" t="n">
+        <v>455</v>
+      </c>
+      <c r="Y386" t="n">
+        <v>430</v>
+      </c>
+      <c r="Z386" t="n">
+        <v>354</v>
+      </c>
+      <c r="AA386" t="n">
+        <v>253</v>
+      </c>
+      <c r="AB386" t="inlineStr"/>
+      <c r="AC386" t="inlineStr"/>
+      <c r="AD386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>059090</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C387" t="n">
+        <v>13380</v>
+      </c>
+      <c r="D387" t="n">
+        <v>10300</v>
+      </c>
+      <c r="E387" t="n">
+        <v>12540</v>
+      </c>
+      <c r="F387" t="n">
+        <v>29247201</v>
+      </c>
+      <c r="G387" t="n">
+        <v>354129499830</v>
+      </c>
+      <c r="H387" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="I387" t="n">
+        <v>3541</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>미코</t>
+        </is>
+      </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O387" t="n">
+        <v>6192</v>
+      </c>
+      <c r="P387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R387" t="n">
+        <v>0</v>
+      </c>
+      <c r="S387" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T387" t="n">
+        <v>70</v>
+      </c>
+      <c r="U387" t="n">
+        <v>3943</v>
+      </c>
+      <c r="V387" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W387" t="n">
+        <v>3943</v>
+      </c>
+      <c r="X387" t="n">
+        <v>3549</v>
+      </c>
+      <c r="Y387" t="n">
+        <v>3351</v>
+      </c>
+      <c r="Z387" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA387" t="n">
+        <v>1971</v>
+      </c>
+      <c r="AB387" t="inlineStr"/>
+      <c r="AC387" t="inlineStr"/>
+      <c r="AD387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>131400</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2165</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F388" t="n">
+        <v>36349671</v>
+      </c>
+      <c r="G388" t="n">
+        <v>71454553279</v>
+      </c>
+      <c r="H388" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="I388" t="n">
+        <v>714</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>이브이첨단소재</t>
+        </is>
+      </c>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O388" t="n">
+        <v>1918</v>
+      </c>
+      <c r="P388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
+      <c r="S388" t="n">
+        <v>0</v>
+      </c>
+      <c r="T388" t="n">
+        <v>0</v>
+      </c>
+      <c r="U388" t="n">
+        <v>542</v>
+      </c>
+      <c r="V388" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W388" t="n">
+        <v>542</v>
+      </c>
+      <c r="X388" t="n">
+        <v>487</v>
+      </c>
+      <c r="Y388" t="n">
+        <v>460</v>
+      </c>
+      <c r="Z388" t="n">
+        <v>379</v>
+      </c>
+      <c r="AA388" t="n">
+        <v>271</v>
+      </c>
+      <c r="AB388" t="inlineStr"/>
+      <c r="AC388" t="inlineStr"/>
+      <c r="AD388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>009520</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>9130</v>
+      </c>
+      <c r="C389" t="n">
+        <v>11550</v>
+      </c>
+      <c r="D389" t="n">
+        <v>9060</v>
+      </c>
+      <c r="E389" t="n">
+        <v>11550</v>
+      </c>
+      <c r="F389" t="n">
+        <v>45961776</v>
+      </c>
+      <c r="G389" t="n">
+        <v>488967223480</v>
+      </c>
+      <c r="H389" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="I389" t="n">
+        <v>4889</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>포스코엠텍</t>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>1차 철강 제조업</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O389" t="n">
+        <v>2511</v>
+      </c>
+      <c r="P389" t="n">
+        <v>36.78</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R389" t="n">
+        <v>314</v>
+      </c>
+      <c r="S389" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="T389" t="n">
+        <v>80</v>
+      </c>
+      <c r="U389" t="n">
+        <v>2105</v>
+      </c>
+      <c r="V389" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W389" t="n">
+        <v>2105</v>
+      </c>
+      <c r="X389" t="n">
+        <v>1894</v>
+      </c>
+      <c r="Y389" t="n">
+        <v>1789</v>
+      </c>
+      <c r="Z389" t="n">
+        <v>1473</v>
+      </c>
+      <c r="AA389" t="n">
+        <v>1052</v>
+      </c>
+      <c r="AB389" t="inlineStr"/>
+      <c r="AC389" t="inlineStr"/>
+      <c r="AD389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>30700</v>
+      </c>
+      <c r="C390" t="n">
+        <v>36550</v>
+      </c>
+      <c r="D390" t="n">
+        <v>30500</v>
+      </c>
+      <c r="E390" t="n">
+        <v>36550</v>
+      </c>
+      <c r="F390" t="n">
+        <v>14064264</v>
+      </c>
+      <c r="G390" t="n">
+        <v>482582894650</v>
+      </c>
+      <c r="H390" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="I390" t="n">
+        <v>4825</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>이수화학</t>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O390" t="n">
+        <v>10433</v>
+      </c>
+      <c r="P390" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R390" t="n">
+        <v>3584</v>
+      </c>
+      <c r="S390" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T390" t="n">
+        <v>500</v>
+      </c>
+      <c r="U390" t="n">
+        <v>8203</v>
+      </c>
+      <c r="V390" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W390" t="n">
+        <v>8203</v>
+      </c>
+      <c r="X390" t="n">
+        <v>7382</v>
+      </c>
+      <c r="Y390" t="n">
+        <v>6972</v>
+      </c>
+      <c r="Z390" t="n">
+        <v>5742</v>
+      </c>
+      <c r="AA390" t="n">
+        <v>4101</v>
+      </c>
+      <c r="AB390" t="inlineStr"/>
+      <c r="AC390" t="inlineStr"/>
+      <c r="AD390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>383310</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C391" t="n">
+        <v>70500</v>
+      </c>
+      <c r="D391" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E391" t="n">
+        <v>70500</v>
+      </c>
+      <c r="F391" t="n">
+        <v>2779105</v>
+      </c>
+      <c r="G391" t="n">
+        <v>185525889100</v>
+      </c>
+      <c r="H391" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="I391" t="n">
+        <v>1855</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>에코프로에이치엔</t>
+        </is>
+      </c>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O391" t="n">
+        <v>4101</v>
+      </c>
+      <c r="P391" t="n">
+        <v>93.88</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="R391" t="n">
+        <v>751</v>
+      </c>
+      <c r="S391" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T391" t="n">
+        <v>330</v>
+      </c>
+      <c r="U391" t="n">
+        <v>2676</v>
+      </c>
+      <c r="V391" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W391" t="n">
+        <v>2676</v>
+      </c>
+      <c r="X391" t="n">
+        <v>2408</v>
+      </c>
+      <c r="Y391" t="n">
+        <v>2274</v>
+      </c>
+      <c r="Z391" t="n">
+        <v>1873</v>
+      </c>
+      <c r="AA391" t="n">
+        <v>1338</v>
+      </c>
+      <c r="AB391" t="inlineStr"/>
+      <c r="AC391" t="inlineStr"/>
+      <c r="AD391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>199820</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C392" t="n">
+        <v>11980</v>
+      </c>
+      <c r="D392" t="n">
+        <v>9130</v>
+      </c>
+      <c r="E392" t="n">
+        <v>11800</v>
+      </c>
+      <c r="F392" t="n">
+        <v>3190020</v>
+      </c>
+      <c r="G392" t="n">
+        <v>36553705110</v>
+      </c>
+      <c r="H392" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="I392" t="n">
+        <v>365</v>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>제일전기공업</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>전동기, 발전기 및 전기 변환 · 공급 · 제어 장치 제조업</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O392" t="n">
+        <v>10446</v>
+      </c>
+      <c r="P392" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R392" t="n">
+        <v>1162</v>
+      </c>
+      <c r="S392" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T392" t="n">
+        <v>300</v>
+      </c>
+      <c r="U392" t="n">
+        <v>9873</v>
+      </c>
+      <c r="V392" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W392" t="n">
+        <v>9873</v>
+      </c>
+      <c r="X392" t="n">
+        <v>8885</v>
+      </c>
+      <c r="Y392" t="n">
+        <v>8392</v>
+      </c>
+      <c r="Z392" t="n">
+        <v>6911</v>
+      </c>
+      <c r="AA392" t="n">
+        <v>4936</v>
+      </c>
+      <c r="AB392" t="inlineStr"/>
+      <c r="AC392" t="inlineStr"/>
+      <c r="AD392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>051490</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>7370</v>
+      </c>
+      <c r="C393" t="n">
+        <v>9120</v>
+      </c>
+      <c r="D393" t="n">
+        <v>7330</v>
+      </c>
+      <c r="E393" t="n">
+        <v>8650</v>
+      </c>
+      <c r="F393" t="n">
+        <v>10051844</v>
+      </c>
+      <c r="G393" t="n">
+        <v>86758443190</v>
+      </c>
+      <c r="H393" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="I393" t="n">
+        <v>867</v>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>나라엠앤디</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O393" t="n">
+        <v>6064</v>
+      </c>
+      <c r="P393" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R393" t="n">
+        <v>262</v>
+      </c>
+      <c r="S393" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T393" t="n">
+        <v>50</v>
+      </c>
+      <c r="U393" t="n">
+        <v>3488</v>
+      </c>
+      <c r="V393" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W393" t="n">
+        <v>3488</v>
+      </c>
+      <c r="X393" t="n">
+        <v>3139</v>
+      </c>
+      <c r="Y393" t="n">
+        <v>2965</v>
+      </c>
+      <c r="Z393" t="n">
+        <v>2442</v>
+      </c>
+      <c r="AA393" t="n">
+        <v>1744</v>
+      </c>
+      <c r="AB393" t="inlineStr"/>
+      <c r="AC393" t="inlineStr"/>
+      <c r="AD393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>304100</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>34500</v>
+      </c>
+      <c r="C394" t="n">
+        <v>41600</v>
+      </c>
+      <c r="D394" t="n">
+        <v>32800</v>
+      </c>
+      <c r="E394" t="n">
+        <v>41150</v>
+      </c>
+      <c r="F394" t="n">
+        <v>7405835</v>
+      </c>
+      <c r="G394" t="n">
+        <v>288192429250</v>
+      </c>
+      <c r="H394" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="I394" t="n">
+        <v>2881</v>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>솔트룩스</t>
+        </is>
+      </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O394" t="n">
+        <v>5202</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
+      <c r="S394" t="n">
+        <v>0</v>
+      </c>
+      <c r="T394" t="n">
+        <v>0</v>
+      </c>
+      <c r="U394" t="n">
+        <v>2906</v>
+      </c>
+      <c r="V394" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W394" t="n">
+        <v>2906</v>
+      </c>
+      <c r="X394" t="n">
+        <v>2616</v>
+      </c>
+      <c r="Y394" t="n">
+        <v>2470</v>
+      </c>
+      <c r="Z394" t="n">
+        <v>2034</v>
+      </c>
+      <c r="AA394" t="n">
+        <v>1453</v>
+      </c>
+      <c r="AB394" t="inlineStr"/>
+      <c r="AC394" t="inlineStr"/>
+      <c r="AD394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>247540</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>199800</v>
+      </c>
+      <c r="C395" t="n">
+        <v>217000</v>
+      </c>
+      <c r="D395" t="n">
+        <v>192500</v>
+      </c>
+      <c r="E395" t="n">
+        <v>217000</v>
+      </c>
+      <c r="F395" t="n">
+        <v>8004396</v>
+      </c>
+      <c r="G395" t="n">
+        <v>1662276014300</v>
+      </c>
+      <c r="H395" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="I395" t="n">
+        <v>16622</v>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>에코프로비엠</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>일차전지 및 축전지 제조업</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>KOSDAQ GLOBAL</t>
+        </is>
+      </c>
+      <c r="O395" t="n">
+        <v>5969</v>
+      </c>
+      <c r="P395" t="n">
+        <v>188.25</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>36.34</v>
+      </c>
+      <c r="R395" t="n">
+        <v>1153</v>
+      </c>
+      <c r="S395" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T395" t="n">
+        <v>920</v>
+      </c>
+      <c r="U395" t="n">
+        <v>9163</v>
+      </c>
+      <c r="V395" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W395" t="n">
+        <v>9163</v>
+      </c>
+      <c r="X395" t="n">
+        <v>8247</v>
+      </c>
+      <c r="Y395" t="n">
+        <v>7789</v>
+      </c>
+      <c r="Z395" t="n">
+        <v>6414</v>
+      </c>
+      <c r="AA395" t="n">
+        <v>4581</v>
+      </c>
+      <c r="AB395" t="inlineStr"/>
+      <c r="AC395" t="inlineStr"/>
+      <c r="AD395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>041020</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>2655</v>
+      </c>
+      <c r="C396" t="n">
+        <v>3040</v>
+      </c>
+      <c r="D396" t="n">
+        <v>2525</v>
+      </c>
+      <c r="E396" t="n">
+        <v>2875</v>
+      </c>
+      <c r="F396" t="n">
+        <v>43465721</v>
+      </c>
+      <c r="G396" t="n">
+        <v>121497535185</v>
+      </c>
+      <c r="H396" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1214</v>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>폴라리스오피스</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O396" t="n">
+        <v>1013</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
+      <c r="S396" t="n">
+        <v>0</v>
+      </c>
+      <c r="T396" t="n">
+        <v>0</v>
+      </c>
+      <c r="U396" t="n">
+        <v>506</v>
+      </c>
+      <c r="V396" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W396" t="n">
+        <v>506</v>
+      </c>
+      <c r="X396" t="n">
+        <v>455</v>
+      </c>
+      <c r="Y396" t="n">
+        <v>430</v>
+      </c>
+      <c r="Z396" t="n">
+        <v>354</v>
+      </c>
+      <c r="AA396" t="n">
+        <v>253</v>
+      </c>
+      <c r="AB396" t="inlineStr"/>
+      <c r="AC396" t="inlineStr"/>
+      <c r="AD396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>059090</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>10670</v>
+      </c>
+      <c r="C397" t="n">
+        <v>13380</v>
+      </c>
+      <c r="D397" t="n">
+        <v>10300</v>
+      </c>
+      <c r="E397" t="n">
+        <v>12540</v>
+      </c>
+      <c r="F397" t="n">
+        <v>29247201</v>
+      </c>
+      <c r="G397" t="n">
+        <v>354129499830</v>
+      </c>
+      <c r="H397" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="I397" t="n">
+        <v>3541</v>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>미코</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O397" t="n">
+        <v>6192</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
+      <c r="S397" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T397" t="n">
+        <v>70</v>
+      </c>
+      <c r="U397" t="n">
+        <v>3943</v>
+      </c>
+      <c r="V397" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W397" t="n">
+        <v>3943</v>
+      </c>
+      <c r="X397" t="n">
+        <v>3549</v>
+      </c>
+      <c r="Y397" t="n">
+        <v>3351</v>
+      </c>
+      <c r="Z397" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA397" t="n">
+        <v>1971</v>
+      </c>
+      <c r="AB397" t="inlineStr"/>
+      <c r="AC397" t="inlineStr"/>
+      <c r="AD397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>195870</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>42000</v>
+      </c>
+      <c r="C398" t="n">
+        <v>49700</v>
+      </c>
+      <c r="D398" t="n">
+        <v>41500</v>
+      </c>
+      <c r="E398" t="n">
+        <v>48300</v>
+      </c>
+      <c r="F398" t="n">
+        <v>1716555</v>
+      </c>
+      <c r="G398" t="n">
+        <v>79874265900</v>
+      </c>
+      <c r="H398" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="I398" t="n">
+        <v>798</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>해성디에스</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O398" t="n">
+        <v>17313</v>
+      </c>
+      <c r="P398" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R398" t="n">
+        <v>4192</v>
+      </c>
+      <c r="S398" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T398" t="n">
+        <v>600</v>
+      </c>
+      <c r="U398" t="n">
+        <v>15988</v>
+      </c>
+      <c r="V398" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W398" t="n">
+        <v>15988</v>
+      </c>
+      <c r="X398" t="n">
+        <v>14389</v>
+      </c>
+      <c r="Y398" t="n">
+        <v>13589</v>
+      </c>
+      <c r="Z398" t="n">
+        <v>11191</v>
+      </c>
+      <c r="AA398" t="n">
+        <v>7994</v>
+      </c>
+      <c r="AB398" t="inlineStr"/>
+      <c r="AC398" t="inlineStr"/>
+      <c r="AD398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>360070</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>42100</v>
+      </c>
+      <c r="C399" t="n">
+        <v>49500</v>
+      </c>
+      <c r="D399" t="n">
+        <v>41400</v>
+      </c>
+      <c r="E399" t="n">
+        <v>46600</v>
+      </c>
+      <c r="F399" t="n">
+        <v>1497888</v>
+      </c>
+      <c r="G399" t="n">
+        <v>68019580050</v>
+      </c>
+      <c r="H399" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="I399" t="n">
+        <v>680</v>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>탑머티리얼</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>일차전지 및 축전지 제조업</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O399" t="n">
+        <v>4403</v>
+      </c>
+      <c r="P399" t="n">
+        <v>60.53</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="R399" t="n">
+        <v>770</v>
+      </c>
+      <c r="S399" t="n">
+        <v>0</v>
+      </c>
+      <c r="T399" t="n">
+        <v>0</v>
+      </c>
+      <c r="U399" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V399" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W399" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X399" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y399" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z399" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA399" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB399" t="inlineStr"/>
+      <c r="AC399" t="inlineStr"/>
+      <c r="AD399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>131400</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2165</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F400" t="n">
+        <v>36349671</v>
+      </c>
+      <c r="G400" t="n">
+        <v>71454553279</v>
+      </c>
+      <c r="H400" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="I400" t="n">
+        <v>714</v>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>이브이첨단소재</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O400" t="n">
+        <v>1918</v>
+      </c>
+      <c r="P400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
+      <c r="S400" t="n">
+        <v>0</v>
+      </c>
+      <c r="T400" t="n">
+        <v>0</v>
+      </c>
+      <c r="U400" t="n">
+        <v>542</v>
+      </c>
+      <c r="V400" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W400" t="n">
+        <v>542</v>
+      </c>
+      <c r="X400" t="n">
+        <v>487</v>
+      </c>
+      <c r="Y400" t="n">
+        <v>460</v>
+      </c>
+      <c r="Z400" t="n">
+        <v>379</v>
+      </c>
+      <c r="AA400" t="n">
+        <v>271</v>
+      </c>
+      <c r="AB400" t="inlineStr"/>
+      <c r="AC400" t="inlineStr"/>
+      <c r="AD400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>220260</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>9350</v>
+      </c>
+      <c r="C401" t="n">
+        <v>10840</v>
+      </c>
+      <c r="D401" t="n">
+        <v>9100</v>
+      </c>
+      <c r="E401" t="n">
+        <v>10580</v>
+      </c>
+      <c r="F401" t="n">
+        <v>8298445</v>
+      </c>
+      <c r="G401" t="n">
+        <v>83801903410</v>
+      </c>
+      <c r="H401" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="I401" t="n">
+        <v>838</v>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>2023/03/06</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>켐트로스</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O401" t="n">
+        <v>2070</v>
+      </c>
+      <c r="P401" t="n">
+        <v>63.72</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="R401" t="n">
+        <v>166</v>
+      </c>
+      <c r="S401" t="n">
+        <v>0</v>
+      </c>
+      <c r="T401" t="n">
+        <v>0</v>
+      </c>
+      <c r="U401" t="n">
+        <v>1277</v>
+      </c>
+      <c r="V401" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W401" t="n">
+        <v>1277</v>
+      </c>
+      <c r="X401" t="n">
+        <v>1149</v>
+      </c>
+      <c r="Y401" t="n">
+        <v>1085</v>
+      </c>
+      <c r="Z401" t="n">
+        <v>894</v>
+      </c>
+      <c r="AA401" t="n">
+        <v>638</v>
+      </c>
+      <c r="AB401" t="inlineStr"/>
+      <c r="AC401" t="inlineStr"/>
+      <c r="AD401" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD401"/>
+  <dimension ref="A1:AD418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40585,6 +40585,1706 @@
       <c r="AC401" t="inlineStr"/>
       <c r="AD401" t="inlineStr"/>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>121850</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>2350</v>
+      </c>
+      <c r="C402" t="n">
+        <v>3055</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2310</v>
+      </c>
+      <c r="E402" t="n">
+        <v>3055</v>
+      </c>
+      <c r="F402" t="n">
+        <v>16722976</v>
+      </c>
+      <c r="G402" t="n">
+        <v>46434017545</v>
+      </c>
+      <c r="H402" t="n">
+        <v>30</v>
+      </c>
+      <c r="I402" t="n">
+        <v>464</v>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>코이즈</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O402" t="n">
+        <v>227</v>
+      </c>
+      <c r="P402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
+      <c r="S402" t="n">
+        <v>0</v>
+      </c>
+      <c r="T402" t="n">
+        <v>0</v>
+      </c>
+      <c r="U402" t="n">
+        <v>113</v>
+      </c>
+      <c r="V402" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W402" t="n">
+        <v>113</v>
+      </c>
+      <c r="X402" t="n">
+        <v>102</v>
+      </c>
+      <c r="Y402" t="n">
+        <v>96</v>
+      </c>
+      <c r="Z402" t="n">
+        <v>79</v>
+      </c>
+      <c r="AA402" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB402" t="inlineStr"/>
+      <c r="AC402" t="inlineStr"/>
+      <c r="AD402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>227950</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>614</v>
+      </c>
+      <c r="C403" t="n">
+        <v>791</v>
+      </c>
+      <c r="D403" t="n">
+        <v>598</v>
+      </c>
+      <c r="E403" t="n">
+        <v>791</v>
+      </c>
+      <c r="F403" t="n">
+        <v>11157219</v>
+      </c>
+      <c r="G403" t="n">
+        <v>8242548039</v>
+      </c>
+      <c r="H403" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="I403" t="n">
+        <v>82</v>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>엔투텍</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O403" t="n">
+        <v>975</v>
+      </c>
+      <c r="P403" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R403" t="n">
+        <v>38</v>
+      </c>
+      <c r="S403" t="n">
+        <v>0</v>
+      </c>
+      <c r="T403" t="n">
+        <v>0</v>
+      </c>
+      <c r="U403" t="n">
+        <v>519</v>
+      </c>
+      <c r="V403" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W403" t="n">
+        <v>519</v>
+      </c>
+      <c r="X403" t="n">
+        <v>467</v>
+      </c>
+      <c r="Y403" t="n">
+        <v>441</v>
+      </c>
+      <c r="Z403" t="n">
+        <v>363</v>
+      </c>
+      <c r="AA403" t="n">
+        <v>259</v>
+      </c>
+      <c r="AB403" t="inlineStr"/>
+      <c r="AC403" t="inlineStr"/>
+      <c r="AD403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>073570</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>13390</v>
+      </c>
+      <c r="C404" t="n">
+        <v>16880</v>
+      </c>
+      <c r="D404" t="n">
+        <v>13350</v>
+      </c>
+      <c r="E404" t="n">
+        <v>16420</v>
+      </c>
+      <c r="F404" t="n">
+        <v>10292200</v>
+      </c>
+      <c r="G404" t="n">
+        <v>162737420840</v>
+      </c>
+      <c r="H404" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="I404" t="n">
+        <v>1627</v>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>어반리튬</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>그외 기타 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O404" t="n">
+        <v>1960</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
+      <c r="S404" t="n">
+        <v>0</v>
+      </c>
+      <c r="T404" t="n">
+        <v>0</v>
+      </c>
+      <c r="U404" t="n">
+        <v>996</v>
+      </c>
+      <c r="V404" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W404" t="n">
+        <v>996</v>
+      </c>
+      <c r="X404" t="n">
+        <v>897</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>847</v>
+      </c>
+      <c r="Z404" t="n">
+        <v>697</v>
+      </c>
+      <c r="AA404" t="n">
+        <v>498</v>
+      </c>
+      <c r="AB404" t="inlineStr"/>
+      <c r="AC404" t="inlineStr"/>
+      <c r="AD404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>270520</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>5750</v>
+      </c>
+      <c r="C405" t="n">
+        <v>7340</v>
+      </c>
+      <c r="D405" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E405" t="n">
+        <v>6810</v>
+      </c>
+      <c r="F405" t="n">
+        <v>45784357</v>
+      </c>
+      <c r="G405" t="n">
+        <v>304664552410</v>
+      </c>
+      <c r="H405" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="I405" t="n">
+        <v>3046</v>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>지엔원에너지</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>건축기술, 엔지니어링 및 관련 기술 서비스업</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O405" t="n">
+        <v>940</v>
+      </c>
+      <c r="P405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
+      <c r="S405" t="n">
+        <v>0</v>
+      </c>
+      <c r="T405" t="n">
+        <v>0</v>
+      </c>
+      <c r="U405" t="n">
+        <v>481</v>
+      </c>
+      <c r="V405" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W405" t="n">
+        <v>481</v>
+      </c>
+      <c r="X405" t="n">
+        <v>433</v>
+      </c>
+      <c r="Y405" t="n">
+        <v>409</v>
+      </c>
+      <c r="Z405" t="n">
+        <v>337</v>
+      </c>
+      <c r="AA405" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB405" t="inlineStr"/>
+      <c r="AC405" t="inlineStr"/>
+      <c r="AD405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>45050</v>
+      </c>
+      <c r="C406" t="n">
+        <v>55400</v>
+      </c>
+      <c r="D406" t="n">
+        <v>44250</v>
+      </c>
+      <c r="E406" t="n">
+        <v>53100</v>
+      </c>
+      <c r="F406" t="n">
+        <v>12747605</v>
+      </c>
+      <c r="G406" t="n">
+        <v>657963204550</v>
+      </c>
+      <c r="H406" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="I406" t="n">
+        <v>6579</v>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O406" t="n">
+        <v>2530</v>
+      </c>
+      <c r="P406" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="R406" t="n">
+        <v>295</v>
+      </c>
+      <c r="S406" t="n">
+        <v>0</v>
+      </c>
+      <c r="T406" t="n">
+        <v>0</v>
+      </c>
+      <c r="U406" t="n">
+        <v>1510</v>
+      </c>
+      <c r="V406" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W406" t="n">
+        <v>1510</v>
+      </c>
+      <c r="X406" t="n">
+        <v>1359</v>
+      </c>
+      <c r="Y406" t="n">
+        <v>1284</v>
+      </c>
+      <c r="Z406" t="n">
+        <v>1057</v>
+      </c>
+      <c r="AA406" t="n">
+        <v>755</v>
+      </c>
+      <c r="AB406" t="inlineStr"/>
+      <c r="AC406" t="inlineStr"/>
+      <c r="AD406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>003560</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>258</v>
+      </c>
+      <c r="C407" t="n">
+        <v>303</v>
+      </c>
+      <c r="D407" t="n">
+        <v>251</v>
+      </c>
+      <c r="E407" t="n">
+        <v>290</v>
+      </c>
+      <c r="F407" t="n">
+        <v>17684761</v>
+      </c>
+      <c r="G407" t="n">
+        <v>5026083638</v>
+      </c>
+      <c r="H407" t="n">
+        <v>16</v>
+      </c>
+      <c r="I407" t="n">
+        <v>50</v>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>IHQ</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O407" t="n">
+        <v>800</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
+      <c r="S407" t="n">
+        <v>0</v>
+      </c>
+      <c r="T407" t="n">
+        <v>0</v>
+      </c>
+      <c r="U407" t="n">
+        <v>400</v>
+      </c>
+      <c r="V407" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W407" t="n">
+        <v>400</v>
+      </c>
+      <c r="X407" t="n">
+        <v>360</v>
+      </c>
+      <c r="Y407" t="n">
+        <v>340</v>
+      </c>
+      <c r="Z407" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA407" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB407" t="inlineStr"/>
+      <c r="AC407" t="inlineStr"/>
+      <c r="AD407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>121850</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>2350</v>
+      </c>
+      <c r="C408" t="n">
+        <v>3055</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2310</v>
+      </c>
+      <c r="E408" t="n">
+        <v>3055</v>
+      </c>
+      <c r="F408" t="n">
+        <v>16722976</v>
+      </c>
+      <c r="G408" t="n">
+        <v>46434017545</v>
+      </c>
+      <c r="H408" t="n">
+        <v>30</v>
+      </c>
+      <c r="I408" t="n">
+        <v>464</v>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>코이즈</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O408" t="n">
+        <v>227</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
+      <c r="S408" t="n">
+        <v>0</v>
+      </c>
+      <c r="T408" t="n">
+        <v>0</v>
+      </c>
+      <c r="U408" t="n">
+        <v>113</v>
+      </c>
+      <c r="V408" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W408" t="n">
+        <v>113</v>
+      </c>
+      <c r="X408" t="n">
+        <v>102</v>
+      </c>
+      <c r="Y408" t="n">
+        <v>96</v>
+      </c>
+      <c r="Z408" t="n">
+        <v>79</v>
+      </c>
+      <c r="AA408" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB408" t="inlineStr"/>
+      <c r="AC408" t="inlineStr"/>
+      <c r="AD408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>101670</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>25100</v>
+      </c>
+      <c r="C409" t="n">
+        <v>31000</v>
+      </c>
+      <c r="D409" t="n">
+        <v>25050</v>
+      </c>
+      <c r="E409" t="n">
+        <v>31000</v>
+      </c>
+      <c r="F409" t="n">
+        <v>8250294</v>
+      </c>
+      <c r="G409" t="n">
+        <v>242045435100</v>
+      </c>
+      <c r="H409" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="I409" t="n">
+        <v>2420</v>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>하이드로리튬</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>구조용 금속제품, 탱크 및 증기발생기 제조업</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O409" t="n">
+        <v>1470</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
+      <c r="S409" t="n">
+        <v>0</v>
+      </c>
+      <c r="T409" t="n">
+        <v>0</v>
+      </c>
+      <c r="U409" t="n">
+        <v>735</v>
+      </c>
+      <c r="V409" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W409" t="n">
+        <v>735</v>
+      </c>
+      <c r="X409" t="n">
+        <v>661</v>
+      </c>
+      <c r="Y409" t="n">
+        <v>624</v>
+      </c>
+      <c r="Z409" t="n">
+        <v>514</v>
+      </c>
+      <c r="AA409" t="n">
+        <v>367</v>
+      </c>
+      <c r="AB409" t="inlineStr"/>
+      <c r="AC409" t="inlineStr"/>
+      <c r="AD409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>318000</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>7650</v>
+      </c>
+      <c r="C410" t="n">
+        <v>9650</v>
+      </c>
+      <c r="D410" t="n">
+        <v>7420</v>
+      </c>
+      <c r="E410" t="n">
+        <v>9650</v>
+      </c>
+      <c r="F410" t="n">
+        <v>9437391</v>
+      </c>
+      <c r="G410" t="n">
+        <v>83145483820</v>
+      </c>
+      <c r="H410" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="I410" t="n">
+        <v>831</v>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>KBG</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>합성고무 및 플라스틱 물질 제조업</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O410" t="n">
+        <v>3904</v>
+      </c>
+      <c r="P410" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R410" t="n">
+        <v>494</v>
+      </c>
+      <c r="S410" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T410" t="n">
+        <v>100</v>
+      </c>
+      <c r="U410" t="n">
+        <v>3008</v>
+      </c>
+      <c r="V410" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W410" t="n">
+        <v>3008</v>
+      </c>
+      <c r="X410" t="n">
+        <v>2707</v>
+      </c>
+      <c r="Y410" t="n">
+        <v>2557</v>
+      </c>
+      <c r="Z410" t="n">
+        <v>2106</v>
+      </c>
+      <c r="AA410" t="n">
+        <v>1504</v>
+      </c>
+      <c r="AB410" t="inlineStr"/>
+      <c r="AC410" t="inlineStr"/>
+      <c r="AD410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>294140</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>5660</v>
+      </c>
+      <c r="C411" t="n">
+        <v>6110</v>
+      </c>
+      <c r="D411" t="n">
+        <v>5410</v>
+      </c>
+      <c r="E411" t="n">
+        <v>6110</v>
+      </c>
+      <c r="F411" t="n">
+        <v>9263367</v>
+      </c>
+      <c r="G411" t="n">
+        <v>54921555750</v>
+      </c>
+      <c r="H411" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="I411" t="n">
+        <v>549</v>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>레몬</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>화학섬유 제조업</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O411" t="n">
+        <v>761</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
+      <c r="S411" t="n">
+        <v>0</v>
+      </c>
+      <c r="T411" t="n">
+        <v>0</v>
+      </c>
+      <c r="U411" t="n">
+        <v>993</v>
+      </c>
+      <c r="V411" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W411" t="n">
+        <v>993</v>
+      </c>
+      <c r="X411" t="n">
+        <v>894</v>
+      </c>
+      <c r="Y411" t="n">
+        <v>844</v>
+      </c>
+      <c r="Z411" t="n">
+        <v>695</v>
+      </c>
+      <c r="AA411" t="n">
+        <v>496</v>
+      </c>
+      <c r="AB411" t="inlineStr"/>
+      <c r="AC411" t="inlineStr"/>
+      <c r="AD411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>001390</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>25800</v>
+      </c>
+      <c r="C412" t="n">
+        <v>33300</v>
+      </c>
+      <c r="D412" t="n">
+        <v>25650</v>
+      </c>
+      <c r="E412" t="n">
+        <v>33300</v>
+      </c>
+      <c r="F412" t="n">
+        <v>3990370</v>
+      </c>
+      <c r="G412" t="n">
+        <v>124357996700</v>
+      </c>
+      <c r="H412" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="I412" t="n">
+        <v>1243</v>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>KG케미칼</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O412" t="n">
+        <v>34343</v>
+      </c>
+      <c r="P412" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R412" t="n">
+        <v>5749</v>
+      </c>
+      <c r="S412" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T412" t="n">
+        <v>500</v>
+      </c>
+      <c r="U412" t="n">
+        <v>33968</v>
+      </c>
+      <c r="V412" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W412" t="n">
+        <v>33968</v>
+      </c>
+      <c r="X412" t="n">
+        <v>30571</v>
+      </c>
+      <c r="Y412" t="n">
+        <v>28872</v>
+      </c>
+      <c r="Z412" t="n">
+        <v>23777</v>
+      </c>
+      <c r="AA412" t="n">
+        <v>16984</v>
+      </c>
+      <c r="AB412" t="inlineStr"/>
+      <c r="AC412" t="inlineStr"/>
+      <c r="AD412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>073570</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>13390</v>
+      </c>
+      <c r="C413" t="n">
+        <v>16880</v>
+      </c>
+      <c r="D413" t="n">
+        <v>13350</v>
+      </c>
+      <c r="E413" t="n">
+        <v>16420</v>
+      </c>
+      <c r="F413" t="n">
+        <v>10292200</v>
+      </c>
+      <c r="G413" t="n">
+        <v>162737420840</v>
+      </c>
+      <c r="H413" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="I413" t="n">
+        <v>1627</v>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>어반리튬</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>그외 기타 제품 제조업</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O413" t="n">
+        <v>1960</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
+      <c r="S413" t="n">
+        <v>0</v>
+      </c>
+      <c r="T413" t="n">
+        <v>0</v>
+      </c>
+      <c r="U413" t="n">
+        <v>996</v>
+      </c>
+      <c r="V413" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W413" t="n">
+        <v>996</v>
+      </c>
+      <c r="X413" t="n">
+        <v>897</v>
+      </c>
+      <c r="Y413" t="n">
+        <v>847</v>
+      </c>
+      <c r="Z413" t="n">
+        <v>697</v>
+      </c>
+      <c r="AA413" t="n">
+        <v>498</v>
+      </c>
+      <c r="AB413" t="inlineStr"/>
+      <c r="AC413" t="inlineStr"/>
+      <c r="AD413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>417010</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>25250</v>
+      </c>
+      <c r="C414" t="n">
+        <v>31300</v>
+      </c>
+      <c r="D414" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E414" t="n">
+        <v>30900</v>
+      </c>
+      <c r="F414" t="n">
+        <v>9247001</v>
+      </c>
+      <c r="G414" t="n">
+        <v>267108510050</v>
+      </c>
+      <c r="H414" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="I414" t="n">
+        <v>2671</v>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>나노팀</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>일반 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O414" t="n">
+        <v>649</v>
+      </c>
+      <c r="P414" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="R414" t="n">
+        <v>182</v>
+      </c>
+      <c r="S414" t="n">
+        <v>0</v>
+      </c>
+      <c r="T414" t="n">
+        <v>0</v>
+      </c>
+      <c r="U414" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V414" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W414" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X414" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y414" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z414" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA414" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB414" t="inlineStr"/>
+      <c r="AC414" t="inlineStr"/>
+      <c r="AD414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>270520</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>5750</v>
+      </c>
+      <c r="C415" t="n">
+        <v>7340</v>
+      </c>
+      <c r="D415" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E415" t="n">
+        <v>6810</v>
+      </c>
+      <c r="F415" t="n">
+        <v>45784357</v>
+      </c>
+      <c r="G415" t="n">
+        <v>304664552410</v>
+      </c>
+      <c r="H415" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="I415" t="n">
+        <v>3046</v>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>지엔원에너지</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>건축기술, 엔지니어링 및 관련 기술 서비스업</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O415" t="n">
+        <v>940</v>
+      </c>
+      <c r="P415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
+      <c r="S415" t="n">
+        <v>0</v>
+      </c>
+      <c r="T415" t="n">
+        <v>0</v>
+      </c>
+      <c r="U415" t="n">
+        <v>481</v>
+      </c>
+      <c r="V415" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W415" t="n">
+        <v>481</v>
+      </c>
+      <c r="X415" t="n">
+        <v>433</v>
+      </c>
+      <c r="Y415" t="n">
+        <v>409</v>
+      </c>
+      <c r="Z415" t="n">
+        <v>337</v>
+      </c>
+      <c r="AA415" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB415" t="inlineStr"/>
+      <c r="AC415" t="inlineStr"/>
+      <c r="AD415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>320000</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>4890</v>
+      </c>
+      <c r="C416" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D416" t="n">
+        <v>4870</v>
+      </c>
+      <c r="E416" t="n">
+        <v>5540</v>
+      </c>
+      <c r="F416" t="n">
+        <v>6999041</v>
+      </c>
+      <c r="G416" t="n">
+        <v>38788839305</v>
+      </c>
+      <c r="H416" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="I416" t="n">
+        <v>387</v>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>윈텍</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O416" t="n">
+        <v>1141</v>
+      </c>
+      <c r="P416" t="n">
+        <v>153.88</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="R416" t="n">
+        <v>36</v>
+      </c>
+      <c r="S416" t="n">
+        <v>0</v>
+      </c>
+      <c r="T416" t="n">
+        <v>0</v>
+      </c>
+      <c r="U416" t="n">
+        <v>600</v>
+      </c>
+      <c r="V416" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W416" t="n">
+        <v>600</v>
+      </c>
+      <c r="X416" t="n">
+        <v>540</v>
+      </c>
+      <c r="Y416" t="n">
+        <v>510</v>
+      </c>
+      <c r="Z416" t="n">
+        <v>420</v>
+      </c>
+      <c r="AA416" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB416" t="inlineStr"/>
+      <c r="AC416" t="inlineStr"/>
+      <c r="AD416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>45050</v>
+      </c>
+      <c r="C417" t="n">
+        <v>55400</v>
+      </c>
+      <c r="D417" t="n">
+        <v>44250</v>
+      </c>
+      <c r="E417" t="n">
+        <v>53100</v>
+      </c>
+      <c r="F417" t="n">
+        <v>12747605</v>
+      </c>
+      <c r="G417" t="n">
+        <v>657963204550</v>
+      </c>
+      <c r="H417" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="I417" t="n">
+        <v>6579</v>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>금양</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O417" t="n">
+        <v>2530</v>
+      </c>
+      <c r="P417" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="R417" t="n">
+        <v>295</v>
+      </c>
+      <c r="S417" t="n">
+        <v>0</v>
+      </c>
+      <c r="T417" t="n">
+        <v>0</v>
+      </c>
+      <c r="U417" t="n">
+        <v>1510</v>
+      </c>
+      <c r="V417" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W417" t="n">
+        <v>1510</v>
+      </c>
+      <c r="X417" t="n">
+        <v>1359</v>
+      </c>
+      <c r="Y417" t="n">
+        <v>1284</v>
+      </c>
+      <c r="Z417" t="n">
+        <v>1057</v>
+      </c>
+      <c r="AA417" t="n">
+        <v>755</v>
+      </c>
+      <c r="AB417" t="inlineStr"/>
+      <c r="AC417" t="inlineStr"/>
+      <c r="AD417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>041510</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>147200</v>
+      </c>
+      <c r="C418" t="n">
+        <v>149700</v>
+      </c>
+      <c r="D418" t="n">
+        <v>146500</v>
+      </c>
+      <c r="E418" t="n">
+        <v>149700</v>
+      </c>
+      <c r="F418" t="n">
+        <v>3600470</v>
+      </c>
+      <c r="G418" t="n">
+        <v>531782521000</v>
+      </c>
+      <c r="H418" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="I418" t="n">
+        <v>5317</v>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>2023/03/07</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>에스엠</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>오디오물 출판 및 원판 녹음업</t>
+        </is>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O418" t="n">
+        <v>26333</v>
+      </c>
+      <c r="P418" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="R418" t="n">
+        <v>5750</v>
+      </c>
+      <c r="S418" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T418" t="n">
+        <v>200</v>
+      </c>
+      <c r="U418" t="n">
+        <v>17958</v>
+      </c>
+      <c r="V418" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W418" t="n">
+        <v>17958</v>
+      </c>
+      <c r="X418" t="n">
+        <v>16162</v>
+      </c>
+      <c r="Y418" t="n">
+        <v>15264</v>
+      </c>
+      <c r="Z418" t="n">
+        <v>12570</v>
+      </c>
+      <c r="AA418" t="n">
+        <v>8979</v>
+      </c>
+      <c r="AB418" t="inlineStr"/>
+      <c r="AC418" t="inlineStr"/>
+      <c r="AD418" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD418"/>
+  <dimension ref="A1:AD432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42285,6 +42285,1406 @@
       <c r="AC418" t="inlineStr"/>
       <c r="AD418" t="inlineStr"/>
     </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>294140</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>6590</v>
+      </c>
+      <c r="C419" t="n">
+        <v>7940</v>
+      </c>
+      <c r="D419" t="n">
+        <v>6350</v>
+      </c>
+      <c r="E419" t="n">
+        <v>7940</v>
+      </c>
+      <c r="F419" t="n">
+        <v>30046969</v>
+      </c>
+      <c r="G419" t="n">
+        <v>217744315080</v>
+      </c>
+      <c r="H419" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="I419" t="n">
+        <v>2177</v>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>레몬</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>화학섬유 제조업</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O419" t="n">
+        <v>761</v>
+      </c>
+      <c r="P419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="R419" t="n">
+        <v>0</v>
+      </c>
+      <c r="S419" t="n">
+        <v>0</v>
+      </c>
+      <c r="T419" t="n">
+        <v>0</v>
+      </c>
+      <c r="U419" t="n">
+        <v>993</v>
+      </c>
+      <c r="V419" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W419" t="n">
+        <v>993</v>
+      </c>
+      <c r="X419" t="n">
+        <v>894</v>
+      </c>
+      <c r="Y419" t="n">
+        <v>844</v>
+      </c>
+      <c r="Z419" t="n">
+        <v>695</v>
+      </c>
+      <c r="AA419" t="n">
+        <v>496</v>
+      </c>
+      <c r="AB419" t="inlineStr"/>
+      <c r="AC419" t="inlineStr"/>
+      <c r="AD419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>095500</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>27300</v>
+      </c>
+      <c r="C420" t="n">
+        <v>31250</v>
+      </c>
+      <c r="D420" t="n">
+        <v>26600</v>
+      </c>
+      <c r="E420" t="n">
+        <v>30150</v>
+      </c>
+      <c r="F420" t="n">
+        <v>23092088</v>
+      </c>
+      <c r="G420" t="n">
+        <v>679331448000</v>
+      </c>
+      <c r="H420" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="I420" t="n">
+        <v>6793</v>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>미래나노텍</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O420" t="n">
+        <v>8392</v>
+      </c>
+      <c r="P420" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="R420" t="n">
+        <v>940</v>
+      </c>
+      <c r="S420" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T420" t="n">
+        <v>100</v>
+      </c>
+      <c r="U420" t="n">
+        <v>6809</v>
+      </c>
+      <c r="V420" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W420" t="n">
+        <v>6809</v>
+      </c>
+      <c r="X420" t="n">
+        <v>6128</v>
+      </c>
+      <c r="Y420" t="n">
+        <v>5787</v>
+      </c>
+      <c r="Z420" t="n">
+        <v>4766</v>
+      </c>
+      <c r="AA420" t="n">
+        <v>3404</v>
+      </c>
+      <c r="AB420" t="inlineStr"/>
+      <c r="AC420" t="inlineStr"/>
+      <c r="AD420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>060230</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>4630</v>
+      </c>
+      <c r="C421" t="n">
+        <v>6190</v>
+      </c>
+      <c r="D421" t="n">
+        <v>4620</v>
+      </c>
+      <c r="E421" t="n">
+        <v>5850</v>
+      </c>
+      <c r="F421" t="n">
+        <v>48423869</v>
+      </c>
+      <c r="G421" t="n">
+        <v>281637970505</v>
+      </c>
+      <c r="H421" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="I421" t="n">
+        <v>2816</v>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>소니드</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O421" t="n">
+        <v>4074</v>
+      </c>
+      <c r="P421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
+      <c r="S421" t="n">
+        <v>0</v>
+      </c>
+      <c r="T421" t="n">
+        <v>0</v>
+      </c>
+      <c r="U421" t="n">
+        <v>2037</v>
+      </c>
+      <c r="V421" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W421" t="n">
+        <v>2037</v>
+      </c>
+      <c r="X421" t="n">
+        <v>1833</v>
+      </c>
+      <c r="Y421" t="n">
+        <v>1731</v>
+      </c>
+      <c r="Z421" t="n">
+        <v>1425</v>
+      </c>
+      <c r="AA421" t="n">
+        <v>1018</v>
+      </c>
+      <c r="AB421" t="inlineStr"/>
+      <c r="AC421" t="inlineStr"/>
+      <c r="AD421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>050090</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>330</v>
+      </c>
+      <c r="C422" t="n">
+        <v>415</v>
+      </c>
+      <c r="D422" t="n">
+        <v>327</v>
+      </c>
+      <c r="E422" t="n">
+        <v>392</v>
+      </c>
+      <c r="F422" t="n">
+        <v>26804005</v>
+      </c>
+      <c r="G422" t="n">
+        <v>10539637873</v>
+      </c>
+      <c r="H422" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="I422" t="n">
+        <v>105</v>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>비케이홀딩스</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>전자부품 제조업</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O422" t="n">
+        <v>318</v>
+      </c>
+      <c r="P422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
+      <c r="S422" t="n">
+        <v>0</v>
+      </c>
+      <c r="T422" t="n">
+        <v>0</v>
+      </c>
+      <c r="U422" t="n">
+        <v>159</v>
+      </c>
+      <c r="V422" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W422" t="n">
+        <v>159</v>
+      </c>
+      <c r="X422" t="n">
+        <v>143</v>
+      </c>
+      <c r="Y422" t="n">
+        <v>135</v>
+      </c>
+      <c r="Z422" t="n">
+        <v>111</v>
+      </c>
+      <c r="AA422" t="n">
+        <v>79</v>
+      </c>
+      <c r="AB422" t="inlineStr"/>
+      <c r="AC422" t="inlineStr"/>
+      <c r="AD422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>407400</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>23550</v>
+      </c>
+      <c r="C423" t="n">
+        <v>30450</v>
+      </c>
+      <c r="D423" t="n">
+        <v>23100</v>
+      </c>
+      <c r="E423" t="n">
+        <v>29050</v>
+      </c>
+      <c r="F423" t="n">
+        <v>10097473</v>
+      </c>
+      <c r="G423" t="n">
+        <v>283820800750</v>
+      </c>
+      <c r="H423" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="I423" t="n">
+        <v>2838</v>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>꿈비</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>가구 제조업</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O423" t="n">
+        <v>883</v>
+      </c>
+      <c r="P423" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>32.91</v>
+      </c>
+      <c r="R423" t="n">
+        <v>289</v>
+      </c>
+      <c r="S423" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T423" t="n">
+        <v>24</v>
+      </c>
+      <c r="U423" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V423" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W423" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X423" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y423" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z423" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA423" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB423" t="inlineStr"/>
+      <c r="AC423" t="inlineStr"/>
+      <c r="AD423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>217480</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>613</v>
+      </c>
+      <c r="C424" t="n">
+        <v>745</v>
+      </c>
+      <c r="D424" t="n">
+        <v>606</v>
+      </c>
+      <c r="E424" t="n">
+        <v>714</v>
+      </c>
+      <c r="F424" t="n">
+        <v>39860858</v>
+      </c>
+      <c r="G424" t="n">
+        <v>27627534946</v>
+      </c>
+      <c r="H424" t="n">
+        <v>20</v>
+      </c>
+      <c r="I424" t="n">
+        <v>276</v>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>에스디생명공학</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O424" t="n">
+        <v>1720</v>
+      </c>
+      <c r="P424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
+      <c r="S424" t="n">
+        <v>0</v>
+      </c>
+      <c r="T424" t="n">
+        <v>0</v>
+      </c>
+      <c r="U424" t="n">
+        <v>860</v>
+      </c>
+      <c r="V424" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W424" t="n">
+        <v>860</v>
+      </c>
+      <c r="X424" t="n">
+        <v>774</v>
+      </c>
+      <c r="Y424" t="n">
+        <v>731</v>
+      </c>
+      <c r="Z424" t="n">
+        <v>602</v>
+      </c>
+      <c r="AA424" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB424" t="inlineStr"/>
+      <c r="AC424" t="inlineStr"/>
+      <c r="AD424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>040300</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>8440</v>
+      </c>
+      <c r="C425" t="n">
+        <v>10500</v>
+      </c>
+      <c r="D425" t="n">
+        <v>7890</v>
+      </c>
+      <c r="E425" t="n">
+        <v>9390</v>
+      </c>
+      <c r="F425" t="n">
+        <v>13533663</v>
+      </c>
+      <c r="G425" t="n">
+        <v>128612889700</v>
+      </c>
+      <c r="H425" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="I425" t="n">
+        <v>1286</v>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>YTN</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O425" t="n">
+        <v>5759</v>
+      </c>
+      <c r="P425" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R425" t="n">
+        <v>1228</v>
+      </c>
+      <c r="S425" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T425" t="n">
+        <v>50</v>
+      </c>
+      <c r="U425" t="n">
+        <v>4212</v>
+      </c>
+      <c r="V425" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W425" t="n">
+        <v>4212</v>
+      </c>
+      <c r="X425" t="n">
+        <v>3791</v>
+      </c>
+      <c r="Y425" t="n">
+        <v>3580</v>
+      </c>
+      <c r="Z425" t="n">
+        <v>2948</v>
+      </c>
+      <c r="AA425" t="n">
+        <v>2106</v>
+      </c>
+      <c r="AB425" t="inlineStr"/>
+      <c r="AC425" t="inlineStr"/>
+      <c r="AD425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>294140</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>6590</v>
+      </c>
+      <c r="C426" t="n">
+        <v>7940</v>
+      </c>
+      <c r="D426" t="n">
+        <v>6350</v>
+      </c>
+      <c r="E426" t="n">
+        <v>7940</v>
+      </c>
+      <c r="F426" t="n">
+        <v>30046969</v>
+      </c>
+      <c r="G426" t="n">
+        <v>217744315080</v>
+      </c>
+      <c r="H426" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="I426" t="n">
+        <v>2177</v>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>레몬</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>화학섬유 제조업</t>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O426" t="n">
+        <v>761</v>
+      </c>
+      <c r="P426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
+      <c r="S426" t="n">
+        <v>0</v>
+      </c>
+      <c r="T426" t="n">
+        <v>0</v>
+      </c>
+      <c r="U426" t="n">
+        <v>993</v>
+      </c>
+      <c r="V426" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W426" t="n">
+        <v>993</v>
+      </c>
+      <c r="X426" t="n">
+        <v>894</v>
+      </c>
+      <c r="Y426" t="n">
+        <v>844</v>
+      </c>
+      <c r="Z426" t="n">
+        <v>695</v>
+      </c>
+      <c r="AA426" t="n">
+        <v>496</v>
+      </c>
+      <c r="AB426" t="inlineStr"/>
+      <c r="AC426" t="inlineStr"/>
+      <c r="AD426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>98200</v>
+      </c>
+      <c r="C427" t="n">
+        <v>111600</v>
+      </c>
+      <c r="D427" t="n">
+        <v>97500</v>
+      </c>
+      <c r="E427" t="n">
+        <v>111600</v>
+      </c>
+      <c r="F427" t="n">
+        <v>688648</v>
+      </c>
+      <c r="G427" t="n">
+        <v>73651583000</v>
+      </c>
+      <c r="H427" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="I427" t="n">
+        <v>736</v>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>경동인베스트</t>
+        </is>
+      </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>기타 금융업</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O427" t="n">
+        <v>197979</v>
+      </c>
+      <c r="P427" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="R427" t="n">
+        <v>6714</v>
+      </c>
+      <c r="S427" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="T427" t="n">
+        <v>750</v>
+      </c>
+      <c r="U427" t="n">
+        <v>119517</v>
+      </c>
+      <c r="V427" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W427" t="n">
+        <v>119517</v>
+      </c>
+      <c r="X427" t="n">
+        <v>107565</v>
+      </c>
+      <c r="Y427" t="n">
+        <v>101589</v>
+      </c>
+      <c r="Z427" t="n">
+        <v>83661</v>
+      </c>
+      <c r="AA427" t="n">
+        <v>59758</v>
+      </c>
+      <c r="AB427" t="inlineStr"/>
+      <c r="AC427" t="inlineStr"/>
+      <c r="AD427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>095500</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>27300</v>
+      </c>
+      <c r="C428" t="n">
+        <v>31250</v>
+      </c>
+      <c r="D428" t="n">
+        <v>26600</v>
+      </c>
+      <c r="E428" t="n">
+        <v>30150</v>
+      </c>
+      <c r="F428" t="n">
+        <v>23092088</v>
+      </c>
+      <c r="G428" t="n">
+        <v>679331448000</v>
+      </c>
+      <c r="H428" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="I428" t="n">
+        <v>6793</v>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>미래나노텍</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>플라스틱제품 제조업</t>
+        </is>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O428" t="n">
+        <v>8392</v>
+      </c>
+      <c r="P428" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="R428" t="n">
+        <v>940</v>
+      </c>
+      <c r="S428" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T428" t="n">
+        <v>100</v>
+      </c>
+      <c r="U428" t="n">
+        <v>6809</v>
+      </c>
+      <c r="V428" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W428" t="n">
+        <v>6809</v>
+      </c>
+      <c r="X428" t="n">
+        <v>6128</v>
+      </c>
+      <c r="Y428" t="n">
+        <v>5787</v>
+      </c>
+      <c r="Z428" t="n">
+        <v>4766</v>
+      </c>
+      <c r="AA428" t="n">
+        <v>3404</v>
+      </c>
+      <c r="AB428" t="inlineStr"/>
+      <c r="AC428" t="inlineStr"/>
+      <c r="AD428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>060230</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>4630</v>
+      </c>
+      <c r="C429" t="n">
+        <v>6190</v>
+      </c>
+      <c r="D429" t="n">
+        <v>4620</v>
+      </c>
+      <c r="E429" t="n">
+        <v>5850</v>
+      </c>
+      <c r="F429" t="n">
+        <v>48423869</v>
+      </c>
+      <c r="G429" t="n">
+        <v>281637970505</v>
+      </c>
+      <c r="H429" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="I429" t="n">
+        <v>2816</v>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>소니드</t>
+        </is>
+      </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>기타 화학제품 제조업</t>
+        </is>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O429" t="n">
+        <v>4074</v>
+      </c>
+      <c r="P429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
+      <c r="S429" t="n">
+        <v>0</v>
+      </c>
+      <c r="T429" t="n">
+        <v>0</v>
+      </c>
+      <c r="U429" t="n">
+        <v>2037</v>
+      </c>
+      <c r="V429" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W429" t="n">
+        <v>2037</v>
+      </c>
+      <c r="X429" t="n">
+        <v>1833</v>
+      </c>
+      <c r="Y429" t="n">
+        <v>1731</v>
+      </c>
+      <c r="Z429" t="n">
+        <v>1425</v>
+      </c>
+      <c r="AA429" t="n">
+        <v>1018</v>
+      </c>
+      <c r="AB429" t="inlineStr"/>
+      <c r="AC429" t="inlineStr"/>
+      <c r="AD429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>407400</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>23550</v>
+      </c>
+      <c r="C430" t="n">
+        <v>30450</v>
+      </c>
+      <c r="D430" t="n">
+        <v>23100</v>
+      </c>
+      <c r="E430" t="n">
+        <v>29050</v>
+      </c>
+      <c r="F430" t="n">
+        <v>10097473</v>
+      </c>
+      <c r="G430" t="n">
+        <v>283820800750</v>
+      </c>
+      <c r="H430" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="I430" t="n">
+        <v>2838</v>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>꿈비</t>
+        </is>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>가구 제조업</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O430" t="n">
+        <v>883</v>
+      </c>
+      <c r="P430" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>32.91</v>
+      </c>
+      <c r="R430" t="n">
+        <v>289</v>
+      </c>
+      <c r="S430" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T430" t="n">
+        <v>24</v>
+      </c>
+      <c r="U430" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V430" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W430" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X430" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y430" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z430" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA430" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB430" t="inlineStr"/>
+      <c r="AC430" t="inlineStr"/>
+      <c r="AD430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C431" t="n">
+        <v>54000</v>
+      </c>
+      <c r="D431" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E431" t="n">
+        <v>53000</v>
+      </c>
+      <c r="F431" t="n">
+        <v>9052182</v>
+      </c>
+      <c r="G431" t="n">
+        <v>457431442100</v>
+      </c>
+      <c r="H431" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="I431" t="n">
+        <v>4574</v>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>DB하이텍</t>
+        </is>
+      </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O431" t="n">
+        <v>25449</v>
+      </c>
+      <c r="P431" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R431" t="n">
+        <v>7292</v>
+      </c>
+      <c r="S431" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="T431" t="n">
+        <v>450</v>
+      </c>
+      <c r="U431" t="n">
+        <v>27179</v>
+      </c>
+      <c r="V431" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W431" t="n">
+        <v>27179</v>
+      </c>
+      <c r="X431" t="n">
+        <v>24461</v>
+      </c>
+      <c r="Y431" t="n">
+        <v>23102</v>
+      </c>
+      <c r="Z431" t="n">
+        <v>19025</v>
+      </c>
+      <c r="AA431" t="n">
+        <v>13589</v>
+      </c>
+      <c r="AB431" t="inlineStr"/>
+      <c r="AC431" t="inlineStr"/>
+      <c r="AD431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>040300</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>8440</v>
+      </c>
+      <c r="C432" t="n">
+        <v>10500</v>
+      </c>
+      <c r="D432" t="n">
+        <v>7890</v>
+      </c>
+      <c r="E432" t="n">
+        <v>9390</v>
+      </c>
+      <c r="F432" t="n">
+        <v>13533663</v>
+      </c>
+      <c r="G432" t="n">
+        <v>128612889700</v>
+      </c>
+      <c r="H432" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="I432" t="n">
+        <v>1286</v>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>2023/03/08</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>YTN</t>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>영화, 비디오물, 방송프로그램 제작 및 배급업</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O432" t="n">
+        <v>5759</v>
+      </c>
+      <c r="P432" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R432" t="n">
+        <v>1228</v>
+      </c>
+      <c r="S432" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T432" t="n">
+        <v>50</v>
+      </c>
+      <c r="U432" t="n">
+        <v>4212</v>
+      </c>
+      <c r="V432" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W432" t="n">
+        <v>4212</v>
+      </c>
+      <c r="X432" t="n">
+        <v>3791</v>
+      </c>
+      <c r="Y432" t="n">
+        <v>3580</v>
+      </c>
+      <c r="Z432" t="n">
+        <v>2948</v>
+      </c>
+      <c r="AA432" t="n">
+        <v>2106</v>
+      </c>
+      <c r="AB432" t="inlineStr"/>
+      <c r="AC432" t="inlineStr"/>
+      <c r="AD432" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD432"/>
+  <dimension ref="A1:AD436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43685,6 +43685,406 @@
       <c r="AC432" t="inlineStr"/>
       <c r="AD432" t="inlineStr"/>
     </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>038110</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>3345</v>
+      </c>
+      <c r="C433" t="n">
+        <v>4290</v>
+      </c>
+      <c r="D433" t="n">
+        <v>3255</v>
+      </c>
+      <c r="E433" t="n">
+        <v>4135</v>
+      </c>
+      <c r="F433" t="n">
+        <v>42845946</v>
+      </c>
+      <c r="G433" t="n">
+        <v>163965034945</v>
+      </c>
+      <c r="H433" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="I433" t="n">
+        <v>1639</v>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>2023/03/09</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>에코플라스틱</t>
+        </is>
+      </c>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O433" t="n">
+        <v>3852</v>
+      </c>
+      <c r="P433" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R433" t="n">
+        <v>170</v>
+      </c>
+      <c r="S433" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T433" t="n">
+        <v>50</v>
+      </c>
+      <c r="U433" t="n">
+        <v>2067</v>
+      </c>
+      <c r="V433" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W433" t="n">
+        <v>2067</v>
+      </c>
+      <c r="X433" t="n">
+        <v>1860</v>
+      </c>
+      <c r="Y433" t="n">
+        <v>1757</v>
+      </c>
+      <c r="Z433" t="n">
+        <v>1447</v>
+      </c>
+      <c r="AA433" t="n">
+        <v>1033</v>
+      </c>
+      <c r="AB433" t="inlineStr"/>
+      <c r="AC433" t="inlineStr"/>
+      <c r="AD433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>024900</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>3350</v>
+      </c>
+      <c r="C434" t="n">
+        <v>3445</v>
+      </c>
+      <c r="D434" t="n">
+        <v>3125</v>
+      </c>
+      <c r="E434" t="n">
+        <v>3305</v>
+      </c>
+      <c r="F434" t="n">
+        <v>16414362</v>
+      </c>
+      <c r="G434" t="n">
+        <v>55708935720</v>
+      </c>
+      <c r="H434" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="I434" t="n">
+        <v>557</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>2023/03/09</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>덕양산업</t>
+        </is>
+      </c>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>자동차 신품 부품 제조업</t>
+        </is>
+      </c>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O434" t="n">
+        <v>1711</v>
+      </c>
+      <c r="P434" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R434" t="n">
+        <v>191</v>
+      </c>
+      <c r="S434" t="n">
+        <v>0</v>
+      </c>
+      <c r="T434" t="n">
+        <v>0</v>
+      </c>
+      <c r="U434" t="n">
+        <v>1014</v>
+      </c>
+      <c r="V434" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W434" t="n">
+        <v>1014</v>
+      </c>
+      <c r="X434" t="n">
+        <v>913</v>
+      </c>
+      <c r="Y434" t="n">
+        <v>862</v>
+      </c>
+      <c r="Z434" t="n">
+        <v>710</v>
+      </c>
+      <c r="AA434" t="n">
+        <v>507</v>
+      </c>
+      <c r="AB434" t="inlineStr"/>
+      <c r="AC434" t="inlineStr"/>
+      <c r="AD434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>058610</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>20300</v>
+      </c>
+      <c r="C435" t="n">
+        <v>24150</v>
+      </c>
+      <c r="D435" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E435" t="n">
+        <v>22700</v>
+      </c>
+      <c r="F435" t="n">
+        <v>18769028</v>
+      </c>
+      <c r="G435" t="n">
+        <v>428570161300</v>
+      </c>
+      <c r="H435" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="I435" t="n">
+        <v>4285</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>2023/03/09</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>에스피지</t>
+        </is>
+      </c>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>전동기, 발전기 및 전기 변환 · 공급 · 제어 장치 제조업</t>
+        </is>
+      </c>
+      <c r="N435" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O435" t="n">
+        <v>8886</v>
+      </c>
+      <c r="P435" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R435" t="n">
+        <v>1092</v>
+      </c>
+      <c r="S435" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="T435" t="n">
+        <v>250</v>
+      </c>
+      <c r="U435" t="n">
+        <v>6778</v>
+      </c>
+      <c r="V435" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W435" t="n">
+        <v>6778</v>
+      </c>
+      <c r="X435" t="n">
+        <v>6100</v>
+      </c>
+      <c r="Y435" t="n">
+        <v>5761</v>
+      </c>
+      <c r="Z435" t="n">
+        <v>4744</v>
+      </c>
+      <c r="AA435" t="n">
+        <v>3389</v>
+      </c>
+      <c r="AB435" t="inlineStr"/>
+      <c r="AC435" t="inlineStr"/>
+      <c r="AD435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>093230</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>884</v>
+      </c>
+      <c r="C436" t="n">
+        <v>1090</v>
+      </c>
+      <c r="D436" t="n">
+        <v>884</v>
+      </c>
+      <c r="E436" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F436" t="n">
+        <v>13271157</v>
+      </c>
+      <c r="G436" t="n">
+        <v>13601863452</v>
+      </c>
+      <c r="H436" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="I436" t="n">
+        <v>136</v>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>2023/03/09</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>이아이디</t>
+        </is>
+      </c>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>기타 전문 도매업</t>
+        </is>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O436" t="n">
+        <v>2670</v>
+      </c>
+      <c r="P436" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R436" t="n">
+        <v>60</v>
+      </c>
+      <c r="S436" t="n">
+        <v>0</v>
+      </c>
+      <c r="T436" t="n">
+        <v>0</v>
+      </c>
+      <c r="U436" t="n">
+        <v>1385</v>
+      </c>
+      <c r="V436" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W436" t="n">
+        <v>1385</v>
+      </c>
+      <c r="X436" t="n">
+        <v>1247</v>
+      </c>
+      <c r="Y436" t="n">
+        <v>1177</v>
+      </c>
+      <c r="Z436" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA436" t="n">
+        <v>692</v>
+      </c>
+      <c r="AB436" t="inlineStr"/>
+      <c r="AC436" t="inlineStr"/>
+      <c r="AD436" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD436"/>
+  <dimension ref="A1:AD444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44085,6 +44085,806 @@
       <c r="AC436" t="inlineStr"/>
       <c r="AD436" t="inlineStr"/>
     </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>115500</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C437" t="n">
+        <v>11860</v>
+      </c>
+      <c r="D437" t="n">
+        <v>9780</v>
+      </c>
+      <c r="E437" t="n">
+        <v>11860</v>
+      </c>
+      <c r="F437" t="n">
+        <v>17459153</v>
+      </c>
+      <c r="G437" t="n">
+        <v>191256066710</v>
+      </c>
+      <c r="H437" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="I437" t="n">
+        <v>1912</v>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>2023/03/10</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>케이씨에스</t>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O437" t="n">
+        <v>1715</v>
+      </c>
+      <c r="P437" t="n">
+        <v>53.19</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="R437" t="n">
+        <v>223</v>
+      </c>
+      <c r="S437" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T437" t="n">
+        <v>220</v>
+      </c>
+      <c r="U437" t="n">
+        <v>1526</v>
+      </c>
+      <c r="V437" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W437" t="n">
+        <v>1526</v>
+      </c>
+      <c r="X437" t="n">
+        <v>1374</v>
+      </c>
+      <c r="Y437" t="n">
+        <v>1297</v>
+      </c>
+      <c r="Z437" t="n">
+        <v>1068</v>
+      </c>
+      <c r="AA437" t="n">
+        <v>763</v>
+      </c>
+      <c r="AB437" t="inlineStr"/>
+      <c r="AC437" t="inlineStr"/>
+      <c r="AD437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>114190</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>12440</v>
+      </c>
+      <c r="C438" t="n">
+        <v>16950</v>
+      </c>
+      <c r="D438" t="n">
+        <v>12270</v>
+      </c>
+      <c r="E438" t="n">
+        <v>15800</v>
+      </c>
+      <c r="F438" t="n">
+        <v>17381628</v>
+      </c>
+      <c r="G438" t="n">
+        <v>273425918070</v>
+      </c>
+      <c r="H438" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2734</v>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>2023/03/10</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>강원에너지</t>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>구조용 금속제품, 탱크 및 증기발생기 제조업</t>
+        </is>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O438" t="n">
+        <v>1095</v>
+      </c>
+      <c r="P438" t="n">
+        <v>55.06</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="R438" t="n">
+        <v>287</v>
+      </c>
+      <c r="S438" t="n">
+        <v>0</v>
+      </c>
+      <c r="T438" t="n">
+        <v>0</v>
+      </c>
+      <c r="U438" t="n">
+        <v>786</v>
+      </c>
+      <c r="V438" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W438" t="n">
+        <v>786</v>
+      </c>
+      <c r="X438" t="n">
+        <v>708</v>
+      </c>
+      <c r="Y438" t="n">
+        <v>668</v>
+      </c>
+      <c r="Z438" t="n">
+        <v>550</v>
+      </c>
+      <c r="AA438" t="n">
+        <v>393</v>
+      </c>
+      <c r="AB438" t="inlineStr"/>
+      <c r="AC438" t="inlineStr"/>
+      <c r="AD438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>170920</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>11300</v>
+      </c>
+      <c r="C439" t="n">
+        <v>14780</v>
+      </c>
+      <c r="D439" t="n">
+        <v>11180</v>
+      </c>
+      <c r="E439" t="n">
+        <v>13820</v>
+      </c>
+      <c r="F439" t="n">
+        <v>6853259</v>
+      </c>
+      <c r="G439" t="n">
+        <v>93650533670</v>
+      </c>
+      <c r="H439" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="I439" t="n">
+        <v>936</v>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>2023/03/10</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>엘티씨</t>
+        </is>
+      </c>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O439" t="n">
+        <v>10227</v>
+      </c>
+      <c r="P439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
+      <c r="S439" t="n">
+        <v>0</v>
+      </c>
+      <c r="T439" t="n">
+        <v>0</v>
+      </c>
+      <c r="U439" t="n">
+        <v>5200</v>
+      </c>
+      <c r="V439" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W439" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X439" t="n">
+        <v>4680</v>
+      </c>
+      <c r="Y439" t="n">
+        <v>4420</v>
+      </c>
+      <c r="Z439" t="n">
+        <v>3640</v>
+      </c>
+      <c r="AA439" t="n">
+        <v>2600</v>
+      </c>
+      <c r="AB439" t="inlineStr"/>
+      <c r="AC439" t="inlineStr"/>
+      <c r="AD439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>101170</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>6890</v>
+      </c>
+      <c r="C440" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D440" t="n">
+        <v>6720</v>
+      </c>
+      <c r="E440" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F440" t="n">
+        <v>5524852</v>
+      </c>
+      <c r="G440" t="n">
+        <v>41170909850</v>
+      </c>
+      <c r="H440" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="I440" t="n">
+        <v>411</v>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>2023/03/10</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>우림피티에스</t>
+        </is>
+      </c>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>일반 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N440" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O440" t="n">
+        <v>6204</v>
+      </c>
+      <c r="P440" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R440" t="n">
+        <v>266</v>
+      </c>
+      <c r="S440" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T440" t="n">
+        <v>100</v>
+      </c>
+      <c r="U440" t="n">
+        <v>3323</v>
+      </c>
+      <c r="V440" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W440" t="n">
+        <v>3323</v>
+      </c>
+      <c r="X440" t="n">
+        <v>2991</v>
+      </c>
+      <c r="Y440" t="n">
+        <v>2825</v>
+      </c>
+      <c r="Z440" t="n">
+        <v>2326</v>
+      </c>
+      <c r="AA440" t="n">
+        <v>1661</v>
+      </c>
+      <c r="AB440" t="inlineStr"/>
+      <c r="AC440" t="inlineStr"/>
+      <c r="AD440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>001530</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>21600</v>
+      </c>
+      <c r="C441" t="n">
+        <v>26500</v>
+      </c>
+      <c r="D441" t="n">
+        <v>21500</v>
+      </c>
+      <c r="E441" t="n">
+        <v>24400</v>
+      </c>
+      <c r="F441" t="n">
+        <v>3601229</v>
+      </c>
+      <c r="G441" t="n">
+        <v>87695192850</v>
+      </c>
+      <c r="H441" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="I441" t="n">
+        <v>876</v>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>2023/03/10</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>DI동일</t>
+        </is>
+      </c>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>상품 중개업</t>
+        </is>
+      </c>
+      <c r="N441" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O441" t="n">
+        <v>28838</v>
+      </c>
+      <c r="P441" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="R441" t="n">
+        <v>2200</v>
+      </c>
+      <c r="S441" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T441" t="n">
+        <v>200</v>
+      </c>
+      <c r="U441" t="n">
+        <v>39331</v>
+      </c>
+      <c r="V441" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W441" t="n">
+        <v>39331</v>
+      </c>
+      <c r="X441" t="n">
+        <v>35398</v>
+      </c>
+      <c r="Y441" t="n">
+        <v>33431</v>
+      </c>
+      <c r="Z441" t="n">
+        <v>27532</v>
+      </c>
+      <c r="AA441" t="n">
+        <v>19665</v>
+      </c>
+      <c r="AB441" t="inlineStr"/>
+      <c r="AC441" t="inlineStr"/>
+      <c r="AD441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>351330</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>9850</v>
+      </c>
+      <c r="C442" t="n">
+        <v>12610</v>
+      </c>
+      <c r="D442" t="n">
+        <v>9780</v>
+      </c>
+      <c r="E442" t="n">
+        <v>11550</v>
+      </c>
+      <c r="F442" t="n">
+        <v>4050488</v>
+      </c>
+      <c r="G442" t="n">
+        <v>46319327750</v>
+      </c>
+      <c r="H442" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="I442" t="n">
+        <v>463</v>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>2023/03/10</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>이삭엔지니어링</t>
+        </is>
+      </c>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O442" t="n">
+        <v>5421</v>
+      </c>
+      <c r="P442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
+      <c r="S442" t="n">
+        <v>0</v>
+      </c>
+      <c r="T442" t="n">
+        <v>0</v>
+      </c>
+      <c r="U442" t="n">
+        <v>4635</v>
+      </c>
+      <c r="V442" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W442" t="n">
+        <v>4635</v>
+      </c>
+      <c r="X442" t="n">
+        <v>4171</v>
+      </c>
+      <c r="Y442" t="n">
+        <v>3940</v>
+      </c>
+      <c r="Z442" t="n">
+        <v>3244</v>
+      </c>
+      <c r="AA442" t="n">
+        <v>2317</v>
+      </c>
+      <c r="AB442" t="inlineStr"/>
+      <c r="AC442" t="inlineStr"/>
+      <c r="AD442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>115500</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>9790</v>
+      </c>
+      <c r="C443" t="n">
+        <v>11860</v>
+      </c>
+      <c r="D443" t="n">
+        <v>9780</v>
+      </c>
+      <c r="E443" t="n">
+        <v>11860</v>
+      </c>
+      <c r="F443" t="n">
+        <v>17459153</v>
+      </c>
+      <c r="G443" t="n">
+        <v>191256066710</v>
+      </c>
+      <c r="H443" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="I443" t="n">
+        <v>1912</v>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>2023/03/10</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>케이씨에스</t>
+        </is>
+      </c>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>컴퓨터 프로그래밍, 시스템 통합 및 관리업</t>
+        </is>
+      </c>
+      <c r="N443" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O443" t="n">
+        <v>1715</v>
+      </c>
+      <c r="P443" t="n">
+        <v>53.19</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="R443" t="n">
+        <v>223</v>
+      </c>
+      <c r="S443" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T443" t="n">
+        <v>220</v>
+      </c>
+      <c r="U443" t="n">
+        <v>1526</v>
+      </c>
+      <c r="V443" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W443" t="n">
+        <v>1526</v>
+      </c>
+      <c r="X443" t="n">
+        <v>1374</v>
+      </c>
+      <c r="Y443" t="n">
+        <v>1297</v>
+      </c>
+      <c r="Z443" t="n">
+        <v>1068</v>
+      </c>
+      <c r="AA443" t="n">
+        <v>763</v>
+      </c>
+      <c r="AB443" t="inlineStr"/>
+      <c r="AC443" t="inlineStr"/>
+      <c r="AD443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>114190</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>12440</v>
+      </c>
+      <c r="C444" t="n">
+        <v>16950</v>
+      </c>
+      <c r="D444" t="n">
+        <v>12270</v>
+      </c>
+      <c r="E444" t="n">
+        <v>15800</v>
+      </c>
+      <c r="F444" t="n">
+        <v>17381628</v>
+      </c>
+      <c r="G444" t="n">
+        <v>273425918070</v>
+      </c>
+      <c r="H444" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="I444" t="n">
+        <v>2734</v>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>2023/03/10</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>강원에너지</t>
+        </is>
+      </c>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>구조용 금속제품, 탱크 및 증기발생기 제조업</t>
+        </is>
+      </c>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O444" t="n">
+        <v>1095</v>
+      </c>
+      <c r="P444" t="n">
+        <v>55.06</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="R444" t="n">
+        <v>287</v>
+      </c>
+      <c r="S444" t="n">
+        <v>0</v>
+      </c>
+      <c r="T444" t="n">
+        <v>0</v>
+      </c>
+      <c r="U444" t="n">
+        <v>786</v>
+      </c>
+      <c r="V444" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W444" t="n">
+        <v>786</v>
+      </c>
+      <c r="X444" t="n">
+        <v>708</v>
+      </c>
+      <c r="Y444" t="n">
+        <v>668</v>
+      </c>
+      <c r="Z444" t="n">
+        <v>550</v>
+      </c>
+      <c r="AA444" t="n">
+        <v>393</v>
+      </c>
+      <c r="AB444" t="inlineStr"/>
+      <c r="AC444" t="inlineStr"/>
+      <c r="AD444" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD444"/>
+  <dimension ref="A1:AD454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44885,6 +44885,1006 @@
       <c r="AC444" t="inlineStr"/>
       <c r="AD444" t="inlineStr"/>
     </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>214610</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C445" t="n">
+        <v>5980</v>
+      </c>
+      <c r="D445" t="n">
+        <v>4910</v>
+      </c>
+      <c r="E445" t="n">
+        <v>5980</v>
+      </c>
+      <c r="F445" t="n">
+        <v>10945549</v>
+      </c>
+      <c r="G445" t="n">
+        <v>61082891710</v>
+      </c>
+      <c r="H445" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="I445" t="n">
+        <v>610</v>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>2023/03/13</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>미코바이오메드</t>
+        </is>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O445" t="n">
+        <v>2857</v>
+      </c>
+      <c r="P445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
+      <c r="S445" t="n">
+        <v>0</v>
+      </c>
+      <c r="T445" t="n">
+        <v>0</v>
+      </c>
+      <c r="U445" t="n">
+        <v>1428</v>
+      </c>
+      <c r="V445" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W445" t="n">
+        <v>1428</v>
+      </c>
+      <c r="X445" t="n">
+        <v>1285</v>
+      </c>
+      <c r="Y445" t="n">
+        <v>1214</v>
+      </c>
+      <c r="Z445" t="n">
+        <v>999</v>
+      </c>
+      <c r="AA445" t="n">
+        <v>714</v>
+      </c>
+      <c r="AB445" t="inlineStr"/>
+      <c r="AC445" t="inlineStr"/>
+      <c r="AD445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>065350</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C446" t="n">
+        <v>12720</v>
+      </c>
+      <c r="D446" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E446" t="n">
+        <v>12210</v>
+      </c>
+      <c r="F446" t="n">
+        <v>11220337</v>
+      </c>
+      <c r="G446" t="n">
+        <v>136703782460</v>
+      </c>
+      <c r="H446" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="I446" t="n">
+        <v>1367</v>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>2023/03/13</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>신성델타테크</t>
+        </is>
+      </c>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>가정용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O446" t="n">
+        <v>5594</v>
+      </c>
+      <c r="P446" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R446" t="n">
+        <v>908</v>
+      </c>
+      <c r="S446" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="T446" t="n">
+        <v>120</v>
+      </c>
+      <c r="U446" t="n">
+        <v>4337</v>
+      </c>
+      <c r="V446" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W446" t="n">
+        <v>4337</v>
+      </c>
+      <c r="X446" t="n">
+        <v>3904</v>
+      </c>
+      <c r="Y446" t="n">
+        <v>3687</v>
+      </c>
+      <c r="Z446" t="n">
+        <v>3036</v>
+      </c>
+      <c r="AA446" t="n">
+        <v>2168</v>
+      </c>
+      <c r="AB446" t="inlineStr"/>
+      <c r="AC446" t="inlineStr"/>
+      <c r="AD446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>086520</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>308500</v>
+      </c>
+      <c r="C447" t="n">
+        <v>364000</v>
+      </c>
+      <c r="D447" t="n">
+        <v>308500</v>
+      </c>
+      <c r="E447" t="n">
+        <v>361500</v>
+      </c>
+      <c r="F447" t="n">
+        <v>2750890</v>
+      </c>
+      <c r="G447" t="n">
+        <v>942745046500</v>
+      </c>
+      <c r="H447" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="I447" t="n">
+        <v>9427</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>2023/03/13</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>에코프로</t>
+        </is>
+      </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>기타 금융업</t>
+        </is>
+      </c>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O447" t="n">
+        <v>45865</v>
+      </c>
+      <c r="P447" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="R447" t="n">
+        <v>11205</v>
+      </c>
+      <c r="S447" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T447" t="n">
+        <v>430</v>
+      </c>
+      <c r="U447" t="n">
+        <v>34850</v>
+      </c>
+      <c r="V447" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W447" t="n">
+        <v>34850</v>
+      </c>
+      <c r="X447" t="n">
+        <v>31365</v>
+      </c>
+      <c r="Y447" t="n">
+        <v>29622</v>
+      </c>
+      <c r="Z447" t="n">
+        <v>24395</v>
+      </c>
+      <c r="AA447" t="n">
+        <v>17425</v>
+      </c>
+      <c r="AB447" t="inlineStr"/>
+      <c r="AC447" t="inlineStr"/>
+      <c r="AD447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>064480</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>12100</v>
+      </c>
+      <c r="C448" t="n">
+        <v>14490</v>
+      </c>
+      <c r="D448" t="n">
+        <v>11670</v>
+      </c>
+      <c r="E448" t="n">
+        <v>13720</v>
+      </c>
+      <c r="F448" t="n">
+        <v>16842277</v>
+      </c>
+      <c r="G448" t="n">
+        <v>227764650490</v>
+      </c>
+      <c r="H448" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="I448" t="n">
+        <v>2277</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>2023/03/13</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>브리지텍</t>
+        </is>
+      </c>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O448" t="n">
+        <v>3458</v>
+      </c>
+      <c r="P448" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="R448" t="n">
+        <v>245</v>
+      </c>
+      <c r="S448" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="T448" t="n">
+        <v>120</v>
+      </c>
+      <c r="U448" t="n">
+        <v>2056</v>
+      </c>
+      <c r="V448" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W448" t="n">
+        <v>2056</v>
+      </c>
+      <c r="X448" t="n">
+        <v>1850</v>
+      </c>
+      <c r="Y448" t="n">
+        <v>1748</v>
+      </c>
+      <c r="Z448" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AA448" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AB448" t="inlineStr"/>
+      <c r="AC448" t="inlineStr"/>
+      <c r="AD448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>074610</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>4655</v>
+      </c>
+      <c r="C449" t="n">
+        <v>5440</v>
+      </c>
+      <c r="D449" t="n">
+        <v>4655</v>
+      </c>
+      <c r="E449" t="n">
+        <v>5360</v>
+      </c>
+      <c r="F449" t="n">
+        <v>30257902</v>
+      </c>
+      <c r="G449" t="n">
+        <v>157220769780</v>
+      </c>
+      <c r="H449" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="I449" t="n">
+        <v>1572</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>2023/03/13</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>이엔플러스</t>
+        </is>
+      </c>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>일반 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O449" t="n">
+        <v>1405</v>
+      </c>
+      <c r="P449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
+      <c r="S449" t="n">
+        <v>0</v>
+      </c>
+      <c r="T449" t="n">
+        <v>0</v>
+      </c>
+      <c r="U449" t="n">
+        <v>702</v>
+      </c>
+      <c r="V449" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W449" t="n">
+        <v>702</v>
+      </c>
+      <c r="X449" t="n">
+        <v>632</v>
+      </c>
+      <c r="Y449" t="n">
+        <v>597</v>
+      </c>
+      <c r="Z449" t="n">
+        <v>491</v>
+      </c>
+      <c r="AA449" t="n">
+        <v>351</v>
+      </c>
+      <c r="AB449" t="inlineStr"/>
+      <c r="AC449" t="inlineStr"/>
+      <c r="AD449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>357550</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>36300</v>
+      </c>
+      <c r="C450" t="n">
+        <v>48600</v>
+      </c>
+      <c r="D450" t="n">
+        <v>33500</v>
+      </c>
+      <c r="E450" t="n">
+        <v>43150</v>
+      </c>
+      <c r="F450" t="n">
+        <v>4180842</v>
+      </c>
+      <c r="G450" t="n">
+        <v>181505900650</v>
+      </c>
+      <c r="H450" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="I450" t="n">
+        <v>1815</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>2023/03/13</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>석경에이티</t>
+        </is>
+      </c>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O450" t="n">
+        <v>4365</v>
+      </c>
+      <c r="P450" t="n">
+        <v>75.81</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="R450" t="n">
+        <v>569</v>
+      </c>
+      <c r="S450" t="n">
+        <v>0</v>
+      </c>
+      <c r="T450" t="n">
+        <v>0</v>
+      </c>
+      <c r="U450" t="n">
+        <v>3247</v>
+      </c>
+      <c r="V450" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W450" t="n">
+        <v>3247</v>
+      </c>
+      <c r="X450" t="n">
+        <v>2922</v>
+      </c>
+      <c r="Y450" t="n">
+        <v>2760</v>
+      </c>
+      <c r="Z450" t="n">
+        <v>2273</v>
+      </c>
+      <c r="AA450" t="n">
+        <v>1623</v>
+      </c>
+      <c r="AB450" t="inlineStr"/>
+      <c r="AC450" t="inlineStr"/>
+      <c r="AD450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>214610</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C451" t="n">
+        <v>5980</v>
+      </c>
+      <c r="D451" t="n">
+        <v>4910</v>
+      </c>
+      <c r="E451" t="n">
+        <v>5980</v>
+      </c>
+      <c r="F451" t="n">
+        <v>10945549</v>
+      </c>
+      <c r="G451" t="n">
+        <v>61082891710</v>
+      </c>
+      <c r="H451" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="I451" t="n">
+        <v>610</v>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>2023/03/13</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>미코바이오메드</t>
+        </is>
+      </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O451" t="n">
+        <v>2857</v>
+      </c>
+      <c r="P451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="R451" t="n">
+        <v>0</v>
+      </c>
+      <c r="S451" t="n">
+        <v>0</v>
+      </c>
+      <c r="T451" t="n">
+        <v>0</v>
+      </c>
+      <c r="U451" t="n">
+        <v>1428</v>
+      </c>
+      <c r="V451" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W451" t="n">
+        <v>1428</v>
+      </c>
+      <c r="X451" t="n">
+        <v>1285</v>
+      </c>
+      <c r="Y451" t="n">
+        <v>1214</v>
+      </c>
+      <c r="Z451" t="n">
+        <v>999</v>
+      </c>
+      <c r="AA451" t="n">
+        <v>714</v>
+      </c>
+      <c r="AB451" t="inlineStr"/>
+      <c r="AC451" t="inlineStr"/>
+      <c r="AD451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>065350</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C452" t="n">
+        <v>12720</v>
+      </c>
+      <c r="D452" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E452" t="n">
+        <v>12210</v>
+      </c>
+      <c r="F452" t="n">
+        <v>11220337</v>
+      </c>
+      <c r="G452" t="n">
+        <v>136703782460</v>
+      </c>
+      <c r="H452" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="I452" t="n">
+        <v>1367</v>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>2023/03/13</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>신성델타테크</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>가정용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O452" t="n">
+        <v>5594</v>
+      </c>
+      <c r="P452" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R452" t="n">
+        <v>908</v>
+      </c>
+      <c r="S452" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="T452" t="n">
+        <v>120</v>
+      </c>
+      <c r="U452" t="n">
+        <v>4337</v>
+      </c>
+      <c r="V452" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W452" t="n">
+        <v>4337</v>
+      </c>
+      <c r="X452" t="n">
+        <v>3904</v>
+      </c>
+      <c r="Y452" t="n">
+        <v>3687</v>
+      </c>
+      <c r="Z452" t="n">
+        <v>3036</v>
+      </c>
+      <c r="AA452" t="n">
+        <v>2168</v>
+      </c>
+      <c r="AB452" t="inlineStr"/>
+      <c r="AC452" t="inlineStr"/>
+      <c r="AD452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>064480</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>12100</v>
+      </c>
+      <c r="C453" t="n">
+        <v>14490</v>
+      </c>
+      <c r="D453" t="n">
+        <v>11670</v>
+      </c>
+      <c r="E453" t="n">
+        <v>13720</v>
+      </c>
+      <c r="F453" t="n">
+        <v>16842277</v>
+      </c>
+      <c r="G453" t="n">
+        <v>227764650490</v>
+      </c>
+      <c r="H453" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="I453" t="n">
+        <v>2277</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>2023/03/13</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>브리지텍</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O453" t="n">
+        <v>3458</v>
+      </c>
+      <c r="P453" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="R453" t="n">
+        <v>245</v>
+      </c>
+      <c r="S453" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="T453" t="n">
+        <v>120</v>
+      </c>
+      <c r="U453" t="n">
+        <v>2056</v>
+      </c>
+      <c r="V453" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W453" t="n">
+        <v>2056</v>
+      </c>
+      <c r="X453" t="n">
+        <v>1850</v>
+      </c>
+      <c r="Y453" t="n">
+        <v>1748</v>
+      </c>
+      <c r="Z453" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AA453" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AB453" t="inlineStr"/>
+      <c r="AC453" t="inlineStr"/>
+      <c r="AD453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>074610</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>4655</v>
+      </c>
+      <c r="C454" t="n">
+        <v>5440</v>
+      </c>
+      <c r="D454" t="n">
+        <v>4655</v>
+      </c>
+      <c r="E454" t="n">
+        <v>5360</v>
+      </c>
+      <c r="F454" t="n">
+        <v>30257902</v>
+      </c>
+      <c r="G454" t="n">
+        <v>157220769780</v>
+      </c>
+      <c r="H454" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="I454" t="n">
+        <v>1572</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>2023/03/13</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>이엔플러스</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>일반 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>KOSPI</t>
+        </is>
+      </c>
+      <c r="O454" t="n">
+        <v>1405</v>
+      </c>
+      <c r="P454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="R454" t="n">
+        <v>0</v>
+      </c>
+      <c r="S454" t="n">
+        <v>0</v>
+      </c>
+      <c r="T454" t="n">
+        <v>0</v>
+      </c>
+      <c r="U454" t="n">
+        <v>702</v>
+      </c>
+      <c r="V454" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W454" t="n">
+        <v>702</v>
+      </c>
+      <c r="X454" t="n">
+        <v>632</v>
+      </c>
+      <c r="Y454" t="n">
+        <v>597</v>
+      </c>
+      <c r="Z454" t="n">
+        <v>491</v>
+      </c>
+      <c r="AA454" t="n">
+        <v>351</v>
+      </c>
+      <c r="AB454" t="inlineStr"/>
+      <c r="AC454" t="inlineStr"/>
+      <c r="AD454" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD454"/>
+  <dimension ref="A1:AD473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45885,6 +45885,1906 @@
       <c r="AC454" t="inlineStr"/>
       <c r="AD454" t="inlineStr"/>
     </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>348340</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>34850</v>
+      </c>
+      <c r="C455" t="n">
+        <v>37700</v>
+      </c>
+      <c r="D455" t="n">
+        <v>34550</v>
+      </c>
+      <c r="E455" t="n">
+        <v>37700</v>
+      </c>
+      <c r="F455" t="n">
+        <v>7018469</v>
+      </c>
+      <c r="G455" t="n">
+        <v>259852753550</v>
+      </c>
+      <c r="H455" t="n">
+        <v>30</v>
+      </c>
+      <c r="I455" t="n">
+        <v>2598</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>뉴로메카</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O455" t="n">
+        <v>1828</v>
+      </c>
+      <c r="P455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="R455" t="n">
+        <v>0</v>
+      </c>
+      <c r="S455" t="n">
+        <v>0</v>
+      </c>
+      <c r="T455" t="n">
+        <v>0</v>
+      </c>
+      <c r="U455" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V455" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W455" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X455" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y455" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z455" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA455" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB455" t="inlineStr"/>
+      <c r="AC455" t="inlineStr"/>
+      <c r="AD455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>317830</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>11530</v>
+      </c>
+      <c r="C456" t="n">
+        <v>14320</v>
+      </c>
+      <c r="D456" t="n">
+        <v>11390</v>
+      </c>
+      <c r="E456" t="n">
+        <v>14320</v>
+      </c>
+      <c r="F456" t="n">
+        <v>14829765</v>
+      </c>
+      <c r="G456" t="n">
+        <v>194248346620</v>
+      </c>
+      <c r="H456" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="I456" t="n">
+        <v>1942</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>에스피시스템스</t>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O456" t="n">
+        <v>4013</v>
+      </c>
+      <c r="P456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="R456" t="n">
+        <v>0</v>
+      </c>
+      <c r="S456" t="n">
+        <v>0</v>
+      </c>
+      <c r="T456" t="n">
+        <v>0</v>
+      </c>
+      <c r="U456" t="n">
+        <v>2249</v>
+      </c>
+      <c r="V456" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W456" t="n">
+        <v>2249</v>
+      </c>
+      <c r="X456" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Y456" t="n">
+        <v>1912</v>
+      </c>
+      <c r="Z456" t="n">
+        <v>1574</v>
+      </c>
+      <c r="AA456" t="n">
+        <v>1124</v>
+      </c>
+      <c r="AB456" t="inlineStr"/>
+      <c r="AC456" t="inlineStr"/>
+      <c r="AD456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>041020</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>2925</v>
+      </c>
+      <c r="C457" t="n">
+        <v>3690</v>
+      </c>
+      <c r="D457" t="n">
+        <v>2875</v>
+      </c>
+      <c r="E457" t="n">
+        <v>3655</v>
+      </c>
+      <c r="F457" t="n">
+        <v>41679046</v>
+      </c>
+      <c r="G457" t="n">
+        <v>141560357195</v>
+      </c>
+      <c r="H457" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="I457" t="n">
+        <v>1415</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>폴라리스오피스</t>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O457" t="n">
+        <v>1013</v>
+      </c>
+      <c r="P457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
+      <c r="S457" t="n">
+        <v>0</v>
+      </c>
+      <c r="T457" t="n">
+        <v>0</v>
+      </c>
+      <c r="U457" t="n">
+        <v>506</v>
+      </c>
+      <c r="V457" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W457" t="n">
+        <v>506</v>
+      </c>
+      <c r="X457" t="n">
+        <v>455</v>
+      </c>
+      <c r="Y457" t="n">
+        <v>430</v>
+      </c>
+      <c r="Z457" t="n">
+        <v>354</v>
+      </c>
+      <c r="AA457" t="n">
+        <v>253</v>
+      </c>
+      <c r="AB457" t="inlineStr"/>
+      <c r="AC457" t="inlineStr"/>
+      <c r="AD457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>049070</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>31050</v>
+      </c>
+      <c r="C458" t="n">
+        <v>39650</v>
+      </c>
+      <c r="D458" t="n">
+        <v>30600</v>
+      </c>
+      <c r="E458" t="n">
+        <v>38450</v>
+      </c>
+      <c r="F458" t="n">
+        <v>9765036</v>
+      </c>
+      <c r="G458" t="n">
+        <v>362685888550</v>
+      </c>
+      <c r="H458" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="I458" t="n">
+        <v>3626</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>인탑스</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>KOSDAQ GLOBAL</t>
+        </is>
+      </c>
+      <c r="O458" t="n">
+        <v>32446</v>
+      </c>
+      <c r="P458" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R458" t="n">
+        <v>4436</v>
+      </c>
+      <c r="S458" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T458" t="n">
+        <v>470</v>
+      </c>
+      <c r="U458" t="n">
+        <v>25595</v>
+      </c>
+      <c r="V458" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W458" t="n">
+        <v>25595</v>
+      </c>
+      <c r="X458" t="n">
+        <v>23035</v>
+      </c>
+      <c r="Y458" t="n">
+        <v>21756</v>
+      </c>
+      <c r="Z458" t="n">
+        <v>17916</v>
+      </c>
+      <c r="AA458" t="n">
+        <v>12797</v>
+      </c>
+      <c r="AB458" t="inlineStr"/>
+      <c r="AC458" t="inlineStr"/>
+      <c r="AD458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>389500</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>74900</v>
+      </c>
+      <c r="C459" t="n">
+        <v>83700</v>
+      </c>
+      <c r="D459" t="n">
+        <v>73700</v>
+      </c>
+      <c r="E459" t="n">
+        <v>79300</v>
+      </c>
+      <c r="F459" t="n">
+        <v>2672605</v>
+      </c>
+      <c r="G459" t="n">
+        <v>213833645100</v>
+      </c>
+      <c r="H459" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2138</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>에스비비테크</t>
+        </is>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>일반 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O459" t="n">
+        <v>1406</v>
+      </c>
+      <c r="P459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>56.41</v>
+      </c>
+      <c r="R459" t="n">
+        <v>0</v>
+      </c>
+      <c r="S459" t="n">
+        <v>0</v>
+      </c>
+      <c r="T459" t="n">
+        <v>0</v>
+      </c>
+      <c r="U459" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V459" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W459" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X459" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y459" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z459" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA459" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB459" t="inlineStr"/>
+      <c r="AC459" t="inlineStr"/>
+      <c r="AD459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>211270</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>18590</v>
+      </c>
+      <c r="C460" t="n">
+        <v>21950</v>
+      </c>
+      <c r="D460" t="n">
+        <v>18580</v>
+      </c>
+      <c r="E460" t="n">
+        <v>21500</v>
+      </c>
+      <c r="F460" t="n">
+        <v>6826089</v>
+      </c>
+      <c r="G460" t="n">
+        <v>140581639260</v>
+      </c>
+      <c r="H460" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="I460" t="n">
+        <v>1405</v>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>AP위성</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O460" t="n">
+        <v>5714</v>
+      </c>
+      <c r="P460" t="n">
+        <v>217.12</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="R460" t="n">
+        <v>99</v>
+      </c>
+      <c r="S460" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T460" t="n">
+        <v>70</v>
+      </c>
+      <c r="U460" t="n">
+        <v>2982</v>
+      </c>
+      <c r="V460" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W460" t="n">
+        <v>2982</v>
+      </c>
+      <c r="X460" t="n">
+        <v>2683</v>
+      </c>
+      <c r="Y460" t="n">
+        <v>2534</v>
+      </c>
+      <c r="Z460" t="n">
+        <v>2087</v>
+      </c>
+      <c r="AA460" t="n">
+        <v>1491</v>
+      </c>
+      <c r="AB460" t="inlineStr"/>
+      <c r="AC460" t="inlineStr"/>
+      <c r="AD460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>067310</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>10990</v>
+      </c>
+      <c r="C461" t="n">
+        <v>12910</v>
+      </c>
+      <c r="D461" t="n">
+        <v>10950</v>
+      </c>
+      <c r="E461" t="n">
+        <v>12740</v>
+      </c>
+      <c r="F461" t="n">
+        <v>9943687</v>
+      </c>
+      <c r="G461" t="n">
+        <v>121785610890</v>
+      </c>
+      <c r="H461" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="I461" t="n">
+        <v>1217</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>하나마이크론</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>KOSDAQ GLOBAL</t>
+        </is>
+      </c>
+      <c r="O461" t="n">
+        <v>5390</v>
+      </c>
+      <c r="P461" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R461" t="n">
+        <v>713</v>
+      </c>
+      <c r="S461" t="n">
+        <v>0</v>
+      </c>
+      <c r="T461" t="n">
+        <v>0</v>
+      </c>
+      <c r="U461" t="n">
+        <v>3289</v>
+      </c>
+      <c r="V461" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W461" t="n">
+        <v>3289</v>
+      </c>
+      <c r="X461" t="n">
+        <v>2960</v>
+      </c>
+      <c r="Y461" t="n">
+        <v>2795</v>
+      </c>
+      <c r="Z461" t="n">
+        <v>2302</v>
+      </c>
+      <c r="AA461" t="n">
+        <v>1644</v>
+      </c>
+      <c r="AB461" t="inlineStr"/>
+      <c r="AC461" t="inlineStr"/>
+      <c r="AD461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>090360</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>36750</v>
+      </c>
+      <c r="C462" t="n">
+        <v>43450</v>
+      </c>
+      <c r="D462" t="n">
+        <v>36250</v>
+      </c>
+      <c r="E462" t="n">
+        <v>40050</v>
+      </c>
+      <c r="F462" t="n">
+        <v>11469154</v>
+      </c>
+      <c r="G462" t="n">
+        <v>460837112800</v>
+      </c>
+      <c r="H462" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="I462" t="n">
+        <v>4608</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>로보스타</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O462" t="n">
+        <v>8829</v>
+      </c>
+      <c r="P462" t="n">
+        <v>238.38</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="R462" t="n">
+        <v>168</v>
+      </c>
+      <c r="S462" t="n">
+        <v>0</v>
+      </c>
+      <c r="T462" t="n">
+        <v>0</v>
+      </c>
+      <c r="U462" t="n">
+        <v>4554</v>
+      </c>
+      <c r="V462" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W462" t="n">
+        <v>4554</v>
+      </c>
+      <c r="X462" t="n">
+        <v>4099</v>
+      </c>
+      <c r="Y462" t="n">
+        <v>3871</v>
+      </c>
+      <c r="Z462" t="n">
+        <v>3188</v>
+      </c>
+      <c r="AA462" t="n">
+        <v>2277</v>
+      </c>
+      <c r="AB462" t="inlineStr"/>
+      <c r="AC462" t="inlineStr"/>
+      <c r="AD462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>068760</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>80800</v>
+      </c>
+      <c r="C463" t="n">
+        <v>98000</v>
+      </c>
+      <c r="D463" t="n">
+        <v>80800</v>
+      </c>
+      <c r="E463" t="n">
+        <v>95400</v>
+      </c>
+      <c r="F463" t="n">
+        <v>3023054</v>
+      </c>
+      <c r="G463" t="n">
+        <v>278158579300</v>
+      </c>
+      <c r="H463" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2781</v>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>셀트리온제약</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>의약품 제조업</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O463" t="n">
+        <v>8427</v>
+      </c>
+      <c r="P463" t="n">
+        <v>108.69</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="R463" t="n">
+        <v>878</v>
+      </c>
+      <c r="S463" t="n">
+        <v>0</v>
+      </c>
+      <c r="T463" t="n">
+        <v>0</v>
+      </c>
+      <c r="U463" t="n">
+        <v>6071</v>
+      </c>
+      <c r="V463" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W463" t="n">
+        <v>6071</v>
+      </c>
+      <c r="X463" t="n">
+        <v>5464</v>
+      </c>
+      <c r="Y463" t="n">
+        <v>5161</v>
+      </c>
+      <c r="Z463" t="n">
+        <v>4250</v>
+      </c>
+      <c r="AA463" t="n">
+        <v>3035</v>
+      </c>
+      <c r="AB463" t="inlineStr"/>
+      <c r="AC463" t="inlineStr"/>
+      <c r="AD463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>319660</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>17970</v>
+      </c>
+      <c r="C464" t="n">
+        <v>20600</v>
+      </c>
+      <c r="D464" t="n">
+        <v>17960</v>
+      </c>
+      <c r="E464" t="n">
+        <v>20600</v>
+      </c>
+      <c r="F464" t="n">
+        <v>2529497</v>
+      </c>
+      <c r="G464" t="n">
+        <v>49918710030</v>
+      </c>
+      <c r="H464" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="I464" t="n">
+        <v>499</v>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>피에스케이</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>KOSDAQ GLOBAL</t>
+        </is>
+      </c>
+      <c r="O464" t="n">
+        <v>9888</v>
+      </c>
+      <c r="P464" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R464" t="n">
+        <v>2615</v>
+      </c>
+      <c r="S464" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="T464" t="n">
+        <v>600</v>
+      </c>
+      <c r="U464" t="n">
+        <v>10621</v>
+      </c>
+      <c r="V464" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W464" t="n">
+        <v>10621</v>
+      </c>
+      <c r="X464" t="n">
+        <v>9559</v>
+      </c>
+      <c r="Y464" t="n">
+        <v>9028</v>
+      </c>
+      <c r="Z464" t="n">
+        <v>7435</v>
+      </c>
+      <c r="AA464" t="n">
+        <v>5310</v>
+      </c>
+      <c r="AB464" t="inlineStr"/>
+      <c r="AC464" t="inlineStr"/>
+      <c r="AD464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>377480</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C465" t="n">
+        <v>27500</v>
+      </c>
+      <c r="D465" t="n">
+        <v>23600</v>
+      </c>
+      <c r="E465" t="n">
+        <v>27500</v>
+      </c>
+      <c r="F465" t="n">
+        <v>2830825</v>
+      </c>
+      <c r="G465" t="n">
+        <v>74368541400</v>
+      </c>
+      <c r="H465" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="I465" t="n">
+        <v>743</v>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>마인즈랩</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O465" t="n">
+        <v>4928</v>
+      </c>
+      <c r="P465" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="R465" t="n">
+        <v>389</v>
+      </c>
+      <c r="S465" t="n">
+        <v>0</v>
+      </c>
+      <c r="T465" t="n">
+        <v>0</v>
+      </c>
+      <c r="U465" t="n">
+        <v>2788</v>
+      </c>
+      <c r="V465" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W465" t="n">
+        <v>2788</v>
+      </c>
+      <c r="X465" t="n">
+        <v>2509</v>
+      </c>
+      <c r="Y465" t="n">
+        <v>2369</v>
+      </c>
+      <c r="Z465" t="n">
+        <v>1951</v>
+      </c>
+      <c r="AA465" t="n">
+        <v>1394</v>
+      </c>
+      <c r="AB465" t="inlineStr"/>
+      <c r="AC465" t="inlineStr"/>
+      <c r="AD465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>060280</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>11300</v>
+      </c>
+      <c r="C466" t="n">
+        <v>13430</v>
+      </c>
+      <c r="D466" t="n">
+        <v>10930</v>
+      </c>
+      <c r="E466" t="n">
+        <v>12820</v>
+      </c>
+      <c r="F466" t="n">
+        <v>7629606</v>
+      </c>
+      <c r="G466" t="n">
+        <v>92958965540</v>
+      </c>
+      <c r="H466" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="I466" t="n">
+        <v>929</v>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>큐렉소</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>기타 상품 전문 소매업</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O466" t="n">
+        <v>1283</v>
+      </c>
+      <c r="P466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="R466" t="n">
+        <v>0</v>
+      </c>
+      <c r="S466" t="n">
+        <v>0</v>
+      </c>
+      <c r="T466" t="n">
+        <v>0</v>
+      </c>
+      <c r="U466" t="n">
+        <v>661</v>
+      </c>
+      <c r="V466" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W466" t="n">
+        <v>661</v>
+      </c>
+      <c r="X466" t="n">
+        <v>595</v>
+      </c>
+      <c r="Y466" t="n">
+        <v>562</v>
+      </c>
+      <c r="Z466" t="n">
+        <v>463</v>
+      </c>
+      <c r="AA466" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB466" t="inlineStr"/>
+      <c r="AC466" t="inlineStr"/>
+      <c r="AD466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>196170</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>32350</v>
+      </c>
+      <c r="C467" t="n">
+        <v>37150</v>
+      </c>
+      <c r="D467" t="n">
+        <v>32350</v>
+      </c>
+      <c r="E467" t="n">
+        <v>37100</v>
+      </c>
+      <c r="F467" t="n">
+        <v>1151536</v>
+      </c>
+      <c r="G467" t="n">
+        <v>41119780650</v>
+      </c>
+      <c r="H467" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="I467" t="n">
+        <v>411</v>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>알테오젠</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>자연과학 및 공학 연구개발업</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>KOSDAQ GLOBAL</t>
+        </is>
+      </c>
+      <c r="O467" t="n">
+        <v>2634</v>
+      </c>
+      <c r="P467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
+      <c r="S467" t="n">
+        <v>0</v>
+      </c>
+      <c r="T467" t="n">
+        <v>0</v>
+      </c>
+      <c r="U467" t="n">
+        <v>1317</v>
+      </c>
+      <c r="V467" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W467" t="n">
+        <v>1317</v>
+      </c>
+      <c r="X467" t="n">
+        <v>1185</v>
+      </c>
+      <c r="Y467" t="n">
+        <v>1119</v>
+      </c>
+      <c r="Z467" t="n">
+        <v>921</v>
+      </c>
+      <c r="AA467" t="n">
+        <v>658</v>
+      </c>
+      <c r="AB467" t="inlineStr"/>
+      <c r="AC467" t="inlineStr"/>
+      <c r="AD467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>317830</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>11530</v>
+      </c>
+      <c r="C468" t="n">
+        <v>14320</v>
+      </c>
+      <c r="D468" t="n">
+        <v>11390</v>
+      </c>
+      <c r="E468" t="n">
+        <v>14320</v>
+      </c>
+      <c r="F468" t="n">
+        <v>14829765</v>
+      </c>
+      <c r="G468" t="n">
+        <v>194248346620</v>
+      </c>
+      <c r="H468" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="I468" t="n">
+        <v>1942</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>에스피시스템스</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O468" t="n">
+        <v>4013</v>
+      </c>
+      <c r="P468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="R468" t="n">
+        <v>0</v>
+      </c>
+      <c r="S468" t="n">
+        <v>0</v>
+      </c>
+      <c r="T468" t="n">
+        <v>0</v>
+      </c>
+      <c r="U468" t="n">
+        <v>2249</v>
+      </c>
+      <c r="V468" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W468" t="n">
+        <v>2249</v>
+      </c>
+      <c r="X468" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Y468" t="n">
+        <v>1912</v>
+      </c>
+      <c r="Z468" t="n">
+        <v>1574</v>
+      </c>
+      <c r="AA468" t="n">
+        <v>1124</v>
+      </c>
+      <c r="AB468" t="inlineStr"/>
+      <c r="AC468" t="inlineStr"/>
+      <c r="AD468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>041020</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>2925</v>
+      </c>
+      <c r="C469" t="n">
+        <v>3690</v>
+      </c>
+      <c r="D469" t="n">
+        <v>2875</v>
+      </c>
+      <c r="E469" t="n">
+        <v>3655</v>
+      </c>
+      <c r="F469" t="n">
+        <v>41679046</v>
+      </c>
+      <c r="G469" t="n">
+        <v>141560357195</v>
+      </c>
+      <c r="H469" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="I469" t="n">
+        <v>1415</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>폴라리스오피스</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O469" t="n">
+        <v>1013</v>
+      </c>
+      <c r="P469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="R469" t="n">
+        <v>0</v>
+      </c>
+      <c r="S469" t="n">
+        <v>0</v>
+      </c>
+      <c r="T469" t="n">
+        <v>0</v>
+      </c>
+      <c r="U469" t="n">
+        <v>506</v>
+      </c>
+      <c r="V469" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W469" t="n">
+        <v>506</v>
+      </c>
+      <c r="X469" t="n">
+        <v>455</v>
+      </c>
+      <c r="Y469" t="n">
+        <v>430</v>
+      </c>
+      <c r="Z469" t="n">
+        <v>354</v>
+      </c>
+      <c r="AA469" t="n">
+        <v>253</v>
+      </c>
+      <c r="AB469" t="inlineStr"/>
+      <c r="AC469" t="inlineStr"/>
+      <c r="AD469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>217620</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>610</v>
+      </c>
+      <c r="C470" t="n">
+        <v>723</v>
+      </c>
+      <c r="D470" t="n">
+        <v>583</v>
+      </c>
+      <c r="E470" t="n">
+        <v>695</v>
+      </c>
+      <c r="F470" t="n">
+        <v>17945583</v>
+      </c>
+      <c r="G470" t="n">
+        <v>11636031641</v>
+      </c>
+      <c r="H470" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="I470" t="n">
+        <v>116</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>디딤이앤에프</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>음식점업</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O470" t="n">
+        <v>234</v>
+      </c>
+      <c r="P470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="R470" t="n">
+        <v>0</v>
+      </c>
+      <c r="S470" t="n">
+        <v>0</v>
+      </c>
+      <c r="T470" t="n">
+        <v>0</v>
+      </c>
+      <c r="U470" t="n">
+        <v>149</v>
+      </c>
+      <c r="V470" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W470" t="n">
+        <v>149</v>
+      </c>
+      <c r="X470" t="n">
+        <v>134</v>
+      </c>
+      <c r="Y470" t="n">
+        <v>127</v>
+      </c>
+      <c r="Z470" t="n">
+        <v>104</v>
+      </c>
+      <c r="AA470" t="n">
+        <v>74</v>
+      </c>
+      <c r="AB470" t="inlineStr"/>
+      <c r="AC470" t="inlineStr"/>
+      <c r="AD470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>042940</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>339</v>
+      </c>
+      <c r="C471" t="n">
+        <v>413</v>
+      </c>
+      <c r="D471" t="n">
+        <v>326</v>
+      </c>
+      <c r="E471" t="n">
+        <v>382</v>
+      </c>
+      <c r="F471" t="n">
+        <v>11840711</v>
+      </c>
+      <c r="G471" t="n">
+        <v>4605322548</v>
+      </c>
+      <c r="H471" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="I471" t="n">
+        <v>46</v>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>상지카일룸</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>건물 건설업</t>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O471" t="n">
+        <v>693</v>
+      </c>
+      <c r="P471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
+      <c r="S471" t="n">
+        <v>0</v>
+      </c>
+      <c r="T471" t="n">
+        <v>0</v>
+      </c>
+      <c r="U471" t="n">
+        <v>346</v>
+      </c>
+      <c r="V471" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W471" t="n">
+        <v>346</v>
+      </c>
+      <c r="X471" t="n">
+        <v>311</v>
+      </c>
+      <c r="Y471" t="n">
+        <v>294</v>
+      </c>
+      <c r="Z471" t="n">
+        <v>242</v>
+      </c>
+      <c r="AA471" t="n">
+        <v>173</v>
+      </c>
+      <c r="AB471" t="inlineStr"/>
+      <c r="AC471" t="inlineStr"/>
+      <c r="AD471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>090360</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>36750</v>
+      </c>
+      <c r="C472" t="n">
+        <v>43450</v>
+      </c>
+      <c r="D472" t="n">
+        <v>36250</v>
+      </c>
+      <c r="E472" t="n">
+        <v>40050</v>
+      </c>
+      <c r="F472" t="n">
+        <v>11469154</v>
+      </c>
+      <c r="G472" t="n">
+        <v>460837112800</v>
+      </c>
+      <c r="H472" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="I472" t="n">
+        <v>4608</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>로보스타</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O472" t="n">
+        <v>8829</v>
+      </c>
+      <c r="P472" t="n">
+        <v>238.38</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="R472" t="n">
+        <v>168</v>
+      </c>
+      <c r="S472" t="n">
+        <v>0</v>
+      </c>
+      <c r="T472" t="n">
+        <v>0</v>
+      </c>
+      <c r="U472" t="n">
+        <v>4554</v>
+      </c>
+      <c r="V472" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W472" t="n">
+        <v>4554</v>
+      </c>
+      <c r="X472" t="n">
+        <v>4099</v>
+      </c>
+      <c r="Y472" t="n">
+        <v>3871</v>
+      </c>
+      <c r="Z472" t="n">
+        <v>3188</v>
+      </c>
+      <c r="AA472" t="n">
+        <v>2277</v>
+      </c>
+      <c r="AB472" t="inlineStr"/>
+      <c r="AC472" t="inlineStr"/>
+      <c r="AD472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>043590</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C473" t="n">
+        <v>1634</v>
+      </c>
+      <c r="D473" t="n">
+        <v>1401</v>
+      </c>
+      <c r="E473" t="n">
+        <v>1450</v>
+      </c>
+      <c r="F473" t="n">
+        <v>10326653</v>
+      </c>
+      <c r="G473" t="n">
+        <v>15877923679</v>
+      </c>
+      <c r="H473" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="I473" t="n">
+        <v>158</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>2023/03/17</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>거래량1000만주이상</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>크로바하이텍</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O473" t="n">
+        <v>947</v>
+      </c>
+      <c r="P473" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R473" t="n">
+        <v>236</v>
+      </c>
+      <c r="S473" t="n">
+        <v>0</v>
+      </c>
+      <c r="T473" t="n">
+        <v>0</v>
+      </c>
+      <c r="U473" t="n">
+        <v>670</v>
+      </c>
+      <c r="V473" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W473" t="n">
+        <v>670</v>
+      </c>
+      <c r="X473" t="n">
+        <v>603</v>
+      </c>
+      <c r="Y473" t="n">
+        <v>569</v>
+      </c>
+      <c r="Z473" t="n">
+        <v>469</v>
+      </c>
+      <c r="AA473" t="n">
+        <v>335</v>
+      </c>
+      <c r="AB473" t="inlineStr"/>
+      <c r="AC473" t="inlineStr"/>
+      <c r="AD473" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/특징주.xlsx
+++ b/Data/특징주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD473"/>
+  <dimension ref="A1:AD485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47785,6 +47785,1206 @@
       <c r="AC473" t="inlineStr"/>
       <c r="AD473" t="inlineStr"/>
     </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>096630</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1867</v>
+      </c>
+      <c r="C474" t="n">
+        <v>1868</v>
+      </c>
+      <c r="D474" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E474" t="n">
+        <v>1868</v>
+      </c>
+      <c r="F474" t="n">
+        <v>16377105</v>
+      </c>
+      <c r="G474" t="n">
+        <v>30279931829</v>
+      </c>
+      <c r="H474" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="I474" t="n">
+        <v>302</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>상한가</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>에스코넥</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>통신 및 방송 장비 제조업</t>
+        </is>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O474" t="n">
+        <v>662</v>
+      </c>
+      <c r="P474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
+      <c r="S474" t="n">
+        <v>0</v>
+      </c>
+      <c r="T474" t="n">
+        <v>0</v>
+      </c>
+      <c r="U474" t="n">
+        <v>331</v>
+      </c>
+      <c r="V474" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W474" t="n">
+        <v>331</v>
+      </c>
+      <c r="X474" t="n">
+        <v>297</v>
+      </c>
+      <c r="Y474" t="n">
+        <v>281</v>
+      </c>
+      <c r="Z474" t="n">
+        <v>231</v>
+      </c>
+      <c r="AA474" t="n">
+        <v>165</v>
+      </c>
+      <c r="AB474" t="inlineStr"/>
+      <c r="AC474" t="inlineStr"/>
+      <c r="AD474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>357550</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>46100</v>
+      </c>
+      <c r="C475" t="n">
+        <v>55000</v>
+      </c>
+      <c r="D475" t="n">
+        <v>46000</v>
+      </c>
+      <c r="E475" t="n">
+        <v>54100</v>
+      </c>
+      <c r="F475" t="n">
+        <v>3210554</v>
+      </c>
+      <c r="G475" t="n">
+        <v>162897592100</v>
+      </c>
+      <c r="H475" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="I475" t="n">
+        <v>1628</v>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>석경에이티</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>기초 화학물질 제조업</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O475" t="n">
+        <v>4365</v>
+      </c>
+      <c r="P475" t="n">
+        <v>95.06</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="R475" t="n">
+        <v>569</v>
+      </c>
+      <c r="S475" t="n">
+        <v>0</v>
+      </c>
+      <c r="T475" t="n">
+        <v>0</v>
+      </c>
+      <c r="U475" t="n">
+        <v>3247</v>
+      </c>
+      <c r="V475" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W475" t="n">
+        <v>3247</v>
+      </c>
+      <c r="X475" t="n">
+        <v>2922</v>
+      </c>
+      <c r="Y475" t="n">
+        <v>2760</v>
+      </c>
+      <c r="Z475" t="n">
+        <v>2273</v>
+      </c>
+      <c r="AA475" t="n">
+        <v>1623</v>
+      </c>
+      <c r="AB475" t="inlineStr"/>
+      <c r="AC475" t="inlineStr"/>
+      <c r="AD475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>403870</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>18600</v>
+      </c>
+      <c r="C476" t="n">
+        <v>24150</v>
+      </c>
+      <c r="D476" t="n">
+        <v>18400</v>
+      </c>
+      <c r="E476" t="n">
+        <v>23200</v>
+      </c>
+      <c r="F476" t="n">
+        <v>10972650</v>
+      </c>
+      <c r="G476" t="n">
+        <v>244162216910</v>
+      </c>
+      <c r="H476" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2441</v>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>HPSP</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O476" t="n">
+        <v>789</v>
+      </c>
+      <c r="P476" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="R476" t="n">
+        <v>533</v>
+      </c>
+      <c r="S476" t="n">
+        <v>0</v>
+      </c>
+      <c r="T476" t="n">
+        <v>0</v>
+      </c>
+      <c r="U476" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V476" t="inlineStr">
+        <is>
+          <t>대형주</t>
+        </is>
+      </c>
+      <c r="W476" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X476" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y476" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z476" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA476" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB476" t="inlineStr"/>
+      <c r="AC476" t="inlineStr"/>
+      <c r="AD476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>198940</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>3770</v>
+      </c>
+      <c r="C477" t="n">
+        <v>4890</v>
+      </c>
+      <c r="D477" t="n">
+        <v>3760</v>
+      </c>
+      <c r="E477" t="n">
+        <v>4650</v>
+      </c>
+      <c r="F477" t="n">
+        <v>19481618</v>
+      </c>
+      <c r="G477" t="n">
+        <v>89503116435</v>
+      </c>
+      <c r="H477" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="I477" t="n">
+        <v>895</v>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>한주라이트메탈</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>1차 비철금속 제조업</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O477" t="n">
+        <v>2527</v>
+      </c>
+      <c r="P477" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R477" t="n">
+        <v>290</v>
+      </c>
+      <c r="S477" t="n">
+        <v>0</v>
+      </c>
+      <c r="T477" t="n">
+        <v>0</v>
+      </c>
+      <c r="U477" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V477" t="inlineStr">
+        <is>
+          <t>무소속</t>
+        </is>
+      </c>
+      <c r="W477" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X477" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y477" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z477" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA477" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB477" t="inlineStr"/>
+      <c r="AC477" t="inlineStr"/>
+      <c r="AD477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>372170</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>76400</v>
+      </c>
+      <c r="C478" t="n">
+        <v>97300</v>
+      </c>
+      <c r="D478" t="n">
+        <v>75700</v>
+      </c>
+      <c r="E478" t="n">
+        <v>94700</v>
+      </c>
+      <c r="F478" t="n">
+        <v>1194399</v>
+      </c>
+      <c r="G478" t="n">
+        <v>107738034000</v>
+      </c>
+      <c r="H478" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="I478" t="n">
+        <v>1077</v>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>윤성에프앤씨</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>구조용 금속제품, 탱크 및 증기발생기 제조업</t>
+        </is>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O478" t="n">
+        <v>5158</v>
+      </c>
+      <c r="P478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="R478" t="n">
+        <v>0</v>
+      </c>
+      <c r="S478" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T478" t="n">
+        <v>159</v>
+      </c>
+      <c r="U478" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V478" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W478" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X478" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y478" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z478" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA478" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB478" t="inlineStr"/>
+      <c r="AC478" t="inlineStr"/>
+      <c r="AD478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>360070</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>49250</v>
+      </c>
+      <c r="C479" t="n">
+        <v>61600</v>
+      </c>
+      <c r="D479" t="n">
+        <v>49200</v>
+      </c>
+      <c r="E479" t="n">
+        <v>61600</v>
+      </c>
+      <c r="F479" t="n">
+        <v>896150</v>
+      </c>
+      <c r="G479" t="n">
+        <v>50292533100</v>
+      </c>
+      <c r="H479" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I479" t="n">
+        <v>502</v>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>탑머티리얼</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>일차전지 및 축전지 제조업</t>
+        </is>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O479" t="n">
+        <v>4403</v>
+      </c>
+      <c r="P479" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="R479" t="n">
+        <v>770</v>
+      </c>
+      <c r="S479" t="n">
+        <v>0</v>
+      </c>
+      <c r="T479" t="n">
+        <v>0</v>
+      </c>
+      <c r="U479" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V479" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W479" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X479" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y479" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z479" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA479" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB479" t="inlineStr"/>
+      <c r="AC479" t="inlineStr"/>
+      <c r="AD479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>256940</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>9450</v>
+      </c>
+      <c r="C480" t="n">
+        <v>11900</v>
+      </c>
+      <c r="D480" t="n">
+        <v>9330</v>
+      </c>
+      <c r="E480" t="n">
+        <v>10850</v>
+      </c>
+      <c r="F480" t="n">
+        <v>3187978</v>
+      </c>
+      <c r="G480" t="n">
+        <v>34939324260</v>
+      </c>
+      <c r="H480" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="I480" t="n">
+        <v>349</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>케이피에스</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>특수 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O480" t="n">
+        <v>3292</v>
+      </c>
+      <c r="P480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R480" t="n">
+        <v>0</v>
+      </c>
+      <c r="S480" t="n">
+        <v>0</v>
+      </c>
+      <c r="T480" t="n">
+        <v>0</v>
+      </c>
+      <c r="U480" t="n">
+        <v>1646</v>
+      </c>
+      <c r="V480" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W480" t="n">
+        <v>1646</v>
+      </c>
+      <c r="X480" t="n">
+        <v>1481</v>
+      </c>
+      <c r="Y480" t="n">
+        <v>1399</v>
+      </c>
+      <c r="Z480" t="n">
+        <v>1152</v>
+      </c>
+      <c r="AA480" t="n">
+        <v>823</v>
+      </c>
+      <c r="AB480" t="inlineStr"/>
+      <c r="AC480" t="inlineStr"/>
+      <c r="AD480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>399720</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>29100</v>
+      </c>
+      <c r="C481" t="n">
+        <v>35200</v>
+      </c>
+      <c r="D481" t="n">
+        <v>28750</v>
+      </c>
+      <c r="E481" t="n">
+        <v>33650</v>
+      </c>
+      <c r="F481" t="n">
+        <v>9245300</v>
+      </c>
+      <c r="G481" t="n">
+        <v>308354224450</v>
+      </c>
+      <c r="H481" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="I481" t="n">
+        <v>3083</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>가온칩스</t>
+        </is>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>반도체 제조업</t>
+        </is>
+      </c>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O481" t="n">
+        <v>2319</v>
+      </c>
+      <c r="P481" t="n">
+        <v>49.69</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="R481" t="n">
+        <v>677</v>
+      </c>
+      <c r="S481" t="n">
+        <v>0</v>
+      </c>
+      <c r="T481" t="n">
+        <v>0</v>
+      </c>
+      <c r="U481" t="n">
+        <v>3299</v>
+      </c>
+      <c r="V481" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W481" t="n">
+        <v>3299</v>
+      </c>
+      <c r="X481" t="n">
+        <v>2969</v>
+      </c>
+      <c r="Y481" t="n">
+        <v>2804</v>
+      </c>
+      <c r="Z481" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA481" t="n">
+        <v>1649</v>
+      </c>
+      <c r="AB481" t="inlineStr"/>
+      <c r="AC481" t="inlineStr"/>
+      <c r="AD481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>323990</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>34950</v>
+      </c>
+      <c r="C482" t="n">
+        <v>41800</v>
+      </c>
+      <c r="D482" t="n">
+        <v>34950</v>
+      </c>
+      <c r="E482" t="n">
+        <v>40800</v>
+      </c>
+      <c r="F482" t="n">
+        <v>5178306</v>
+      </c>
+      <c r="G482" t="n">
+        <v>205922248000</v>
+      </c>
+      <c r="H482" t="n">
+        <v>17.24</v>
+      </c>
+      <c r="I482" t="n">
+        <v>2059</v>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>박셀바이오</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>자연과학 및 공학 연구개발업</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O482" t="n">
+        <v>1976</v>
+      </c>
+      <c r="P482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="R482" t="n">
+        <v>0</v>
+      </c>
+      <c r="S482" t="n">
+        <v>0</v>
+      </c>
+      <c r="T482" t="n">
+        <v>0</v>
+      </c>
+      <c r="U482" t="n">
+        <v>988</v>
+      </c>
+      <c r="V482" t="inlineStr">
+        <is>
+          <t>중형주</t>
+        </is>
+      </c>
+      <c r="W482" t="n">
+        <v>988</v>
+      </c>
+      <c r="X482" t="n">
+        <v>889</v>
+      </c>
+      <c r="Y482" t="n">
+        <v>839</v>
+      </c>
+      <c r="Z482" t="n">
+        <v>691</v>
+      </c>
+      <c r="AA482" t="n">
+        <v>494</v>
+      </c>
+      <c r="AB482" t="inlineStr"/>
+      <c r="AC482" t="inlineStr"/>
+      <c r="AD482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>214610</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>5810</v>
+      </c>
+      <c r="C483" t="n">
+        <v>6640</v>
+      </c>
+      <c r="D483" t="n">
+        <v>5760</v>
+      </c>
+      <c r="E483" t="n">
+        <v>6040</v>
+      </c>
+      <c r="F483" t="n">
+        <v>8091133</v>
+      </c>
+      <c r="G483" t="n">
+        <v>50208687720</v>
+      </c>
+      <c r="H483" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="I483" t="n">
+        <v>502</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>미코바이오메드</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>의료용 기기 제조업</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O483" t="n">
+        <v>2857</v>
+      </c>
+      <c r="P483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="R483" t="n">
+        <v>0</v>
+      </c>
+      <c r="S483" t="n">
+        <v>0</v>
+      </c>
+      <c r="T483" t="n">
+        <v>0</v>
+      </c>
+      <c r="U483" t="n">
+        <v>1428</v>
+      </c>
+      <c r="V483" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W483" t="n">
+        <v>1428</v>
+      </c>
+      <c r="X483" t="n">
+        <v>1285</v>
+      </c>
+      <c r="Y483" t="n">
+        <v>1214</v>
+      </c>
+      <c r="Z483" t="n">
+        <v>999</v>
+      </c>
+      <c r="AA483" t="n">
+        <v>714</v>
+      </c>
+      <c r="AB483" t="inlineStr"/>
+      <c r="AC483" t="inlineStr"/>
+      <c r="AD483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>059270</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>8160</v>
+      </c>
+      <c r="C484" t="n">
+        <v>9900</v>
+      </c>
+      <c r="D484" t="n">
+        <v>7960</v>
+      </c>
+      <c r="E484" t="n">
+        <v>9320</v>
+      </c>
+      <c r="F484" t="n">
+        <v>6900286</v>
+      </c>
+      <c r="G484" t="n">
+        <v>63980526850</v>
+      </c>
+      <c r="H484" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="I484" t="n">
+        <v>639</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>해성티피씨</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>기타 금속 가공제품 제조업</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O484" t="n">
+        <v>3827</v>
+      </c>
+      <c r="P484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R484" t="n">
+        <v>0</v>
+      </c>
+      <c r="S484" t="n">
+        <v>0</v>
+      </c>
+      <c r="T484" t="n">
+        <v>0</v>
+      </c>
+      <c r="U484" t="n">
+        <v>1913</v>
+      </c>
+      <c r="V484" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W484" t="n">
+        <v>1913</v>
+      </c>
+      <c r="X484" t="n">
+        <v>1722</v>
+      </c>
+      <c r="Y484" t="n">
+        <v>1626</v>
+      </c>
+      <c r="Z484" t="n">
+        <v>1339</v>
+      </c>
+      <c r="AA484" t="n">
+        <v>956</v>
+      </c>
+      <c r="AB484" t="inlineStr"/>
+      <c r="AC484" t="inlineStr"/>
+      <c r="AD484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>101170</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>7950</v>
+      </c>
+      <c r="C485" t="n">
+        <v>9380</v>
+      </c>
+      <c r="D485" t="n">
+        <v>7850</v>
+      </c>
+      <c r="E485" t="n">
+        <v>8930</v>
+      </c>
+      <c r="F485" t="n">
+        <v>12279665</v>
+      </c>
+      <c r="G485" t="n">
+        <v>107483938830</v>
+      </c>
+      <c r="H485" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="I485" t="n">
+        <v>1074</v>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>2023/03/20</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>300억이상</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>우림피티에스</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>일반 목적용 기계 제조업</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>KOSDAQ</t>
+        </is>
+      </c>
+      <c r="O485" t="n">
+        <v>6204</v>
+      </c>
+      <c r="P485" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="Q485" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R485" t="n">
+        <v>266</v>
+      </c>
+      <c r="S485" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T485" t="n">
+        <v>100</v>
+      </c>
+      <c r="U485" t="n">
+        <v>3323</v>
+      </c>
+      <c r="V485" t="inlineStr">
+        <is>
+          <t>소형주</t>
+        </is>
+      </c>
+      <c r="W485" t="n">
+        <v>3323</v>
+      </c>
+      <c r="X485" t="n">
+        <v>2991</v>
+      </c>
+      <c r="Y485" t="n">
+        <v>2825</v>
+      </c>
+      <c r="Z485" t="n">
+        <v>2326</v>
+      </c>
+      <c r="AA485" t="n">
+        <v>1661</v>
+      </c>
+      <c r="AB485" t="inlineStr"/>
+      <c r="AC485" t="inlineStr"/>
+      <c r="AD485" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
